--- a/main.xlsx
+++ b/main.xlsx
@@ -8,27 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80C70A-6166-44EE-A404-047EEE894D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E377B2-8058-470A-9CDF-7F77DE468767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_data_01" sheetId="1" r:id="rId1"/>
-    <sheet name="Raw_data_02" sheetId="2" r:id="rId2"/>
-    <sheet name="Raw_data_03" sheetId="3" r:id="rId3"/>
-    <sheet name="Raw_data_04" sheetId="4" r:id="rId4"/>
-    <sheet name="Raw_data_05" sheetId="5" r:id="rId5"/>
-    <sheet name="Raw_data_06" sheetId="6" r:id="rId6"/>
-    <sheet name="Summary_data_02" sheetId="7" r:id="rId7"/>
-    <sheet name="Summary_data_03" sheetId="8" r:id="rId8"/>
-    <sheet name="Summary_data_01" sheetId="9" r:id="rId9"/>
+    <sheet name="Summary_data_01" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t xml:space="preserve">   date   </t>
   </si>
@@ -117,27 +110,6 @@
     <t>11:21:41</t>
   </si>
   <si>
-    <t>11:32:55</t>
-  </si>
-  <si>
-    <t>11:35:03</t>
-  </si>
-  <si>
-    <t>11:37:59</t>
-  </si>
-  <si>
-    <t>11:38:45</t>
-  </si>
-  <si>
-    <t>11:40:17</t>
-  </si>
-  <si>
-    <t>11:41:35</t>
-  </si>
-  <si>
-    <t>11:44:30</t>
-  </si>
-  <si>
     <t>opening_balance</t>
   </si>
   <si>
@@ -145,6 +117,15 @@
   </si>
   <si>
     <t>closing_balance</t>
+  </si>
+  <si>
+    <t>average_rate</t>
+  </si>
+  <si>
+    <t>sum_of_weight</t>
+  </si>
+  <si>
+    <t>sum_of_quantity</t>
   </si>
 </sst>
 </file>
@@ -187,9 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +584,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" s="2">
+        <v>45227</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -629,8 +613,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" s="2">
+        <v>45227</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -658,8 +642,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>45227</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -803,8 +787,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>45225</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -832,8 +816,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
+      <c r="A12" s="2">
+        <v>45225</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -890,8 +874,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
+      <c r="A14" s="2">
+        <v>45225</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>22</v>
@@ -917,8 +901,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
+      <c r="A15" s="2">
+        <v>45225</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -944,8 +928,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
+      <c r="A16" s="2">
+        <v>45226</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
@@ -1025,8 +1009,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
+      <c r="A19" s="2">
+        <v>45227</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>27</v>
@@ -1052,8 +1036,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
+      <c r="A20" s="2">
+        <v>45227</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
@@ -1085,565 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,9 +1088,12 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1690,13 +1122,22 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>12345</v>
       </c>
@@ -1728,6 +1169,9 @@
       <c r="K2" s="1">
         <v>100</v>
       </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E377B2-8058-470A-9CDF-7F77DE468767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A6886-658F-46BD-AD94-AC774B0A8A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_data_01" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t xml:space="preserve">   date   </t>
   </si>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,18 +1139,20 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>12345</v>
+        <v>333</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>203</v>
+      </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="1">
-        <v>35</v>
+        <v>1421</v>
       </c>
       <c r="J2" s="1">
         <v>500</v>
@@ -1172,6 +1174,44 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>333</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>209</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>203</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1421</v>
+      </c>
+      <c r="J3" s="1">
+        <v>500</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C10AC-CD86-43FB-9A5A-94935DC724E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C72D2-38F7-4086-BF4E-22B0DA5EEFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Raw_data_01" sheetId="2" r:id="rId2"/>
-    <sheet name="Summary_data_01" sheetId="3" r:id="rId3"/>
+    <sheet name="Raw_data_02" sheetId="3" r:id="rId3"/>
+    <sheet name="Raw_data_03" sheetId="4" r:id="rId4"/>
+    <sheet name="Daily_summary_01" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t xml:space="preserve">   date   </t>
   </si>
@@ -63,7 +65,19 @@
     <t>18:11:52</t>
   </si>
   <si>
-    <t>date</t>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>15:01:53</t>
+  </si>
+  <si>
+    <t>15:02:02</t>
+  </si>
+  <si>
+    <t>15:00:11</t>
+  </si>
+  <si>
+    <t>15:00:12</t>
   </si>
   <si>
     <t>opening_balance</t>
@@ -72,7 +86,7 @@
     <t>paid_amount</t>
   </si>
   <si>
-    <t>cloasing_balance</t>
+    <t>closing_balance</t>
   </si>
 </sst>
 </file>
@@ -427,10 +441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,65 +571,442 @@
         <v>275</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>50</v>
+      </c>
+      <c r="I5" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5656565</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE69AFA4-F292-49B4-AED2-38F81251E12C}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>200</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
+        <v>200</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/main.xlsx
+++ b/main.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016EEB8-9493-40FA-B20E-0FC0E565D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A82C6B-53FE-4B82-ABFE-895AEAE7D3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Raw_data_01" sheetId="2" r:id="rId2"/>
-    <sheet name="daily_summary_1" sheetId="4" r:id="rId3"/>
+    <sheet name="daily_summary_1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="385">
   <si>
     <t xml:space="preserve">   date   </t>
   </si>
@@ -51,658 +51,664 @@
     <t>amount</t>
   </si>
   <si>
+    <t>11:16:45</t>
+  </si>
+  <si>
+    <t>11:17:02</t>
+  </si>
+  <si>
+    <t>11:17:03</t>
+  </si>
+  <si>
+    <t>11:17:04</t>
+  </si>
+  <si>
+    <t>11:17:05</t>
+  </si>
+  <si>
+    <t>12:09:41</t>
+  </si>
+  <si>
+    <t>12:13:58</t>
+  </si>
+  <si>
+    <t>opening_balance</t>
+  </si>
+  <si>
+    <t>paid_amount</t>
+  </si>
+  <si>
+    <t>closing_balance</t>
+  </si>
+  <si>
+    <t>01/04/2023</t>
+  </si>
+  <si>
+    <t>02/04/2023</t>
+  </si>
+  <si>
+    <t>03/04/2023</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
+  </si>
+  <si>
+    <t>06/04/2023</t>
+  </si>
+  <si>
+    <t>07/04/2023</t>
+  </si>
+  <si>
+    <t>08/04/2023</t>
+  </si>
+  <si>
+    <t>09/04/2023</t>
+  </si>
+  <si>
+    <t>10/04/2023</t>
+  </si>
+  <si>
+    <t>11/04/2023</t>
+  </si>
+  <si>
+    <t>12/04/2023</t>
+  </si>
+  <si>
+    <t>13/04/2023</t>
+  </si>
+  <si>
+    <t>14/04/2023</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>16/04/2023</t>
+  </si>
+  <si>
+    <t>17/04/2023</t>
+  </si>
+  <si>
+    <t>18/04/2023</t>
+  </si>
+  <si>
+    <t>19/04/2023</t>
+  </si>
+  <si>
+    <t>20/04/2023</t>
+  </si>
+  <si>
+    <t>21/04/2023</t>
+  </si>
+  <si>
+    <t>22/04/2023</t>
+  </si>
+  <si>
+    <t>23/04/2023</t>
+  </si>
+  <si>
+    <t>24/04/2023</t>
+  </si>
+  <si>
+    <t>25/04/2023</t>
+  </si>
+  <si>
+    <t>26/04/2023</t>
+  </si>
+  <si>
+    <t>27/04/2023</t>
+  </si>
+  <si>
+    <t>28/04/2023</t>
+  </si>
+  <si>
+    <t>29/04/2023</t>
+  </si>
+  <si>
+    <t>30/04/2023</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>02/05/2023</t>
+  </si>
+  <si>
+    <t>03/05/2023</t>
+  </si>
+  <si>
+    <t>04/05/2023</t>
+  </si>
+  <si>
+    <t>05/05/2023</t>
+  </si>
+  <si>
+    <t>06/05/2023</t>
+  </si>
+  <si>
+    <t>07/05/2023</t>
+  </si>
+  <si>
+    <t>08/05/2023</t>
+  </si>
+  <si>
+    <t>09/05/2023</t>
+  </si>
+  <si>
+    <t>10/05/2023</t>
+  </si>
+  <si>
+    <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>12/05/2023</t>
+  </si>
+  <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
+    <t>14/05/2023</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>16/05/2023</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
+  </si>
+  <si>
+    <t>18/05/2023</t>
+  </si>
+  <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>20/05/2023</t>
+  </si>
+  <si>
+    <t>21/05/2023</t>
+  </si>
+  <si>
+    <t>22/05/2023</t>
+  </si>
+  <si>
+    <t>23/05/2023</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>26/05/2023</t>
+  </si>
+  <si>
+    <t>27/05/2023</t>
+  </si>
+  <si>
+    <t>28/05/2023</t>
+  </si>
+  <si>
+    <t>29/05/2023</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>01/06/2023</t>
+  </si>
+  <si>
+    <t>02/06/2023</t>
+  </si>
+  <si>
+    <t>03/06/2023</t>
+  </si>
+  <si>
+    <t>04/06/2023</t>
+  </si>
+  <si>
+    <t>05/06/2023</t>
+  </si>
+  <si>
+    <t>06/06/2023</t>
+  </si>
+  <si>
+    <t>07/06/2023</t>
+  </si>
+  <si>
+    <t>08/06/2023</t>
+  </si>
+  <si>
+    <t>09/06/2023</t>
+  </si>
+  <si>
+    <t>10/06/2023</t>
+  </si>
+  <si>
+    <t>11/06/2023</t>
+  </si>
+  <si>
+    <t>12/06/2023</t>
+  </si>
+  <si>
+    <t>13/06/2023</t>
+  </si>
+  <si>
+    <t>14/06/2023</t>
+  </si>
+  <si>
+    <t>15/06/2023</t>
+  </si>
+  <si>
+    <t>16/06/2023</t>
+  </si>
+  <si>
+    <t>17/06/2023</t>
+  </si>
+  <si>
+    <t>18/06/2023</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>20/06/2023</t>
+  </si>
+  <si>
+    <t>21/06/2023</t>
+  </si>
+  <si>
+    <t>22/06/2023</t>
+  </si>
+  <si>
+    <t>23/06/2023</t>
+  </si>
+  <si>
+    <t>24/06/2023</t>
+  </si>
+  <si>
+    <t>25/06/2023</t>
+  </si>
+  <si>
+    <t>26/06/2023</t>
+  </si>
+  <si>
+    <t>27/06/2023</t>
+  </si>
+  <si>
+    <t>28/06/2023</t>
+  </si>
+  <si>
+    <t>29/06/2023</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>01/07/2023</t>
+  </si>
+  <si>
+    <t>02/07/2023</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>04/07/2023</t>
+  </si>
+  <si>
+    <t>05/07/2023</t>
+  </si>
+  <si>
+    <t>06/07/2023</t>
+  </si>
+  <si>
+    <t>07/07/2023</t>
+  </si>
+  <si>
+    <t>08/07/2023</t>
+  </si>
+  <si>
+    <t>09/07/2023</t>
+  </si>
+  <si>
+    <t>10/07/2023</t>
+  </si>
+  <si>
+    <t>11/07/2023</t>
+  </si>
+  <si>
+    <t>12/07/2023</t>
+  </si>
+  <si>
+    <t>13/07/2023</t>
+  </si>
+  <si>
+    <t>14/07/2023</t>
+  </si>
+  <si>
+    <t>15/07/2023</t>
+  </si>
+  <si>
+    <t>16/07/2023</t>
+  </si>
+  <si>
+    <t>17/07/2023</t>
+  </si>
+  <si>
+    <t>18/07/2023</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
+  </si>
+  <si>
+    <t>20/07/2023</t>
+  </si>
+  <si>
+    <t>21/07/2023</t>
+  </si>
+  <si>
+    <t>22/07/2023</t>
+  </si>
+  <si>
+    <t>23/07/2023</t>
+  </si>
+  <si>
+    <t>24/07/2023</t>
+  </si>
+  <si>
+    <t>25/07/2023</t>
+  </si>
+  <si>
+    <t>26/07/2023</t>
+  </si>
+  <si>
+    <t>27/07/2023</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>30/07/2023</t>
+  </si>
+  <si>
+    <t>31/07/2023</t>
+  </si>
+  <si>
+    <t>01/08/2023</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>04/08/2023</t>
+  </si>
+  <si>
+    <t>05/08/2023</t>
+  </si>
+  <si>
+    <t>06/08/2023</t>
+  </si>
+  <si>
+    <t>07/08/2023</t>
+  </si>
+  <si>
+    <t>08/08/2023</t>
+  </si>
+  <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>10/08/2023</t>
+  </si>
+  <si>
+    <t>11/08/2023</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>13/08/2023</t>
+  </si>
+  <si>
+    <t>14/08/2023</t>
+  </si>
+  <si>
+    <t>15/08/2023</t>
+  </si>
+  <si>
+    <t>16/08/2023</t>
+  </si>
+  <si>
+    <t>17/08/2023</t>
+  </si>
+  <si>
+    <t>18/08/2023</t>
+  </si>
+  <si>
+    <t>19/08/2023</t>
+  </si>
+  <si>
+    <t>20/08/2023</t>
+  </si>
+  <si>
+    <t>21/08/2023</t>
+  </si>
+  <si>
+    <t>22/08/2023</t>
+  </si>
+  <si>
+    <t>23/08/2023</t>
+  </si>
+  <si>
+    <t>24/08/2023</t>
+  </si>
+  <si>
+    <t>25/08/2023</t>
+  </si>
+  <si>
+    <t>26/08/2023</t>
+  </si>
+  <si>
+    <t>27/08/2023</t>
+  </si>
+  <si>
+    <t>28/08/2023</t>
+  </si>
+  <si>
+    <t>29/08/2023</t>
+  </si>
+  <si>
+    <t>30/08/2023</t>
+  </si>
+  <si>
+    <t>31/08/2023</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>03/09/2023</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>06/09/2023</t>
+  </si>
+  <si>
+    <t>07/09/2023</t>
+  </si>
+  <si>
+    <t>08/09/2023</t>
+  </si>
+  <si>
+    <t>09/09/2023</t>
+  </si>
+  <si>
+    <t>10/09/2023</t>
+  </si>
+  <si>
+    <t>11/09/2023</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>14/09/2023</t>
+  </si>
+  <si>
+    <t>15/09/2023</t>
+  </si>
+  <si>
+    <t>16/09/2023</t>
+  </si>
+  <si>
+    <t>17/09/2023</t>
+  </si>
+  <si>
+    <t>18/09/2023</t>
+  </si>
+  <si>
+    <t>19/09/2023</t>
+  </si>
+  <si>
+    <t>20/09/2023</t>
+  </si>
+  <si>
+    <t>21/09/2023</t>
+  </si>
+  <si>
+    <t>22/09/2023</t>
+  </si>
+  <si>
+    <t>23/09/2023</t>
+  </si>
+  <si>
+    <t>24/09/2023</t>
+  </si>
+  <si>
+    <t>25/09/2023</t>
+  </si>
+  <si>
+    <t>26/09/2023</t>
+  </si>
+  <si>
+    <t>27/09/2023</t>
+  </si>
+  <si>
+    <t>28/09/2023</t>
+  </si>
+  <si>
+    <t>29/09/2023</t>
+  </si>
+  <si>
+    <t>30/09/2023</t>
+  </si>
+  <si>
+    <t>01/10/2023</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>03/10/2023</t>
+  </si>
+  <si>
+    <t>04/10/2023</t>
+  </si>
+  <si>
+    <t>05/10/2023</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>07/10/2023</t>
+  </si>
+  <si>
+    <t>08/10/2023</t>
+  </si>
+  <si>
+    <t>09/10/2023</t>
+  </si>
+  <si>
+    <t>10/10/2023</t>
+  </si>
+  <si>
+    <t>11/10/2023</t>
+  </si>
+  <si>
+    <t>12/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>15/10/2023</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
     <t>27/10/2023</t>
-  </si>
-  <si>
-    <t>11:16:45</t>
-  </si>
-  <si>
-    <t>11:17:02</t>
-  </si>
-  <si>
-    <t>11:17:03</t>
-  </si>
-  <si>
-    <t>11:17:04</t>
-  </si>
-  <si>
-    <t>11:17:05</t>
-  </si>
-  <si>
-    <t>opening_balance</t>
-  </si>
-  <si>
-    <t>paid_amount</t>
-  </si>
-  <si>
-    <t>closing_balance</t>
-  </si>
-  <si>
-    <t>01/04/2023</t>
-  </si>
-  <si>
-    <t>02/04/2023</t>
-  </si>
-  <si>
-    <t>03/04/2023</t>
-  </si>
-  <si>
-    <t>04/04/2023</t>
-  </si>
-  <si>
-    <t>05/04/2023</t>
-  </si>
-  <si>
-    <t>06/04/2023</t>
-  </si>
-  <si>
-    <t>07/04/2023</t>
-  </si>
-  <si>
-    <t>08/04/2023</t>
-  </si>
-  <si>
-    <t>09/04/2023</t>
-  </si>
-  <si>
-    <t>10/04/2023</t>
-  </si>
-  <si>
-    <t>11/04/2023</t>
-  </si>
-  <si>
-    <t>12/04/2023</t>
-  </si>
-  <si>
-    <t>13/04/2023</t>
-  </si>
-  <si>
-    <t>14/04/2023</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>16/04/2023</t>
-  </si>
-  <si>
-    <t>17/04/2023</t>
-  </si>
-  <si>
-    <t>18/04/2023</t>
-  </si>
-  <si>
-    <t>19/04/2023</t>
-  </si>
-  <si>
-    <t>20/04/2023</t>
-  </si>
-  <si>
-    <t>21/04/2023</t>
-  </si>
-  <si>
-    <t>22/04/2023</t>
-  </si>
-  <si>
-    <t>23/04/2023</t>
-  </si>
-  <si>
-    <t>24/04/2023</t>
-  </si>
-  <si>
-    <t>25/04/2023</t>
-  </si>
-  <si>
-    <t>26/04/2023</t>
-  </si>
-  <si>
-    <t>27/04/2023</t>
-  </si>
-  <si>
-    <t>28/04/2023</t>
-  </si>
-  <si>
-    <t>29/04/2023</t>
-  </si>
-  <si>
-    <t>30/04/2023</t>
-  </si>
-  <si>
-    <t>01/05/2023</t>
-  </si>
-  <si>
-    <t>02/05/2023</t>
-  </si>
-  <si>
-    <t>03/05/2023</t>
-  </si>
-  <si>
-    <t>04/05/2023</t>
-  </si>
-  <si>
-    <t>05/05/2023</t>
-  </si>
-  <si>
-    <t>06/05/2023</t>
-  </si>
-  <si>
-    <t>07/05/2023</t>
-  </si>
-  <si>
-    <t>08/05/2023</t>
-  </si>
-  <si>
-    <t>09/05/2023</t>
-  </si>
-  <si>
-    <t>10/05/2023</t>
-  </si>
-  <si>
-    <t>11/05/2023</t>
-  </si>
-  <si>
-    <t>12/05/2023</t>
-  </si>
-  <si>
-    <t>13/05/2023</t>
-  </si>
-  <si>
-    <t>14/05/2023</t>
-  </si>
-  <si>
-    <t>15/05/2023</t>
-  </si>
-  <si>
-    <t>16/05/2023</t>
-  </si>
-  <si>
-    <t>17/05/2023</t>
-  </si>
-  <si>
-    <t>18/05/2023</t>
-  </si>
-  <si>
-    <t>19/05/2023</t>
-  </si>
-  <si>
-    <t>20/05/2023</t>
-  </si>
-  <si>
-    <t>21/05/2023</t>
-  </si>
-  <si>
-    <t>22/05/2023</t>
-  </si>
-  <si>
-    <t>23/05/2023</t>
-  </si>
-  <si>
-    <t>24/05/2023</t>
-  </si>
-  <si>
-    <t>25/05/2023</t>
-  </si>
-  <si>
-    <t>26/05/2023</t>
-  </si>
-  <si>
-    <t>27/05/2023</t>
-  </si>
-  <si>
-    <t>28/05/2023</t>
-  </si>
-  <si>
-    <t>29/05/2023</t>
-  </si>
-  <si>
-    <t>30/05/2023</t>
-  </si>
-  <si>
-    <t>31/05/2023</t>
-  </si>
-  <si>
-    <t>01/06/2023</t>
-  </si>
-  <si>
-    <t>02/06/2023</t>
-  </si>
-  <si>
-    <t>03/06/2023</t>
-  </si>
-  <si>
-    <t>04/06/2023</t>
-  </si>
-  <si>
-    <t>05/06/2023</t>
-  </si>
-  <si>
-    <t>06/06/2023</t>
-  </si>
-  <si>
-    <t>07/06/2023</t>
-  </si>
-  <si>
-    <t>08/06/2023</t>
-  </si>
-  <si>
-    <t>09/06/2023</t>
-  </si>
-  <si>
-    <t>10/06/2023</t>
-  </si>
-  <si>
-    <t>11/06/2023</t>
-  </si>
-  <si>
-    <t>12/06/2023</t>
-  </si>
-  <si>
-    <t>13/06/2023</t>
-  </si>
-  <si>
-    <t>14/06/2023</t>
-  </si>
-  <si>
-    <t>15/06/2023</t>
-  </si>
-  <si>
-    <t>16/06/2023</t>
-  </si>
-  <si>
-    <t>17/06/2023</t>
-  </si>
-  <si>
-    <t>18/06/2023</t>
-  </si>
-  <si>
-    <t>19/06/2023</t>
-  </si>
-  <si>
-    <t>20/06/2023</t>
-  </si>
-  <si>
-    <t>21/06/2023</t>
-  </si>
-  <si>
-    <t>22/06/2023</t>
-  </si>
-  <si>
-    <t>23/06/2023</t>
-  </si>
-  <si>
-    <t>24/06/2023</t>
-  </si>
-  <si>
-    <t>25/06/2023</t>
-  </si>
-  <si>
-    <t>26/06/2023</t>
-  </si>
-  <si>
-    <t>27/06/2023</t>
-  </si>
-  <si>
-    <t>28/06/2023</t>
-  </si>
-  <si>
-    <t>29/06/2023</t>
-  </si>
-  <si>
-    <t>30/06/2023</t>
-  </si>
-  <si>
-    <t>01/07/2023</t>
-  </si>
-  <si>
-    <t>02/07/2023</t>
-  </si>
-  <si>
-    <t>03/07/2023</t>
-  </si>
-  <si>
-    <t>04/07/2023</t>
-  </si>
-  <si>
-    <t>05/07/2023</t>
-  </si>
-  <si>
-    <t>06/07/2023</t>
-  </si>
-  <si>
-    <t>07/07/2023</t>
-  </si>
-  <si>
-    <t>08/07/2023</t>
-  </si>
-  <si>
-    <t>09/07/2023</t>
-  </si>
-  <si>
-    <t>10/07/2023</t>
-  </si>
-  <si>
-    <t>11/07/2023</t>
-  </si>
-  <si>
-    <t>12/07/2023</t>
-  </si>
-  <si>
-    <t>13/07/2023</t>
-  </si>
-  <si>
-    <t>14/07/2023</t>
-  </si>
-  <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
-    <t>16/07/2023</t>
-  </si>
-  <si>
-    <t>17/07/2023</t>
-  </si>
-  <si>
-    <t>18/07/2023</t>
-  </si>
-  <si>
-    <t>19/07/2023</t>
-  </si>
-  <si>
-    <t>20/07/2023</t>
-  </si>
-  <si>
-    <t>21/07/2023</t>
-  </si>
-  <si>
-    <t>22/07/2023</t>
-  </si>
-  <si>
-    <t>23/07/2023</t>
-  </si>
-  <si>
-    <t>24/07/2023</t>
-  </si>
-  <si>
-    <t>25/07/2023</t>
-  </si>
-  <si>
-    <t>26/07/2023</t>
-  </si>
-  <si>
-    <t>27/07/2023</t>
-  </si>
-  <si>
-    <t>28/07/2023</t>
-  </si>
-  <si>
-    <t>29/07/2023</t>
-  </si>
-  <si>
-    <t>30/07/2023</t>
-  </si>
-  <si>
-    <t>31/07/2023</t>
-  </si>
-  <si>
-    <t>01/08/2023</t>
-  </si>
-  <si>
-    <t>02/08/2023</t>
-  </si>
-  <si>
-    <t>03/08/2023</t>
-  </si>
-  <si>
-    <t>04/08/2023</t>
-  </si>
-  <si>
-    <t>05/08/2023</t>
-  </si>
-  <si>
-    <t>06/08/2023</t>
-  </si>
-  <si>
-    <t>07/08/2023</t>
-  </si>
-  <si>
-    <t>08/08/2023</t>
-  </si>
-  <si>
-    <t>09/08/2023</t>
-  </si>
-  <si>
-    <t>10/08/2023</t>
-  </si>
-  <si>
-    <t>11/08/2023</t>
-  </si>
-  <si>
-    <t>12/08/2023</t>
-  </si>
-  <si>
-    <t>13/08/2023</t>
-  </si>
-  <si>
-    <t>14/08/2023</t>
-  </si>
-  <si>
-    <t>15/08/2023</t>
-  </si>
-  <si>
-    <t>16/08/2023</t>
-  </si>
-  <si>
-    <t>17/08/2023</t>
-  </si>
-  <si>
-    <t>18/08/2023</t>
-  </si>
-  <si>
-    <t>19/08/2023</t>
-  </si>
-  <si>
-    <t>20/08/2023</t>
-  </si>
-  <si>
-    <t>21/08/2023</t>
-  </si>
-  <si>
-    <t>22/08/2023</t>
-  </si>
-  <si>
-    <t>23/08/2023</t>
-  </si>
-  <si>
-    <t>24/08/2023</t>
-  </si>
-  <si>
-    <t>25/08/2023</t>
-  </si>
-  <si>
-    <t>26/08/2023</t>
-  </si>
-  <si>
-    <t>27/08/2023</t>
-  </si>
-  <si>
-    <t>28/08/2023</t>
-  </si>
-  <si>
-    <t>29/08/2023</t>
-  </si>
-  <si>
-    <t>30/08/2023</t>
-  </si>
-  <si>
-    <t>31/08/2023</t>
-  </si>
-  <si>
-    <t>01/09/2023</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
-    <t>03/09/2023</t>
-  </si>
-  <si>
-    <t>04/09/2023</t>
-  </si>
-  <si>
-    <t>05/09/2023</t>
-  </si>
-  <si>
-    <t>06/09/2023</t>
-  </si>
-  <si>
-    <t>07/09/2023</t>
-  </si>
-  <si>
-    <t>08/09/2023</t>
-  </si>
-  <si>
-    <t>09/09/2023</t>
-  </si>
-  <si>
-    <t>10/09/2023</t>
-  </si>
-  <si>
-    <t>11/09/2023</t>
-  </si>
-  <si>
-    <t>12/09/2023</t>
-  </si>
-  <si>
-    <t>13/09/2023</t>
-  </si>
-  <si>
-    <t>14/09/2023</t>
-  </si>
-  <si>
-    <t>15/09/2023</t>
-  </si>
-  <si>
-    <t>16/09/2023</t>
-  </si>
-  <si>
-    <t>17/09/2023</t>
-  </si>
-  <si>
-    <t>18/09/2023</t>
-  </si>
-  <si>
-    <t>19/09/2023</t>
-  </si>
-  <si>
-    <t>20/09/2023</t>
-  </si>
-  <si>
-    <t>21/09/2023</t>
-  </si>
-  <si>
-    <t>22/09/2023</t>
-  </si>
-  <si>
-    <t>23/09/2023</t>
-  </si>
-  <si>
-    <t>24/09/2023</t>
-  </si>
-  <si>
-    <t>25/09/2023</t>
-  </si>
-  <si>
-    <t>26/09/2023</t>
-  </si>
-  <si>
-    <t>27/09/2023</t>
-  </si>
-  <si>
-    <t>28/09/2023</t>
-  </si>
-  <si>
-    <t>29/09/2023</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>01/10/2023</t>
-  </si>
-  <si>
-    <t>02/10/2023</t>
-  </si>
-  <si>
-    <t>03/10/2023</t>
-  </si>
-  <si>
-    <t>04/10/2023</t>
-  </si>
-  <si>
-    <t>05/10/2023</t>
-  </si>
-  <si>
-    <t>06/10/2023</t>
-  </si>
-  <si>
-    <t>07/10/2023</t>
-  </si>
-  <si>
-    <t>08/10/2023</t>
-  </si>
-  <si>
-    <t>09/10/2023</t>
-  </si>
-  <si>
-    <t>10/10/2023</t>
-  </si>
-  <si>
-    <t>11/10/2023</t>
-  </si>
-  <si>
-    <t>12/10/2023</t>
-  </si>
-  <si>
-    <t>13/10/2023</t>
-  </si>
-  <si>
-    <t>14/10/2023</t>
-  </si>
-  <si>
-    <t>15/10/2023</t>
-  </si>
-  <si>
-    <t>16/10/2023</t>
-  </si>
-  <si>
-    <t>17/10/2023</t>
-  </si>
-  <si>
-    <t>18/10/2023</t>
-  </si>
-  <si>
-    <t>19/10/2023</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
-    <t>21/10/2023</t>
-  </si>
-  <si>
-    <t>22/10/2023</t>
-  </si>
-  <si>
-    <t>23/10/2023</t>
-  </si>
-  <si>
-    <t>24/10/2023</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
-  </si>
-  <si>
-    <t>26/10/2023</t>
   </si>
   <si>
     <t>28/10/2023</t>
@@ -1206,9 +1212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1529,9 +1538,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1575,11 +1586,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>123</v>
@@ -1588,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
@@ -1604,11 +1615,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+      <c r="A3" s="2">
+        <v>45017</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>123</v>
@@ -1617,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1">
         <v>2.5</v>
@@ -1633,11 +1644,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
+      <c r="A4" s="2">
+        <v>45017</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>123</v>
@@ -1646,10 +1657,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1">
         <v>2.5</v>
@@ -1662,11 +1673,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
+      <c r="A5" s="2">
+        <v>45017</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>123</v>
@@ -1675,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1">
         <v>2.5</v>
@@ -1691,11 +1702,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>45017</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>123</v>
@@ -1704,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1">
         <v>2.5</v>
@@ -1716,6 +1727,147 @@
         <v>50</v>
       </c>
       <c r="I6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>55</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>55</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>123</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>55</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1725,2980 +1877,2977 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J733"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="1" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
+      <c r="A18" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
+      <c r="A20" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
+      <c r="A22" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
+      <c r="A24" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
+      <c r="A26" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
+      <c r="A28" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>32</v>
+      <c r="A30" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>33</v>
+      <c r="A32" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
+      <c r="A34" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
+      <c r="A38" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
+      <c r="A40" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>38</v>
+      <c r="A42" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>39</v>
+      <c r="A44" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="4"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>40</v>
+      <c r="A46" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>41</v>
+      <c r="A48" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>42</v>
+      <c r="A50" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>43</v>
+      <c r="A52" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>44</v>
+      <c r="A54" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>45</v>
+      <c r="A56" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>46</v>
+      <c r="A58" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>47</v>
+      <c r="A60" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>48</v>
+      <c r="A62" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>49</v>
+      <c r="A64" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>50</v>
+      <c r="A66" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>51</v>
+      <c r="A68" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>52</v>
+      <c r="A70" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>53</v>
+      <c r="A72" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>54</v>
+      <c r="A74" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>55</v>
+      <c r="A76" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>56</v>
+      <c r="A78" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>57</v>
+      <c r="A80" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>58</v>
+      <c r="A82" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>59</v>
+      <c r="A84" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="4"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>60</v>
+      <c r="A86" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
+      <c r="A87" s="4"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>61</v>
+      <c r="A88" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="4"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>62</v>
+      <c r="A90" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>63</v>
+      <c r="A92" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>64</v>
+      <c r="A94" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
+      <c r="A95" s="4"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>65</v>
+      <c r="A96" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
+      <c r="A97" s="4"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>66</v>
+      <c r="A98" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
+      <c r="A99" s="4"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>67</v>
+      <c r="A100" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="A101" s="4"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>68</v>
+      <c r="A102" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+      <c r="A103" s="4"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>69</v>
+      <c r="A104" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+      <c r="A105" s="4"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>70</v>
+      <c r="A106" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="4"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>71</v>
+      <c r="A108" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+      <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>72</v>
+      <c r="A110" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+      <c r="A111" s="4"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>73</v>
+      <c r="A112" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
+      <c r="A113" s="4"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>74</v>
+      <c r="A114" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="4"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>75</v>
+      <c r="A116" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+      <c r="A117" s="4"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>76</v>
+      <c r="A118" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+      <c r="A119" s="4"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>77</v>
+      <c r="A120" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="4"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>78</v>
+      <c r="A122" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+      <c r="A123" s="4"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>79</v>
+      <c r="A124" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+      <c r="A125" s="4"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>80</v>
+      <c r="A126" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
+      <c r="A127" s="4"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>81</v>
+      <c r="A128" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
+      <c r="A129" s="4"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>82</v>
+      <c r="A130" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
+      <c r="A131" s="4"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>83</v>
+      <c r="A132" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
+      <c r="A133" s="4"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>84</v>
+      <c r="A134" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
+      <c r="A135" s="4"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>85</v>
+      <c r="A136" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
+      <c r="A137" s="4"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>86</v>
+      <c r="A138" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
+      <c r="A139" s="4"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>87</v>
+      <c r="A140" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
+      <c r="A141" s="4"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>88</v>
+      <c r="A142" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
+      <c r="A143" s="4"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>89</v>
+      <c r="A144" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
+      <c r="A145" s="4"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>90</v>
+      <c r="A146" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
+      <c r="A147" s="4"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>91</v>
+      <c r="A148" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
+      <c r="A149" s="4"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>92</v>
+      <c r="A150" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
+      <c r="A151" s="4"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>93</v>
+      <c r="A152" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
+      <c r="A153" s="4"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>94</v>
+      <c r="A154" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
+      <c r="A155" s="4"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>95</v>
+      <c r="A156" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
+      <c r="A157" s="4"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>96</v>
+      <c r="A158" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
+      <c r="A159" s="4"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>97</v>
+      <c r="A160" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
+      <c r="A161" s="4"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>98</v>
+      <c r="A162" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
+      <c r="A163" s="4"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>99</v>
+      <c r="A164" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
+      <c r="A165" s="4"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>100</v>
+      <c r="A166" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
+      <c r="A167" s="4"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>101</v>
+      <c r="A168" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
+      <c r="A169" s="4"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>102</v>
+      <c r="A170" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
+      <c r="A171" s="4"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>103</v>
+      <c r="A172" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
+      <c r="A173" s="4"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>104</v>
+      <c r="A174" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
+      <c r="A175" s="4"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>105</v>
+      <c r="A176" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
+      <c r="A177" s="4"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>106</v>
+      <c r="A178" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
+      <c r="A179" s="4"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>107</v>
+      <c r="A180" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
+      <c r="A181" s="4"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>108</v>
+      <c r="A182" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
+      <c r="A183" s="4"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>109</v>
+      <c r="A184" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
+      <c r="A185" s="4"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>110</v>
+      <c r="A186" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
+      <c r="A187" s="4"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>111</v>
+      <c r="A188" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
+      <c r="A189" s="4"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>112</v>
+      <c r="A190" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
+      <c r="A191" s="4"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>113</v>
+      <c r="A192" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
+      <c r="A193" s="4"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>114</v>
+      <c r="A194" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
+      <c r="A195" s="4"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>115</v>
+      <c r="A196" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
+      <c r="A197" s="4"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>116</v>
+      <c r="A198" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
+      <c r="A199" s="4"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>117</v>
+      <c r="A200" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
+      <c r="A201" s="4"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>118</v>
+      <c r="A202" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
+      <c r="A203" s="4"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>119</v>
+      <c r="A204" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
+      <c r="A205" s="4"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>120</v>
+      <c r="A206" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
+      <c r="A207" s="4"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>121</v>
+      <c r="A208" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
+      <c r="A209" s="4"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>122</v>
+      <c r="A210" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
+      <c r="A211" s="4"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>123</v>
+      <c r="A212" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
+      <c r="A213" s="4"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>124</v>
+      <c r="A214" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
+      <c r="A215" s="4"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>125</v>
+      <c r="A216" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
+      <c r="A217" s="4"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>126</v>
+      <c r="A218" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
+      <c r="A219" s="4"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>127</v>
+      <c r="A220" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
+      <c r="A221" s="4"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>128</v>
+      <c r="A222" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
+      <c r="A223" s="4"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>129</v>
+      <c r="A224" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
+      <c r="A225" s="4"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>130</v>
+      <c r="A226" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
+      <c r="A227" s="4"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>131</v>
+      <c r="A228" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
+      <c r="A229" s="4"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>132</v>
+      <c r="A230" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
+      <c r="A231" s="4"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>133</v>
+      <c r="A232" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
+      <c r="A233" s="4"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>134</v>
+      <c r="A234" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
+      <c r="A235" s="4"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>135</v>
+      <c r="A236" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
+      <c r="A237" s="4"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>136</v>
+      <c r="A238" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
+      <c r="A239" s="4"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>137</v>
+      <c r="A240" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
+      <c r="A241" s="4"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>138</v>
+      <c r="A242" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
+      <c r="A243" s="4"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>139</v>
+      <c r="A244" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
+      <c r="A245" s="4"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>140</v>
+      <c r="A246" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
+      <c r="A247" s="4"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>141</v>
+      <c r="A248" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
+      <c r="A249" s="4"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>142</v>
+      <c r="A250" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
+      <c r="A251" s="4"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>143</v>
+      <c r="A252" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
+      <c r="A253" s="4"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>144</v>
+      <c r="A254" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
+      <c r="A255" s="4"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>145</v>
+      <c r="A256" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
+      <c r="A257" s="4"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>146</v>
+      <c r="A258" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="3"/>
+      <c r="A259" s="4"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>147</v>
+      <c r="A260" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
+      <c r="A261" s="4"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>148</v>
+      <c r="A262" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="3"/>
+      <c r="A263" s="4"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>149</v>
+      <c r="A264" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="3"/>
+      <c r="A265" s="4"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>150</v>
+      <c r="A266" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
+      <c r="A267" s="4"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>151</v>
+      <c r="A268" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
+      <c r="A269" s="4"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>152</v>
+      <c r="A270" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
+      <c r="A271" s="4"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>153</v>
+      <c r="A272" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3"/>
+      <c r="A273" s="4"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>154</v>
+      <c r="A274" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
+      <c r="A275" s="4"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>155</v>
+      <c r="A276" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
+      <c r="A277" s="4"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>156</v>
+      <c r="A278" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3"/>
+      <c r="A279" s="4"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>157</v>
+      <c r="A280" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3"/>
+      <c r="A281" s="4"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>158</v>
+      <c r="A282" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="3"/>
+      <c r="A283" s="4"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>159</v>
+      <c r="A284" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3"/>
+      <c r="A285" s="4"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>160</v>
+      <c r="A286" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
+      <c r="A287" s="4"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>161</v>
+      <c r="A288" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3"/>
+      <c r="A289" s="4"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
-        <v>162</v>
+      <c r="A290" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="3"/>
+      <c r="A291" s="4"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>163</v>
+      <c r="A292" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="3"/>
+      <c r="A293" s="4"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>164</v>
+      <c r="A294" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
+      <c r="A295" s="4"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>165</v>
+      <c r="A296" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3"/>
+      <c r="A297" s="4"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
-        <v>166</v>
+      <c r="A298" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
+      <c r="A299" s="4"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>167</v>
+      <c r="A300" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3"/>
+      <c r="A301" s="4"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>168</v>
+      <c r="A302" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="3"/>
+      <c r="A303" s="4"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>169</v>
+      <c r="A304" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="3"/>
+      <c r="A305" s="4"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
-        <v>170</v>
+      <c r="A306" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="3"/>
+      <c r="A307" s="4"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
-        <v>171</v>
+      <c r="A308" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3"/>
+      <c r="A309" s="4"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>172</v>
+      <c r="A310" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3"/>
+      <c r="A311" s="4"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>173</v>
+      <c r="A312" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="3"/>
+      <c r="A313" s="4"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>174</v>
+      <c r="A314" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="3"/>
+      <c r="A315" s="4"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>175</v>
+      <c r="A316" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3"/>
+      <c r="A317" s="4"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>176</v>
+      <c r="A318" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3"/>
+      <c r="A319" s="4"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>177</v>
+      <c r="A320" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="3"/>
+      <c r="A321" s="4"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>178</v>
+      <c r="A322" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="3"/>
+      <c r="A323" s="4"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>179</v>
+      <c r="A324" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="3"/>
+      <c r="A325" s="4"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>180</v>
+      <c r="A326" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3"/>
+      <c r="A327" s="4"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>181</v>
+      <c r="A328" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
+      <c r="A329" s="4"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>182</v>
+      <c r="A330" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="3"/>
+      <c r="A331" s="4"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>183</v>
+      <c r="A332" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="3"/>
+      <c r="A333" s="4"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>184</v>
+      <c r="A334" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="3"/>
+      <c r="A335" s="4"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>185</v>
+      <c r="A336" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3"/>
+      <c r="A337" s="4"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>186</v>
+      <c r="A338" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="3"/>
+      <c r="A339" s="4"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>187</v>
+      <c r="A340" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="3"/>
+      <c r="A341" s="4"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>188</v>
+      <c r="A342" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="3"/>
+      <c r="A343" s="4"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>189</v>
+      <c r="A344" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3"/>
+      <c r="A345" s="4"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>190</v>
+      <c r="A346" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="3"/>
+      <c r="A347" s="4"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
-        <v>191</v>
+      <c r="A348" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3"/>
+      <c r="A349" s="4"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>192</v>
+      <c r="A350" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3"/>
+      <c r="A351" s="4"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>193</v>
+      <c r="A352" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3"/>
+      <c r="A353" s="4"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>194</v>
+      <c r="A354" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3"/>
+      <c r="A355" s="4"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>195</v>
+      <c r="A356" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3"/>
+      <c r="A357" s="4"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>196</v>
+      <c r="A358" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="3"/>
+      <c r="A359" s="4"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>197</v>
+      <c r="A360" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="3"/>
+      <c r="A361" s="4"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>198</v>
+      <c r="A362" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="3"/>
+      <c r="A363" s="4"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>199</v>
+      <c r="A364" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="3"/>
+      <c r="A365" s="4"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>200</v>
+      <c r="A366" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="3"/>
+      <c r="A367" s="4"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
-        <v>201</v>
+      <c r="A368" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="3"/>
+      <c r="A369" s="4"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
-        <v>202</v>
+      <c r="A370" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="3"/>
+      <c r="A371" s="4"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
-        <v>203</v>
+      <c r="A372" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="3"/>
+      <c r="A373" s="4"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
-        <v>204</v>
+      <c r="A374" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
+      <c r="A375" s="4"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
-        <v>205</v>
+      <c r="A376" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="3"/>
+      <c r="A377" s="4"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>206</v>
+      <c r="A378" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="3"/>
+      <c r="A379" s="4"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
-        <v>207</v>
+      <c r="A380" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="3"/>
+      <c r="A381" s="4"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
-        <v>208</v>
+      <c r="A382" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="3"/>
+      <c r="A383" s="4"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="2" t="s">
-        <v>209</v>
+      <c r="A384" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="3"/>
+      <c r="A385" s="4"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
-        <v>210</v>
+      <c r="A386" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="3"/>
+      <c r="A387" s="4"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
-        <v>211</v>
+      <c r="A388" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="3"/>
+      <c r="A389" s="4"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="2" t="s">
-        <v>212</v>
+      <c r="A390" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="3"/>
+      <c r="A391" s="4"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="2" t="s">
-        <v>213</v>
+      <c r="A392" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="3"/>
+      <c r="A393" s="4"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
-        <v>214</v>
+      <c r="A394" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="3"/>
+      <c r="A395" s="4"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
-        <v>215</v>
+      <c r="A396" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="3"/>
+      <c r="A397" s="4"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
-        <v>216</v>
+      <c r="A398" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="3"/>
+      <c r="A399" s="4"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
-        <v>217</v>
+      <c r="A400" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="3"/>
+      <c r="A401" s="4"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
-        <v>218</v>
+      <c r="A402" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="3"/>
+      <c r="A403" s="4"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
-        <v>219</v>
+      <c r="A404" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="3"/>
+      <c r="A405" s="4"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
-        <v>220</v>
+      <c r="A406" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="3"/>
+      <c r="A407" s="4"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
-        <v>221</v>
+      <c r="A408" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="3"/>
+      <c r="A409" s="4"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
-        <v>222</v>
+      <c r="A410" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="3"/>
+      <c r="A411" s="4"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="2" t="s">
-        <v>223</v>
+      <c r="A412" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="3"/>
+      <c r="A413" s="4"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
-        <v>224</v>
+      <c r="A414" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="3"/>
+      <c r="A415" s="4"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
-        <v>225</v>
+      <c r="A416" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="3"/>
+      <c r="A417" s="4"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
-        <v>226</v>
+      <c r="A418" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="3"/>
+      <c r="A419" s="4"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
-        <v>9</v>
+      <c r="A420" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="3"/>
+      <c r="A421" s="4"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
-        <v>227</v>
+      <c r="A422" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="3"/>
+      <c r="A423" s="4"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
-        <v>228</v>
+      <c r="A424" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="3"/>
+      <c r="A425" s="4"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
-        <v>229</v>
+      <c r="A426" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="3"/>
+      <c r="A427" s="4"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
-        <v>230</v>
+      <c r="A428" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="3"/>
+      <c r="A429" s="4"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="2" t="s">
-        <v>231</v>
+      <c r="A430" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="3"/>
+      <c r="A431" s="4"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="2" t="s">
-        <v>232</v>
+      <c r="A432" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="3"/>
+      <c r="A433" s="4"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
-        <v>233</v>
+      <c r="A434" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="3"/>
+      <c r="A435" s="4"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="2" t="s">
-        <v>234</v>
+      <c r="A436" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="3"/>
+      <c r="A437" s="4"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="2" t="s">
-        <v>235</v>
+      <c r="A438" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="3"/>
+      <c r="A439" s="4"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="2" t="s">
-        <v>236</v>
+      <c r="A440" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="3"/>
+      <c r="A441" s="4"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="2" t="s">
-        <v>237</v>
+      <c r="A442" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="3"/>
+      <c r="A443" s="4"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="2" t="s">
-        <v>238</v>
+      <c r="A444" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="3"/>
+      <c r="A445" s="4"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
-        <v>239</v>
+      <c r="A446" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="3"/>
+      <c r="A447" s="4"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="2" t="s">
-        <v>240</v>
+      <c r="A448" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="3"/>
+      <c r="A449" s="4"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="2" t="s">
-        <v>241</v>
+      <c r="A450" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="3"/>
+      <c r="A451" s="4"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="2" t="s">
-        <v>242</v>
+      <c r="A452" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="3"/>
+      <c r="A453" s="4"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="2" t="s">
-        <v>243</v>
+      <c r="A454" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="3"/>
+      <c r="A455" s="4"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="2" t="s">
-        <v>244</v>
+      <c r="A456" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="3"/>
+      <c r="A457" s="4"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
-        <v>245</v>
+      <c r="A458" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="3"/>
+      <c r="A459" s="4"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="2" t="s">
-        <v>246</v>
+      <c r="A460" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="3"/>
+      <c r="A461" s="4"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
-        <v>247</v>
+      <c r="A462" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="3"/>
+      <c r="A463" s="4"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="2" t="s">
-        <v>248</v>
+      <c r="A464" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="3"/>
+      <c r="A465" s="4"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
-        <v>249</v>
+      <c r="A466" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="3"/>
+      <c r="A467" s="4"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
-        <v>250</v>
+      <c r="A468" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="3"/>
+      <c r="A469" s="4"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="2" t="s">
-        <v>251</v>
+      <c r="A470" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="3"/>
+      <c r="A471" s="4"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="2" t="s">
-        <v>252</v>
+      <c r="A472" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="3"/>
+      <c r="A473" s="4"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
-        <v>253</v>
+      <c r="A474" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="3"/>
+      <c r="A475" s="4"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="2" t="s">
-        <v>254</v>
+      <c r="A476" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="3"/>
+      <c r="A477" s="4"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
-        <v>255</v>
+      <c r="A478" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="3"/>
+      <c r="A479" s="4"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="2" t="s">
-        <v>256</v>
+      <c r="A480" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="3"/>
+      <c r="A481" s="4"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="2" t="s">
-        <v>257</v>
+      <c r="A482" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="3"/>
+      <c r="A483" s="4"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="2" t="s">
-        <v>258</v>
+      <c r="A484" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="3"/>
+      <c r="A485" s="4"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="2" t="s">
-        <v>259</v>
+      <c r="A486" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="3"/>
+      <c r="A487" s="4"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="2" t="s">
-        <v>260</v>
+      <c r="A488" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="3"/>
+      <c r="A489" s="4"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="2" t="s">
-        <v>261</v>
+      <c r="A490" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="3"/>
+      <c r="A491" s="4"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="2" t="s">
-        <v>262</v>
+      <c r="A492" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="3"/>
+      <c r="A493" s="4"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="2" t="s">
-        <v>263</v>
+      <c r="A494" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="3"/>
+      <c r="A495" s="4"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="2" t="s">
-        <v>264</v>
+      <c r="A496" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="3"/>
+      <c r="A497" s="4"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="2" t="s">
-        <v>265</v>
+      <c r="A498" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="3"/>
+      <c r="A499" s="4"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="2" t="s">
-        <v>266</v>
+      <c r="A500" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="3"/>
+      <c r="A501" s="4"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="2" t="s">
-        <v>267</v>
+      <c r="A502" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="3"/>
+      <c r="A503" s="4"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="2" t="s">
-        <v>268</v>
+      <c r="A504" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="3"/>
+      <c r="A505" s="4"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
-        <v>269</v>
+      <c r="A506" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="3"/>
+      <c r="A507" s="4"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="2" t="s">
-        <v>270</v>
+      <c r="A508" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="3"/>
+      <c r="A509" s="4"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="2" t="s">
-        <v>271</v>
+      <c r="A510" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="3"/>
+      <c r="A511" s="4"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="2" t="s">
-        <v>272</v>
+      <c r="A512" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="3"/>
+      <c r="A513" s="4"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="2" t="s">
-        <v>273</v>
+      <c r="A514" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="3"/>
+      <c r="A515" s="4"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="2" t="s">
-        <v>274</v>
+      <c r="A516" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="3"/>
+      <c r="A517" s="4"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="2" t="s">
-        <v>275</v>
+      <c r="A518" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="3"/>
+      <c r="A519" s="4"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="2" t="s">
-        <v>276</v>
+      <c r="A520" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="3"/>
+      <c r="A521" s="4"/>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="2" t="s">
-        <v>277</v>
+      <c r="A522" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="3"/>
+      <c r="A523" s="4"/>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="2" t="s">
-        <v>278</v>
+      <c r="A524" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="3"/>
+      <c r="A525" s="4"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="2" t="s">
-        <v>279</v>
+      <c r="A526" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="3"/>
+      <c r="A527" s="4"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="2" t="s">
-        <v>280</v>
+      <c r="A528" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="3"/>
+      <c r="A529" s="4"/>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="2" t="s">
-        <v>281</v>
+      <c r="A530" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="3"/>
+      <c r="A531" s="4"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="2" t="s">
-        <v>282</v>
+      <c r="A532" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="3"/>
+      <c r="A533" s="4"/>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="2" t="s">
-        <v>283</v>
+      <c r="A534" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="3"/>
+      <c r="A535" s="4"/>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="2" t="s">
-        <v>284</v>
+      <c r="A536" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="3"/>
+      <c r="A537" s="4"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="2" t="s">
-        <v>285</v>
+      <c r="A538" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="3"/>
+      <c r="A539" s="4"/>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="2" t="s">
-        <v>286</v>
+      <c r="A540" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="3"/>
+      <c r="A541" s="4"/>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="2" t="s">
-        <v>287</v>
+      <c r="A542" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="3"/>
+      <c r="A543" s="4"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="2" t="s">
-        <v>288</v>
+      <c r="A544" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="3"/>
+      <c r="A545" s="4"/>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="2" t="s">
-        <v>289</v>
+      <c r="A546" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="3"/>
+      <c r="A547" s="4"/>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="2" t="s">
-        <v>290</v>
+      <c r="A548" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="3"/>
+      <c r="A549" s="4"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="2" t="s">
-        <v>291</v>
+      <c r="A550" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="3"/>
+      <c r="A551" s="4"/>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="2" t="s">
-        <v>292</v>
+      <c r="A552" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="3"/>
+      <c r="A553" s="4"/>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="2" t="s">
-        <v>293</v>
+      <c r="A554" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="3"/>
+      <c r="A555" s="4"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
-        <v>294</v>
+      <c r="A556" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="3"/>
+      <c r="A557" s="4"/>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
-        <v>295</v>
+      <c r="A558" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="3"/>
+      <c r="A559" s="4"/>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
-        <v>296</v>
+      <c r="A560" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="3"/>
+      <c r="A561" s="4"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="2" t="s">
-        <v>297</v>
+      <c r="A562" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="3"/>
+      <c r="A563" s="4"/>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="2" t="s">
-        <v>298</v>
+      <c r="A564" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="3"/>
+      <c r="A565" s="4"/>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="2" t="s">
-        <v>299</v>
+      <c r="A566" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="3"/>
+      <c r="A567" s="4"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="2" t="s">
-        <v>300</v>
+      <c r="A568" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="3"/>
+      <c r="A569" s="4"/>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="2" t="s">
-        <v>301</v>
+      <c r="A570" s="3" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="3"/>
+      <c r="A571" s="4"/>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="2" t="s">
-        <v>302</v>
+      <c r="A572" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="3"/>
+      <c r="A573" s="4"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="2" t="s">
-        <v>303</v>
+      <c r="A574" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="3"/>
+      <c r="A575" s="4"/>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="2" t="s">
-        <v>304</v>
+      <c r="A576" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="3"/>
+      <c r="A577" s="4"/>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="2" t="s">
-        <v>305</v>
+      <c r="A578" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="3"/>
+      <c r="A579" s="4"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="2" t="s">
-        <v>306</v>
+      <c r="A580" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="3"/>
+      <c r="A581" s="4"/>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="2" t="s">
-        <v>307</v>
+      <c r="A582" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="3"/>
+      <c r="A583" s="4"/>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="2" t="s">
-        <v>308</v>
+      <c r="A584" s="3" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="3"/>
+      <c r="A585" s="4"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="2" t="s">
-        <v>309</v>
+      <c r="A586" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="3"/>
+      <c r="A587" s="4"/>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="2" t="s">
-        <v>310</v>
+      <c r="A588" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="3"/>
+      <c r="A589" s="4"/>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="2" t="s">
-        <v>311</v>
+      <c r="A590" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="3"/>
+      <c r="A591" s="4"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="2" t="s">
-        <v>312</v>
+      <c r="A592" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="3"/>
+      <c r="A593" s="4"/>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="2" t="s">
-        <v>313</v>
+      <c r="A594" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="3"/>
+      <c r="A595" s="4"/>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="2" t="s">
-        <v>314</v>
+      <c r="A596" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="3"/>
+      <c r="A597" s="4"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="2" t="s">
-        <v>315</v>
+      <c r="A598" s="3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="3"/>
+      <c r="A599" s="4"/>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="2" t="s">
-        <v>316</v>
+      <c r="A600" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="3"/>
+      <c r="A601" s="4"/>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="2" t="s">
-        <v>317</v>
+      <c r="A602" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="3"/>
+      <c r="A603" s="4"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="2" t="s">
-        <v>318</v>
+      <c r="A604" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="3"/>
+      <c r="A605" s="4"/>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="2" t="s">
-        <v>319</v>
+      <c r="A606" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="3"/>
+      <c r="A607" s="4"/>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="2" t="s">
-        <v>320</v>
+      <c r="A608" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="3"/>
+      <c r="A609" s="4"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="2" t="s">
-        <v>321</v>
+      <c r="A610" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="3"/>
+      <c r="A611" s="4"/>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="2" t="s">
-        <v>322</v>
+      <c r="A612" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="3"/>
+      <c r="A613" s="4"/>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="2" t="s">
-        <v>323</v>
+      <c r="A614" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="3"/>
+      <c r="A615" s="4"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="2" t="s">
-        <v>324</v>
+      <c r="A616" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="3"/>
+      <c r="A617" s="4"/>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="2" t="s">
-        <v>325</v>
+      <c r="A618" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="3"/>
+      <c r="A619" s="4"/>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="2" t="s">
-        <v>326</v>
+      <c r="A620" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="3"/>
+      <c r="A621" s="4"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="2" t="s">
-        <v>327</v>
+      <c r="A622" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="3"/>
+      <c r="A623" s="4"/>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="2" t="s">
-        <v>328</v>
+      <c r="A624" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="3"/>
+      <c r="A625" s="4"/>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="2" t="s">
-        <v>329</v>
+      <c r="A626" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="3"/>
+      <c r="A627" s="4"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="2" t="s">
-        <v>330</v>
+      <c r="A628" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="3"/>
+      <c r="A629" s="4"/>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="2" t="s">
-        <v>331</v>
+      <c r="A630" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="3"/>
+      <c r="A631" s="4"/>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="2" t="s">
-        <v>332</v>
+      <c r="A632" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="3"/>
+      <c r="A633" s="4"/>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="2" t="s">
-        <v>333</v>
+      <c r="A634" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="3"/>
+      <c r="A635" s="4"/>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="2" t="s">
-        <v>334</v>
+      <c r="A636" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="3"/>
+      <c r="A637" s="4"/>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="2" t="s">
-        <v>335</v>
+      <c r="A638" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="3"/>
+      <c r="A639" s="4"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="2" t="s">
-        <v>336</v>
+      <c r="A640" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="3"/>
+      <c r="A641" s="4"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="2" t="s">
-        <v>337</v>
+      <c r="A642" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="3"/>
+      <c r="A643" s="4"/>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="2" t="s">
-        <v>338</v>
+      <c r="A644" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="3"/>
+      <c r="A645" s="4"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="2" t="s">
-        <v>339</v>
+      <c r="A646" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="3"/>
+      <c r="A647" s="4"/>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="2" t="s">
-        <v>340</v>
+      <c r="A648" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="3"/>
+      <c r="A649" s="4"/>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="2" t="s">
-        <v>341</v>
+      <c r="A650" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="3"/>
+      <c r="A651" s="4"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="2" t="s">
-        <v>342</v>
+      <c r="A652" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="3"/>
+      <c r="A653" s="4"/>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="2" t="s">
-        <v>343</v>
+      <c r="A654" s="3" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="3"/>
+      <c r="A655" s="4"/>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="2" t="s">
-        <v>344</v>
+      <c r="A656" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="3"/>
+      <c r="A657" s="4"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="2" t="s">
-        <v>345</v>
+      <c r="A658" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="3"/>
+      <c r="A659" s="4"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="2" t="s">
-        <v>346</v>
+      <c r="A660" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="3"/>
+      <c r="A661" s="4"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="2" t="s">
-        <v>347</v>
+      <c r="A662" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="3"/>
+      <c r="A663" s="4"/>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="2" t="s">
-        <v>348</v>
+      <c r="A664" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="3"/>
+      <c r="A665" s="4"/>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="2" t="s">
-        <v>349</v>
+      <c r="A666" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="3"/>
+      <c r="A667" s="4"/>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="2" t="s">
-        <v>350</v>
+      <c r="A668" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="3"/>
+      <c r="A669" s="4"/>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="2" t="s">
-        <v>351</v>
+      <c r="A670" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="3"/>
+      <c r="A671" s="4"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="2" t="s">
-        <v>352</v>
+      <c r="A672" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="3"/>
+      <c r="A673" s="4"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="2" t="s">
-        <v>353</v>
+      <c r="A674" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="3"/>
+      <c r="A675" s="4"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="2" t="s">
-        <v>354</v>
+      <c r="A676" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="3"/>
+      <c r="A677" s="4"/>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="2" t="s">
-        <v>355</v>
+      <c r="A678" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="3"/>
+      <c r="A679" s="4"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="2" t="s">
-        <v>356</v>
+      <c r="A680" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="3"/>
+      <c r="A681" s="4"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="2" t="s">
-        <v>357</v>
+      <c r="A682" s="3" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="3"/>
+      <c r="A683" s="4"/>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A684" s="2" t="s">
-        <v>358</v>
+      <c r="A684" s="3" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="3"/>
+      <c r="A685" s="4"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="2" t="s">
-        <v>359</v>
+      <c r="A686" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="3"/>
+      <c r="A687" s="4"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="2" t="s">
-        <v>360</v>
+      <c r="A688" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="3"/>
+      <c r="A689" s="4"/>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A690" s="2" t="s">
-        <v>361</v>
+      <c r="A690" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A691" s="3"/>
+      <c r="A691" s="4"/>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A692" s="2" t="s">
-        <v>362</v>
+      <c r="A692" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A693" s="3"/>
+      <c r="A693" s="4"/>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A694" s="2" t="s">
-        <v>363</v>
+      <c r="A694" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A695" s="3"/>
+      <c r="A695" s="4"/>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A696" s="2" t="s">
-        <v>364</v>
+      <c r="A696" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A697" s="3"/>
+      <c r="A697" s="4"/>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A698" s="2" t="s">
-        <v>365</v>
+      <c r="A698" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A699" s="3"/>
+      <c r="A699" s="4"/>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A700" s="2" t="s">
-        <v>366</v>
+      <c r="A700" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A701" s="3"/>
+      <c r="A701" s="4"/>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A702" s="2" t="s">
-        <v>367</v>
+      <c r="A702" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A703" s="3"/>
+      <c r="A703" s="4"/>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A704" s="2" t="s">
-        <v>368</v>
+      <c r="A704" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A705" s="3"/>
+      <c r="A705" s="4"/>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A706" s="2" t="s">
-        <v>369</v>
+      <c r="A706" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A707" s="3"/>
+      <c r="A707" s="4"/>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A708" s="2" t="s">
-        <v>370</v>
+      <c r="A708" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A709" s="3"/>
+      <c r="A709" s="4"/>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A710" s="2" t="s">
-        <v>371</v>
+      <c r="A710" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A711" s="3"/>
+      <c r="A711" s="4"/>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A712" s="2" t="s">
-        <v>372</v>
+      <c r="A712" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A713" s="3"/>
+      <c r="A713" s="4"/>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A714" s="2" t="s">
-        <v>373</v>
+      <c r="A714" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A715" s="3"/>
+      <c r="A715" s="4"/>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A716" s="2" t="s">
-        <v>374</v>
+      <c r="A716" s="3" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="3"/>
+      <c r="A717" s="4"/>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A718" s="2" t="s">
-        <v>375</v>
+      <c r="A718" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A719" s="3"/>
+      <c r="A719" s="4"/>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A720" s="2" t="s">
-        <v>376</v>
+      <c r="A720" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A721" s="3"/>
+      <c r="A721" s="4"/>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A722" s="2" t="s">
-        <v>377</v>
+      <c r="A722" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A723" s="3"/>
+      <c r="A723" s="4"/>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A724" s="2" t="s">
-        <v>378</v>
+      <c r="A724" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A725" s="3"/>
+      <c r="A725" s="4"/>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A726" s="2" t="s">
-        <v>379</v>
+      <c r="A726" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A727" s="3"/>
+      <c r="A727" s="4"/>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A728" s="2" t="s">
-        <v>380</v>
+      <c r="A728" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A729" s="3"/>
+      <c r="A729" s="4"/>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A730" s="2" t="s">
-        <v>381</v>
+      <c r="A730" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A731" s="3"/>
+      <c r="A731" s="4"/>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A732" s="2" t="s">
-        <v>382</v>
+      <c r="A732" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A733" s="3"/>
+      <c r="A733" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="366">

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C536C4B3-3FFD-4559-9518-65264FC72305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4E619-16C2-4139-89A5-5BB188C49FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Raw_data_01" sheetId="2" r:id="rId2"/>
+    <sheet name="daily_summary_1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="392">
   <si>
     <t xml:space="preserve">   date   </t>
   </si>
@@ -50,40 +62,1153 @@
     <t>amount</t>
   </si>
   <si>
+    <t>01/04/2023</t>
+  </si>
+  <si>
+    <t>15:49:34</t>
+  </si>
+  <si>
+    <t>15:49:36</t>
+  </si>
+  <si>
+    <t>15:49:37</t>
+  </si>
+  <si>
+    <t>15:49:38</t>
+  </si>
+  <si>
+    <t>15:49:39</t>
+  </si>
+  <si>
+    <t>15:49:40</t>
+  </si>
+  <si>
+    <t>15:49:41</t>
+  </si>
+  <si>
+    <t>15:49:42</t>
+  </si>
+  <si>
+    <t>15:49:43</t>
+  </si>
+  <si>
+    <t>15:49:44</t>
+  </si>
+  <si>
+    <t>15:49:47</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>product_1</t>
+  </si>
+  <si>
+    <t>product_2</t>
+  </si>
+  <si>
+    <t>opening_balance</t>
+  </si>
+  <si>
+    <t>paid_amount</t>
+  </si>
+  <si>
+    <t>closing_balance</t>
+  </si>
+  <si>
+    <t>02/04/2023</t>
+  </si>
+  <si>
+    <t>03/04/2023</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
+  </si>
+  <si>
+    <t>06/04/2023</t>
+  </si>
+  <si>
+    <t>07/04/2023</t>
+  </si>
+  <si>
+    <t>08/04/2023</t>
+  </si>
+  <si>
+    <t>09/04/2023</t>
+  </si>
+  <si>
+    <t>10/04/2023</t>
+  </si>
+  <si>
+    <t>11/04/2023</t>
+  </si>
+  <si>
+    <t>12/04/2023</t>
+  </si>
+  <si>
+    <t>13/04/2023</t>
+  </si>
+  <si>
+    <t>14/04/2023</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>16/04/2023</t>
+  </si>
+  <si>
+    <t>17/04/2023</t>
+  </si>
+  <si>
+    <t>18/04/2023</t>
+  </si>
+  <si>
+    <t>19/04/2023</t>
+  </si>
+  <si>
+    <t>20/04/2023</t>
+  </si>
+  <si>
+    <t>21/04/2023</t>
+  </si>
+  <si>
+    <t>22/04/2023</t>
+  </si>
+  <si>
+    <t>23/04/2023</t>
+  </si>
+  <si>
+    <t>24/04/2023</t>
+  </si>
+  <si>
+    <t>25/04/2023</t>
+  </si>
+  <si>
+    <t>26/04/2023</t>
+  </si>
+  <si>
+    <t>27/04/2023</t>
+  </si>
+  <si>
+    <t>28/04/2023</t>
+  </si>
+  <si>
+    <t>29/04/2023</t>
+  </si>
+  <si>
+    <t>30/04/2023</t>
+  </si>
+  <si>
+    <t>01/05/2023</t>
+  </si>
+  <si>
+    <t>02/05/2023</t>
+  </si>
+  <si>
+    <t>03/05/2023</t>
+  </si>
+  <si>
+    <t>04/05/2023</t>
+  </si>
+  <si>
+    <t>05/05/2023</t>
+  </si>
+  <si>
+    <t>06/05/2023</t>
+  </si>
+  <si>
+    <t>07/05/2023</t>
+  </si>
+  <si>
+    <t>08/05/2023</t>
+  </si>
+  <si>
+    <t>09/05/2023</t>
+  </si>
+  <si>
+    <t>10/05/2023</t>
+  </si>
+  <si>
+    <t>11/05/2023</t>
+  </si>
+  <si>
+    <t>12/05/2023</t>
+  </si>
+  <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
+    <t>14/05/2023</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>16/05/2023</t>
+  </si>
+  <si>
+    <t>17/05/2023</t>
+  </si>
+  <si>
+    <t>18/05/2023</t>
+  </si>
+  <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>20/05/2023</t>
+  </si>
+  <si>
+    <t>21/05/2023</t>
+  </si>
+  <si>
+    <t>22/05/2023</t>
+  </si>
+  <si>
+    <t>23/05/2023</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>26/05/2023</t>
+  </si>
+  <si>
+    <t>27/05/2023</t>
+  </si>
+  <si>
+    <t>28/05/2023</t>
+  </si>
+  <si>
+    <t>29/05/2023</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>01/06/2023</t>
+  </si>
+  <si>
+    <t>02/06/2023</t>
+  </si>
+  <si>
+    <t>03/06/2023</t>
+  </si>
+  <si>
+    <t>04/06/2023</t>
+  </si>
+  <si>
+    <t>05/06/2023</t>
+  </si>
+  <si>
+    <t>06/06/2023</t>
+  </si>
+  <si>
+    <t>07/06/2023</t>
+  </si>
+  <si>
+    <t>08/06/2023</t>
+  </si>
+  <si>
+    <t>09/06/2023</t>
+  </si>
+  <si>
+    <t>10/06/2023</t>
+  </si>
+  <si>
+    <t>11/06/2023</t>
+  </si>
+  <si>
+    <t>12/06/2023</t>
+  </si>
+  <si>
+    <t>13/06/2023</t>
+  </si>
+  <si>
+    <t>14/06/2023</t>
+  </si>
+  <si>
+    <t>15/06/2023</t>
+  </si>
+  <si>
+    <t>16/06/2023</t>
+  </si>
+  <si>
+    <t>17/06/2023</t>
+  </si>
+  <si>
+    <t>18/06/2023</t>
+  </si>
+  <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
+    <t>20/06/2023</t>
+  </si>
+  <si>
+    <t>21/06/2023</t>
+  </si>
+  <si>
+    <t>22/06/2023</t>
+  </si>
+  <si>
+    <t>23/06/2023</t>
+  </si>
+  <si>
+    <t>24/06/2023</t>
+  </si>
+  <si>
+    <t>25/06/2023</t>
+  </si>
+  <si>
+    <t>26/06/2023</t>
+  </si>
+  <si>
+    <t>27/06/2023</t>
+  </si>
+  <si>
+    <t>28/06/2023</t>
+  </si>
+  <si>
+    <t>29/06/2023</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>01/07/2023</t>
+  </si>
+  <si>
+    <t>02/07/2023</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>04/07/2023</t>
+  </si>
+  <si>
+    <t>05/07/2023</t>
+  </si>
+  <si>
+    <t>06/07/2023</t>
+  </si>
+  <si>
+    <t>07/07/2023</t>
+  </si>
+  <si>
+    <t>08/07/2023</t>
+  </si>
+  <si>
+    <t>09/07/2023</t>
+  </si>
+  <si>
+    <t>10/07/2023</t>
+  </si>
+  <si>
+    <t>11/07/2023</t>
+  </si>
+  <si>
+    <t>12/07/2023</t>
+  </si>
+  <si>
+    <t>13/07/2023</t>
+  </si>
+  <si>
+    <t>14/07/2023</t>
+  </si>
+  <si>
+    <t>15/07/2023</t>
+  </si>
+  <si>
+    <t>16/07/2023</t>
+  </si>
+  <si>
+    <t>17/07/2023</t>
+  </si>
+  <si>
+    <t>18/07/2023</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
+  </si>
+  <si>
+    <t>20/07/2023</t>
+  </si>
+  <si>
+    <t>21/07/2023</t>
+  </si>
+  <si>
+    <t>22/07/2023</t>
+  </si>
+  <si>
+    <t>23/07/2023</t>
+  </si>
+  <si>
+    <t>24/07/2023</t>
+  </si>
+  <si>
+    <t>25/07/2023</t>
+  </si>
+  <si>
+    <t>26/07/2023</t>
+  </si>
+  <si>
+    <t>27/07/2023</t>
+  </si>
+  <si>
+    <t>28/07/2023</t>
+  </si>
+  <si>
+    <t>29/07/2023</t>
+  </si>
+  <si>
+    <t>30/07/2023</t>
+  </si>
+  <si>
+    <t>31/07/2023</t>
+  </si>
+  <si>
+    <t>01/08/2023</t>
+  </si>
+  <si>
+    <t>02/08/2023</t>
+  </si>
+  <si>
+    <t>03/08/2023</t>
+  </si>
+  <si>
+    <t>04/08/2023</t>
+  </si>
+  <si>
+    <t>05/08/2023</t>
+  </si>
+  <si>
+    <t>06/08/2023</t>
+  </si>
+  <si>
+    <t>07/08/2023</t>
+  </si>
+  <si>
+    <t>08/08/2023</t>
+  </si>
+  <si>
+    <t>09/08/2023</t>
+  </si>
+  <si>
+    <t>10/08/2023</t>
+  </si>
+  <si>
+    <t>11/08/2023</t>
+  </si>
+  <si>
+    <t>12/08/2023</t>
+  </si>
+  <si>
+    <t>13/08/2023</t>
+  </si>
+  <si>
+    <t>14/08/2023</t>
+  </si>
+  <si>
+    <t>15/08/2023</t>
+  </si>
+  <si>
+    <t>16/08/2023</t>
+  </si>
+  <si>
+    <t>17/08/2023</t>
+  </si>
+  <si>
+    <t>18/08/2023</t>
+  </si>
+  <si>
+    <t>19/08/2023</t>
+  </si>
+  <si>
+    <t>20/08/2023</t>
+  </si>
+  <si>
+    <t>21/08/2023</t>
+  </si>
+  <si>
+    <t>22/08/2023</t>
+  </si>
+  <si>
+    <t>23/08/2023</t>
+  </si>
+  <si>
+    <t>24/08/2023</t>
+  </si>
+  <si>
+    <t>25/08/2023</t>
+  </si>
+  <si>
+    <t>26/08/2023</t>
+  </si>
+  <si>
+    <t>27/08/2023</t>
+  </si>
+  <si>
+    <t>28/08/2023</t>
+  </si>
+  <si>
+    <t>29/08/2023</t>
+  </si>
+  <si>
+    <t>30/08/2023</t>
+  </si>
+  <si>
+    <t>31/08/2023</t>
+  </si>
+  <si>
+    <t>01/09/2023</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>03/09/2023</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>05/09/2023</t>
+  </si>
+  <si>
+    <t>06/09/2023</t>
+  </si>
+  <si>
+    <t>07/09/2023</t>
+  </si>
+  <si>
+    <t>08/09/2023</t>
+  </si>
+  <si>
+    <t>09/09/2023</t>
+  </si>
+  <si>
+    <t>10/09/2023</t>
+  </si>
+  <si>
+    <t>11/09/2023</t>
+  </si>
+  <si>
+    <t>12/09/2023</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
+  </si>
+  <si>
+    <t>14/09/2023</t>
+  </si>
+  <si>
+    <t>15/09/2023</t>
+  </si>
+  <si>
+    <t>16/09/2023</t>
+  </si>
+  <si>
+    <t>17/09/2023</t>
+  </si>
+  <si>
+    <t>18/09/2023</t>
+  </si>
+  <si>
+    <t>19/09/2023</t>
+  </si>
+  <si>
+    <t>20/09/2023</t>
+  </si>
+  <si>
+    <t>21/09/2023</t>
+  </si>
+  <si>
+    <t>22/09/2023</t>
+  </si>
+  <si>
+    <t>23/09/2023</t>
+  </si>
+  <si>
+    <t>24/09/2023</t>
+  </si>
+  <si>
+    <t>25/09/2023</t>
+  </si>
+  <si>
+    <t>26/09/2023</t>
+  </si>
+  <si>
+    <t>27/09/2023</t>
+  </si>
+  <si>
+    <t>28/09/2023</t>
+  </si>
+  <si>
+    <t>29/09/2023</t>
+  </si>
+  <si>
+    <t>30/09/2023</t>
+  </si>
+  <si>
+    <t>01/10/2023</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>03/10/2023</t>
+  </si>
+  <si>
+    <t>04/10/2023</t>
+  </si>
+  <si>
+    <t>05/10/2023</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
+  </si>
+  <si>
+    <t>07/10/2023</t>
+  </si>
+  <si>
+    <t>08/10/2023</t>
+  </si>
+  <si>
+    <t>09/10/2023</t>
+  </si>
+  <si>
+    <t>10/10/2023</t>
+  </si>
+  <si>
+    <t>11/10/2023</t>
+  </si>
+  <si>
+    <t>12/10/2023</t>
+  </si>
+  <si>
+    <t>13/10/2023</t>
+  </si>
+  <si>
+    <t>14/10/2023</t>
+  </si>
+  <si>
+    <t>15/10/2023</t>
+  </si>
+  <si>
+    <t>16/10/2023</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
     <t>27/10/2023</t>
   </si>
   <si>
-    <t>15:49:34</t>
-  </si>
-  <si>
-    <t>15:49:36</t>
-  </si>
-  <si>
-    <t>15:49:37</t>
-  </si>
-  <si>
-    <t>15:49:38</t>
-  </si>
-  <si>
-    <t>15:49:39</t>
-  </si>
-  <si>
-    <t>15:49:40</t>
-  </si>
-  <si>
-    <t>15:49:41</t>
-  </si>
-  <si>
-    <t>15:49:42</t>
-  </si>
-  <si>
-    <t>15:49:43</t>
-  </si>
-  <si>
-    <t>15:49:44</t>
-  </si>
-  <si>
-    <t>15:49:47</t>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>29/10/2023</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
+  </si>
+  <si>
+    <t>02/11/2023</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>05/11/2023</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
+    <t>07/11/2023</t>
+  </si>
+  <si>
+    <t>08/11/2023</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
+    <t>12/11/2023</t>
+  </si>
+  <si>
+    <t>13/11/2023</t>
+  </si>
+  <si>
+    <t>14/11/2023</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>17/11/2023</t>
+  </si>
+  <si>
+    <t>18/11/2023</t>
+  </si>
+  <si>
+    <t>19/11/2023</t>
+  </si>
+  <si>
+    <t>20/11/2023</t>
+  </si>
+  <si>
+    <t>21/11/2023</t>
+  </si>
+  <si>
+    <t>22/11/2023</t>
+  </si>
+  <si>
+    <t>23/11/2023</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>25/11/2023</t>
+  </si>
+  <si>
+    <t>26/11/2023</t>
+  </si>
+  <si>
+    <t>27/11/2023</t>
+  </si>
+  <si>
+    <t>28/11/2023</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
+  </si>
+  <si>
+    <t>30/11/2023</t>
+  </si>
+  <si>
+    <t>01/12/2023</t>
+  </si>
+  <si>
+    <t>02/12/2023</t>
+  </si>
+  <si>
+    <t>03/12/2023</t>
+  </si>
+  <si>
+    <t>04/12/2023</t>
+  </si>
+  <si>
+    <t>05/12/2023</t>
+  </si>
+  <si>
+    <t>06/12/2023</t>
+  </si>
+  <si>
+    <t>07/12/2023</t>
+  </si>
+  <si>
+    <t>08/12/2023</t>
+  </si>
+  <si>
+    <t>09/12/2023</t>
+  </si>
+  <si>
+    <t>10/12/2023</t>
+  </si>
+  <si>
+    <t>11/12/2023</t>
+  </si>
+  <si>
+    <t>12/12/2023</t>
+  </si>
+  <si>
+    <t>13/12/2023</t>
+  </si>
+  <si>
+    <t>14/12/2023</t>
+  </si>
+  <si>
+    <t>15/12/2023</t>
+  </si>
+  <si>
+    <t>16/12/2023</t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
+    <t>18/12/2023</t>
+  </si>
+  <si>
+    <t>19/12/2023</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>22/12/2023</t>
+  </si>
+  <si>
+    <t>23/12/2023</t>
+  </si>
+  <si>
+    <t>24/12/2023</t>
+  </si>
+  <si>
+    <t>25/12/2023</t>
+  </si>
+  <si>
+    <t>26/12/2023</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
+  <si>
+    <t>28/12/2023</t>
+  </si>
+  <si>
+    <t>29/12/2023</t>
+  </si>
+  <si>
+    <t>30/12/2023</t>
+  </si>
+  <si>
+    <t>31/12/2023</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>02/01/2024</t>
+  </si>
+  <si>
+    <t>03/01/2024</t>
+  </si>
+  <si>
+    <t>04/01/2024</t>
+  </si>
+  <si>
+    <t>05/01/2024</t>
+  </si>
+  <si>
+    <t>06/01/2024</t>
+  </si>
+  <si>
+    <t>07/01/2024</t>
+  </si>
+  <si>
+    <t>08/01/2024</t>
+  </si>
+  <si>
+    <t>09/01/2024</t>
+  </si>
+  <si>
+    <t>10/01/2024</t>
+  </si>
+  <si>
+    <t>11/01/2024</t>
+  </si>
+  <si>
+    <t>12/01/2024</t>
+  </si>
+  <si>
+    <t>13/01/2024</t>
+  </si>
+  <si>
+    <t>14/01/2024</t>
+  </si>
+  <si>
+    <t>15/01/2024</t>
+  </si>
+  <si>
+    <t>16/01/2024</t>
+  </si>
+  <si>
+    <t>17/01/2024</t>
+  </si>
+  <si>
+    <t>18/01/2024</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>20/01/2024</t>
+  </si>
+  <si>
+    <t>21/01/2024</t>
+  </si>
+  <si>
+    <t>22/01/2024</t>
+  </si>
+  <si>
+    <t>23/01/2024</t>
+  </si>
+  <si>
+    <t>24/01/2024</t>
+  </si>
+  <si>
+    <t>25/01/2024</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>27/01/2024</t>
+  </si>
+  <si>
+    <t>28/01/2024</t>
+  </si>
+  <si>
+    <t>29/01/2024</t>
+  </si>
+  <si>
+    <t>30/01/2024</t>
+  </si>
+  <si>
+    <t>31/01/2024</t>
+  </si>
+  <si>
+    <t>01/02/2024</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>03/02/2024</t>
+  </si>
+  <si>
+    <t>04/02/2024</t>
+  </si>
+  <si>
+    <t>05/02/2024</t>
+  </si>
+  <si>
+    <t>06/02/2024</t>
+  </si>
+  <si>
+    <t>07/02/2024</t>
+  </si>
+  <si>
+    <t>08/02/2024</t>
+  </si>
+  <si>
+    <t>09/02/2024</t>
+  </si>
+  <si>
+    <t>10/02/2024</t>
+  </si>
+  <si>
+    <t>11/02/2024</t>
+  </si>
+  <si>
+    <t>12/02/2024</t>
+  </si>
+  <si>
+    <t>13/02/2024</t>
+  </si>
+  <si>
+    <t>14/02/2024</t>
+  </si>
+  <si>
+    <t>15/02/2024</t>
+  </si>
+  <si>
+    <t>16/02/2024</t>
+  </si>
+  <si>
+    <t>17/02/2024</t>
+  </si>
+  <si>
+    <t>18/02/2024</t>
+  </si>
+  <si>
+    <t>19/02/2024</t>
+  </si>
+  <si>
+    <t>20/02/2024</t>
+  </si>
+  <si>
+    <t>21/02/2024</t>
+  </si>
+  <si>
+    <t>22/02/2024</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>24/02/2024</t>
+  </si>
+  <si>
+    <t>25/02/2024</t>
+  </si>
+  <si>
+    <t>26/02/2024</t>
+  </si>
+  <si>
+    <t>27/02/2024</t>
+  </si>
+  <si>
+    <t>28/02/2024</t>
+  </si>
+  <si>
+    <t>29/02/2024</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>02/03/2024</t>
+  </si>
+  <si>
+    <t>03/03/2024</t>
+  </si>
+  <si>
+    <t>04/03/2024</t>
+  </si>
+  <si>
+    <t>05/03/2024</t>
+  </si>
+  <si>
+    <t>06/03/2024</t>
+  </si>
+  <si>
+    <t>07/03/2024</t>
+  </si>
+  <si>
+    <t>08/03/2024</t>
+  </si>
+  <si>
+    <t>09/03/2024</t>
+  </si>
+  <si>
+    <t>10/03/2024</t>
+  </si>
+  <si>
+    <t>11/03/2024</t>
+  </si>
+  <si>
+    <t>12/03/2024</t>
+  </si>
+  <si>
+    <t>13/03/2024</t>
+  </si>
+  <si>
+    <t>14/03/2024</t>
+  </si>
+  <si>
+    <t>15/03/2024</t>
+  </si>
+  <si>
+    <t>16/03/2024</t>
+  </si>
+  <si>
+    <t>17/03/2024</t>
+  </si>
+  <si>
+    <t>18/03/2024</t>
+  </si>
+  <si>
+    <t>19/03/2024</t>
+  </si>
+  <si>
+    <t>20/03/2024</t>
+  </si>
+  <si>
+    <t>21/03/2024</t>
+  </si>
+  <si>
+    <t>22/03/2024</t>
+  </si>
+  <si>
+    <t>23/03/2024</t>
+  </si>
+  <si>
+    <t>24/03/2024</t>
+  </si>
+  <si>
+    <t>25/03/2024</t>
+  </si>
+  <si>
+    <t>26/03/2024</t>
+  </si>
+  <si>
+    <t>27/03/2024</t>
+  </si>
+  <si>
+    <t>28/03/2024</t>
+  </si>
+  <si>
+    <t>29/03/2024</t>
+  </si>
+  <si>
+    <t>30/03/2024</t>
+  </si>
+  <si>
+    <t>31/03/2024</t>
   </si>
 </sst>
 </file>
@@ -119,11 +1244,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,9 +1566,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -486,7 +1614,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -499,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
@@ -515,7 +1643,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -528,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <v>2.5</v>
@@ -544,7 +1672,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -557,10 +1685,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>2.5</v>
@@ -573,7 +1701,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -586,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>2.5</v>
@@ -602,7 +1730,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -615,10 +1743,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>2.5</v>
@@ -631,7 +1759,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -644,10 +1772,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <v>2.5</v>
@@ -660,7 +1788,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -673,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
         <v>2.5</v>
@@ -689,7 +1817,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -702,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>2.5</v>
@@ -718,7 +1846,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -731,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>2.5</v>
@@ -747,7 +1875,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -760,10 +1888,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
         <v>2.5</v>
@@ -776,7 +1904,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -789,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
         <v>2.5</v>
@@ -802,6 +1930,4738 @@
       </c>
       <c r="I12" s="1">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>123</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>123</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>123</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>123</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H17" s="1">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1">
+        <v>123</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>50</v>
+      </c>
+      <c r="I18" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1">
+        <v>123</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <v>123</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1">
+        <v>123</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1">
+        <v>123</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>123</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="1">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>123</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>50</v>
+      </c>
+      <c r="I24" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>123</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>50</v>
+      </c>
+      <c r="I25" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>123</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>50</v>
+      </c>
+      <c r="I27" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>123</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
+        <v>123</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>50</v>
+      </c>
+      <c r="I29" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1">
+        <v>123</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>50</v>
+      </c>
+      <c r="I30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H31" s="1">
+        <v>50</v>
+      </c>
+      <c r="I31" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
+        <v>123</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="1">
+        <v>50</v>
+      </c>
+      <c r="I32" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>50</v>
+      </c>
+      <c r="I33" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>123</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>50</v>
+      </c>
+      <c r="I34" s="1">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O367"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>126</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>129</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>138</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>140</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>147</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>153</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>156</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>158</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>161</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>163</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>167</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>168</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>170</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>172</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>176</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>177</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>179</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>182</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>183</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>184</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>185</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>186</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>188</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>191</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>192</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>193</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>194</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>196</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>197</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>198</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>199</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>202</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>203</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>204</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>205</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>206</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>207</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>208</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>209</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>210</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>211</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>212</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>213</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>214</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>215</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>216</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>217</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>218</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>219</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>221</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>222</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>223</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>224</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>225</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>226</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>227</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>228</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>229</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>230</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>231</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>232</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>233</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>234</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>235</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>236</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>237</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>238</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>239</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>240</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>241</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>242</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>243</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>244</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>245</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>246</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>247</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>248</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>249</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>250</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>251</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>252</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>253</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>254</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="H230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>255</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>256</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>257</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>258</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>259</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>260</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>261</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>262</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>263</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>264</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>265</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="H241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>266</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>267</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>268</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>269</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="H245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>270</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>271</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>272</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>273</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>274</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>275</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>276</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>277</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="H253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>278</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>279</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="H255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>280</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="H256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>281</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="H257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>282</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="H258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>283</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>284</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>285</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>286</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>287</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>288</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="H264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>289</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>290</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>291</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="H267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>292</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>293</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>294</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="H270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>295</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>296</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="H272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>297</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>298</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>299</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>300</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>301</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>302</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>303</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>304</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>305</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>306</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="H282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>307</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>308</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>309</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>310</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>311</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>312</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="H288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>313</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>314</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="H290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>315</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="H291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>316</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>317</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="H293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>318</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="H294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>319</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>320</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>321</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="H297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>322</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>323</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="H299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>324</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>325</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="H301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>326</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>327</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="H303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>328</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>329</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>330</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="H306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>331</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>332</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>333</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="H309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>334</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="H310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>335</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>336</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>337</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="H313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>338</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="H314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>339</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="H315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>340</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="H316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>341</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="H317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>342</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>343</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="H319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>344</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>345</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="H321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>346</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="H322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>347</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="H323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>348</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="H324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>349</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>350</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="H326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>351</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>352</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="H328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>353</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="H329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>354</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="H330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>355</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="H331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>356</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="H332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>357</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>358</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="H334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>359</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>360</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="H336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>361</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>362</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="H338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>363</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>364</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="H340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>365</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>366</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="H342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>367</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="H343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>368</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="H344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>369</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="H345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>370</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="H346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>371</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="H347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>372</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="H348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>373</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>374</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="H350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>375</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="H351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>376</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="H352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>377</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="H353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>378</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="H354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>379</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="H355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>380</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>381</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="H357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>382</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="H358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>383</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="H359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>384</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="H360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>385</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>386</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="H362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>387</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>388</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="H364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>389</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="H365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>390</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>391</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="H367">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16808A1-357D-4846-8B66-DB19E3B10C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E15AC91-6025-45D4-8B94-456ACAE97EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2366,7 +2366,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,15 +2425,15 @@
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D65" si="0">SUM(J2,O2,B2) - C2</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2472,15 +2472,15 @@
       <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6001</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>14060</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2498,7 +2498,8 @@
         <v>3</v>
       </c>
       <c r="J3" s="3">
-        <v>20</v>
+        <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A3,Raw_data_01!D:D,1),"")</f>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -2512,22 +2513,23 @@
         <v>4</v>
       </c>
       <c r="O3" s="3">
-        <v>20</v>
+        <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A3,Raw_data_01!D:D,2),"")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="B4" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6001</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14053</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2568,10 +2570,10 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5">
-        <v>20054</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C5" s="3">
         <v>6001</v>
       </c>
       <c r="D5" s="3">
@@ -2617,10 +2619,10 @@
       <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6">
-        <v>20054</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C6" s="3">
         <v>6001</v>
       </c>
       <c r="D6" s="3">
@@ -2666,10 +2668,10 @@
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7">
-        <v>20054</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C7" s="3">
         <v>6001</v>
       </c>
       <c r="D7" s="3">
@@ -2715,10 +2717,10 @@
       <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8">
-        <v>20054</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C8" s="3">
         <v>6001</v>
       </c>
       <c r="D8" s="3">
@@ -2764,10 +2766,10 @@
       <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9">
-        <v>20054</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C9" s="3">
         <v>6001</v>
       </c>
       <c r="D9" s="3">
@@ -2813,10 +2815,10 @@
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10">
-        <v>20054</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C10" s="3">
         <v>6001</v>
       </c>
       <c r="D10" s="3">
@@ -2862,10 +2864,10 @@
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B11">
-        <v>20054</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C11" s="3">
         <v>6001</v>
       </c>
       <c r="D11" s="3">
@@ -2911,10 +2913,10 @@
       <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="B12">
-        <v>20054</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C12" s="3">
         <v>6001</v>
       </c>
       <c r="D12" s="3">
@@ -2960,10 +2962,10 @@
       <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="B13">
-        <v>20054</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C13" s="3">
         <v>6001</v>
       </c>
       <c r="D13" s="3">
@@ -3009,10 +3011,10 @@
       <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B14">
-        <v>20054</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C14" s="3">
         <v>6001</v>
       </c>
       <c r="D14" s="3">
@@ -3058,10 +3060,10 @@
       <c r="A15" t="s">
         <v>54</v>
       </c>
-      <c r="B15">
-        <v>20054</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C15" s="3">
         <v>6001</v>
       </c>
       <c r="D15" s="3">
@@ -3107,10 +3109,10 @@
       <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16">
-        <v>20054</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C16" s="3">
         <v>6001</v>
       </c>
       <c r="D16" s="3">
@@ -3156,10 +3158,10 @@
       <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17">
-        <v>20054</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C17" s="3">
         <v>6001</v>
       </c>
       <c r="D17" s="3">
@@ -3205,10 +3207,10 @@
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B18">
-        <v>20054</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C18" s="3">
         <v>6001</v>
       </c>
       <c r="D18" s="3">
@@ -3254,10 +3256,10 @@
       <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19">
-        <v>20054</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C19" s="3">
         <v>6001</v>
       </c>
       <c r="D19" s="3">
@@ -3303,10 +3305,10 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20">
-        <v>20054</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C20" s="3">
         <v>6001</v>
       </c>
       <c r="D20" s="3">
@@ -3352,10 +3354,10 @@
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21">
-        <v>20054</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C21" s="3">
         <v>6001</v>
       </c>
       <c r="D21" s="3">
@@ -3401,10 +3403,10 @@
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22">
-        <v>20054</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C22" s="3">
         <v>6001</v>
       </c>
       <c r="D22" s="3">
@@ -3450,10 +3452,10 @@
       <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B23">
-        <v>20054</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C23" s="3">
         <v>6001</v>
       </c>
       <c r="D23" s="3">
@@ -3499,10 +3501,10 @@
       <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B24">
-        <v>20054</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C24" s="3">
         <v>6001</v>
       </c>
       <c r="D24" s="3">
@@ -3548,10 +3550,10 @@
       <c r="A25" t="s">
         <v>64</v>
       </c>
-      <c r="B25">
-        <v>20054</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C25" s="3">
         <v>6001</v>
       </c>
       <c r="D25" s="3">
@@ -3597,10 +3599,10 @@
       <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B26">
-        <v>20054</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C26" s="3">
         <v>6001</v>
       </c>
       <c r="D26" s="3">
@@ -3646,10 +3648,10 @@
       <c r="A27" t="s">
         <v>66</v>
       </c>
-      <c r="B27">
-        <v>20054</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C27" s="3">
         <v>6001</v>
       </c>
       <c r="D27" s="3">
@@ -3695,10 +3697,10 @@
       <c r="A28" t="s">
         <v>67</v>
       </c>
-      <c r="B28">
-        <v>20054</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C28" s="3">
         <v>6001</v>
       </c>
       <c r="D28" s="3">
@@ -3744,10 +3746,10 @@
       <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29">
-        <v>20054</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C29" s="3">
         <v>6001</v>
       </c>
       <c r="D29" s="3">
@@ -3793,10 +3795,10 @@
       <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B30">
-        <v>20054</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C30" s="3">
         <v>6001</v>
       </c>
       <c r="D30" s="3">
@@ -3842,10 +3844,10 @@
       <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="B31">
-        <v>20054</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C31" s="3">
         <v>6001</v>
       </c>
       <c r="D31" s="3">
@@ -3891,10 +3893,10 @@
       <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B32">
-        <v>20054</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C32" s="3">
         <v>6001</v>
       </c>
       <c r="D32" s="3">
@@ -3940,10 +3942,10 @@
       <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B33">
-        <v>20054</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C33" s="3">
         <v>6001</v>
       </c>
       <c r="D33" s="3">
@@ -3989,10 +3991,10 @@
       <c r="A34" t="s">
         <v>73</v>
       </c>
-      <c r="B34">
-        <v>20054</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C34" s="3">
         <v>6001</v>
       </c>
       <c r="D34" s="3">
@@ -4038,10 +4040,10 @@
       <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B35">
-        <v>20054</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C35" s="3">
         <v>6001</v>
       </c>
       <c r="D35" s="3">
@@ -4087,10 +4089,10 @@
       <c r="A36" t="s">
         <v>75</v>
       </c>
-      <c r="B36">
-        <v>20054</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C36" s="3">
         <v>6001</v>
       </c>
       <c r="D36" s="3">
@@ -4136,10 +4138,10 @@
       <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B37">
-        <v>20054</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C37" s="3">
         <v>6001</v>
       </c>
       <c r="D37" s="3">
@@ -4185,10 +4187,10 @@
       <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38">
-        <v>20054</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C38" s="3">
         <v>6001</v>
       </c>
       <c r="D38" s="3">
@@ -4234,10 +4236,10 @@
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39">
-        <v>20054</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C39" s="3">
         <v>6001</v>
       </c>
       <c r="D39" s="3">
@@ -4283,10 +4285,10 @@
       <c r="A40" t="s">
         <v>79</v>
       </c>
-      <c r="B40">
-        <v>20054</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C40" s="3">
         <v>6001</v>
       </c>
       <c r="D40" s="3">
@@ -4332,10 +4334,10 @@
       <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="B41">
-        <v>20054</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C41" s="3">
         <v>6001</v>
       </c>
       <c r="D41" s="3">
@@ -4381,10 +4383,10 @@
       <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="B42">
-        <v>20054</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C42" s="3">
         <v>6001</v>
       </c>
       <c r="D42" s="3">
@@ -4430,10 +4432,10 @@
       <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="B43">
-        <v>20054</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C43" s="3">
         <v>6001</v>
       </c>
       <c r="D43" s="3">
@@ -4479,10 +4481,10 @@
       <c r="A44" t="s">
         <v>83</v>
       </c>
-      <c r="B44">
-        <v>20054</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C44" s="3">
         <v>6001</v>
       </c>
       <c r="D44" s="3">
@@ -4528,10 +4530,10 @@
       <c r="A45" t="s">
         <v>84</v>
       </c>
-      <c r="B45">
-        <v>20054</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C45" s="3">
         <v>6001</v>
       </c>
       <c r="D45" s="3">
@@ -4577,10 +4579,10 @@
       <c r="A46" t="s">
         <v>85</v>
       </c>
-      <c r="B46">
-        <v>20054</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C46" s="3">
         <v>6001</v>
       </c>
       <c r="D46" s="3">
@@ -4626,10 +4628,10 @@
       <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="B47">
-        <v>20054</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C47" s="3">
         <v>6001</v>
       </c>
       <c r="D47" s="3">
@@ -4675,10 +4677,10 @@
       <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B48">
-        <v>20054</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C48" s="3">
         <v>6001</v>
       </c>
       <c r="D48" s="3">
@@ -4724,10 +4726,10 @@
       <c r="A49" t="s">
         <v>88</v>
       </c>
-      <c r="B49">
-        <v>20054</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C49" s="3">
         <v>6001</v>
       </c>
       <c r="D49" s="3">
@@ -4773,10 +4775,10 @@
       <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B50">
-        <v>20054</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C50" s="3">
         <v>6001</v>
       </c>
       <c r="D50" s="3">
@@ -4822,10 +4824,10 @@
       <c r="A51" t="s">
         <v>90</v>
       </c>
-      <c r="B51">
-        <v>20054</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C51" s="3">
         <v>6001</v>
       </c>
       <c r="D51" s="3">
@@ -4871,10 +4873,10 @@
       <c r="A52" t="s">
         <v>91</v>
       </c>
-      <c r="B52">
-        <v>20054</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C52" s="3">
         <v>6001</v>
       </c>
       <c r="D52" s="3">
@@ -4920,10 +4922,10 @@
       <c r="A53" t="s">
         <v>92</v>
       </c>
-      <c r="B53">
-        <v>20054</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C53" s="3">
         <v>6001</v>
       </c>
       <c r="D53" s="3">
@@ -4969,10 +4971,10 @@
       <c r="A54" t="s">
         <v>93</v>
       </c>
-      <c r="B54">
-        <v>20054</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C54" s="3">
         <v>6001</v>
       </c>
       <c r="D54" s="3">
@@ -5018,10 +5020,10 @@
       <c r="A55" t="s">
         <v>94</v>
       </c>
-      <c r="B55">
-        <v>20054</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C55" s="3">
         <v>6001</v>
       </c>
       <c r="D55" s="3">
@@ -5067,10 +5069,10 @@
       <c r="A56" t="s">
         <v>95</v>
       </c>
-      <c r="B56">
-        <v>20054</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C56" s="3">
         <v>6001</v>
       </c>
       <c r="D56" s="3">
@@ -5116,10 +5118,10 @@
       <c r="A57" t="s">
         <v>96</v>
       </c>
-      <c r="B57">
-        <v>20054</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C57" s="3">
         <v>6001</v>
       </c>
       <c r="D57" s="3">
@@ -5165,10 +5167,10 @@
       <c r="A58" t="s">
         <v>97</v>
       </c>
-      <c r="B58">
-        <v>20054</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C58" s="3">
         <v>6001</v>
       </c>
       <c r="D58" s="3">
@@ -5214,10 +5216,10 @@
       <c r="A59" t="s">
         <v>98</v>
       </c>
-      <c r="B59">
-        <v>20054</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C59" s="3">
         <v>6001</v>
       </c>
       <c r="D59" s="3">
@@ -5263,10 +5265,10 @@
       <c r="A60" t="s">
         <v>99</v>
       </c>
-      <c r="B60">
-        <v>20054</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C60" s="3">
         <v>6001</v>
       </c>
       <c r="D60" s="3">
@@ -5312,10 +5314,10 @@
       <c r="A61" t="s">
         <v>100</v>
       </c>
-      <c r="B61">
-        <v>20054</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C61" s="3">
         <v>6001</v>
       </c>
       <c r="D61" s="3">
@@ -5361,10 +5363,10 @@
       <c r="A62" t="s">
         <v>101</v>
       </c>
-      <c r="B62">
-        <v>20054</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C62" s="3">
         <v>6001</v>
       </c>
       <c r="D62" s="3">
@@ -5410,10 +5412,10 @@
       <c r="A63" t="s">
         <v>102</v>
       </c>
-      <c r="B63">
-        <v>20054</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C63" s="3">
         <v>6001</v>
       </c>
       <c r="D63" s="3">
@@ -5459,10 +5461,10 @@
       <c r="A64" t="s">
         <v>103</v>
       </c>
-      <c r="B64">
-        <v>20054</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C64" s="3">
         <v>6001</v>
       </c>
       <c r="D64" s="3">
@@ -5508,10 +5510,10 @@
       <c r="A65" t="s">
         <v>104</v>
       </c>
-      <c r="B65">
-        <v>20054</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C65" s="3">
         <v>6001</v>
       </c>
       <c r="D65" s="3">
@@ -5557,10 +5559,10 @@
       <c r="A66" t="s">
         <v>105</v>
       </c>
-      <c r="B66">
-        <v>20054</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C66" s="3">
         <v>6001</v>
       </c>
       <c r="D66" s="3">
@@ -5606,10 +5608,10 @@
       <c r="A67" t="s">
         <v>106</v>
       </c>
-      <c r="B67">
-        <v>20054</v>
-      </c>
-      <c r="C67">
+      <c r="B67" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C67" s="3">
         <v>6001</v>
       </c>
       <c r="D67" s="3">
@@ -5655,10 +5657,10 @@
       <c r="A68" t="s">
         <v>107</v>
       </c>
-      <c r="B68">
-        <v>20054</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C68" s="3">
         <v>6001</v>
       </c>
       <c r="D68" s="3">
@@ -5704,10 +5706,10 @@
       <c r="A69" t="s">
         <v>108</v>
       </c>
-      <c r="B69">
-        <v>20054</v>
-      </c>
-      <c r="C69">
+      <c r="B69" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C69" s="3">
         <v>6001</v>
       </c>
       <c r="D69" s="3">
@@ -5753,10 +5755,10 @@
       <c r="A70" t="s">
         <v>109</v>
       </c>
-      <c r="B70">
-        <v>20054</v>
-      </c>
-      <c r="C70">
+      <c r="B70" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C70" s="3">
         <v>6001</v>
       </c>
       <c r="D70" s="3">
@@ -5802,10 +5804,10 @@
       <c r="A71" t="s">
         <v>110</v>
       </c>
-      <c r="B71">
-        <v>20054</v>
-      </c>
-      <c r="C71">
+      <c r="B71" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C71" s="3">
         <v>6001</v>
       </c>
       <c r="D71" s="3">
@@ -5851,10 +5853,10 @@
       <c r="A72" t="s">
         <v>111</v>
       </c>
-      <c r="B72">
-        <v>20054</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C72" s="3">
         <v>6001</v>
       </c>
       <c r="D72" s="3">
@@ -5900,10 +5902,10 @@
       <c r="A73" t="s">
         <v>112</v>
       </c>
-      <c r="B73">
-        <v>20054</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C73" s="3">
         <v>6001</v>
       </c>
       <c r="D73" s="3">
@@ -5949,10 +5951,10 @@
       <c r="A74" t="s">
         <v>113</v>
       </c>
-      <c r="B74">
-        <v>20054</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C74" s="3">
         <v>6001</v>
       </c>
       <c r="D74" s="3">
@@ -5998,10 +6000,10 @@
       <c r="A75" t="s">
         <v>114</v>
       </c>
-      <c r="B75">
-        <v>20054</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C75" s="3">
         <v>6001</v>
       </c>
       <c r="D75" s="3">
@@ -6047,10 +6049,10 @@
       <c r="A76" t="s">
         <v>115</v>
       </c>
-      <c r="B76">
-        <v>20054</v>
-      </c>
-      <c r="C76">
+      <c r="B76" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C76" s="3">
         <v>6001</v>
       </c>
       <c r="D76" s="3">
@@ -6096,10 +6098,10 @@
       <c r="A77" t="s">
         <v>116</v>
       </c>
-      <c r="B77">
-        <v>20054</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C77" s="3">
         <v>6001</v>
       </c>
       <c r="D77" s="3">
@@ -6145,10 +6147,10 @@
       <c r="A78" t="s">
         <v>117</v>
       </c>
-      <c r="B78">
-        <v>20054</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C78" s="3">
         <v>6001</v>
       </c>
       <c r="D78" s="3">
@@ -6194,10 +6196,10 @@
       <c r="A79" t="s">
         <v>118</v>
       </c>
-      <c r="B79">
-        <v>20054</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C79" s="3">
         <v>6001</v>
       </c>
       <c r="D79" s="3">
@@ -6243,10 +6245,10 @@
       <c r="A80" t="s">
         <v>119</v>
       </c>
-      <c r="B80">
-        <v>20054</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C80" s="3">
         <v>6001</v>
       </c>
       <c r="D80" s="3">
@@ -6292,10 +6294,10 @@
       <c r="A81" t="s">
         <v>120</v>
       </c>
-      <c r="B81">
-        <v>20054</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C81" s="3">
         <v>6001</v>
       </c>
       <c r="D81" s="3">
@@ -6341,10 +6343,10 @@
       <c r="A82" t="s">
         <v>121</v>
       </c>
-      <c r="B82">
-        <v>20054</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C82" s="3">
         <v>6001</v>
       </c>
       <c r="D82" s="3">
@@ -6390,10 +6392,10 @@
       <c r="A83" t="s">
         <v>122</v>
       </c>
-      <c r="B83">
-        <v>20054</v>
-      </c>
-      <c r="C83">
+      <c r="B83" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C83" s="3">
         <v>6001</v>
       </c>
       <c r="D83" s="3">
@@ -6439,10 +6441,10 @@
       <c r="A84" t="s">
         <v>123</v>
       </c>
-      <c r="B84">
-        <v>20054</v>
-      </c>
-      <c r="C84">
+      <c r="B84" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C84" s="3">
         <v>6001</v>
       </c>
       <c r="D84" s="3">
@@ -6488,10 +6490,10 @@
       <c r="A85" t="s">
         <v>124</v>
       </c>
-      <c r="B85">
-        <v>20054</v>
-      </c>
-      <c r="C85">
+      <c r="B85" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C85" s="3">
         <v>6001</v>
       </c>
       <c r="D85" s="3">
@@ -6537,10 +6539,10 @@
       <c r="A86" t="s">
         <v>125</v>
       </c>
-      <c r="B86">
-        <v>20054</v>
-      </c>
-      <c r="C86">
+      <c r="B86" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C86" s="3">
         <v>6001</v>
       </c>
       <c r="D86" s="3">
@@ -6586,10 +6588,10 @@
       <c r="A87" t="s">
         <v>126</v>
       </c>
-      <c r="B87">
-        <v>20054</v>
-      </c>
-      <c r="C87">
+      <c r="B87" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C87" s="3">
         <v>6001</v>
       </c>
       <c r="D87" s="3">
@@ -6635,10 +6637,10 @@
       <c r="A88" t="s">
         <v>127</v>
       </c>
-      <c r="B88">
-        <v>20054</v>
-      </c>
-      <c r="C88">
+      <c r="B88" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C88" s="3">
         <v>6001</v>
       </c>
       <c r="D88" s="3">
@@ -6684,10 +6686,10 @@
       <c r="A89" t="s">
         <v>128</v>
       </c>
-      <c r="B89">
-        <v>20054</v>
-      </c>
-      <c r="C89">
+      <c r="B89" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C89" s="3">
         <v>6001</v>
       </c>
       <c r="D89" s="3">
@@ -6733,10 +6735,10 @@
       <c r="A90" t="s">
         <v>129</v>
       </c>
-      <c r="B90">
-        <v>20054</v>
-      </c>
-      <c r="C90">
+      <c r="B90" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C90" s="3">
         <v>6001</v>
       </c>
       <c r="D90" s="3">
@@ -6782,10 +6784,10 @@
       <c r="A91" t="s">
         <v>130</v>
       </c>
-      <c r="B91">
-        <v>20054</v>
-      </c>
-      <c r="C91">
+      <c r="B91" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C91" s="3">
         <v>6001</v>
       </c>
       <c r="D91" s="3">
@@ -6831,10 +6833,10 @@
       <c r="A92" t="s">
         <v>131</v>
       </c>
-      <c r="B92">
-        <v>20054</v>
-      </c>
-      <c r="C92">
+      <c r="B92" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C92" s="3">
         <v>6001</v>
       </c>
       <c r="D92" s="3">
@@ -6880,10 +6882,10 @@
       <c r="A93" t="s">
         <v>132</v>
       </c>
-      <c r="B93">
-        <v>20054</v>
-      </c>
-      <c r="C93">
+      <c r="B93" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C93" s="3">
         <v>6001</v>
       </c>
       <c r="D93" s="3">
@@ -6929,10 +6931,10 @@
       <c r="A94" t="s">
         <v>133</v>
       </c>
-      <c r="B94">
-        <v>20054</v>
-      </c>
-      <c r="C94">
+      <c r="B94" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C94" s="3">
         <v>6001</v>
       </c>
       <c r="D94" s="3">
@@ -6978,10 +6980,10 @@
       <c r="A95" t="s">
         <v>134</v>
       </c>
-      <c r="B95">
-        <v>20054</v>
-      </c>
-      <c r="C95">
+      <c r="B95" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C95" s="3">
         <v>6001</v>
       </c>
       <c r="D95" s="3">
@@ -7027,10 +7029,10 @@
       <c r="A96" t="s">
         <v>135</v>
       </c>
-      <c r="B96">
-        <v>20054</v>
-      </c>
-      <c r="C96">
+      <c r="B96" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C96" s="3">
         <v>6001</v>
       </c>
       <c r="D96" s="3">
@@ -7076,10 +7078,10 @@
       <c r="A97" t="s">
         <v>136</v>
       </c>
-      <c r="B97">
-        <v>20054</v>
-      </c>
-      <c r="C97">
+      <c r="B97" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C97" s="3">
         <v>6001</v>
       </c>
       <c r="D97" s="3">
@@ -7125,10 +7127,10 @@
       <c r="A98" t="s">
         <v>137</v>
       </c>
-      <c r="B98">
-        <v>20054</v>
-      </c>
-      <c r="C98">
+      <c r="B98" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C98" s="3">
         <v>6001</v>
       </c>
       <c r="D98" s="3">
@@ -7174,10 +7176,10 @@
       <c r="A99" t="s">
         <v>138</v>
       </c>
-      <c r="B99">
-        <v>20054</v>
-      </c>
-      <c r="C99">
+      <c r="B99" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C99" s="3">
         <v>6001</v>
       </c>
       <c r="D99" s="3">
@@ -7223,10 +7225,10 @@
       <c r="A100" t="s">
         <v>139</v>
       </c>
-      <c r="B100">
-        <v>20054</v>
-      </c>
-      <c r="C100">
+      <c r="B100" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C100" s="3">
         <v>6001</v>
       </c>
       <c r="D100" s="3">
@@ -7272,10 +7274,10 @@
       <c r="A101" t="s">
         <v>140</v>
       </c>
-      <c r="B101">
-        <v>20054</v>
-      </c>
-      <c r="C101">
+      <c r="B101" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C101" s="3">
         <v>6001</v>
       </c>
       <c r="D101" s="3">
@@ -7321,10 +7323,10 @@
       <c r="A102" t="s">
         <v>141</v>
       </c>
-      <c r="B102">
-        <v>20054</v>
-      </c>
-      <c r="C102">
+      <c r="B102" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C102" s="3">
         <v>6001</v>
       </c>
       <c r="D102" s="3">
@@ -7370,10 +7372,10 @@
       <c r="A103" t="s">
         <v>142</v>
       </c>
-      <c r="B103">
-        <v>20054</v>
-      </c>
-      <c r="C103">
+      <c r="B103" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C103" s="3">
         <v>6001</v>
       </c>
       <c r="D103" s="3">
@@ -7419,10 +7421,10 @@
       <c r="A104" t="s">
         <v>143</v>
       </c>
-      <c r="B104">
-        <v>20054</v>
-      </c>
-      <c r="C104">
+      <c r="B104" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C104" s="3">
         <v>6001</v>
       </c>
       <c r="D104" s="3">
@@ -7468,10 +7470,10 @@
       <c r="A105" t="s">
         <v>144</v>
       </c>
-      <c r="B105">
-        <v>20054</v>
-      </c>
-      <c r="C105">
+      <c r="B105" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C105" s="3">
         <v>6001</v>
       </c>
       <c r="D105" s="3">
@@ -7517,10 +7519,10 @@
       <c r="A106" t="s">
         <v>145</v>
       </c>
-      <c r="B106">
-        <v>20054</v>
-      </c>
-      <c r="C106">
+      <c r="B106" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C106" s="3">
         <v>6001</v>
       </c>
       <c r="D106" s="3">
@@ -7566,10 +7568,10 @@
       <c r="A107" t="s">
         <v>146</v>
       </c>
-      <c r="B107">
-        <v>20054</v>
-      </c>
-      <c r="C107">
+      <c r="B107" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C107" s="3">
         <v>6001</v>
       </c>
       <c r="D107" s="3">
@@ -7615,10 +7617,10 @@
       <c r="A108" t="s">
         <v>147</v>
       </c>
-      <c r="B108">
-        <v>20054</v>
-      </c>
-      <c r="C108">
+      <c r="B108" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C108" s="3">
         <v>6001</v>
       </c>
       <c r="D108" s="3">
@@ -7664,10 +7666,10 @@
       <c r="A109" t="s">
         <v>148</v>
       </c>
-      <c r="B109">
-        <v>20054</v>
-      </c>
-      <c r="C109">
+      <c r="B109" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C109" s="3">
         <v>6001</v>
       </c>
       <c r="D109" s="3">
@@ -7713,10 +7715,10 @@
       <c r="A110" t="s">
         <v>149</v>
       </c>
-      <c r="B110">
-        <v>20054</v>
-      </c>
-      <c r="C110">
+      <c r="B110" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C110" s="3">
         <v>6001</v>
       </c>
       <c r="D110" s="3">
@@ -7762,10 +7764,10 @@
       <c r="A111" t="s">
         <v>150</v>
       </c>
-      <c r="B111">
-        <v>20054</v>
-      </c>
-      <c r="C111">
+      <c r="B111" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C111" s="3">
         <v>6001</v>
       </c>
       <c r="D111" s="3">
@@ -7811,10 +7813,10 @@
       <c r="A112" t="s">
         <v>151</v>
       </c>
-      <c r="B112">
-        <v>20054</v>
-      </c>
-      <c r="C112">
+      <c r="B112" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C112" s="3">
         <v>6001</v>
       </c>
       <c r="D112" s="3">
@@ -7860,10 +7862,10 @@
       <c r="A113" t="s">
         <v>152</v>
       </c>
-      <c r="B113">
-        <v>20054</v>
-      </c>
-      <c r="C113">
+      <c r="B113" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C113" s="3">
         <v>6001</v>
       </c>
       <c r="D113" s="3">
@@ -7909,10 +7911,10 @@
       <c r="A114" t="s">
         <v>153</v>
       </c>
-      <c r="B114">
-        <v>20054</v>
-      </c>
-      <c r="C114">
+      <c r="B114" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C114" s="3">
         <v>6001</v>
       </c>
       <c r="D114" s="3">
@@ -7958,10 +7960,10 @@
       <c r="A115" t="s">
         <v>154</v>
       </c>
-      <c r="B115">
-        <v>20054</v>
-      </c>
-      <c r="C115">
+      <c r="B115" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C115" s="3">
         <v>6001</v>
       </c>
       <c r="D115" s="3">
@@ -8007,10 +8009,10 @@
       <c r="A116" t="s">
         <v>155</v>
       </c>
-      <c r="B116">
-        <v>20054</v>
-      </c>
-      <c r="C116">
+      <c r="B116" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C116" s="3">
         <v>6001</v>
       </c>
       <c r="D116" s="3">
@@ -8056,10 +8058,10 @@
       <c r="A117" t="s">
         <v>156</v>
       </c>
-      <c r="B117">
-        <v>20054</v>
-      </c>
-      <c r="C117">
+      <c r="B117" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C117" s="3">
         <v>6001</v>
       </c>
       <c r="D117" s="3">
@@ -8105,10 +8107,10 @@
       <c r="A118" t="s">
         <v>157</v>
       </c>
-      <c r="B118">
-        <v>20054</v>
-      </c>
-      <c r="C118">
+      <c r="B118" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C118" s="3">
         <v>6001</v>
       </c>
       <c r="D118" s="3">
@@ -8154,10 +8156,10 @@
       <c r="A119" t="s">
         <v>158</v>
       </c>
-      <c r="B119">
-        <v>20054</v>
-      </c>
-      <c r="C119">
+      <c r="B119" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C119" s="3">
         <v>6001</v>
       </c>
       <c r="D119" s="3">
@@ -8203,10 +8205,10 @@
       <c r="A120" t="s">
         <v>159</v>
       </c>
-      <c r="B120">
-        <v>20054</v>
-      </c>
-      <c r="C120">
+      <c r="B120" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C120" s="3">
         <v>6001</v>
       </c>
       <c r="D120" s="3">
@@ -8252,10 +8254,10 @@
       <c r="A121" t="s">
         <v>160</v>
       </c>
-      <c r="B121">
-        <v>20054</v>
-      </c>
-      <c r="C121">
+      <c r="B121" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C121" s="3">
         <v>6001</v>
       </c>
       <c r="D121" s="3">
@@ -8301,10 +8303,10 @@
       <c r="A122" t="s">
         <v>161</v>
       </c>
-      <c r="B122">
-        <v>20054</v>
-      </c>
-      <c r="C122">
+      <c r="B122" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C122" s="3">
         <v>6001</v>
       </c>
       <c r="D122" s="3">
@@ -8350,10 +8352,10 @@
       <c r="A123" t="s">
         <v>162</v>
       </c>
-      <c r="B123">
-        <v>20054</v>
-      </c>
-      <c r="C123">
+      <c r="B123" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C123" s="3">
         <v>6001</v>
       </c>
       <c r="D123" s="3">
@@ -8399,10 +8401,10 @@
       <c r="A124" t="s">
         <v>163</v>
       </c>
-      <c r="B124">
-        <v>20054</v>
-      </c>
-      <c r="C124">
+      <c r="B124" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C124" s="3">
         <v>6001</v>
       </c>
       <c r="D124" s="3">
@@ -8448,10 +8450,10 @@
       <c r="A125" t="s">
         <v>164</v>
       </c>
-      <c r="B125">
-        <v>20054</v>
-      </c>
-      <c r="C125">
+      <c r="B125" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C125" s="3">
         <v>6001</v>
       </c>
       <c r="D125" s="3">
@@ -8497,10 +8499,10 @@
       <c r="A126" t="s">
         <v>165</v>
       </c>
-      <c r="B126">
-        <v>20054</v>
-      </c>
-      <c r="C126">
+      <c r="B126" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C126" s="3">
         <v>6001</v>
       </c>
       <c r="D126" s="3">
@@ -8546,10 +8548,10 @@
       <c r="A127" t="s">
         <v>166</v>
       </c>
-      <c r="B127">
-        <v>20054</v>
-      </c>
-      <c r="C127">
+      <c r="B127" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C127" s="3">
         <v>6001</v>
       </c>
       <c r="D127" s="3">
@@ -8595,10 +8597,10 @@
       <c r="A128" t="s">
         <v>167</v>
       </c>
-      <c r="B128">
-        <v>20054</v>
-      </c>
-      <c r="C128">
+      <c r="B128" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C128" s="3">
         <v>6001</v>
       </c>
       <c r="D128" s="3">
@@ -8644,10 +8646,10 @@
       <c r="A129" t="s">
         <v>168</v>
       </c>
-      <c r="B129">
-        <v>20054</v>
-      </c>
-      <c r="C129">
+      <c r="B129" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C129" s="3">
         <v>6001</v>
       </c>
       <c r="D129" s="3">
@@ -8693,10 +8695,10 @@
       <c r="A130" t="s">
         <v>169</v>
       </c>
-      <c r="B130">
-        <v>20054</v>
-      </c>
-      <c r="C130">
+      <c r="B130" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C130" s="3">
         <v>6001</v>
       </c>
       <c r="D130" s="3">
@@ -8742,10 +8744,10 @@
       <c r="A131" t="s">
         <v>170</v>
       </c>
-      <c r="B131">
-        <v>20054</v>
-      </c>
-      <c r="C131">
+      <c r="B131" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C131" s="3">
         <v>6001</v>
       </c>
       <c r="D131" s="3">
@@ -8791,10 +8793,10 @@
       <c r="A132" t="s">
         <v>171</v>
       </c>
-      <c r="B132">
-        <v>20054</v>
-      </c>
-      <c r="C132">
+      <c r="B132" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C132" s="3">
         <v>6001</v>
       </c>
       <c r="D132" s="3">
@@ -8840,10 +8842,10 @@
       <c r="A133" t="s">
         <v>172</v>
       </c>
-      <c r="B133">
-        <v>20054</v>
-      </c>
-      <c r="C133">
+      <c r="B133" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C133" s="3">
         <v>6001</v>
       </c>
       <c r="D133" s="3">
@@ -8889,10 +8891,10 @@
       <c r="A134" t="s">
         <v>173</v>
       </c>
-      <c r="B134">
-        <v>20054</v>
-      </c>
-      <c r="C134">
+      <c r="B134" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C134" s="3">
         <v>6001</v>
       </c>
       <c r="D134" s="3">
@@ -8938,10 +8940,10 @@
       <c r="A135" t="s">
         <v>174</v>
       </c>
-      <c r="B135">
-        <v>20054</v>
-      </c>
-      <c r="C135">
+      <c r="B135" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C135" s="3">
         <v>6001</v>
       </c>
       <c r="D135" s="3">
@@ -8987,10 +8989,10 @@
       <c r="A136" t="s">
         <v>175</v>
       </c>
-      <c r="B136">
-        <v>20054</v>
-      </c>
-      <c r="C136">
+      <c r="B136" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C136" s="3">
         <v>6001</v>
       </c>
       <c r="D136" s="3">
@@ -9036,10 +9038,10 @@
       <c r="A137" t="s">
         <v>176</v>
       </c>
-      <c r="B137">
-        <v>20054</v>
-      </c>
-      <c r="C137">
+      <c r="B137" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C137" s="3">
         <v>6001</v>
       </c>
       <c r="D137" s="3">
@@ -9085,10 +9087,10 @@
       <c r="A138" t="s">
         <v>177</v>
       </c>
-      <c r="B138">
-        <v>20054</v>
-      </c>
-      <c r="C138">
+      <c r="B138" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C138" s="3">
         <v>6001</v>
       </c>
       <c r="D138" s="3">
@@ -9134,10 +9136,10 @@
       <c r="A139" t="s">
         <v>178</v>
       </c>
-      <c r="B139">
-        <v>20054</v>
-      </c>
-      <c r="C139">
+      <c r="B139" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C139" s="3">
         <v>6001</v>
       </c>
       <c r="D139" s="3">
@@ -9183,10 +9185,10 @@
       <c r="A140" t="s">
         <v>179</v>
       </c>
-      <c r="B140">
-        <v>20054</v>
-      </c>
-      <c r="C140">
+      <c r="B140" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C140" s="3">
         <v>6001</v>
       </c>
       <c r="D140" s="3">
@@ -9232,10 +9234,10 @@
       <c r="A141" t="s">
         <v>180</v>
       </c>
-      <c r="B141">
-        <v>20054</v>
-      </c>
-      <c r="C141">
+      <c r="B141" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C141" s="3">
         <v>6001</v>
       </c>
       <c r="D141" s="3">
@@ -9281,10 +9283,10 @@
       <c r="A142" t="s">
         <v>181</v>
       </c>
-      <c r="B142">
-        <v>20054</v>
-      </c>
-      <c r="C142">
+      <c r="B142" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C142" s="3">
         <v>6001</v>
       </c>
       <c r="D142" s="3">
@@ -9330,10 +9332,10 @@
       <c r="A143" t="s">
         <v>182</v>
       </c>
-      <c r="B143">
-        <v>20054</v>
-      </c>
-      <c r="C143">
+      <c r="B143" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C143" s="3">
         <v>6001</v>
       </c>
       <c r="D143" s="3">
@@ -9379,10 +9381,10 @@
       <c r="A144" t="s">
         <v>183</v>
       </c>
-      <c r="B144">
-        <v>20054</v>
-      </c>
-      <c r="C144">
+      <c r="B144" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C144" s="3">
         <v>6001</v>
       </c>
       <c r="D144" s="3">
@@ -9428,10 +9430,10 @@
       <c r="A145" t="s">
         <v>184</v>
       </c>
-      <c r="B145">
-        <v>20054</v>
-      </c>
-      <c r="C145">
+      <c r="B145" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C145" s="3">
         <v>6001</v>
       </c>
       <c r="D145" s="3">
@@ -9477,10 +9479,10 @@
       <c r="A146" t="s">
         <v>185</v>
       </c>
-      <c r="B146">
-        <v>20054</v>
-      </c>
-      <c r="C146">
+      <c r="B146" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C146" s="3">
         <v>6001</v>
       </c>
       <c r="D146" s="3">
@@ -9526,10 +9528,10 @@
       <c r="A147" t="s">
         <v>186</v>
       </c>
-      <c r="B147">
-        <v>20054</v>
-      </c>
-      <c r="C147">
+      <c r="B147" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C147" s="3">
         <v>6001</v>
       </c>
       <c r="D147" s="3">
@@ -9575,10 +9577,10 @@
       <c r="A148" t="s">
         <v>187</v>
       </c>
-      <c r="B148">
-        <v>20054</v>
-      </c>
-      <c r="C148">
+      <c r="B148" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C148" s="3">
         <v>6001</v>
       </c>
       <c r="D148" s="3">
@@ -9624,10 +9626,10 @@
       <c r="A149" t="s">
         <v>188</v>
       </c>
-      <c r="B149">
-        <v>20054</v>
-      </c>
-      <c r="C149">
+      <c r="B149" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C149" s="3">
         <v>6001</v>
       </c>
       <c r="D149" s="3">
@@ -9673,10 +9675,10 @@
       <c r="A150" t="s">
         <v>189</v>
       </c>
-      <c r="B150">
-        <v>20054</v>
-      </c>
-      <c r="C150">
+      <c r="B150" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C150" s="3">
         <v>6001</v>
       </c>
       <c r="D150" s="3">
@@ -9722,10 +9724,10 @@
       <c r="A151" t="s">
         <v>190</v>
       </c>
-      <c r="B151">
-        <v>20054</v>
-      </c>
-      <c r="C151">
+      <c r="B151" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C151" s="3">
         <v>6001</v>
       </c>
       <c r="D151" s="3">
@@ -9771,10 +9773,10 @@
       <c r="A152" t="s">
         <v>191</v>
       </c>
-      <c r="B152">
-        <v>20054</v>
-      </c>
-      <c r="C152">
+      <c r="B152" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C152" s="3">
         <v>6001</v>
       </c>
       <c r="D152" s="3">
@@ -9820,10 +9822,10 @@
       <c r="A153" t="s">
         <v>192</v>
       </c>
-      <c r="B153">
-        <v>20054</v>
-      </c>
-      <c r="C153">
+      <c r="B153" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C153" s="3">
         <v>6001</v>
       </c>
       <c r="D153" s="3">
@@ -9869,10 +9871,10 @@
       <c r="A154" t="s">
         <v>193</v>
       </c>
-      <c r="B154">
-        <v>20054</v>
-      </c>
-      <c r="C154">
+      <c r="B154" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C154" s="3">
         <v>6001</v>
       </c>
       <c r="D154" s="3">
@@ -9918,10 +9920,10 @@
       <c r="A155" t="s">
         <v>194</v>
       </c>
-      <c r="B155">
-        <v>20054</v>
-      </c>
-      <c r="C155">
+      <c r="B155" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C155" s="3">
         <v>6001</v>
       </c>
       <c r="D155" s="3">
@@ -9967,10 +9969,10 @@
       <c r="A156" t="s">
         <v>195</v>
       </c>
-      <c r="B156">
-        <v>20054</v>
-      </c>
-      <c r="C156">
+      <c r="B156" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C156" s="3">
         <v>6001</v>
       </c>
       <c r="D156" s="3">
@@ -10016,10 +10018,10 @@
       <c r="A157" t="s">
         <v>196</v>
       </c>
-      <c r="B157">
-        <v>20054</v>
-      </c>
-      <c r="C157">
+      <c r="B157" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C157" s="3">
         <v>6001</v>
       </c>
       <c r="D157" s="3">
@@ -10065,10 +10067,10 @@
       <c r="A158" t="s">
         <v>197</v>
       </c>
-      <c r="B158">
-        <v>20054</v>
-      </c>
-      <c r="C158">
+      <c r="B158" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C158" s="3">
         <v>6001</v>
       </c>
       <c r="D158" s="3">
@@ -10114,10 +10116,10 @@
       <c r="A159" t="s">
         <v>198</v>
       </c>
-      <c r="B159">
-        <v>20054</v>
-      </c>
-      <c r="C159">
+      <c r="B159" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C159" s="3">
         <v>6001</v>
       </c>
       <c r="D159" s="3">
@@ -10163,10 +10165,10 @@
       <c r="A160" t="s">
         <v>199</v>
       </c>
-      <c r="B160">
-        <v>20054</v>
-      </c>
-      <c r="C160">
+      <c r="B160" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C160" s="3">
         <v>6001</v>
       </c>
       <c r="D160" s="3">
@@ -10212,10 +10214,10 @@
       <c r="A161" t="s">
         <v>200</v>
       </c>
-      <c r="B161">
-        <v>20054</v>
-      </c>
-      <c r="C161">
+      <c r="B161" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C161" s="3">
         <v>6001</v>
       </c>
       <c r="D161" s="3">
@@ -10261,10 +10263,10 @@
       <c r="A162" t="s">
         <v>201</v>
       </c>
-      <c r="B162">
-        <v>20054</v>
-      </c>
-      <c r="C162">
+      <c r="B162" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C162" s="3">
         <v>6001</v>
       </c>
       <c r="D162" s="3">
@@ -10310,10 +10312,10 @@
       <c r="A163" t="s">
         <v>202</v>
       </c>
-      <c r="B163">
-        <v>20054</v>
-      </c>
-      <c r="C163">
+      <c r="B163" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C163" s="3">
         <v>6001</v>
       </c>
       <c r="D163" s="3">
@@ -10359,10 +10361,10 @@
       <c r="A164" t="s">
         <v>203</v>
       </c>
-      <c r="B164">
-        <v>20054</v>
-      </c>
-      <c r="C164">
+      <c r="B164" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C164" s="3">
         <v>6001</v>
       </c>
       <c r="D164" s="3">
@@ -10408,10 +10410,10 @@
       <c r="A165" t="s">
         <v>204</v>
       </c>
-      <c r="B165">
-        <v>20054</v>
-      </c>
-      <c r="C165">
+      <c r="B165" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C165" s="3">
         <v>6001</v>
       </c>
       <c r="D165" s="3">
@@ -10457,10 +10459,10 @@
       <c r="A166" t="s">
         <v>205</v>
       </c>
-      <c r="B166">
-        <v>20054</v>
-      </c>
-      <c r="C166">
+      <c r="B166" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C166" s="3">
         <v>6001</v>
       </c>
       <c r="D166" s="3">
@@ -10506,10 +10508,10 @@
       <c r="A167" t="s">
         <v>206</v>
       </c>
-      <c r="B167">
-        <v>20054</v>
-      </c>
-      <c r="C167">
+      <c r="B167" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C167" s="3">
         <v>6001</v>
       </c>
       <c r="D167" s="3">
@@ -10555,10 +10557,10 @@
       <c r="A168" t="s">
         <v>207</v>
       </c>
-      <c r="B168">
-        <v>20054</v>
-      </c>
-      <c r="C168">
+      <c r="B168" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C168" s="3">
         <v>6001</v>
       </c>
       <c r="D168" s="3">
@@ -10604,10 +10606,10 @@
       <c r="A169" t="s">
         <v>208</v>
       </c>
-      <c r="B169">
-        <v>20054</v>
-      </c>
-      <c r="C169">
+      <c r="B169" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C169" s="3">
         <v>6001</v>
       </c>
       <c r="D169" s="3">
@@ -10653,10 +10655,10 @@
       <c r="A170" t="s">
         <v>209</v>
       </c>
-      <c r="B170">
-        <v>20054</v>
-      </c>
-      <c r="C170">
+      <c r="B170" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C170" s="3">
         <v>6001</v>
       </c>
       <c r="D170" s="3">
@@ -10702,10 +10704,10 @@
       <c r="A171" t="s">
         <v>210</v>
       </c>
-      <c r="B171">
-        <v>20054</v>
-      </c>
-      <c r="C171">
+      <c r="B171" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C171" s="3">
         <v>6001</v>
       </c>
       <c r="D171" s="3">
@@ -10751,10 +10753,10 @@
       <c r="A172" t="s">
         <v>211</v>
       </c>
-      <c r="B172">
-        <v>20054</v>
-      </c>
-      <c r="C172">
+      <c r="B172" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C172" s="3">
         <v>6001</v>
       </c>
       <c r="D172" s="3">
@@ -10800,10 +10802,10 @@
       <c r="A173" t="s">
         <v>212</v>
       </c>
-      <c r="B173">
-        <v>20054</v>
-      </c>
-      <c r="C173">
+      <c r="B173" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C173" s="3">
         <v>6001</v>
       </c>
       <c r="D173" s="3">
@@ -10849,10 +10851,10 @@
       <c r="A174" t="s">
         <v>213</v>
       </c>
-      <c r="B174">
-        <v>20054</v>
-      </c>
-      <c r="C174">
+      <c r="B174" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C174" s="3">
         <v>6001</v>
       </c>
       <c r="D174" s="3">
@@ -10898,10 +10900,10 @@
       <c r="A175" t="s">
         <v>214</v>
       </c>
-      <c r="B175">
-        <v>20054</v>
-      </c>
-      <c r="C175">
+      <c r="B175" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C175" s="3">
         <v>6001</v>
       </c>
       <c r="D175" s="3">
@@ -10947,10 +10949,10 @@
       <c r="A176" t="s">
         <v>215</v>
       </c>
-      <c r="B176">
-        <v>20054</v>
-      </c>
-      <c r="C176">
+      <c r="B176" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C176" s="3">
         <v>6001</v>
       </c>
       <c r="D176" s="3">
@@ -10996,10 +10998,10 @@
       <c r="A177" t="s">
         <v>216</v>
       </c>
-      <c r="B177">
-        <v>20054</v>
-      </c>
-      <c r="C177">
+      <c r="B177" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C177" s="3">
         <v>6001</v>
       </c>
       <c r="D177" s="3">
@@ -11045,10 +11047,10 @@
       <c r="A178" t="s">
         <v>217</v>
       </c>
-      <c r="B178">
-        <v>20054</v>
-      </c>
-      <c r="C178">
+      <c r="B178" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C178" s="3">
         <v>6001</v>
       </c>
       <c r="D178" s="3">
@@ -11094,10 +11096,10 @@
       <c r="A179" t="s">
         <v>218</v>
       </c>
-      <c r="B179">
-        <v>20054</v>
-      </c>
-      <c r="C179">
+      <c r="B179" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C179" s="3">
         <v>6001</v>
       </c>
       <c r="D179" s="3">
@@ -11143,10 +11145,10 @@
       <c r="A180" t="s">
         <v>219</v>
       </c>
-      <c r="B180">
-        <v>20054</v>
-      </c>
-      <c r="C180">
+      <c r="B180" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C180" s="3">
         <v>6001</v>
       </c>
       <c r="D180" s="3">
@@ -11192,10 +11194,10 @@
       <c r="A181" t="s">
         <v>220</v>
       </c>
-      <c r="B181">
-        <v>20054</v>
-      </c>
-      <c r="C181">
+      <c r="B181" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C181" s="3">
         <v>6001</v>
       </c>
       <c r="D181" s="3">
@@ -11241,10 +11243,10 @@
       <c r="A182" t="s">
         <v>221</v>
       </c>
-      <c r="B182">
-        <v>20054</v>
-      </c>
-      <c r="C182">
+      <c r="B182" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C182" s="3">
         <v>6001</v>
       </c>
       <c r="D182" s="3">
@@ -11290,10 +11292,10 @@
       <c r="A183" t="s">
         <v>222</v>
       </c>
-      <c r="B183">
-        <v>20054</v>
-      </c>
-      <c r="C183">
+      <c r="B183" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C183" s="3">
         <v>6001</v>
       </c>
       <c r="D183" s="3">
@@ -11339,10 +11341,10 @@
       <c r="A184" t="s">
         <v>223</v>
       </c>
-      <c r="B184">
-        <v>20054</v>
-      </c>
-      <c r="C184">
+      <c r="B184" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C184" s="3">
         <v>6001</v>
       </c>
       <c r="D184" s="3">
@@ -11388,10 +11390,10 @@
       <c r="A185" t="s">
         <v>224</v>
       </c>
-      <c r="B185">
-        <v>20054</v>
-      </c>
-      <c r="C185">
+      <c r="B185" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C185" s="3">
         <v>6001</v>
       </c>
       <c r="D185" s="3">
@@ -11437,10 +11439,10 @@
       <c r="A186" t="s">
         <v>225</v>
       </c>
-      <c r="B186">
-        <v>20054</v>
-      </c>
-      <c r="C186">
+      <c r="B186" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C186" s="3">
         <v>6001</v>
       </c>
       <c r="D186" s="3">
@@ -11486,10 +11488,10 @@
       <c r="A187" t="s">
         <v>226</v>
       </c>
-      <c r="B187">
-        <v>20054</v>
-      </c>
-      <c r="C187">
+      <c r="B187" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C187" s="3">
         <v>6001</v>
       </c>
       <c r="D187" s="3">
@@ -11535,10 +11537,10 @@
       <c r="A188" t="s">
         <v>227</v>
       </c>
-      <c r="B188">
-        <v>20054</v>
-      </c>
-      <c r="C188">
+      <c r="B188" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C188" s="3">
         <v>6001</v>
       </c>
       <c r="D188" s="3">
@@ -11584,10 +11586,10 @@
       <c r="A189" t="s">
         <v>228</v>
       </c>
-      <c r="B189">
-        <v>20054</v>
-      </c>
-      <c r="C189">
+      <c r="B189" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C189" s="3">
         <v>6001</v>
       </c>
       <c r="D189" s="3">
@@ -11633,10 +11635,10 @@
       <c r="A190" t="s">
         <v>229</v>
       </c>
-      <c r="B190">
-        <v>20054</v>
-      </c>
-      <c r="C190">
+      <c r="B190" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C190" s="3">
         <v>6001</v>
       </c>
       <c r="D190" s="3">
@@ -11682,10 +11684,10 @@
       <c r="A191" t="s">
         <v>230</v>
       </c>
-      <c r="B191">
-        <v>20054</v>
-      </c>
-      <c r="C191">
+      <c r="B191" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C191" s="3">
         <v>6001</v>
       </c>
       <c r="D191" s="3">
@@ -11731,10 +11733,10 @@
       <c r="A192" t="s">
         <v>231</v>
       </c>
-      <c r="B192">
-        <v>20054</v>
-      </c>
-      <c r="C192">
+      <c r="B192" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C192" s="3">
         <v>6001</v>
       </c>
       <c r="D192" s="3">
@@ -11780,10 +11782,10 @@
       <c r="A193" t="s">
         <v>232</v>
       </c>
-      <c r="B193">
-        <v>20054</v>
-      </c>
-      <c r="C193">
+      <c r="B193" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C193" s="3">
         <v>6001</v>
       </c>
       <c r="D193" s="3">
@@ -11829,10 +11831,10 @@
       <c r="A194" t="s">
         <v>233</v>
       </c>
-      <c r="B194">
-        <v>20054</v>
-      </c>
-      <c r="C194">
+      <c r="B194" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C194" s="3">
         <v>6001</v>
       </c>
       <c r="D194" s="3">
@@ -11878,10 +11880,10 @@
       <c r="A195" t="s">
         <v>234</v>
       </c>
-      <c r="B195">
-        <v>20054</v>
-      </c>
-      <c r="C195">
+      <c r="B195" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C195" s="3">
         <v>6001</v>
       </c>
       <c r="D195" s="3">
@@ -11927,10 +11929,10 @@
       <c r="A196" t="s">
         <v>235</v>
       </c>
-      <c r="B196">
-        <v>20054</v>
-      </c>
-      <c r="C196">
+      <c r="B196" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C196" s="3">
         <v>6001</v>
       </c>
       <c r="D196" s="3">
@@ -11976,10 +11978,10 @@
       <c r="A197" t="s">
         <v>236</v>
       </c>
-      <c r="B197">
-        <v>20054</v>
-      </c>
-      <c r="C197">
+      <c r="B197" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C197" s="3">
         <v>6001</v>
       </c>
       <c r="D197" s="3">
@@ -12025,10 +12027,10 @@
       <c r="A198" t="s">
         <v>237</v>
       </c>
-      <c r="B198">
-        <v>20054</v>
-      </c>
-      <c r="C198">
+      <c r="B198" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C198" s="3">
         <v>6001</v>
       </c>
       <c r="D198" s="3">
@@ -12074,10 +12076,10 @@
       <c r="A199" t="s">
         <v>238</v>
       </c>
-      <c r="B199">
-        <v>20054</v>
-      </c>
-      <c r="C199">
+      <c r="B199" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C199" s="3">
         <v>6001</v>
       </c>
       <c r="D199" s="3">
@@ -12123,10 +12125,10 @@
       <c r="A200" t="s">
         <v>239</v>
       </c>
-      <c r="B200">
-        <v>20054</v>
-      </c>
-      <c r="C200">
+      <c r="B200" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C200" s="3">
         <v>6001</v>
       </c>
       <c r="D200" s="3">
@@ -12172,10 +12174,10 @@
       <c r="A201" t="s">
         <v>240</v>
       </c>
-      <c r="B201">
-        <v>20054</v>
-      </c>
-      <c r="C201">
+      <c r="B201" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C201" s="3">
         <v>6001</v>
       </c>
       <c r="D201" s="3">
@@ -12221,10 +12223,10 @@
       <c r="A202" t="s">
         <v>241</v>
       </c>
-      <c r="B202">
-        <v>20054</v>
-      </c>
-      <c r="C202">
+      <c r="B202" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C202" s="3">
         <v>6001</v>
       </c>
       <c r="D202" s="3">
@@ -12270,10 +12272,10 @@
       <c r="A203" t="s">
         <v>242</v>
       </c>
-      <c r="B203">
-        <v>20054</v>
-      </c>
-      <c r="C203">
+      <c r="B203" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C203" s="3">
         <v>6001</v>
       </c>
       <c r="D203" s="3">
@@ -12319,10 +12321,10 @@
       <c r="A204" t="s">
         <v>243</v>
       </c>
-      <c r="B204">
-        <v>20054</v>
-      </c>
-      <c r="C204">
+      <c r="B204" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C204" s="3">
         <v>6001</v>
       </c>
       <c r="D204" s="3">
@@ -12368,10 +12370,10 @@
       <c r="A205" t="s">
         <v>244</v>
       </c>
-      <c r="B205">
-        <v>20054</v>
-      </c>
-      <c r="C205">
+      <c r="B205" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C205" s="3">
         <v>6001</v>
       </c>
       <c r="D205" s="3">
@@ -12417,10 +12419,10 @@
       <c r="A206" t="s">
         <v>245</v>
       </c>
-      <c r="B206">
-        <v>20054</v>
-      </c>
-      <c r="C206">
+      <c r="B206" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C206" s="3">
         <v>6001</v>
       </c>
       <c r="D206" s="3">
@@ -12466,10 +12468,10 @@
       <c r="A207" t="s">
         <v>246</v>
       </c>
-      <c r="B207">
-        <v>20054</v>
-      </c>
-      <c r="C207">
+      <c r="B207" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C207" s="3">
         <v>6001</v>
       </c>
       <c r="D207" s="3">
@@ -12515,10 +12517,10 @@
       <c r="A208" t="s">
         <v>247</v>
       </c>
-      <c r="B208">
-        <v>20054</v>
-      </c>
-      <c r="C208">
+      <c r="B208" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C208" s="3">
         <v>6001</v>
       </c>
       <c r="D208" s="3">
@@ -12564,10 +12566,10 @@
       <c r="A209" t="s">
         <v>248</v>
       </c>
-      <c r="B209">
-        <v>20054</v>
-      </c>
-      <c r="C209">
+      <c r="B209" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C209" s="3">
         <v>6001</v>
       </c>
       <c r="D209" s="3">
@@ -12613,10 +12615,10 @@
       <c r="A210" t="s">
         <v>249</v>
       </c>
-      <c r="B210">
-        <v>20054</v>
-      </c>
-      <c r="C210">
+      <c r="B210" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C210" s="3">
         <v>6001</v>
       </c>
       <c r="D210" s="3">
@@ -12662,10 +12664,10 @@
       <c r="A211" t="s">
         <v>250</v>
       </c>
-      <c r="B211">
-        <v>20054</v>
-      </c>
-      <c r="C211">
+      <c r="B211" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C211" s="3">
         <v>6001</v>
       </c>
       <c r="D211" s="3">
@@ -12711,10 +12713,10 @@
       <c r="A212" t="s">
         <v>33</v>
       </c>
-      <c r="B212">
-        <v>20054</v>
-      </c>
-      <c r="C212">
+      <c r="B212" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C212" s="3">
         <v>6001</v>
       </c>
       <c r="D212" s="3">
@@ -12760,10 +12762,10 @@
       <c r="A213" t="s">
         <v>251</v>
       </c>
-      <c r="B213">
-        <v>20054</v>
-      </c>
-      <c r="C213">
+      <c r="B213" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C213" s="3">
         <v>6001</v>
       </c>
       <c r="D213" s="3">
@@ -12809,10 +12811,10 @@
       <c r="A214" t="s">
         <v>252</v>
       </c>
-      <c r="B214">
-        <v>20054</v>
-      </c>
-      <c r="C214">
+      <c r="B214" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C214" s="3">
         <v>6001</v>
       </c>
       <c r="D214" s="3">
@@ -12858,10 +12860,10 @@
       <c r="A215" t="s">
         <v>253</v>
       </c>
-      <c r="B215">
-        <v>20054</v>
-      </c>
-      <c r="C215">
+      <c r="B215" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C215" s="3">
         <v>6001</v>
       </c>
       <c r="D215" s="3">
@@ -12907,10 +12909,10 @@
       <c r="A216" t="s">
         <v>254</v>
       </c>
-      <c r="B216">
-        <v>20054</v>
-      </c>
-      <c r="C216">
+      <c r="B216" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C216" s="3">
         <v>6001</v>
       </c>
       <c r="D216" s="3">
@@ -12956,10 +12958,10 @@
       <c r="A217" t="s">
         <v>255</v>
       </c>
-      <c r="B217">
-        <v>20054</v>
-      </c>
-      <c r="C217">
+      <c r="B217" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C217" s="3">
         <v>6001</v>
       </c>
       <c r="D217" s="3">
@@ -13005,10 +13007,10 @@
       <c r="A218" t="s">
         <v>256</v>
       </c>
-      <c r="B218">
-        <v>20054</v>
-      </c>
-      <c r="C218">
+      <c r="B218" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C218" s="3">
         <v>6001</v>
       </c>
       <c r="D218" s="3">
@@ -13054,10 +13056,10 @@
       <c r="A219" t="s">
         <v>257</v>
       </c>
-      <c r="B219">
-        <v>20054</v>
-      </c>
-      <c r="C219">
+      <c r="B219" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C219" s="3">
         <v>6001</v>
       </c>
       <c r="D219" s="3">
@@ -13103,10 +13105,10 @@
       <c r="A220" t="s">
         <v>258</v>
       </c>
-      <c r="B220">
-        <v>20054</v>
-      </c>
-      <c r="C220">
+      <c r="B220" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C220" s="3">
         <v>6001</v>
       </c>
       <c r="D220" s="3">
@@ -13152,10 +13154,10 @@
       <c r="A221" t="s">
         <v>259</v>
       </c>
-      <c r="B221">
-        <v>20054</v>
-      </c>
-      <c r="C221">
+      <c r="B221" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C221" s="3">
         <v>6001</v>
       </c>
       <c r="D221" s="3">
@@ -13201,10 +13203,10 @@
       <c r="A222" t="s">
         <v>260</v>
       </c>
-      <c r="B222">
-        <v>20054</v>
-      </c>
-      <c r="C222">
+      <c r="B222" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C222" s="3">
         <v>6001</v>
       </c>
       <c r="D222" s="3">
@@ -13250,10 +13252,10 @@
       <c r="A223" t="s">
         <v>261</v>
       </c>
-      <c r="B223">
-        <v>20054</v>
-      </c>
-      <c r="C223">
+      <c r="B223" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C223" s="3">
         <v>6001</v>
       </c>
       <c r="D223" s="3">
@@ -13299,10 +13301,10 @@
       <c r="A224" t="s">
         <v>262</v>
       </c>
-      <c r="B224">
-        <v>20054</v>
-      </c>
-      <c r="C224">
+      <c r="B224" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C224" s="3">
         <v>6001</v>
       </c>
       <c r="D224" s="3">
@@ -13348,10 +13350,10 @@
       <c r="A225" t="s">
         <v>263</v>
       </c>
-      <c r="B225">
-        <v>20054</v>
-      </c>
-      <c r="C225">
+      <c r="B225" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C225" s="3">
         <v>6001</v>
       </c>
       <c r="D225" s="3">
@@ -13397,10 +13399,10 @@
       <c r="A226" t="s">
         <v>264</v>
       </c>
-      <c r="B226">
-        <v>20054</v>
-      </c>
-      <c r="C226">
+      <c r="B226" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C226" s="3">
         <v>6001</v>
       </c>
       <c r="D226" s="3">
@@ -13446,10 +13448,10 @@
       <c r="A227" t="s">
         <v>265</v>
       </c>
-      <c r="B227">
-        <v>20054</v>
-      </c>
-      <c r="C227">
+      <c r="B227" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C227" s="3">
         <v>6001</v>
       </c>
       <c r="D227" s="3">
@@ -13495,10 +13497,10 @@
       <c r="A228" t="s">
         <v>266</v>
       </c>
-      <c r="B228">
-        <v>20054</v>
-      </c>
-      <c r="C228">
+      <c r="B228" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C228" s="3">
         <v>6001</v>
       </c>
       <c r="D228" s="3">
@@ -13544,10 +13546,10 @@
       <c r="A229" t="s">
         <v>267</v>
       </c>
-      <c r="B229">
-        <v>20054</v>
-      </c>
-      <c r="C229">
+      <c r="B229" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C229" s="3">
         <v>6001</v>
       </c>
       <c r="D229" s="3">
@@ -13593,10 +13595,10 @@
       <c r="A230" t="s">
         <v>268</v>
       </c>
-      <c r="B230">
-        <v>20054</v>
-      </c>
-      <c r="C230">
+      <c r="B230" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C230" s="3">
         <v>6001</v>
       </c>
       <c r="D230" s="3">
@@ -13642,10 +13644,10 @@
       <c r="A231" t="s">
         <v>269</v>
       </c>
-      <c r="B231">
-        <v>20054</v>
-      </c>
-      <c r="C231">
+      <c r="B231" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C231" s="3">
         <v>6001</v>
       </c>
       <c r="D231" s="3">
@@ -13691,10 +13693,10 @@
       <c r="A232" t="s">
         <v>270</v>
       </c>
-      <c r="B232">
-        <v>20054</v>
-      </c>
-      <c r="C232">
+      <c r="B232" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C232" s="3">
         <v>6001</v>
       </c>
       <c r="D232" s="3">
@@ -13740,10 +13742,10 @@
       <c r="A233" t="s">
         <v>271</v>
       </c>
-      <c r="B233">
-        <v>20054</v>
-      </c>
-      <c r="C233">
+      <c r="B233" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C233" s="3">
         <v>6001</v>
       </c>
       <c r="D233" s="3">
@@ -13789,10 +13791,10 @@
       <c r="A234" t="s">
         <v>272</v>
       </c>
-      <c r="B234">
-        <v>20054</v>
-      </c>
-      <c r="C234">
+      <c r="B234" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C234" s="3">
         <v>6001</v>
       </c>
       <c r="D234" s="3">
@@ -13838,10 +13840,10 @@
       <c r="A235" t="s">
         <v>273</v>
       </c>
-      <c r="B235">
-        <v>20054</v>
-      </c>
-      <c r="C235">
+      <c r="B235" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C235" s="3">
         <v>6001</v>
       </c>
       <c r="D235" s="3">
@@ -13887,10 +13889,10 @@
       <c r="A236" t="s">
         <v>274</v>
       </c>
-      <c r="B236">
-        <v>20054</v>
-      </c>
-      <c r="C236">
+      <c r="B236" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C236" s="3">
         <v>6001</v>
       </c>
       <c r="D236" s="3">
@@ -13936,10 +13938,10 @@
       <c r="A237" t="s">
         <v>275</v>
       </c>
-      <c r="B237">
-        <v>20054</v>
-      </c>
-      <c r="C237">
+      <c r="B237" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C237" s="3">
         <v>6001</v>
       </c>
       <c r="D237" s="3">
@@ -13985,10 +13987,10 @@
       <c r="A238" t="s">
         <v>276</v>
       </c>
-      <c r="B238">
-        <v>20054</v>
-      </c>
-      <c r="C238">
+      <c r="B238" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C238" s="3">
         <v>6001</v>
       </c>
       <c r="D238" s="3">
@@ -14034,10 +14036,10 @@
       <c r="A239" t="s">
         <v>277</v>
       </c>
-      <c r="B239">
-        <v>20054</v>
-      </c>
-      <c r="C239">
+      <c r="B239" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C239" s="3">
         <v>6001</v>
       </c>
       <c r="D239" s="3">
@@ -14083,10 +14085,10 @@
       <c r="A240" t="s">
         <v>278</v>
       </c>
-      <c r="B240">
-        <v>20054</v>
-      </c>
-      <c r="C240">
+      <c r="B240" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C240" s="3">
         <v>6001</v>
       </c>
       <c r="D240" s="3">
@@ -14132,10 +14134,10 @@
       <c r="A241" t="s">
         <v>279</v>
       </c>
-      <c r="B241">
-        <v>20054</v>
-      </c>
-      <c r="C241">
+      <c r="B241" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C241" s="3">
         <v>6001</v>
       </c>
       <c r="D241" s="3">
@@ -14181,10 +14183,10 @@
       <c r="A242" t="s">
         <v>280</v>
       </c>
-      <c r="B242">
-        <v>20054</v>
-      </c>
-      <c r="C242">
+      <c r="B242" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C242" s="3">
         <v>6001</v>
       </c>
       <c r="D242" s="3">
@@ -14230,10 +14232,10 @@
       <c r="A243" t="s">
         <v>281</v>
       </c>
-      <c r="B243">
-        <v>20054</v>
-      </c>
-      <c r="C243">
+      <c r="B243" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C243" s="3">
         <v>6001</v>
       </c>
       <c r="D243" s="3">
@@ -14279,10 +14281,10 @@
       <c r="A244" t="s">
         <v>282</v>
       </c>
-      <c r="B244">
-        <v>20054</v>
-      </c>
-      <c r="C244">
+      <c r="B244" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C244" s="3">
         <v>6001</v>
       </c>
       <c r="D244" s="3">
@@ -14328,10 +14330,10 @@
       <c r="A245" t="s">
         <v>283</v>
       </c>
-      <c r="B245">
-        <v>20054</v>
-      </c>
-      <c r="C245">
+      <c r="B245" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C245" s="3">
         <v>6001</v>
       </c>
       <c r="D245" s="3">
@@ -14377,10 +14379,10 @@
       <c r="A246" t="s">
         <v>284</v>
       </c>
-      <c r="B246">
-        <v>20054</v>
-      </c>
-      <c r="C246">
+      <c r="B246" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C246" s="3">
         <v>6001</v>
       </c>
       <c r="D246" s="3">
@@ -14426,10 +14428,10 @@
       <c r="A247" t="s">
         <v>285</v>
       </c>
-      <c r="B247">
-        <v>20054</v>
-      </c>
-      <c r="C247">
+      <c r="B247" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C247" s="3">
         <v>6001</v>
       </c>
       <c r="D247" s="3">
@@ -14475,10 +14477,10 @@
       <c r="A248" t="s">
         <v>286</v>
       </c>
-      <c r="B248">
-        <v>20054</v>
-      </c>
-      <c r="C248">
+      <c r="B248" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C248" s="3">
         <v>6001</v>
       </c>
       <c r="D248" s="3">
@@ -14524,10 +14526,10 @@
       <c r="A249" t="s">
         <v>287</v>
       </c>
-      <c r="B249">
-        <v>20054</v>
-      </c>
-      <c r="C249">
+      <c r="B249" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C249" s="3">
         <v>6001</v>
       </c>
       <c r="D249" s="3">
@@ -14573,10 +14575,10 @@
       <c r="A250" t="s">
         <v>288</v>
       </c>
-      <c r="B250">
-        <v>20054</v>
-      </c>
-      <c r="C250">
+      <c r="B250" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C250" s="3">
         <v>6001</v>
       </c>
       <c r="D250" s="3">
@@ -14622,10 +14624,10 @@
       <c r="A251" t="s">
         <v>289</v>
       </c>
-      <c r="B251">
-        <v>20054</v>
-      </c>
-      <c r="C251">
+      <c r="B251" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C251" s="3">
         <v>6001</v>
       </c>
       <c r="D251" s="3">
@@ -14671,10 +14673,10 @@
       <c r="A252" t="s">
         <v>290</v>
       </c>
-      <c r="B252">
-        <v>20054</v>
-      </c>
-      <c r="C252">
+      <c r="B252" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C252" s="3">
         <v>6001</v>
       </c>
       <c r="D252" s="3">
@@ -14720,10 +14722,10 @@
       <c r="A253" t="s">
         <v>291</v>
       </c>
-      <c r="B253">
-        <v>20054</v>
-      </c>
-      <c r="C253">
+      <c r="B253" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C253" s="3">
         <v>6001</v>
       </c>
       <c r="D253" s="3">
@@ -14769,10 +14771,10 @@
       <c r="A254" t="s">
         <v>292</v>
       </c>
-      <c r="B254">
-        <v>20054</v>
-      </c>
-      <c r="C254">
+      <c r="B254" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C254" s="3">
         <v>6001</v>
       </c>
       <c r="D254" s="3">
@@ -14818,10 +14820,10 @@
       <c r="A255" t="s">
         <v>293</v>
       </c>
-      <c r="B255">
-        <v>20054</v>
-      </c>
-      <c r="C255">
+      <c r="B255" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C255" s="3">
         <v>6001</v>
       </c>
       <c r="D255" s="3">
@@ -14867,10 +14869,10 @@
       <c r="A256" t="s">
         <v>294</v>
       </c>
-      <c r="B256">
-        <v>20054</v>
-      </c>
-      <c r="C256">
+      <c r="B256" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C256" s="3">
         <v>6001</v>
       </c>
       <c r="D256" s="3">
@@ -14916,10 +14918,10 @@
       <c r="A257" t="s">
         <v>295</v>
       </c>
-      <c r="B257">
-        <v>20054</v>
-      </c>
-      <c r="C257">
+      <c r="B257" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C257" s="3">
         <v>6001</v>
       </c>
       <c r="D257" s="3">
@@ -14965,10 +14967,10 @@
       <c r="A258" t="s">
         <v>296</v>
       </c>
-      <c r="B258">
-        <v>20054</v>
-      </c>
-      <c r="C258">
+      <c r="B258" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C258" s="3">
         <v>6001</v>
       </c>
       <c r="D258" s="3">
@@ -15014,10 +15016,10 @@
       <c r="A259" t="s">
         <v>297</v>
       </c>
-      <c r="B259">
-        <v>20054</v>
-      </c>
-      <c r="C259">
+      <c r="B259" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C259" s="3">
         <v>6001</v>
       </c>
       <c r="D259" s="3">
@@ -15063,10 +15065,10 @@
       <c r="A260" t="s">
         <v>298</v>
       </c>
-      <c r="B260">
-        <v>20054</v>
-      </c>
-      <c r="C260">
+      <c r="B260" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C260" s="3">
         <v>6001</v>
       </c>
       <c r="D260" s="3">
@@ -15112,10 +15114,10 @@
       <c r="A261" t="s">
         <v>299</v>
       </c>
-      <c r="B261">
-        <v>20054</v>
-      </c>
-      <c r="C261">
+      <c r="B261" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C261" s="3">
         <v>6001</v>
       </c>
       <c r="D261" s="3">
@@ -15161,10 +15163,10 @@
       <c r="A262" t="s">
         <v>300</v>
       </c>
-      <c r="B262">
-        <v>20054</v>
-      </c>
-      <c r="C262">
+      <c r="B262" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C262" s="3">
         <v>6001</v>
       </c>
       <c r="D262" s="3">
@@ -15210,10 +15212,10 @@
       <c r="A263" t="s">
         <v>301</v>
       </c>
-      <c r="B263">
-        <v>20054</v>
-      </c>
-      <c r="C263">
+      <c r="B263" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C263" s="3">
         <v>6001</v>
       </c>
       <c r="D263" s="3">
@@ -15259,10 +15261,10 @@
       <c r="A264" t="s">
         <v>302</v>
       </c>
-      <c r="B264">
-        <v>20054</v>
-      </c>
-      <c r="C264">
+      <c r="B264" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C264" s="3">
         <v>6001</v>
       </c>
       <c r="D264" s="3">
@@ -15308,10 +15310,10 @@
       <c r="A265" t="s">
         <v>303</v>
       </c>
-      <c r="B265">
-        <v>20054</v>
-      </c>
-      <c r="C265">
+      <c r="B265" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C265" s="3">
         <v>6001</v>
       </c>
       <c r="D265" s="3">
@@ -15357,10 +15359,10 @@
       <c r="A266" t="s">
         <v>304</v>
       </c>
-      <c r="B266">
-        <v>20054</v>
-      </c>
-      <c r="C266">
+      <c r="B266" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C266" s="3">
         <v>6001</v>
       </c>
       <c r="D266" s="3">
@@ -15406,10 +15408,10 @@
       <c r="A267" t="s">
         <v>305</v>
       </c>
-      <c r="B267">
-        <v>20054</v>
-      </c>
-      <c r="C267">
+      <c r="B267" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C267" s="3">
         <v>6001</v>
       </c>
       <c r="D267" s="3">
@@ -15455,10 +15457,10 @@
       <c r="A268" t="s">
         <v>306</v>
       </c>
-      <c r="B268">
-        <v>20054</v>
-      </c>
-      <c r="C268">
+      <c r="B268" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C268" s="3">
         <v>6001</v>
       </c>
       <c r="D268" s="3">
@@ -15504,10 +15506,10 @@
       <c r="A269" t="s">
         <v>307</v>
       </c>
-      <c r="B269">
-        <v>20054</v>
-      </c>
-      <c r="C269">
+      <c r="B269" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C269" s="3">
         <v>6001</v>
       </c>
       <c r="D269" s="3">
@@ -15553,10 +15555,10 @@
       <c r="A270" t="s">
         <v>308</v>
       </c>
-      <c r="B270">
-        <v>20054</v>
-      </c>
-      <c r="C270">
+      <c r="B270" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C270" s="3">
         <v>6001</v>
       </c>
       <c r="D270" s="3">
@@ -15602,10 +15604,10 @@
       <c r="A271" t="s">
         <v>309</v>
       </c>
-      <c r="B271">
-        <v>20054</v>
-      </c>
-      <c r="C271">
+      <c r="B271" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C271" s="3">
         <v>6001</v>
       </c>
       <c r="D271" s="3">
@@ -15651,10 +15653,10 @@
       <c r="A272" t="s">
         <v>310</v>
       </c>
-      <c r="B272">
-        <v>20054</v>
-      </c>
-      <c r="C272">
+      <c r="B272" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C272" s="3">
         <v>6001</v>
       </c>
       <c r="D272" s="3">
@@ -15700,10 +15702,10 @@
       <c r="A273" t="s">
         <v>311</v>
       </c>
-      <c r="B273">
-        <v>20054</v>
-      </c>
-      <c r="C273">
+      <c r="B273" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C273" s="3">
         <v>6001</v>
       </c>
       <c r="D273" s="3">
@@ -15749,10 +15751,10 @@
       <c r="A274" t="s">
         <v>312</v>
       </c>
-      <c r="B274">
-        <v>20054</v>
-      </c>
-      <c r="C274">
+      <c r="B274" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C274" s="3">
         <v>6001</v>
       </c>
       <c r="D274" s="3">
@@ -15798,10 +15800,10 @@
       <c r="A275" t="s">
         <v>313</v>
       </c>
-      <c r="B275">
-        <v>20054</v>
-      </c>
-      <c r="C275">
+      <c r="B275" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C275" s="3">
         <v>6001</v>
       </c>
       <c r="D275" s="3">
@@ -15847,10 +15849,10 @@
       <c r="A276" t="s">
         <v>314</v>
       </c>
-      <c r="B276">
-        <v>20054</v>
-      </c>
-      <c r="C276">
+      <c r="B276" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C276" s="3">
         <v>6001</v>
       </c>
       <c r="D276" s="3">
@@ -15896,10 +15898,10 @@
       <c r="A277" t="s">
         <v>315</v>
       </c>
-      <c r="B277">
-        <v>20054</v>
-      </c>
-      <c r="C277">
+      <c r="B277" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C277" s="3">
         <v>6001</v>
       </c>
       <c r="D277" s="3">
@@ -15945,10 +15947,10 @@
       <c r="A278" t="s">
         <v>316</v>
       </c>
-      <c r="B278">
-        <v>20054</v>
-      </c>
-      <c r="C278">
+      <c r="B278" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C278" s="3">
         <v>6001</v>
       </c>
       <c r="D278" s="3">
@@ -15994,10 +15996,10 @@
       <c r="A279" t="s">
         <v>317</v>
       </c>
-      <c r="B279">
-        <v>20054</v>
-      </c>
-      <c r="C279">
+      <c r="B279" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C279" s="3">
         <v>6001</v>
       </c>
       <c r="D279" s="3">
@@ -16043,10 +16045,10 @@
       <c r="A280" t="s">
         <v>318</v>
       </c>
-      <c r="B280">
-        <v>20054</v>
-      </c>
-      <c r="C280">
+      <c r="B280" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C280" s="3">
         <v>6001</v>
       </c>
       <c r="D280" s="3">
@@ -16092,10 +16094,10 @@
       <c r="A281" t="s">
         <v>319</v>
       </c>
-      <c r="B281">
-        <v>20054</v>
-      </c>
-      <c r="C281">
+      <c r="B281" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C281" s="3">
         <v>6001</v>
       </c>
       <c r="D281" s="3">
@@ -16141,10 +16143,10 @@
       <c r="A282" t="s">
         <v>320</v>
       </c>
-      <c r="B282">
-        <v>20054</v>
-      </c>
-      <c r="C282">
+      <c r="B282" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C282" s="3">
         <v>6001</v>
       </c>
       <c r="D282" s="3">
@@ -16190,10 +16192,10 @@
       <c r="A283" t="s">
         <v>321</v>
       </c>
-      <c r="B283">
-        <v>20054</v>
-      </c>
-      <c r="C283">
+      <c r="B283" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C283" s="3">
         <v>6001</v>
       </c>
       <c r="D283" s="3">
@@ -16239,10 +16241,10 @@
       <c r="A284" t="s">
         <v>322</v>
       </c>
-      <c r="B284">
-        <v>20054</v>
-      </c>
-      <c r="C284">
+      <c r="B284" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C284" s="3">
         <v>6001</v>
       </c>
       <c r="D284" s="3">
@@ -16288,10 +16290,10 @@
       <c r="A285" t="s">
         <v>323</v>
       </c>
-      <c r="B285">
-        <v>20054</v>
-      </c>
-      <c r="C285">
+      <c r="B285" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C285" s="3">
         <v>6001</v>
       </c>
       <c r="D285" s="3">
@@ -16337,10 +16339,10 @@
       <c r="A286" t="s">
         <v>324</v>
       </c>
-      <c r="B286">
-        <v>20054</v>
-      </c>
-      <c r="C286">
+      <c r="B286" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C286" s="3">
         <v>6001</v>
       </c>
       <c r="D286" s="3">
@@ -16386,10 +16388,10 @@
       <c r="A287" t="s">
         <v>325</v>
       </c>
-      <c r="B287">
-        <v>20054</v>
-      </c>
-      <c r="C287">
+      <c r="B287" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C287" s="3">
         <v>6001</v>
       </c>
       <c r="D287" s="3">
@@ -16435,10 +16437,10 @@
       <c r="A288" t="s">
         <v>326</v>
       </c>
-      <c r="B288">
-        <v>20054</v>
-      </c>
-      <c r="C288">
+      <c r="B288" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C288" s="3">
         <v>6001</v>
       </c>
       <c r="D288" s="3">
@@ -16484,10 +16486,10 @@
       <c r="A289" t="s">
         <v>327</v>
       </c>
-      <c r="B289">
-        <v>20054</v>
-      </c>
-      <c r="C289">
+      <c r="B289" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C289" s="3">
         <v>6001</v>
       </c>
       <c r="D289" s="3">
@@ -16533,10 +16535,10 @@
       <c r="A290" t="s">
         <v>328</v>
       </c>
-      <c r="B290">
-        <v>20054</v>
-      </c>
-      <c r="C290">
+      <c r="B290" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C290" s="3">
         <v>6001</v>
       </c>
       <c r="D290" s="3">
@@ -16582,10 +16584,10 @@
       <c r="A291" t="s">
         <v>329</v>
       </c>
-      <c r="B291">
-        <v>20054</v>
-      </c>
-      <c r="C291">
+      <c r="B291" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C291" s="3">
         <v>6001</v>
       </c>
       <c r="D291" s="3">
@@ -16631,10 +16633,10 @@
       <c r="A292" t="s">
         <v>330</v>
       </c>
-      <c r="B292">
-        <v>20054</v>
-      </c>
-      <c r="C292">
+      <c r="B292" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C292" s="3">
         <v>6001</v>
       </c>
       <c r="D292" s="3">
@@ -16680,10 +16682,10 @@
       <c r="A293" t="s">
         <v>331</v>
       </c>
-      <c r="B293">
-        <v>20054</v>
-      </c>
-      <c r="C293">
+      <c r="B293" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C293" s="3">
         <v>6001</v>
       </c>
       <c r="D293" s="3">
@@ -16729,10 +16731,10 @@
       <c r="A294" t="s">
         <v>332</v>
       </c>
-      <c r="B294">
-        <v>20054</v>
-      </c>
-      <c r="C294">
+      <c r="B294" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C294" s="3">
         <v>6001</v>
       </c>
       <c r="D294" s="3">
@@ -16778,10 +16780,10 @@
       <c r="A295" t="s">
         <v>333</v>
       </c>
-      <c r="B295">
-        <v>20054</v>
-      </c>
-      <c r="C295">
+      <c r="B295" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C295" s="3">
         <v>6001</v>
       </c>
       <c r="D295" s="3">
@@ -16827,10 +16829,10 @@
       <c r="A296" t="s">
         <v>334</v>
       </c>
-      <c r="B296">
-        <v>20054</v>
-      </c>
-      <c r="C296">
+      <c r="B296" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C296" s="3">
         <v>6001</v>
       </c>
       <c r="D296" s="3">
@@ -16876,10 +16878,10 @@
       <c r="A297" t="s">
         <v>335</v>
       </c>
-      <c r="B297">
-        <v>20054</v>
-      </c>
-      <c r="C297">
+      <c r="B297" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C297" s="3">
         <v>6001</v>
       </c>
       <c r="D297" s="3">
@@ -16925,10 +16927,10 @@
       <c r="A298" t="s">
         <v>336</v>
       </c>
-      <c r="B298">
-        <v>20054</v>
-      </c>
-      <c r="C298">
+      <c r="B298" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C298" s="3">
         <v>6001</v>
       </c>
       <c r="D298" s="3">
@@ -16974,10 +16976,10 @@
       <c r="A299" t="s">
         <v>337</v>
       </c>
-      <c r="B299">
-        <v>20054</v>
-      </c>
-      <c r="C299">
+      <c r="B299" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C299" s="3">
         <v>6001</v>
       </c>
       <c r="D299" s="3">
@@ -17023,10 +17025,10 @@
       <c r="A300" t="s">
         <v>338</v>
       </c>
-      <c r="B300">
-        <v>20054</v>
-      </c>
-      <c r="C300">
+      <c r="B300" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C300" s="3">
         <v>6001</v>
       </c>
       <c r="D300" s="3">
@@ -17072,10 +17074,10 @@
       <c r="A301" t="s">
         <v>339</v>
       </c>
-      <c r="B301">
-        <v>20054</v>
-      </c>
-      <c r="C301">
+      <c r="B301" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C301" s="3">
         <v>6001</v>
       </c>
       <c r="D301" s="3">
@@ -17121,10 +17123,10 @@
       <c r="A302" t="s">
         <v>340</v>
       </c>
-      <c r="B302">
-        <v>20054</v>
-      </c>
-      <c r="C302">
+      <c r="B302" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C302" s="3">
         <v>6001</v>
       </c>
       <c r="D302" s="3">
@@ -17170,10 +17172,10 @@
       <c r="A303" t="s">
         <v>341</v>
       </c>
-      <c r="B303">
-        <v>20054</v>
-      </c>
-      <c r="C303">
+      <c r="B303" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C303" s="3">
         <v>6001</v>
       </c>
       <c r="D303" s="3">
@@ -17219,10 +17221,10 @@
       <c r="A304" t="s">
         <v>342</v>
       </c>
-      <c r="B304">
-        <v>20054</v>
-      </c>
-      <c r="C304">
+      <c r="B304" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C304" s="3">
         <v>6001</v>
       </c>
       <c r="D304" s="3">
@@ -17268,10 +17270,10 @@
       <c r="A305" t="s">
         <v>343</v>
       </c>
-      <c r="B305">
-        <v>20054</v>
-      </c>
-      <c r="C305">
+      <c r="B305" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C305" s="3">
         <v>6001</v>
       </c>
       <c r="D305" s="3">
@@ -17317,10 +17319,10 @@
       <c r="A306" t="s">
         <v>344</v>
       </c>
-      <c r="B306">
-        <v>20054</v>
-      </c>
-      <c r="C306">
+      <c r="B306" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C306" s="3">
         <v>6001</v>
       </c>
       <c r="D306" s="3">
@@ -17366,10 +17368,10 @@
       <c r="A307" t="s">
         <v>345</v>
       </c>
-      <c r="B307">
-        <v>20054</v>
-      </c>
-      <c r="C307">
+      <c r="B307" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C307" s="3">
         <v>6001</v>
       </c>
       <c r="D307" s="3">
@@ -17415,10 +17417,10 @@
       <c r="A308" t="s">
         <v>346</v>
       </c>
-      <c r="B308">
-        <v>20054</v>
-      </c>
-      <c r="C308">
+      <c r="B308" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C308" s="3">
         <v>6001</v>
       </c>
       <c r="D308" s="3">
@@ -17464,10 +17466,10 @@
       <c r="A309" t="s">
         <v>347</v>
       </c>
-      <c r="B309">
-        <v>20054</v>
-      </c>
-      <c r="C309">
+      <c r="B309" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C309" s="3">
         <v>6001</v>
       </c>
       <c r="D309" s="3">
@@ -17513,10 +17515,10 @@
       <c r="A310" t="s">
         <v>348</v>
       </c>
-      <c r="B310">
-        <v>20054</v>
-      </c>
-      <c r="C310">
+      <c r="B310" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C310" s="3">
         <v>6001</v>
       </c>
       <c r="D310" s="3">
@@ -17562,10 +17564,10 @@
       <c r="A311" t="s">
         <v>349</v>
       </c>
-      <c r="B311">
-        <v>20054</v>
-      </c>
-      <c r="C311">
+      <c r="B311" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C311" s="3">
         <v>6001</v>
       </c>
       <c r="D311" s="3">
@@ -17611,10 +17613,10 @@
       <c r="A312" t="s">
         <v>350</v>
       </c>
-      <c r="B312">
-        <v>20054</v>
-      </c>
-      <c r="C312">
+      <c r="B312" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C312" s="3">
         <v>6001</v>
       </c>
       <c r="D312" s="3">
@@ -17660,10 +17662,10 @@
       <c r="A313" t="s">
         <v>351</v>
       </c>
-      <c r="B313">
-        <v>20054</v>
-      </c>
-      <c r="C313">
+      <c r="B313" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C313" s="3">
         <v>6001</v>
       </c>
       <c r="D313" s="3">
@@ -17709,10 +17711,10 @@
       <c r="A314" t="s">
         <v>352</v>
       </c>
-      <c r="B314">
-        <v>20054</v>
-      </c>
-      <c r="C314">
+      <c r="B314" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C314" s="3">
         <v>6001</v>
       </c>
       <c r="D314" s="3">
@@ -17758,10 +17760,10 @@
       <c r="A315" t="s">
         <v>353</v>
       </c>
-      <c r="B315">
-        <v>20054</v>
-      </c>
-      <c r="C315">
+      <c r="B315" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C315" s="3">
         <v>6001</v>
       </c>
       <c r="D315" s="3">
@@ -17807,10 +17809,10 @@
       <c r="A316" t="s">
         <v>354</v>
       </c>
-      <c r="B316">
-        <v>20054</v>
-      </c>
-      <c r="C316">
+      <c r="B316" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C316" s="3">
         <v>6001</v>
       </c>
       <c r="D316" s="3">
@@ -17856,10 +17858,10 @@
       <c r="A317" t="s">
         <v>355</v>
       </c>
-      <c r="B317">
-        <v>20054</v>
-      </c>
-      <c r="C317">
+      <c r="B317" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C317" s="3">
         <v>6001</v>
       </c>
       <c r="D317" s="3">
@@ -17905,10 +17907,10 @@
       <c r="A318" t="s">
         <v>356</v>
       </c>
-      <c r="B318">
-        <v>20054</v>
-      </c>
-      <c r="C318">
+      <c r="B318" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C318" s="3">
         <v>6001</v>
       </c>
       <c r="D318" s="3">
@@ -17954,10 +17956,10 @@
       <c r="A319" t="s">
         <v>357</v>
       </c>
-      <c r="B319">
-        <v>20054</v>
-      </c>
-      <c r="C319">
+      <c r="B319" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C319" s="3">
         <v>6001</v>
       </c>
       <c r="D319" s="3">
@@ -18003,10 +18005,10 @@
       <c r="A320" t="s">
         <v>358</v>
       </c>
-      <c r="B320">
-        <v>20054</v>
-      </c>
-      <c r="C320">
+      <c r="B320" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C320" s="3">
         <v>6001</v>
       </c>
       <c r="D320" s="3">
@@ -18052,10 +18054,10 @@
       <c r="A321" t="s">
         <v>359</v>
       </c>
-      <c r="B321">
-        <v>20054</v>
-      </c>
-      <c r="C321">
+      <c r="B321" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C321" s="3">
         <v>6001</v>
       </c>
       <c r="D321" s="3">
@@ -18101,10 +18103,10 @@
       <c r="A322" t="s">
         <v>360</v>
       </c>
-      <c r="B322">
-        <v>20054</v>
-      </c>
-      <c r="C322">
+      <c r="B322" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C322" s="3">
         <v>6001</v>
       </c>
       <c r="D322" s="3">
@@ -18150,10 +18152,10 @@
       <c r="A323" t="s">
         <v>361</v>
       </c>
-      <c r="B323">
-        <v>20054</v>
-      </c>
-      <c r="C323">
+      <c r="B323" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C323" s="3">
         <v>6001</v>
       </c>
       <c r="D323" s="3">
@@ -18199,10 +18201,10 @@
       <c r="A324" t="s">
         <v>362</v>
       </c>
-      <c r="B324">
-        <v>20054</v>
-      </c>
-      <c r="C324">
+      <c r="B324" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C324" s="3">
         <v>6001</v>
       </c>
       <c r="D324" s="3">
@@ -18248,10 +18250,10 @@
       <c r="A325" t="s">
         <v>363</v>
       </c>
-      <c r="B325">
-        <v>20054</v>
-      </c>
-      <c r="C325">
+      <c r="B325" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C325" s="3">
         <v>6001</v>
       </c>
       <c r="D325" s="3">
@@ -18297,10 +18299,10 @@
       <c r="A326" t="s">
         <v>364</v>
       </c>
-      <c r="B326">
-        <v>20054</v>
-      </c>
-      <c r="C326">
+      <c r="B326" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C326" s="3">
         <v>6001</v>
       </c>
       <c r="D326" s="3">
@@ -18346,10 +18348,10 @@
       <c r="A327" t="s">
         <v>365</v>
       </c>
-      <c r="B327">
-        <v>20054</v>
-      </c>
-      <c r="C327">
+      <c r="B327" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C327" s="3">
         <v>6001</v>
       </c>
       <c r="D327" s="3">
@@ -18395,10 +18397,10 @@
       <c r="A328" t="s">
         <v>366</v>
       </c>
-      <c r="B328">
-        <v>20054</v>
-      </c>
-      <c r="C328">
+      <c r="B328" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C328" s="3">
         <v>6001</v>
       </c>
       <c r="D328" s="3">
@@ -18444,10 +18446,10 @@
       <c r="A329" t="s">
         <v>367</v>
       </c>
-      <c r="B329">
-        <v>20054</v>
-      </c>
-      <c r="C329">
+      <c r="B329" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C329" s="3">
         <v>6001</v>
       </c>
       <c r="D329" s="3">
@@ -18493,10 +18495,10 @@
       <c r="A330" t="s">
         <v>368</v>
       </c>
-      <c r="B330">
-        <v>20054</v>
-      </c>
-      <c r="C330">
+      <c r="B330" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C330" s="3">
         <v>6001</v>
       </c>
       <c r="D330" s="3">
@@ -18542,10 +18544,10 @@
       <c r="A331" t="s">
         <v>369</v>
       </c>
-      <c r="B331">
-        <v>20054</v>
-      </c>
-      <c r="C331">
+      <c r="B331" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C331" s="3">
         <v>6001</v>
       </c>
       <c r="D331" s="3">
@@ -18591,10 +18593,10 @@
       <c r="A332" t="s">
         <v>370</v>
       </c>
-      <c r="B332">
-        <v>20054</v>
-      </c>
-      <c r="C332">
+      <c r="B332" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C332" s="3">
         <v>6001</v>
       </c>
       <c r="D332" s="3">
@@ -18640,10 +18642,10 @@
       <c r="A333" t="s">
         <v>371</v>
       </c>
-      <c r="B333">
-        <v>20054</v>
-      </c>
-      <c r="C333">
+      <c r="B333" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C333" s="3">
         <v>6001</v>
       </c>
       <c r="D333" s="3">
@@ -18689,10 +18691,10 @@
       <c r="A334" t="s">
         <v>372</v>
       </c>
-      <c r="B334">
-        <v>20054</v>
-      </c>
-      <c r="C334">
+      <c r="B334" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C334" s="3">
         <v>6001</v>
       </c>
       <c r="D334" s="3">
@@ -18738,10 +18740,10 @@
       <c r="A335" t="s">
         <v>373</v>
       </c>
-      <c r="B335">
-        <v>20054</v>
-      </c>
-      <c r="C335">
+      <c r="B335" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C335" s="3">
         <v>6001</v>
       </c>
       <c r="D335" s="3">
@@ -18787,10 +18789,10 @@
       <c r="A336" t="s">
         <v>374</v>
       </c>
-      <c r="B336">
-        <v>20054</v>
-      </c>
-      <c r="C336">
+      <c r="B336" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C336" s="3">
         <v>6001</v>
       </c>
       <c r="D336" s="3">
@@ -18836,10 +18838,10 @@
       <c r="A337" t="s">
         <v>375</v>
       </c>
-      <c r="B337">
-        <v>20054</v>
-      </c>
-      <c r="C337">
+      <c r="B337" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C337" s="3">
         <v>6001</v>
       </c>
       <c r="D337" s="3">
@@ -18885,10 +18887,10 @@
       <c r="A338" t="s">
         <v>376</v>
       </c>
-      <c r="B338">
-        <v>20054</v>
-      </c>
-      <c r="C338">
+      <c r="B338" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C338" s="3">
         <v>6001</v>
       </c>
       <c r="D338" s="3">
@@ -18934,10 +18936,10 @@
       <c r="A339" t="s">
         <v>377</v>
       </c>
-      <c r="B339">
-        <v>20054</v>
-      </c>
-      <c r="C339">
+      <c r="B339" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C339" s="3">
         <v>6001</v>
       </c>
       <c r="D339" s="3">
@@ -18983,10 +18985,10 @@
       <c r="A340" t="s">
         <v>378</v>
       </c>
-      <c r="B340">
-        <v>20054</v>
-      </c>
-      <c r="C340">
+      <c r="B340" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C340" s="3">
         <v>6001</v>
       </c>
       <c r="D340" s="3">
@@ -19032,10 +19034,10 @@
       <c r="A341" t="s">
         <v>379</v>
       </c>
-      <c r="B341">
-        <v>20054</v>
-      </c>
-      <c r="C341">
+      <c r="B341" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C341" s="3">
         <v>6001</v>
       </c>
       <c r="D341" s="3">
@@ -19081,10 +19083,10 @@
       <c r="A342" t="s">
         <v>380</v>
       </c>
-      <c r="B342">
-        <v>20054</v>
-      </c>
-      <c r="C342">
+      <c r="B342" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C342" s="3">
         <v>6001</v>
       </c>
       <c r="D342" s="3">
@@ -19130,10 +19132,10 @@
       <c r="A343" t="s">
         <v>381</v>
       </c>
-      <c r="B343">
-        <v>20054</v>
-      </c>
-      <c r="C343">
+      <c r="B343" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C343" s="3">
         <v>6001</v>
       </c>
       <c r="D343" s="3">
@@ -19179,10 +19181,10 @@
       <c r="A344" t="s">
         <v>382</v>
       </c>
-      <c r="B344">
-        <v>20054</v>
-      </c>
-      <c r="C344">
+      <c r="B344" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C344" s="3">
         <v>6001</v>
       </c>
       <c r="D344" s="3">
@@ -19228,10 +19230,10 @@
       <c r="A345" t="s">
         <v>383</v>
       </c>
-      <c r="B345">
-        <v>20054</v>
-      </c>
-      <c r="C345">
+      <c r="B345" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C345" s="3">
         <v>6001</v>
       </c>
       <c r="D345" s="3">
@@ -19277,10 +19279,10 @@
       <c r="A346" t="s">
         <v>384</v>
       </c>
-      <c r="B346">
-        <v>20054</v>
-      </c>
-      <c r="C346">
+      <c r="B346" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C346" s="3">
         <v>6001</v>
       </c>
       <c r="D346" s="3">
@@ -19326,10 +19328,10 @@
       <c r="A347" t="s">
         <v>385</v>
       </c>
-      <c r="B347">
-        <v>20054</v>
-      </c>
-      <c r="C347">
+      <c r="B347" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C347" s="3">
         <v>6001</v>
       </c>
       <c r="D347" s="3">
@@ -19375,10 +19377,10 @@
       <c r="A348" t="s">
         <v>386</v>
       </c>
-      <c r="B348">
-        <v>20054</v>
-      </c>
-      <c r="C348">
+      <c r="B348" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C348" s="3">
         <v>6001</v>
       </c>
       <c r="D348" s="3">
@@ -19424,10 +19426,10 @@
       <c r="A349" t="s">
         <v>387</v>
       </c>
-      <c r="B349">
-        <v>20054</v>
-      </c>
-      <c r="C349">
+      <c r="B349" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C349" s="3">
         <v>6001</v>
       </c>
       <c r="D349" s="3">
@@ -19473,10 +19475,10 @@
       <c r="A350" t="s">
         <v>388</v>
       </c>
-      <c r="B350">
-        <v>20054</v>
-      </c>
-      <c r="C350">
+      <c r="B350" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C350" s="3">
         <v>6001</v>
       </c>
       <c r="D350" s="3">
@@ -19522,10 +19524,10 @@
       <c r="A351" t="s">
         <v>389</v>
       </c>
-      <c r="B351">
-        <v>20054</v>
-      </c>
-      <c r="C351">
+      <c r="B351" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C351" s="3">
         <v>6001</v>
       </c>
       <c r="D351" s="3">
@@ -19571,10 +19573,10 @@
       <c r="A352" t="s">
         <v>390</v>
       </c>
-      <c r="B352">
-        <v>20054</v>
-      </c>
-      <c r="C352">
+      <c r="B352" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C352" s="3">
         <v>6001</v>
       </c>
       <c r="D352" s="3">
@@ -19620,10 +19622,10 @@
       <c r="A353" t="s">
         <v>391</v>
       </c>
-      <c r="B353">
-        <v>20054</v>
-      </c>
-      <c r="C353">
+      <c r="B353" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C353" s="3">
         <v>6001</v>
       </c>
       <c r="D353" s="3">
@@ -19669,10 +19671,10 @@
       <c r="A354" t="s">
         <v>392</v>
       </c>
-      <c r="B354">
-        <v>20054</v>
-      </c>
-      <c r="C354">
+      <c r="B354" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C354" s="3">
         <v>6001</v>
       </c>
       <c r="D354" s="3">
@@ -19718,10 +19720,10 @@
       <c r="A355" t="s">
         <v>393</v>
       </c>
-      <c r="B355">
-        <v>20054</v>
-      </c>
-      <c r="C355">
+      <c r="B355" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C355" s="3">
         <v>6001</v>
       </c>
       <c r="D355" s="3">
@@ -19767,10 +19769,10 @@
       <c r="A356" t="s">
         <v>394</v>
       </c>
-      <c r="B356">
-        <v>20054</v>
-      </c>
-      <c r="C356">
+      <c r="B356" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C356" s="3">
         <v>6001</v>
       </c>
       <c r="D356" s="3">
@@ -19816,10 +19818,10 @@
       <c r="A357" t="s">
         <v>395</v>
       </c>
-      <c r="B357">
-        <v>20054</v>
-      </c>
-      <c r="C357">
+      <c r="B357" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C357" s="3">
         <v>6001</v>
       </c>
       <c r="D357" s="3">
@@ -19865,10 +19867,10 @@
       <c r="A358" t="s">
         <v>396</v>
       </c>
-      <c r="B358">
-        <v>20054</v>
-      </c>
-      <c r="C358">
+      <c r="B358" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C358" s="3">
         <v>6001</v>
       </c>
       <c r="D358" s="3">
@@ -19914,10 +19916,10 @@
       <c r="A359" t="s">
         <v>397</v>
       </c>
-      <c r="B359">
-        <v>20054</v>
-      </c>
-      <c r="C359">
+      <c r="B359" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C359" s="3">
         <v>6001</v>
       </c>
       <c r="D359" s="3">
@@ -19963,10 +19965,10 @@
       <c r="A360" t="s">
         <v>398</v>
       </c>
-      <c r="B360">
-        <v>20054</v>
-      </c>
-      <c r="C360">
+      <c r="B360" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C360" s="3">
         <v>6001</v>
       </c>
       <c r="D360" s="3">
@@ -20012,10 +20014,10 @@
       <c r="A361" t="s">
         <v>399</v>
       </c>
-      <c r="B361">
-        <v>20054</v>
-      </c>
-      <c r="C361">
+      <c r="B361" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C361" s="3">
         <v>6001</v>
       </c>
       <c r="D361" s="3">
@@ -20061,10 +20063,10 @@
       <c r="A362" t="s">
         <v>400</v>
       </c>
-      <c r="B362">
-        <v>20054</v>
-      </c>
-      <c r="C362">
+      <c r="B362" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C362" s="3">
         <v>6001</v>
       </c>
       <c r="D362" s="3">
@@ -20110,10 +20112,10 @@
       <c r="A363" t="s">
         <v>401</v>
       </c>
-      <c r="B363">
-        <v>20054</v>
-      </c>
-      <c r="C363">
+      <c r="B363" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C363" s="3">
         <v>6001</v>
       </c>
       <c r="D363" s="3">
@@ -20159,10 +20161,10 @@
       <c r="A364" t="s">
         <v>402</v>
       </c>
-      <c r="B364">
-        <v>20054</v>
-      </c>
-      <c r="C364">
+      <c r="B364" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C364" s="3">
         <v>6001</v>
       </c>
       <c r="D364" s="3">
@@ -20208,10 +20210,10 @@
       <c r="A365" t="s">
         <v>403</v>
       </c>
-      <c r="B365">
-        <v>20054</v>
-      </c>
-      <c r="C365">
+      <c r="B365" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C365" s="3">
         <v>6001</v>
       </c>
       <c r="D365" s="3">
@@ -20257,10 +20259,10 @@
       <c r="A366" t="s">
         <v>404</v>
       </c>
-      <c r="B366">
-        <v>20054</v>
-      </c>
-      <c r="C366">
+      <c r="B366" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C366" s="3">
         <v>6001</v>
       </c>
       <c r="D366" s="3">
@@ -20306,10 +20308,10 @@
       <c r="A367" t="s">
         <v>405</v>
       </c>
-      <c r="B367">
-        <v>20054</v>
-      </c>
-      <c r="C367">
+      <c r="B367" s="3">
+        <v>20054</v>
+      </c>
+      <c r="C367" s="3">
         <v>6001</v>
       </c>
       <c r="D367" s="3">
@@ -20352,6 +20354,8 @@
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="G368" s="3"/>
       <c r="I368" s="3"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E15AC91-6025-45D4-8B94-456ACAE97EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B94689E-0A11-4DD4-8160-CC5D3106F79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="386">
   <si>
     <t xml:space="preserve">   date   </t>
   </si>
@@ -62,736 +62,676 @@
     <t>amount</t>
   </si>
   <si>
-    <t>17:37:38</t>
-  </si>
-  <si>
-    <t>17:37:39</t>
-  </si>
-  <si>
-    <t>17:37:40</t>
-  </si>
-  <si>
-    <t>17:37:41</t>
-  </si>
-  <si>
-    <t>17:37:42</t>
-  </si>
-  <si>
-    <t>17:37:43</t>
-  </si>
-  <si>
-    <t>17:37:44</t>
-  </si>
-  <si>
-    <t>17:37:45</t>
-  </si>
-  <si>
-    <t>17:37:46</t>
-  </si>
-  <si>
-    <t>17:37:47</t>
-  </si>
-  <si>
-    <t>17:37:48</t>
-  </si>
-  <si>
-    <t>17:37:49</t>
-  </si>
-  <si>
-    <t>17:37:50</t>
-  </si>
-  <si>
-    <t>17:37:51</t>
-  </si>
-  <si>
-    <t>17:37:52</t>
-  </si>
-  <si>
-    <t>17:37:53</t>
-  </si>
-  <si>
-    <t>17:37:54</t>
-  </si>
-  <si>
-    <t>17:37:55</t>
-  </si>
-  <si>
-    <t>17:37:56</t>
-  </si>
-  <si>
-    <t>17:37:57</t>
-  </si>
-  <si>
-    <t>17:37:58</t>
-  </si>
-  <si>
-    <t>17:37:59</t>
-  </si>
-  <si>
-    <t>17:37:60</t>
-  </si>
-  <si>
-    <t>17:37:61</t>
+    <t>11:07:31</t>
+  </si>
+  <si>
+    <t>11:08:36</t>
+  </si>
+  <si>
+    <t>11:10:27</t>
+  </si>
+  <si>
+    <t>30-10-2023</t>
+  </si>
+  <si>
+    <t>11:14:58</t>
+  </si>
+  <si>
+    <t>11:15:28</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>opening_balance</t>
+  </si>
+  <si>
+    <t>paid_amount</t>
+  </si>
+  <si>
+    <t>closing_balance</t>
+  </si>
+  <si>
+    <t>product_1</t>
+  </si>
+  <si>
+    <t>product_2</t>
+  </si>
+  <si>
+    <t>01-04-2023</t>
+  </si>
+  <si>
+    <t>02-04-2023</t>
+  </si>
+  <si>
+    <t>03-04-2023</t>
+  </si>
+  <si>
+    <t>04-04-2023</t>
+  </si>
+  <si>
+    <t>05-04-2023</t>
+  </si>
+  <si>
+    <t>06-04-2023</t>
+  </si>
+  <si>
+    <t>07-04-2023</t>
+  </si>
+  <si>
+    <t>08-04-2023</t>
+  </si>
+  <si>
+    <t>09-04-2023</t>
+  </si>
+  <si>
+    <t>10-04-2023</t>
+  </si>
+  <si>
+    <t>11-04-2023</t>
+  </si>
+  <si>
+    <t>12-04-2023</t>
+  </si>
+  <si>
+    <t>13-04-2023</t>
+  </si>
+  <si>
+    <t>14-04-2023</t>
+  </si>
+  <si>
+    <t>15-04-2023</t>
+  </si>
+  <si>
+    <t>16-04-2023</t>
+  </si>
+  <si>
+    <t>17-04-2023</t>
+  </si>
+  <si>
+    <t>18-04-2023</t>
+  </si>
+  <si>
+    <t>19-04-2023</t>
+  </si>
+  <si>
+    <t>20-04-2023</t>
+  </si>
+  <si>
+    <t>21-04-2023</t>
+  </si>
+  <si>
+    <t>22-04-2023</t>
+  </si>
+  <si>
+    <t>23-04-2023</t>
+  </si>
+  <si>
+    <t>24-04-2023</t>
+  </si>
+  <si>
+    <t>25-04-2023</t>
+  </si>
+  <si>
+    <t>26-04-2023</t>
+  </si>
+  <si>
+    <t>27-04-2023</t>
+  </si>
+  <si>
+    <t>28-04-2023</t>
+  </si>
+  <si>
+    <t>29-04-2023</t>
+  </si>
+  <si>
+    <t>30-04-2023</t>
+  </si>
+  <si>
+    <t>01-05-2023</t>
+  </si>
+  <si>
+    <t>02-05-2023</t>
+  </si>
+  <si>
+    <t>03-05-2023</t>
+  </si>
+  <si>
+    <t>04-05-2023</t>
+  </si>
+  <si>
+    <t>05-05-2023</t>
+  </si>
+  <si>
+    <t>06-05-2023</t>
+  </si>
+  <si>
+    <t>07-05-2023</t>
+  </si>
+  <si>
+    <t>08-05-2023</t>
+  </si>
+  <si>
+    <t>09-05-2023</t>
+  </si>
+  <si>
+    <t>10-05-2023</t>
+  </si>
+  <si>
+    <t>11-05-2023</t>
+  </si>
+  <si>
+    <t>12-05-2023</t>
+  </si>
+  <si>
+    <t>13-05-2023</t>
+  </si>
+  <si>
+    <t>14-05-2023</t>
+  </si>
+  <si>
+    <t>15-05-2023</t>
+  </si>
+  <si>
+    <t>16-05-2023</t>
+  </si>
+  <si>
+    <t>17-05-2023</t>
+  </si>
+  <si>
+    <t>18-05-2023</t>
+  </si>
+  <si>
+    <t>19-05-2023</t>
+  </si>
+  <si>
+    <t>20-05-2023</t>
+  </si>
+  <si>
+    <t>21-05-2023</t>
+  </si>
+  <si>
+    <t>22-05-2023</t>
+  </si>
+  <si>
+    <t>23-05-2023</t>
+  </si>
+  <si>
+    <t>24-05-2023</t>
+  </si>
+  <si>
+    <t>25-05-2023</t>
+  </si>
+  <si>
+    <t>26-05-2023</t>
+  </si>
+  <si>
+    <t>27-05-2023</t>
+  </si>
+  <si>
+    <t>28-05-2023</t>
+  </si>
+  <si>
+    <t>29-05-2023</t>
+  </si>
+  <si>
+    <t>30-05-2023</t>
+  </si>
+  <si>
+    <t>31-05-2023</t>
+  </si>
+  <si>
+    <t>01-06-2023</t>
+  </si>
+  <si>
+    <t>02-06-2023</t>
+  </si>
+  <si>
+    <t>03-06-2023</t>
+  </si>
+  <si>
+    <t>04-06-2023</t>
+  </si>
+  <si>
+    <t>05-06-2023</t>
+  </si>
+  <si>
+    <t>06-06-2023</t>
+  </si>
+  <si>
+    <t>07-06-2023</t>
+  </si>
+  <si>
+    <t>08-06-2023</t>
+  </si>
+  <si>
+    <t>09-06-2023</t>
+  </si>
+  <si>
+    <t>10-06-2023</t>
+  </si>
+  <si>
+    <t>11-06-2023</t>
+  </si>
+  <si>
+    <t>12-06-2023</t>
+  </si>
+  <si>
+    <t>13-06-2023</t>
+  </si>
+  <si>
+    <t>14-06-2023</t>
+  </si>
+  <si>
+    <t>15-06-2023</t>
+  </si>
+  <si>
+    <t>16-06-2023</t>
+  </si>
+  <si>
+    <t>17-06-2023</t>
+  </si>
+  <si>
+    <t>18-06-2023</t>
+  </si>
+  <si>
+    <t>19-06-2023</t>
+  </si>
+  <si>
+    <t>20-06-2023</t>
+  </si>
+  <si>
+    <t>21-06-2023</t>
+  </si>
+  <si>
+    <t>22-06-2023</t>
+  </si>
+  <si>
+    <t>23-06-2023</t>
+  </si>
+  <si>
+    <t>24-06-2023</t>
+  </si>
+  <si>
+    <t>25-06-2023</t>
+  </si>
+  <si>
+    <t>26-06-2023</t>
+  </si>
+  <si>
+    <t>27-06-2023</t>
+  </si>
+  <si>
+    <t>28-06-2023</t>
+  </si>
+  <si>
+    <t>29-06-2023</t>
+  </si>
+  <si>
+    <t>30-06-2023</t>
+  </si>
+  <si>
+    <t>01-07-2023</t>
+  </si>
+  <si>
+    <t>02-07-2023</t>
+  </si>
+  <si>
+    <t>03-07-2023</t>
+  </si>
+  <si>
+    <t>04-07-2023</t>
+  </si>
+  <si>
+    <t>05-07-2023</t>
+  </si>
+  <si>
+    <t>06-07-2023</t>
+  </si>
+  <si>
+    <t>07-07-2023</t>
+  </si>
+  <si>
+    <t>08-07-2023</t>
+  </si>
+  <si>
+    <t>09-07-2023</t>
+  </si>
+  <si>
+    <t>10-07-2023</t>
+  </si>
+  <si>
+    <t>11-07-2023</t>
+  </si>
+  <si>
+    <t>12-07-2023</t>
+  </si>
+  <si>
+    <t>13-07-2023</t>
+  </si>
+  <si>
+    <t>14-07-2023</t>
+  </si>
+  <si>
+    <t>15-07-2023</t>
+  </si>
+  <si>
+    <t>16-07-2023</t>
+  </si>
+  <si>
+    <t>17-07-2023</t>
+  </si>
+  <si>
+    <t>18-07-2023</t>
+  </si>
+  <si>
+    <t>19-07-2023</t>
+  </si>
+  <si>
+    <t>20-07-2023</t>
+  </si>
+  <si>
+    <t>21-07-2023</t>
+  </si>
+  <si>
+    <t>22-07-2023</t>
+  </si>
+  <si>
+    <t>23-07-2023</t>
+  </si>
+  <si>
+    <t>24-07-2023</t>
+  </si>
+  <si>
+    <t>25-07-2023</t>
+  </si>
+  <si>
+    <t>26-07-2023</t>
+  </si>
+  <si>
+    <t>27-07-2023</t>
+  </si>
+  <si>
+    <t>28-07-2023</t>
+  </si>
+  <si>
+    <t>29-07-2023</t>
+  </si>
+  <si>
+    <t>30-07-2023</t>
+  </si>
+  <si>
+    <t>31-07-2023</t>
+  </si>
+  <si>
+    <t>01-08-2023</t>
+  </si>
+  <si>
+    <t>02-08-2023</t>
+  </si>
+  <si>
+    <t>03-08-2023</t>
+  </si>
+  <si>
+    <t>04-08-2023</t>
+  </si>
+  <si>
+    <t>05-08-2023</t>
+  </si>
+  <si>
+    <t>06-08-2023</t>
+  </si>
+  <si>
+    <t>07-08-2023</t>
+  </si>
+  <si>
+    <t>08-08-2023</t>
+  </si>
+  <si>
+    <t>09-08-2023</t>
+  </si>
+  <si>
+    <t>10-08-2023</t>
+  </si>
+  <si>
+    <t>11-08-2023</t>
+  </si>
+  <si>
+    <t>12-08-2023</t>
+  </si>
+  <si>
+    <t>13-08-2023</t>
+  </si>
+  <si>
+    <t>14-08-2023</t>
+  </si>
+  <si>
+    <t>15-08-2023</t>
+  </si>
+  <si>
+    <t>16-08-2023</t>
+  </si>
+  <si>
+    <t>17-08-2023</t>
+  </si>
+  <si>
+    <t>18-08-2023</t>
+  </si>
+  <si>
+    <t>19-08-2023</t>
+  </si>
+  <si>
+    <t>20-08-2023</t>
+  </si>
+  <si>
+    <t>21-08-2023</t>
+  </si>
+  <si>
+    <t>22-08-2023</t>
+  </si>
+  <si>
+    <t>23-08-2023</t>
+  </si>
+  <si>
+    <t>24-08-2023</t>
+  </si>
+  <si>
+    <t>25-08-2023</t>
+  </si>
+  <si>
+    <t>26-08-2023</t>
+  </si>
+  <si>
+    <t>27-08-2023</t>
+  </si>
+  <si>
+    <t>28-08-2023</t>
+  </si>
+  <si>
+    <t>29-08-2023</t>
+  </si>
+  <si>
+    <t>30-08-2023</t>
+  </si>
+  <si>
+    <t>31-08-2023</t>
+  </si>
+  <si>
+    <t>01-09-2023</t>
+  </si>
+  <si>
+    <t>02-09-2023</t>
+  </si>
+  <si>
+    <t>03-09-2023</t>
+  </si>
+  <si>
+    <t>04-09-2023</t>
+  </si>
+  <si>
+    <t>05-09-2023</t>
+  </si>
+  <si>
+    <t>06-09-2023</t>
+  </si>
+  <si>
+    <t>07-09-2023</t>
+  </si>
+  <si>
+    <t>08-09-2023</t>
+  </si>
+  <si>
+    <t>09-09-2023</t>
+  </si>
+  <si>
+    <t>10-09-2023</t>
+  </si>
+  <si>
+    <t>11-09-2023</t>
+  </si>
+  <si>
+    <t>12-09-2023</t>
+  </si>
+  <si>
+    <t>13-09-2023</t>
+  </si>
+  <si>
+    <t>14-09-2023</t>
+  </si>
+  <si>
+    <t>15-09-2023</t>
+  </si>
+  <si>
+    <t>16-09-2023</t>
+  </si>
+  <si>
+    <t>17-09-2023</t>
+  </si>
+  <si>
+    <t>18-09-2023</t>
+  </si>
+  <si>
+    <t>19-09-2023</t>
+  </si>
+  <si>
+    <t>20-09-2023</t>
+  </si>
+  <si>
+    <t>21-09-2023</t>
+  </si>
+  <si>
+    <t>22-09-2023</t>
+  </si>
+  <si>
+    <t>23-09-2023</t>
+  </si>
+  <si>
+    <t>24-09-2023</t>
+  </si>
+  <si>
+    <t>25-09-2023</t>
+  </si>
+  <si>
+    <t>26-09-2023</t>
+  </si>
+  <si>
+    <t>27-09-2023</t>
+  </si>
+  <si>
+    <t>28-09-2023</t>
+  </si>
+  <si>
+    <t>29-09-2023</t>
+  </si>
+  <si>
+    <t>30-09-2023</t>
+  </si>
+  <si>
+    <t>01-10-2023</t>
+  </si>
+  <si>
+    <t>02-10-2023</t>
+  </si>
+  <si>
+    <t>03-10-2023</t>
+  </si>
+  <si>
+    <t>04-10-2023</t>
+  </si>
+  <si>
+    <t>05-10-2023</t>
+  </si>
+  <si>
+    <t>06-10-2023</t>
+  </si>
+  <si>
+    <t>07-10-2023</t>
+  </si>
+  <si>
+    <t>08-10-2023</t>
+  </si>
+  <si>
+    <t>09-10-2023</t>
+  </si>
+  <si>
+    <t>10-10-2023</t>
+  </si>
+  <si>
+    <t>11-10-2023</t>
+  </si>
+  <si>
+    <t>12-10-2023</t>
+  </si>
+  <si>
+    <t>13-10-2023</t>
+  </si>
+  <si>
+    <t>14-10-2023</t>
+  </si>
+  <si>
+    <t>15-10-2023</t>
+  </si>
+  <si>
+    <t>16-10-2023</t>
+  </si>
+  <si>
+    <t>17-10-2023</t>
+  </si>
+  <si>
+    <t>18-10-2023</t>
+  </si>
+  <si>
+    <t>19-10-2023</t>
+  </si>
+  <si>
+    <t>20-10-2023</t>
+  </si>
+  <si>
+    <t>21-10-2023</t>
+  </si>
+  <si>
+    <t>22-10-2023</t>
+  </si>
+  <si>
+    <t>23-10-2023</t>
+  </si>
+  <si>
+    <t>24-10-2023</t>
+  </si>
+  <si>
+    <t>25-10-2023</t>
+  </si>
+  <si>
+    <t>26-10-2023</t>
+  </si>
+  <si>
+    <t>27-10-2023</t>
   </si>
   <si>
     <t>28-10-2023</t>
   </si>
   <si>
-    <t>17:41:33</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>opening_balance</t>
-  </si>
-  <si>
-    <t>paid_amount</t>
-  </si>
-  <si>
-    <t>closing_balance</t>
-  </si>
-  <si>
-    <t>product_1</t>
-  </si>
-  <si>
-    <t>product_2</t>
-  </si>
-  <si>
-    <t>01-04-2023</t>
-  </si>
-  <si>
-    <t>02-04-2023</t>
-  </si>
-  <si>
-    <t>03-04-2023</t>
-  </si>
-  <si>
-    <t>04-04-2023</t>
-  </si>
-  <si>
-    <t>05-04-2023</t>
-  </si>
-  <si>
-    <t>06-04-2023</t>
-  </si>
-  <si>
-    <t>07-04-2023</t>
-  </si>
-  <si>
-    <t>08-04-2023</t>
-  </si>
-  <si>
-    <t>09-04-2023</t>
-  </si>
-  <si>
-    <t>10-04-2023</t>
-  </si>
-  <si>
-    <t>11-04-2023</t>
-  </si>
-  <si>
-    <t>12-04-2023</t>
-  </si>
-  <si>
-    <t>13-04-2023</t>
-  </si>
-  <si>
-    <t>14-04-2023</t>
-  </si>
-  <si>
-    <t>15-04-2023</t>
-  </si>
-  <si>
-    <t>16-04-2023</t>
-  </si>
-  <si>
-    <t>17-04-2023</t>
-  </si>
-  <si>
-    <t>18-04-2023</t>
-  </si>
-  <si>
-    <t>19-04-2023</t>
-  </si>
-  <si>
-    <t>20-04-2023</t>
-  </si>
-  <si>
-    <t>21-04-2023</t>
-  </si>
-  <si>
-    <t>22-04-2023</t>
-  </si>
-  <si>
-    <t>23-04-2023</t>
-  </si>
-  <si>
-    <t>24-04-2023</t>
-  </si>
-  <si>
-    <t>25-04-2023</t>
-  </si>
-  <si>
-    <t>26-04-2023</t>
-  </si>
-  <si>
-    <t>27-04-2023</t>
-  </si>
-  <si>
-    <t>28-04-2023</t>
-  </si>
-  <si>
-    <t>29-04-2023</t>
-  </si>
-  <si>
-    <t>30-04-2023</t>
-  </si>
-  <si>
-    <t>01-05-2023</t>
-  </si>
-  <si>
-    <t>02-05-2023</t>
-  </si>
-  <si>
-    <t>03-05-2023</t>
-  </si>
-  <si>
-    <t>04-05-2023</t>
-  </si>
-  <si>
-    <t>05-05-2023</t>
-  </si>
-  <si>
-    <t>06-05-2023</t>
-  </si>
-  <si>
-    <t>07-05-2023</t>
-  </si>
-  <si>
-    <t>08-05-2023</t>
-  </si>
-  <si>
-    <t>09-05-2023</t>
-  </si>
-  <si>
-    <t>10-05-2023</t>
-  </si>
-  <si>
-    <t>11-05-2023</t>
-  </si>
-  <si>
-    <t>12-05-2023</t>
-  </si>
-  <si>
-    <t>13-05-2023</t>
-  </si>
-  <si>
-    <t>14-05-2023</t>
-  </si>
-  <si>
-    <t>15-05-2023</t>
-  </si>
-  <si>
-    <t>16-05-2023</t>
-  </si>
-  <si>
-    <t>17-05-2023</t>
-  </si>
-  <si>
-    <t>18-05-2023</t>
-  </si>
-  <si>
-    <t>19-05-2023</t>
-  </si>
-  <si>
-    <t>20-05-2023</t>
-  </si>
-  <si>
-    <t>21-05-2023</t>
-  </si>
-  <si>
-    <t>22-05-2023</t>
-  </si>
-  <si>
-    <t>23-05-2023</t>
-  </si>
-  <si>
-    <t>24-05-2023</t>
-  </si>
-  <si>
-    <t>25-05-2023</t>
-  </si>
-  <si>
-    <t>26-05-2023</t>
-  </si>
-  <si>
-    <t>27-05-2023</t>
-  </si>
-  <si>
-    <t>28-05-2023</t>
-  </si>
-  <si>
-    <t>29-05-2023</t>
-  </si>
-  <si>
-    <t>30-05-2023</t>
-  </si>
-  <si>
-    <t>31-05-2023</t>
-  </si>
-  <si>
-    <t>01-06-2023</t>
-  </si>
-  <si>
-    <t>02-06-2023</t>
-  </si>
-  <si>
-    <t>03-06-2023</t>
-  </si>
-  <si>
-    <t>04-06-2023</t>
-  </si>
-  <si>
-    <t>05-06-2023</t>
-  </si>
-  <si>
-    <t>06-06-2023</t>
-  </si>
-  <si>
-    <t>07-06-2023</t>
-  </si>
-  <si>
-    <t>08-06-2023</t>
-  </si>
-  <si>
-    <t>09-06-2023</t>
-  </si>
-  <si>
-    <t>10-06-2023</t>
-  </si>
-  <si>
-    <t>11-06-2023</t>
-  </si>
-  <si>
-    <t>12-06-2023</t>
-  </si>
-  <si>
-    <t>13-06-2023</t>
-  </si>
-  <si>
-    <t>14-06-2023</t>
-  </si>
-  <si>
-    <t>15-06-2023</t>
-  </si>
-  <si>
-    <t>16-06-2023</t>
-  </si>
-  <si>
-    <t>17-06-2023</t>
-  </si>
-  <si>
-    <t>18-06-2023</t>
-  </si>
-  <si>
-    <t>19-06-2023</t>
-  </si>
-  <si>
-    <t>20-06-2023</t>
-  </si>
-  <si>
-    <t>21-06-2023</t>
-  </si>
-  <si>
-    <t>22-06-2023</t>
-  </si>
-  <si>
-    <t>23-06-2023</t>
-  </si>
-  <si>
-    <t>24-06-2023</t>
-  </si>
-  <si>
-    <t>25-06-2023</t>
-  </si>
-  <si>
-    <t>26-06-2023</t>
-  </si>
-  <si>
-    <t>27-06-2023</t>
-  </si>
-  <si>
-    <t>28-06-2023</t>
-  </si>
-  <si>
-    <t>29-06-2023</t>
-  </si>
-  <si>
-    <t>30-06-2023</t>
-  </si>
-  <si>
-    <t>01-07-2023</t>
-  </si>
-  <si>
-    <t>02-07-2023</t>
-  </si>
-  <si>
-    <t>03-07-2023</t>
-  </si>
-  <si>
-    <t>04-07-2023</t>
-  </si>
-  <si>
-    <t>05-07-2023</t>
-  </si>
-  <si>
-    <t>06-07-2023</t>
-  </si>
-  <si>
-    <t>07-07-2023</t>
-  </si>
-  <si>
-    <t>08-07-2023</t>
-  </si>
-  <si>
-    <t>09-07-2023</t>
-  </si>
-  <si>
-    <t>10-07-2023</t>
-  </si>
-  <si>
-    <t>11-07-2023</t>
-  </si>
-  <si>
-    <t>12-07-2023</t>
-  </si>
-  <si>
-    <t>13-07-2023</t>
-  </si>
-  <si>
-    <t>14-07-2023</t>
-  </si>
-  <si>
-    <t>15-07-2023</t>
-  </si>
-  <si>
-    <t>16-07-2023</t>
-  </si>
-  <si>
-    <t>17-07-2023</t>
-  </si>
-  <si>
-    <t>18-07-2023</t>
-  </si>
-  <si>
-    <t>19-07-2023</t>
-  </si>
-  <si>
-    <t>20-07-2023</t>
-  </si>
-  <si>
-    <t>21-07-2023</t>
-  </si>
-  <si>
-    <t>22-07-2023</t>
-  </si>
-  <si>
-    <t>23-07-2023</t>
-  </si>
-  <si>
-    <t>24-07-2023</t>
-  </si>
-  <si>
-    <t>25-07-2023</t>
-  </si>
-  <si>
-    <t>26-07-2023</t>
-  </si>
-  <si>
-    <t>27-07-2023</t>
-  </si>
-  <si>
-    <t>28-07-2023</t>
-  </si>
-  <si>
-    <t>29-07-2023</t>
-  </si>
-  <si>
-    <t>30-07-2023</t>
-  </si>
-  <si>
-    <t>31-07-2023</t>
-  </si>
-  <si>
-    <t>01-08-2023</t>
-  </si>
-  <si>
-    <t>02-08-2023</t>
-  </si>
-  <si>
-    <t>03-08-2023</t>
-  </si>
-  <si>
-    <t>04-08-2023</t>
-  </si>
-  <si>
-    <t>05-08-2023</t>
-  </si>
-  <si>
-    <t>06-08-2023</t>
-  </si>
-  <si>
-    <t>07-08-2023</t>
-  </si>
-  <si>
-    <t>08-08-2023</t>
-  </si>
-  <si>
-    <t>09-08-2023</t>
-  </si>
-  <si>
-    <t>10-08-2023</t>
-  </si>
-  <si>
-    <t>11-08-2023</t>
-  </si>
-  <si>
-    <t>12-08-2023</t>
-  </si>
-  <si>
-    <t>13-08-2023</t>
-  </si>
-  <si>
-    <t>14-08-2023</t>
-  </si>
-  <si>
-    <t>15-08-2023</t>
-  </si>
-  <si>
-    <t>16-08-2023</t>
-  </si>
-  <si>
-    <t>17-08-2023</t>
-  </si>
-  <si>
-    <t>18-08-2023</t>
-  </si>
-  <si>
-    <t>19-08-2023</t>
-  </si>
-  <si>
-    <t>20-08-2023</t>
-  </si>
-  <si>
-    <t>21-08-2023</t>
-  </si>
-  <si>
-    <t>22-08-2023</t>
-  </si>
-  <si>
-    <t>23-08-2023</t>
-  </si>
-  <si>
-    <t>24-08-2023</t>
-  </si>
-  <si>
-    <t>25-08-2023</t>
-  </si>
-  <si>
-    <t>26-08-2023</t>
-  </si>
-  <si>
-    <t>27-08-2023</t>
-  </si>
-  <si>
-    <t>28-08-2023</t>
-  </si>
-  <si>
-    <t>29-08-2023</t>
-  </si>
-  <si>
-    <t>30-08-2023</t>
-  </si>
-  <si>
-    <t>31-08-2023</t>
-  </si>
-  <si>
-    <t>01-09-2023</t>
-  </si>
-  <si>
-    <t>02-09-2023</t>
-  </si>
-  <si>
-    <t>03-09-2023</t>
-  </si>
-  <si>
-    <t>04-09-2023</t>
-  </si>
-  <si>
-    <t>05-09-2023</t>
-  </si>
-  <si>
-    <t>06-09-2023</t>
-  </si>
-  <si>
-    <t>07-09-2023</t>
-  </si>
-  <si>
-    <t>08-09-2023</t>
-  </si>
-  <si>
-    <t>09-09-2023</t>
-  </si>
-  <si>
-    <t>10-09-2023</t>
-  </si>
-  <si>
-    <t>11-09-2023</t>
-  </si>
-  <si>
-    <t>12-09-2023</t>
-  </si>
-  <si>
-    <t>13-09-2023</t>
-  </si>
-  <si>
-    <t>14-09-2023</t>
-  </si>
-  <si>
-    <t>15-09-2023</t>
-  </si>
-  <si>
-    <t>16-09-2023</t>
-  </si>
-  <si>
-    <t>17-09-2023</t>
-  </si>
-  <si>
-    <t>18-09-2023</t>
-  </si>
-  <si>
-    <t>19-09-2023</t>
-  </si>
-  <si>
-    <t>20-09-2023</t>
-  </si>
-  <si>
-    <t>21-09-2023</t>
-  </si>
-  <si>
-    <t>22-09-2023</t>
-  </si>
-  <si>
-    <t>23-09-2023</t>
-  </si>
-  <si>
-    <t>24-09-2023</t>
-  </si>
-  <si>
-    <t>25-09-2023</t>
-  </si>
-  <si>
-    <t>26-09-2023</t>
-  </si>
-  <si>
-    <t>27-09-2023</t>
-  </si>
-  <si>
-    <t>28-09-2023</t>
-  </si>
-  <si>
-    <t>29-09-2023</t>
-  </si>
-  <si>
-    <t>30-09-2023</t>
-  </si>
-  <si>
-    <t>01-10-2023</t>
-  </si>
-  <si>
-    <t>02-10-2023</t>
-  </si>
-  <si>
-    <t>03-10-2023</t>
-  </si>
-  <si>
-    <t>04-10-2023</t>
-  </si>
-  <si>
-    <t>05-10-2023</t>
-  </si>
-  <si>
-    <t>06-10-2023</t>
-  </si>
-  <si>
-    <t>07-10-2023</t>
-  </si>
-  <si>
-    <t>08-10-2023</t>
-  </si>
-  <si>
-    <t>09-10-2023</t>
-  </si>
-  <si>
-    <t>10-10-2023</t>
-  </si>
-  <si>
-    <t>11-10-2023</t>
-  </si>
-  <si>
-    <t>12-10-2023</t>
-  </si>
-  <si>
-    <t>13-10-2023</t>
-  </si>
-  <si>
-    <t>14-10-2023</t>
-  </si>
-  <si>
-    <t>15-10-2023</t>
-  </si>
-  <si>
-    <t>16-10-2023</t>
-  </si>
-  <si>
-    <t>17-10-2023</t>
-  </si>
-  <si>
-    <t>18-10-2023</t>
-  </si>
-  <si>
-    <t>19-10-2023</t>
-  </si>
-  <si>
-    <t>20-10-2023</t>
-  </si>
-  <si>
-    <t>21-10-2023</t>
-  </si>
-  <si>
-    <t>22-10-2023</t>
-  </si>
-  <si>
-    <t>23-10-2023</t>
-  </si>
-  <si>
-    <t>24-10-2023</t>
-  </si>
-  <si>
-    <t>25-10-2023</t>
-  </si>
-  <si>
-    <t>26-10-2023</t>
-  </si>
-  <si>
-    <t>27-10-2023</t>
-  </si>
-  <si>
     <t>29-10-2023</t>
-  </si>
-  <si>
-    <t>30-10-2023</t>
   </si>
   <si>
     <t>31-10-2023</t>
@@ -1587,11 +1527,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,19 +1589,20 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <f t="shared" ref="I2:I8" si="0">IF(D2=1, E2*G2, IF(D2=2, F2*G2, ""))</f>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1669,26 +1610,29 @@
         <v>45017</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>123</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1696,28 +1640,27 @@
         <v>45018</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>123</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1725,7 +1668,7 @@
         <v>45018</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>123</v>
@@ -1733,25 +1676,27 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45021</v>
+        <v>45019</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>123</v>
@@ -1760,599 +1705,76 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45022</v>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>123</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H7" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45023</v>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>123</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="H8" s="1">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45024</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45025</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
-        <v>123</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45026</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>123</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45027</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1">
-        <v>123</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45028</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1">
-        <v>123</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>45029</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1">
-        <v>123</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>45030</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1">
-        <v>123</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>45031</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1">
-        <v>123</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1">
-        <v>15</v>
-      </c>
-      <c r="H16" s="1">
-        <v>15</v>
-      </c>
-      <c r="I16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45032</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1">
-        <v>123</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>45033</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1">
-        <v>123</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>45034</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1">
-        <v>123</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>45035</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1">
-        <v>123</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1">
-        <v>19</v>
-      </c>
-      <c r="G20" s="1">
-        <v>19</v>
-      </c>
-      <c r="H20" s="1">
-        <v>19</v>
-      </c>
-      <c r="I20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>45036</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1">
-        <v>123</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>20</v>
-      </c>
-      <c r="G21" s="1">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>45037</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1">
-        <v>123</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1">
-        <v>21</v>
-      </c>
-      <c r="G22" s="1">
-        <v>21</v>
-      </c>
-      <c r="H22" s="1">
-        <v>21</v>
-      </c>
-      <c r="I22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>45038</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1">
-        <v>123</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1">
-        <v>22</v>
-      </c>
-      <c r="H23" s="1">
-        <v>22</v>
-      </c>
-      <c r="I23" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>45039</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1">
-        <v>123</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1">
-        <v>23</v>
-      </c>
-      <c r="G24" s="1">
-        <v>23</v>
-      </c>
-      <c r="H24" s="1">
-        <v>23</v>
-      </c>
-      <c r="I24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>45040</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1">
-        <v>123</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1">
-        <v>24</v>
-      </c>
-      <c r="G25" s="1">
-        <v>24</v>
-      </c>
-      <c r="H25" s="1">
-        <v>24</v>
-      </c>
-      <c r="I25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1">
-        <v>123</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H26" s="1">
-        <v>50</v>
-      </c>
-      <c r="I26" s="1">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +1788,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,20 +1802,20 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2409,7 +1831,7 @@
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -2423,54 +1845,56 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>20054</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>6001</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D65" si="0">SUM(J2,O2,B2) - C2</f>
-        <v>19</v>
+        <v>14071</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3">
-        <v>10</v>
+        <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A2,Raw_data_01!D:D,2),"")</f>
-        <v>2</v>
-      </c>
-      <c r="N2" s="3">
+        <v/>
+      </c>
+      <c r="N2" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,2)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A2,Raw_data_01!D:D,2),"")</f>
-        <v>2</v>
-      </c>
-      <c r="O2" s="3">
-        <v>10</v>
+        <v/>
+      </c>
+      <c r="O2" s="3" t="str">
+        <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A2,Raw_data_01!D:D,2),"")</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
         <v>20054</v>
@@ -2480,46 +1904,46 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>14060</v>
+        <v>14103</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A3,Raw_data_01!D:D,1),"")</f>
-        <v>5</v>
-      </c>
-      <c r="H3">
+        <v/>
+      </c>
+      <c r="H3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A3,Raw_data_01!D:D,1),"")</f>
-        <v>3</v>
-      </c>
-      <c r="I3" s="3">
+        <v/>
+      </c>
+      <c r="I3" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A3,Raw_data_01!D:D,1),"")</f>
-        <v>3</v>
-      </c>
-      <c r="J3" s="3">
+        <v/>
+      </c>
+      <c r="J3" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A3,Raw_data_01!D:D,1),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A3,Raw_data_01!D:D,2),"")</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N3" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,2)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A3,Raw_data_01!D:D,2),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A3,Raw_data_01!D:D,2),"")</f>
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3">
         <v>20054</v>
@@ -2529,26 +1953,26 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>14053</v>
+        <v>14066</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A4,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A4,Raw_data_01!D:D,1),"")</f>
-        <v/>
-      </c>
-      <c r="H4" t="str">
+        <v>5.2</v>
+      </c>
+      <c r="H4">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A4,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A4,Raw_data_01!D:D,1),"")</f>
-        <v/>
-      </c>
-      <c r="I4" s="3" t="str">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A4,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A4,Raw_data_01!D:D,1),"")</f>
-        <v/>
-      </c>
-      <c r="J4" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A4,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A4,Raw_data_01!D:D,1),"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -2568,7 +1992,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>20054</v>
@@ -2617,7 +2041,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3">
         <v>20054</v>
@@ -2627,26 +2051,26 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>14058</v>
+        <v>14053</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A6,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A6,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H6">
+        <v/>
+      </c>
+      <c r="H6" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A6,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A6,Raw_data_01!D:D,1),"")</f>
-        <v>5</v>
-      </c>
-      <c r="I6" s="3">
+        <v/>
+      </c>
+      <c r="I6" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A6,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A6,Raw_data_01!D:D,1),"")</f>
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
+        <v/>
+      </c>
+      <c r="J6" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A6,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A6,Raw_data_01!D:D,1),"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="L6">
         <v>2</v>
@@ -2666,7 +2090,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3">
         <v>20054</v>
@@ -2676,26 +2100,26 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>14059</v>
+        <v>14053</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A7,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A7,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H7">
+        <v/>
+      </c>
+      <c r="H7" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A7,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A7,Raw_data_01!D:D,1),"")</f>
-        <v>6</v>
-      </c>
-      <c r="I7" s="3">
+        <v/>
+      </c>
+      <c r="I7" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A7,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A7,Raw_data_01!D:D,1),"")</f>
-        <v>6</v>
-      </c>
-      <c r="J7" s="3">
+        <v/>
+      </c>
+      <c r="J7" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A7,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A7,Raw_data_01!D:D,1),"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="L7">
         <v>2</v>
@@ -2715,7 +2139,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3">
         <v>20054</v>
@@ -2725,26 +2149,26 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>14060</v>
+        <v>14053</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A8,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A8,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H8">
+        <v/>
+      </c>
+      <c r="H8" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A8,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A8,Raw_data_01!D:D,1),"")</f>
-        <v>7</v>
-      </c>
-      <c r="I8" s="3">
+        <v/>
+      </c>
+      <c r="I8" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A8,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A8,Raw_data_01!D:D,1),"")</f>
-        <v>7</v>
-      </c>
-      <c r="J8" s="3">
+        <v/>
+      </c>
+      <c r="J8" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A8,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A8,Raw_data_01!D:D,1),"")</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="L8">
         <v>2</v>
@@ -2764,7 +2188,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>20054</v>
@@ -2774,26 +2198,26 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>14061</v>
+        <v>14053</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A9,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A9,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H9">
+        <v/>
+      </c>
+      <c r="H9" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A9,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A9,Raw_data_01!D:D,1),"")</f>
-        <v>8</v>
-      </c>
-      <c r="I9" s="3">
+        <v/>
+      </c>
+      <c r="I9" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A9,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A9,Raw_data_01!D:D,1),"")</f>
-        <v>8</v>
-      </c>
-      <c r="J9" s="3">
+        <v/>
+      </c>
+      <c r="J9" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A9,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A9,Raw_data_01!D:D,1),"")</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="L9">
         <v>2</v>
@@ -2813,7 +2237,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <v>20054</v>
@@ -2823,26 +2247,26 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>14062</v>
+        <v>14053</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A10,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A10,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H10">
+        <v/>
+      </c>
+      <c r="H10" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A10,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A10,Raw_data_01!D:D,1),"")</f>
-        <v>9</v>
-      </c>
-      <c r="I10" s="3">
+        <v/>
+      </c>
+      <c r="I10" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A10,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A10,Raw_data_01!D:D,1),"")</f>
-        <v>9</v>
-      </c>
-      <c r="J10" s="3">
+        <v/>
+      </c>
+      <c r="J10" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A10,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A10,Raw_data_01!D:D,1),"")</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="L10">
         <v>2</v>
@@ -2862,7 +2286,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
         <v>20054</v>
@@ -2872,26 +2296,26 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>14063</v>
+        <v>14053</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A11,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A11,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H11">
+        <v/>
+      </c>
+      <c r="H11" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A11,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A11,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="I11" s="3">
+        <v/>
+      </c>
+      <c r="I11" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A11,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A11,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
+        <v/>
+      </c>
+      <c r="J11" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A11,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A11,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="L11">
         <v>2</v>
@@ -2911,7 +2335,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3">
         <v>20054</v>
@@ -2921,26 +2345,26 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>14064</v>
+        <v>14053</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A12,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A12,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H12">
+        <v/>
+      </c>
+      <c r="H12" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A12,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A12,Raw_data_01!D:D,1),"")</f>
-        <v>11</v>
-      </c>
-      <c r="I12" s="3">
+        <v/>
+      </c>
+      <c r="I12" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A12,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A12,Raw_data_01!D:D,1),"")</f>
-        <v>11</v>
-      </c>
-      <c r="J12" s="3">
+        <v/>
+      </c>
+      <c r="J12" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A12,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A12,Raw_data_01!D:D,1),"")</f>
-        <v>11</v>
+        <v/>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2960,7 +2384,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3">
         <v>20054</v>
@@ -2970,26 +2394,26 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>14065</v>
+        <v>14053</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A13,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A13,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H13">
+        <v/>
+      </c>
+      <c r="H13" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A13,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A13,Raw_data_01!D:D,1),"")</f>
-        <v>12</v>
-      </c>
-      <c r="I13" s="3">
+        <v/>
+      </c>
+      <c r="I13" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A13,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A13,Raw_data_01!D:D,1),"")</f>
-        <v>12</v>
-      </c>
-      <c r="J13" s="3">
+        <v/>
+      </c>
+      <c r="J13" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A13,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A13,Raw_data_01!D:D,1),"")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="L13">
         <v>2</v>
@@ -3009,7 +2433,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3">
         <v>20054</v>
@@ -3019,26 +2443,26 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>14066</v>
+        <v>14053</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A14,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A14,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H14">
+        <v/>
+      </c>
+      <c r="H14" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A14,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A14,Raw_data_01!D:D,1),"")</f>
-        <v>13</v>
-      </c>
-      <c r="I14" s="3">
+        <v/>
+      </c>
+      <c r="I14" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A14,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A14,Raw_data_01!D:D,1),"")</f>
-        <v>13</v>
-      </c>
-      <c r="J14" s="3">
+        <v/>
+      </c>
+      <c r="J14" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A14,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A14,Raw_data_01!D:D,1),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="L14">
         <v>2</v>
@@ -3058,7 +2482,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3">
         <v>20054</v>
@@ -3068,26 +2492,26 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>14067</v>
+        <v>14053</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A15,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A15,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H15">
+        <v/>
+      </c>
+      <c r="H15" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A15,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A15,Raw_data_01!D:D,1),"")</f>
-        <v>14</v>
-      </c>
-      <c r="I15" s="3">
+        <v/>
+      </c>
+      <c r="I15" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A15,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A15,Raw_data_01!D:D,1),"")</f>
-        <v>14</v>
-      </c>
-      <c r="J15" s="3">
+        <v/>
+      </c>
+      <c r="J15" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A15,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A15,Raw_data_01!D:D,1),"")</f>
-        <v>14</v>
+        <v/>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3107,7 +2531,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
         <v>20054</v>
@@ -3117,26 +2541,26 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>14068</v>
+        <v>14053</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A16,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A16,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H16">
+        <v/>
+      </c>
+      <c r="H16" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A16,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A16,Raw_data_01!D:D,1),"")</f>
-        <v>15</v>
-      </c>
-      <c r="I16" s="3">
+        <v/>
+      </c>
+      <c r="I16" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A16,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A16,Raw_data_01!D:D,1),"")</f>
-        <v>15</v>
-      </c>
-      <c r="J16" s="3">
+        <v/>
+      </c>
+      <c r="J16" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A16,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A16,Raw_data_01!D:D,1),"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="L16">
         <v>2</v>
@@ -3156,7 +2580,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3">
         <v>20054</v>
@@ -3166,26 +2590,26 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>14069</v>
+        <v>14053</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A17,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A17,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H17">
+        <v/>
+      </c>
+      <c r="H17" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A17,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A17,Raw_data_01!D:D,1),"")</f>
-        <v>16</v>
-      </c>
-      <c r="I17" s="3">
+        <v/>
+      </c>
+      <c r="I17" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A17,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A17,Raw_data_01!D:D,1),"")</f>
-        <v>16</v>
-      </c>
-      <c r="J17" s="3">
+        <v/>
+      </c>
+      <c r="J17" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A17,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A17,Raw_data_01!D:D,1),"")</f>
-        <v>16</v>
+        <v/>
       </c>
       <c r="L17">
         <v>2</v>
@@ -3205,7 +2629,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3">
         <v>20054</v>
@@ -3215,26 +2639,26 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>14070</v>
+        <v>14053</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A18,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A18,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H18">
+        <v/>
+      </c>
+      <c r="H18" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A18,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A18,Raw_data_01!D:D,1),"")</f>
-        <v>17</v>
-      </c>
-      <c r="I18" s="3">
+        <v/>
+      </c>
+      <c r="I18" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A18,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A18,Raw_data_01!D:D,1),"")</f>
-        <v>17</v>
-      </c>
-      <c r="J18" s="3">
+        <v/>
+      </c>
+      <c r="J18" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A18,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A18,Raw_data_01!D:D,1),"")</f>
-        <v>17</v>
+        <v/>
       </c>
       <c r="L18">
         <v>2</v>
@@ -3254,7 +2678,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3">
         <v>20054</v>
@@ -3264,26 +2688,26 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>14071</v>
+        <v>14053</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A19,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A19,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H19">
+        <v/>
+      </c>
+      <c r="H19" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A19,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A19,Raw_data_01!D:D,1),"")</f>
-        <v>18</v>
-      </c>
-      <c r="I19" s="3">
+        <v/>
+      </c>
+      <c r="I19" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A19,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A19,Raw_data_01!D:D,1),"")</f>
-        <v>18</v>
-      </c>
-      <c r="J19" s="3">
+        <v/>
+      </c>
+      <c r="J19" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A19,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A19,Raw_data_01!D:D,1),"")</f>
-        <v>18</v>
+        <v/>
       </c>
       <c r="L19">
         <v>2</v>
@@ -3303,7 +2727,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3">
         <v>20054</v>
@@ -3313,26 +2737,26 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>14072</v>
+        <v>14053</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A20,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A20,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H20">
+        <v/>
+      </c>
+      <c r="H20" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A20,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A20,Raw_data_01!D:D,1),"")</f>
-        <v>19</v>
-      </c>
-      <c r="I20" s="3">
+        <v/>
+      </c>
+      <c r="I20" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A20,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A20,Raw_data_01!D:D,1),"")</f>
-        <v>19</v>
-      </c>
-      <c r="J20" s="3">
+        <v/>
+      </c>
+      <c r="J20" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A20,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A20,Raw_data_01!D:D,1),"")</f>
-        <v>19</v>
+        <v/>
       </c>
       <c r="L20">
         <v>2</v>
@@ -3352,7 +2776,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
         <v>20054</v>
@@ -3362,26 +2786,26 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>14073</v>
+        <v>14053</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A21,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A21,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H21">
+        <v/>
+      </c>
+      <c r="H21" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A21,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A21,Raw_data_01!D:D,1),"")</f>
-        <v>20</v>
-      </c>
-      <c r="I21" s="3">
+        <v/>
+      </c>
+      <c r="I21" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A21,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A21,Raw_data_01!D:D,1),"")</f>
-        <v>20</v>
-      </c>
-      <c r="J21" s="3">
+        <v/>
+      </c>
+      <c r="J21" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A21,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A21,Raw_data_01!D:D,1),"")</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="L21">
         <v>2</v>
@@ -3401,7 +2825,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3">
         <v>20054</v>
@@ -3411,26 +2835,26 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>14074</v>
+        <v>14053</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A22,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A22,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H22">
+        <v/>
+      </c>
+      <c r="H22" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A22,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A22,Raw_data_01!D:D,1),"")</f>
-        <v>21</v>
-      </c>
-      <c r="I22" s="3">
+        <v/>
+      </c>
+      <c r="I22" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A22,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A22,Raw_data_01!D:D,1),"")</f>
-        <v>21</v>
-      </c>
-      <c r="J22" s="3">
+        <v/>
+      </c>
+      <c r="J22" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A22,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A22,Raw_data_01!D:D,1),"")</f>
-        <v>21</v>
+        <v/>
       </c>
       <c r="L22">
         <v>2</v>
@@ -3450,7 +2874,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
         <v>20054</v>
@@ -3460,26 +2884,26 @@
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>14075</v>
+        <v>14053</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A23,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A23,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H23">
+        <v/>
+      </c>
+      <c r="H23" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A23,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A23,Raw_data_01!D:D,1),"")</f>
-        <v>22</v>
-      </c>
-      <c r="I23" s="3">
+        <v/>
+      </c>
+      <c r="I23" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A23,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A23,Raw_data_01!D:D,1),"")</f>
-        <v>22</v>
-      </c>
-      <c r="J23" s="3">
+        <v/>
+      </c>
+      <c r="J23" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A23,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A23,Raw_data_01!D:D,1),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="L23">
         <v>2</v>
@@ -3499,7 +2923,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3">
         <v>20054</v>
@@ -3509,26 +2933,26 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>14076</v>
+        <v>14053</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A24,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A24,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H24">
+        <v/>
+      </c>
+      <c r="H24" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A24,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A24,Raw_data_01!D:D,1),"")</f>
-        <v>23</v>
-      </c>
-      <c r="I24" s="3">
+        <v/>
+      </c>
+      <c r="I24" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A24,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A24,Raw_data_01!D:D,1),"")</f>
-        <v>23</v>
-      </c>
-      <c r="J24" s="3">
+        <v/>
+      </c>
+      <c r="J24" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A24,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A24,Raw_data_01!D:D,1),"")</f>
-        <v>23</v>
+        <v/>
       </c>
       <c r="L24">
         <v>2</v>
@@ -3548,7 +2972,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3">
         <v>20054</v>
@@ -3558,26 +2982,26 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>14077</v>
+        <v>14053</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A25,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A25,Raw_data_01!D:D,1),"")</f>
-        <v>10</v>
-      </c>
-      <c r="H25">
+        <v/>
+      </c>
+      <c r="H25" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A25,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A25,Raw_data_01!D:D,1),"")</f>
-        <v>24</v>
-      </c>
-      <c r="I25" s="3">
+        <v/>
+      </c>
+      <c r="I25" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A25,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A25,Raw_data_01!D:D,1),"")</f>
-        <v>24</v>
-      </c>
-      <c r="J25" s="3">
+        <v/>
+      </c>
+      <c r="J25" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A25,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A25,Raw_data_01!D:D,1),"")</f>
-        <v>24</v>
+        <v/>
       </c>
       <c r="L25">
         <v>2</v>
@@ -3597,7 +3021,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3">
         <v>20054</v>
@@ -3646,7 +3070,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3">
         <v>20054</v>
@@ -3695,7 +3119,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3">
         <v>20054</v>
@@ -3744,7 +3168,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3">
         <v>20054</v>
@@ -3793,7 +3217,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3">
         <v>20054</v>
@@ -3842,7 +3266,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3">
         <v>20054</v>
@@ -3891,7 +3315,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B32" s="3">
         <v>20054</v>
@@ -3940,7 +3364,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3">
         <v>20054</v>
@@ -3989,7 +3413,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3">
         <v>20054</v>
@@ -4038,7 +3462,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3">
         <v>20054</v>
@@ -4087,7 +3511,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B36" s="3">
         <v>20054</v>
@@ -4136,7 +3560,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3">
         <v>20054</v>
@@ -4185,7 +3609,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B38" s="3">
         <v>20054</v>
@@ -4234,7 +3658,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B39" s="3">
         <v>20054</v>
@@ -4283,7 +3707,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B40" s="3">
         <v>20054</v>
@@ -4332,7 +3756,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B41" s="3">
         <v>20054</v>
@@ -4381,7 +3805,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B42" s="3">
         <v>20054</v>
@@ -4430,7 +3854,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B43" s="3">
         <v>20054</v>
@@ -4479,7 +3903,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B44" s="3">
         <v>20054</v>
@@ -4528,7 +3952,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B45" s="3">
         <v>20054</v>
@@ -4577,7 +4001,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B46" s="3">
         <v>20054</v>
@@ -4626,7 +4050,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B47" s="3">
         <v>20054</v>
@@ -4675,7 +4099,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B48" s="3">
         <v>20054</v>
@@ -4724,7 +4148,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B49" s="3">
         <v>20054</v>
@@ -4773,7 +4197,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B50" s="3">
         <v>20054</v>
@@ -4822,7 +4246,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B51" s="3">
         <v>20054</v>
@@ -4871,7 +4295,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B52" s="3">
         <v>20054</v>
@@ -4920,7 +4344,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B53" s="3">
         <v>20054</v>
@@ -4969,7 +4393,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B54" s="3">
         <v>20054</v>
@@ -5018,7 +4442,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B55" s="3">
         <v>20054</v>
@@ -5067,7 +4491,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B56" s="3">
         <v>20054</v>
@@ -5116,7 +4540,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B57" s="3">
         <v>20054</v>
@@ -5165,7 +4589,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B58" s="3">
         <v>20054</v>
@@ -5214,7 +4638,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B59" s="3">
         <v>20054</v>
@@ -5263,7 +4687,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B60" s="3">
         <v>20054</v>
@@ -5312,7 +4736,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B61" s="3">
         <v>20054</v>
@@ -5361,7 +4785,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B62" s="3">
         <v>20054</v>
@@ -5410,7 +4834,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B63" s="3">
         <v>20054</v>
@@ -5459,7 +4883,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B64" s="3">
         <v>20054</v>
@@ -5508,7 +4932,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B65" s="3">
         <v>20054</v>
@@ -5557,7 +4981,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B66" s="3">
         <v>20054</v>
@@ -5606,7 +5030,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B67" s="3">
         <v>20054</v>
@@ -5655,7 +5079,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3">
         <v>20054</v>
@@ -5704,7 +5128,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B69" s="3">
         <v>20054</v>
@@ -5753,7 +5177,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B70" s="3">
         <v>20054</v>
@@ -5802,7 +5226,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B71" s="3">
         <v>20054</v>
@@ -5851,7 +5275,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B72" s="3">
         <v>20054</v>
@@ -5900,7 +5324,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B73" s="3">
         <v>20054</v>
@@ -5949,7 +5373,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B74" s="3">
         <v>20054</v>
@@ -5998,7 +5422,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B75" s="3">
         <v>20054</v>
@@ -6047,7 +5471,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B76" s="3">
         <v>20054</v>
@@ -6096,7 +5520,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B77" s="3">
         <v>20054</v>
@@ -6145,7 +5569,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B78" s="3">
         <v>20054</v>
@@ -6194,7 +5618,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B79" s="3">
         <v>20054</v>
@@ -6243,7 +5667,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B80" s="3">
         <v>20054</v>
@@ -6292,7 +5716,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B81" s="3">
         <v>20054</v>
@@ -6341,7 +5765,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B82" s="3">
         <v>20054</v>
@@ -6390,7 +5814,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B83" s="3">
         <v>20054</v>
@@ -6439,7 +5863,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B84" s="3">
         <v>20054</v>
@@ -6488,7 +5912,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B85" s="3">
         <v>20054</v>
@@ -6537,7 +5961,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B86" s="3">
         <v>20054</v>
@@ -6586,7 +6010,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B87" s="3">
         <v>20054</v>
@@ -6635,7 +6059,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B88" s="3">
         <v>20054</v>
@@ -6684,7 +6108,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B89" s="3">
         <v>20054</v>
@@ -6733,7 +6157,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B90" s="3">
         <v>20054</v>
@@ -6782,7 +6206,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B91" s="3">
         <v>20054</v>
@@ -6831,7 +6255,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B92" s="3">
         <v>20054</v>
@@ -6880,7 +6304,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B93" s="3">
         <v>20054</v>
@@ -6929,7 +6353,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B94" s="3">
         <v>20054</v>
@@ -6978,7 +6402,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B95" s="3">
         <v>20054</v>
@@ -7027,7 +6451,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B96" s="3">
         <v>20054</v>
@@ -7076,7 +6500,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B97" s="3">
         <v>20054</v>
@@ -7125,7 +6549,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B98" s="3">
         <v>20054</v>
@@ -7174,7 +6598,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B99" s="3">
         <v>20054</v>
@@ -7223,7 +6647,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B100" s="3">
         <v>20054</v>
@@ -7272,7 +6696,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B101" s="3">
         <v>20054</v>
@@ -7321,7 +6745,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B102" s="3">
         <v>20054</v>
@@ -7370,7 +6794,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B103" s="3">
         <v>20054</v>
@@ -7419,7 +6843,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B104" s="3">
         <v>20054</v>
@@ -7468,7 +6892,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B105" s="3">
         <v>20054</v>
@@ -7517,7 +6941,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B106" s="3">
         <v>20054</v>
@@ -7566,7 +6990,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B107" s="3">
         <v>20054</v>
@@ -7615,7 +7039,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B108" s="3">
         <v>20054</v>
@@ -7664,7 +7088,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B109" s="3">
         <v>20054</v>
@@ -7713,7 +7137,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B110" s="3">
         <v>20054</v>
@@ -7762,7 +7186,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B111" s="3">
         <v>20054</v>
@@ -7811,7 +7235,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B112" s="3">
         <v>20054</v>
@@ -7860,7 +7284,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B113" s="3">
         <v>20054</v>
@@ -7909,7 +7333,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B114" s="3">
         <v>20054</v>
@@ -7958,7 +7382,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B115" s="3">
         <v>20054</v>
@@ -8007,7 +7431,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B116" s="3">
         <v>20054</v>
@@ -8056,7 +7480,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B117" s="3">
         <v>20054</v>
@@ -8105,7 +7529,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B118" s="3">
         <v>20054</v>
@@ -8154,7 +7578,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B119" s="3">
         <v>20054</v>
@@ -8203,7 +7627,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B120" s="3">
         <v>20054</v>
@@ -8252,7 +7676,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B121" s="3">
         <v>20054</v>
@@ -8301,7 +7725,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B122" s="3">
         <v>20054</v>
@@ -8350,7 +7774,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B123" s="3">
         <v>20054</v>
@@ -8399,7 +7823,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B124" s="3">
         <v>20054</v>
@@ -8448,7 +7872,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B125" s="3">
         <v>20054</v>
@@ -8497,7 +7921,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B126" s="3">
         <v>20054</v>
@@ -8546,7 +7970,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B127" s="3">
         <v>20054</v>
@@ -8595,7 +8019,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B128" s="3">
         <v>20054</v>
@@ -8644,7 +8068,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B129" s="3">
         <v>20054</v>
@@ -8693,7 +8117,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B130" s="3">
         <v>20054</v>
@@ -8742,7 +8166,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B131" s="3">
         <v>20054</v>
@@ -8791,7 +8215,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B132" s="3">
         <v>20054</v>
@@ -8840,7 +8264,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B133" s="3">
         <v>20054</v>
@@ -8889,7 +8313,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B134" s="3">
         <v>20054</v>
@@ -8938,7 +8362,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B135" s="3">
         <v>20054</v>
@@ -8987,7 +8411,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B136" s="3">
         <v>20054</v>
@@ -9036,7 +8460,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B137" s="3">
         <v>20054</v>
@@ -9085,7 +8509,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B138" s="3">
         <v>20054</v>
@@ -9134,7 +8558,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B139" s="3">
         <v>20054</v>
@@ -9183,7 +8607,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B140" s="3">
         <v>20054</v>
@@ -9232,7 +8656,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B141" s="3">
         <v>20054</v>
@@ -9281,7 +8705,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B142" s="3">
         <v>20054</v>
@@ -9330,7 +8754,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B143" s="3">
         <v>20054</v>
@@ -9379,7 +8803,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B144" s="3">
         <v>20054</v>
@@ -9428,7 +8852,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B145" s="3">
         <v>20054</v>
@@ -9477,7 +8901,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B146" s="3">
         <v>20054</v>
@@ -9526,7 +8950,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B147" s="3">
         <v>20054</v>
@@ -9575,7 +8999,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B148" s="3">
         <v>20054</v>
@@ -9624,7 +9048,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B149" s="3">
         <v>20054</v>
@@ -9673,7 +9097,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B150" s="3">
         <v>20054</v>
@@ -9722,7 +9146,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B151" s="3">
         <v>20054</v>
@@ -9771,7 +9195,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B152" s="3">
         <v>20054</v>
@@ -9820,7 +9244,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B153" s="3">
         <v>20054</v>
@@ -9869,7 +9293,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B154" s="3">
         <v>20054</v>
@@ -9918,7 +9342,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B155" s="3">
         <v>20054</v>
@@ -9967,7 +9391,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B156" s="3">
         <v>20054</v>
@@ -10016,7 +9440,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B157" s="3">
         <v>20054</v>
@@ -10065,7 +9489,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B158" s="3">
         <v>20054</v>
@@ -10114,7 +9538,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B159" s="3">
         <v>20054</v>
@@ -10163,7 +9587,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B160" s="3">
         <v>20054</v>
@@ -10212,7 +9636,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B161" s="3">
         <v>20054</v>
@@ -10261,7 +9685,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B162" s="3">
         <v>20054</v>
@@ -10310,7 +9734,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B163" s="3">
         <v>20054</v>
@@ -10359,7 +9783,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B164" s="3">
         <v>20054</v>
@@ -10408,7 +9832,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B165" s="3">
         <v>20054</v>
@@ -10457,7 +9881,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B166" s="3">
         <v>20054</v>
@@ -10506,7 +9930,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B167" s="3">
         <v>20054</v>
@@ -10555,7 +9979,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B168" s="3">
         <v>20054</v>
@@ -10604,7 +10028,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B169" s="3">
         <v>20054</v>
@@ -10653,7 +10077,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B170" s="3">
         <v>20054</v>
@@ -10702,7 +10126,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B171" s="3">
         <v>20054</v>
@@ -10751,7 +10175,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B172" s="3">
         <v>20054</v>
@@ -10800,7 +10224,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B173" s="3">
         <v>20054</v>
@@ -10849,7 +10273,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B174" s="3">
         <v>20054</v>
@@ -10898,7 +10322,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B175" s="3">
         <v>20054</v>
@@ -10947,7 +10371,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B176" s="3">
         <v>20054</v>
@@ -10996,7 +10420,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B177" s="3">
         <v>20054</v>
@@ -11045,7 +10469,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B178" s="3">
         <v>20054</v>
@@ -11094,7 +10518,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B179" s="3">
         <v>20054</v>
@@ -11143,7 +10567,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B180" s="3">
         <v>20054</v>
@@ -11192,7 +10616,7 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B181" s="3">
         <v>20054</v>
@@ -11241,7 +10665,7 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B182" s="3">
         <v>20054</v>
@@ -11290,7 +10714,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B183" s="3">
         <v>20054</v>
@@ -11339,7 +10763,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B184" s="3">
         <v>20054</v>
@@ -11388,7 +10812,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B185" s="3">
         <v>20054</v>
@@ -11437,7 +10861,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B186" s="3">
         <v>20054</v>
@@ -11486,7 +10910,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B187" s="3">
         <v>20054</v>
@@ -11535,7 +10959,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B188" s="3">
         <v>20054</v>
@@ -11584,7 +11008,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B189" s="3">
         <v>20054</v>
@@ -11633,7 +11057,7 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B190" s="3">
         <v>20054</v>
@@ -11682,7 +11106,7 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B191" s="3">
         <v>20054</v>
@@ -11731,7 +11155,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B192" s="3">
         <v>20054</v>
@@ -11780,7 +11204,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B193" s="3">
         <v>20054</v>
@@ -11829,7 +11253,7 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B194" s="3">
         <v>20054</v>
@@ -11878,7 +11302,7 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B195" s="3">
         <v>20054</v>
@@ -11927,7 +11351,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B196" s="3">
         <v>20054</v>
@@ -11976,7 +11400,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B197" s="3">
         <v>20054</v>
@@ -12025,7 +11449,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B198" s="3">
         <v>20054</v>
@@ -12074,7 +11498,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B199" s="3">
         <v>20054</v>
@@ -12123,7 +11547,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B200" s="3">
         <v>20054</v>
@@ -12172,7 +11596,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B201" s="3">
         <v>20054</v>
@@ -12221,7 +11645,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B202" s="3">
         <v>20054</v>
@@ -12270,7 +11694,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B203" s="3">
         <v>20054</v>
@@ -12319,7 +11743,7 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B204" s="3">
         <v>20054</v>
@@ -12368,7 +11792,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B205" s="3">
         <v>20054</v>
@@ -12417,7 +11841,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B206" s="3">
         <v>20054</v>
@@ -12466,7 +11890,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B207" s="3">
         <v>20054</v>
@@ -12515,7 +11939,7 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B208" s="3">
         <v>20054</v>
@@ -12564,7 +11988,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B209" s="3">
         <v>20054</v>
@@ -12613,7 +12037,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B210" s="3">
         <v>20054</v>
@@ -12662,7 +12086,7 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B211" s="3">
         <v>20054</v>
@@ -12711,7 +12135,7 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="B212" s="3">
         <v>20054</v>
@@ -12721,26 +12145,26 @@
       </c>
       <c r="D212" s="3">
         <f t="shared" si="3"/>
-        <v>14066</v>
+        <v>14053</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
-      <c r="G212" s="3">
+      <c r="G212" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A212,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A212,Raw_data_01!D:D,1),"")</f>
-        <v>5.2</v>
-      </c>
-      <c r="H212">
+        <v/>
+      </c>
+      <c r="H212" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A212,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A212,Raw_data_01!D:D,1),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I212" s="3">
+        <v/>
+      </c>
+      <c r="I212" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A212,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A212,Raw_data_01!D:D,1),"")</f>
-        <v>50</v>
-      </c>
-      <c r="J212" s="3">
+        <v/>
+      </c>
+      <c r="J212" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A212,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A212,Raw_data_01!D:D,1),"")</f>
-        <v>13</v>
+        <v/>
       </c>
       <c r="L212">
         <v>2</v>
@@ -12760,7 +12184,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B213" s="3">
         <v>20054</v>
@@ -12809,7 +12233,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="B214" s="3">
         <v>20054</v>
@@ -12819,7 +12243,7 @@
       </c>
       <c r="D214" s="3">
         <f t="shared" si="3"/>
-        <v>14053</v>
+        <v>14078</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -12843,22 +12267,22 @@
       <c r="L214">
         <v>2</v>
       </c>
-      <c r="M214" t="str">
+      <c r="M214">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A214,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A214,Raw_data_01!D:D,2),"")</f>
-        <v/>
-      </c>
-      <c r="N214" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="N214" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A214,Raw_data_01!D:D,2)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A214,Raw_data_01!D:D,2),"")</f>
-        <v/>
-      </c>
-      <c r="O214" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="O214" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A214,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A214,Raw_data_01!D:D,2),"")</f>
-        <v/>
+        <v>25</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B215" s="3">
         <v>20054</v>
@@ -12907,7 +12331,7 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B216" s="3">
         <v>20054</v>
@@ -12956,7 +12380,7 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B217" s="3">
         <v>20054</v>
@@ -13005,7 +12429,7 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B218" s="3">
         <v>20054</v>
@@ -13054,7 +12478,7 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B219" s="3">
         <v>20054</v>
@@ -13103,7 +12527,7 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B220" s="3">
         <v>20054</v>
@@ -13152,7 +12576,7 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B221" s="3">
         <v>20054</v>
@@ -13201,7 +12625,7 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B222" s="3">
         <v>20054</v>
@@ -13250,7 +12674,7 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B223" s="3">
         <v>20054</v>
@@ -13299,7 +12723,7 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B224" s="3">
         <v>20054</v>
@@ -13348,7 +12772,7 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B225" s="3">
         <v>20054</v>
@@ -13397,7 +12821,7 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B226" s="3">
         <v>20054</v>
@@ -13446,7 +12870,7 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B227" s="3">
         <v>20054</v>
@@ -13495,7 +12919,7 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B228" s="3">
         <v>20054</v>
@@ -13544,7 +12968,7 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B229" s="3">
         <v>20054</v>
@@ -13593,7 +13017,7 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B230" s="3">
         <v>20054</v>
@@ -13642,7 +13066,7 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B231" s="3">
         <v>20054</v>
@@ -13691,7 +13115,7 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B232" s="3">
         <v>20054</v>
@@ -13740,7 +13164,7 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B233" s="3">
         <v>20054</v>
@@ -13789,7 +13213,7 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B234" s="3">
         <v>20054</v>
@@ -13838,7 +13262,7 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B235" s="3">
         <v>20054</v>
@@ -13887,7 +13311,7 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B236" s="3">
         <v>20054</v>
@@ -13936,7 +13360,7 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B237" s="3">
         <v>20054</v>
@@ -13985,7 +13409,7 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B238" s="3">
         <v>20054</v>
@@ -14034,7 +13458,7 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B239" s="3">
         <v>20054</v>
@@ -14083,7 +13507,7 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B240" s="3">
         <v>20054</v>
@@ -14132,7 +13556,7 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B241" s="3">
         <v>20054</v>
@@ -14181,7 +13605,7 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B242" s="3">
         <v>20054</v>
@@ -14230,7 +13654,7 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B243" s="3">
         <v>20054</v>
@@ -14279,7 +13703,7 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B244" s="3">
         <v>20054</v>
@@ -14328,7 +13752,7 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B245" s="3">
         <v>20054</v>
@@ -14377,7 +13801,7 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B246" s="3">
         <v>20054</v>
@@ -14426,7 +13850,7 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B247" s="3">
         <v>20054</v>
@@ -14475,7 +13899,7 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B248" s="3">
         <v>20054</v>
@@ -14524,7 +13948,7 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B249" s="3">
         <v>20054</v>
@@ -14573,7 +13997,7 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B250" s="3">
         <v>20054</v>
@@ -14622,7 +14046,7 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B251" s="3">
         <v>20054</v>
@@ -14671,7 +14095,7 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B252" s="3">
         <v>20054</v>
@@ -14720,7 +14144,7 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="B253" s="3">
         <v>20054</v>
@@ -14769,7 +14193,7 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="B254" s="3">
         <v>20054</v>
@@ -14818,7 +14242,7 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B255" s="3">
         <v>20054</v>
@@ -14867,7 +14291,7 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B256" s="3">
         <v>20054</v>
@@ -14916,7 +14340,7 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B257" s="3">
         <v>20054</v>
@@ -14965,7 +14389,7 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B258" s="3">
         <v>20054</v>
@@ -15014,7 +14438,7 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B259" s="3">
         <v>20054</v>
@@ -15063,7 +14487,7 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B260" s="3">
         <v>20054</v>
@@ -15112,7 +14536,7 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B261" s="3">
         <v>20054</v>
@@ -15161,7 +14585,7 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B262" s="3">
         <v>20054</v>
@@ -15210,7 +14634,7 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B263" s="3">
         <v>20054</v>
@@ -15259,7 +14683,7 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B264" s="3">
         <v>20054</v>
@@ -15308,7 +14732,7 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B265" s="3">
         <v>20054</v>
@@ -15357,7 +14781,7 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="B266" s="3">
         <v>20054</v>
@@ -15406,7 +14830,7 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B267" s="3">
         <v>20054</v>
@@ -15455,7 +14879,7 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B268" s="3">
         <v>20054</v>
@@ -15504,7 +14928,7 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B269" s="3">
         <v>20054</v>
@@ -15553,7 +14977,7 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B270" s="3">
         <v>20054</v>
@@ -15602,7 +15026,7 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B271" s="3">
         <v>20054</v>
@@ -15651,7 +15075,7 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B272" s="3">
         <v>20054</v>
@@ -15700,7 +15124,7 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B273" s="3">
         <v>20054</v>
@@ -15749,7 +15173,7 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B274" s="3">
         <v>20054</v>
@@ -15798,7 +15222,7 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B275" s="3">
         <v>20054</v>
@@ -15847,7 +15271,7 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B276" s="3">
         <v>20054</v>
@@ -15896,7 +15320,7 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B277" s="3">
         <v>20054</v>
@@ -15945,7 +15369,7 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B278" s="3">
         <v>20054</v>
@@ -15994,7 +15418,7 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B279" s="3">
         <v>20054</v>
@@ -16043,7 +15467,7 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B280" s="3">
         <v>20054</v>
@@ -16092,7 +15516,7 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B281" s="3">
         <v>20054</v>
@@ -16141,7 +15565,7 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B282" s="3">
         <v>20054</v>
@@ -16190,7 +15614,7 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B283" s="3">
         <v>20054</v>
@@ -16239,7 +15663,7 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B284" s="3">
         <v>20054</v>
@@ -16288,7 +15712,7 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B285" s="3">
         <v>20054</v>
@@ -16337,7 +15761,7 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B286" s="3">
         <v>20054</v>
@@ -16386,7 +15810,7 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B287" s="3">
         <v>20054</v>
@@ -16435,7 +15859,7 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B288" s="3">
         <v>20054</v>
@@ -16484,7 +15908,7 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B289" s="3">
         <v>20054</v>
@@ -16533,7 +15957,7 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B290" s="3">
         <v>20054</v>
@@ -16582,7 +16006,7 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B291" s="3">
         <v>20054</v>
@@ -16631,7 +16055,7 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B292" s="3">
         <v>20054</v>
@@ -16680,7 +16104,7 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B293" s="3">
         <v>20054</v>
@@ -16729,7 +16153,7 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B294" s="3">
         <v>20054</v>
@@ -16778,7 +16202,7 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B295" s="3">
         <v>20054</v>
@@ -16827,7 +16251,7 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B296" s="3">
         <v>20054</v>
@@ -16876,7 +16300,7 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B297" s="3">
         <v>20054</v>
@@ -16925,7 +16349,7 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B298" s="3">
         <v>20054</v>
@@ -16974,7 +16398,7 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="B299" s="3">
         <v>20054</v>
@@ -17023,7 +16447,7 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B300" s="3">
         <v>20054</v>
@@ -17072,7 +16496,7 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B301" s="3">
         <v>20054</v>
@@ -17121,7 +16545,7 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B302" s="3">
         <v>20054</v>
@@ -17170,7 +16594,7 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B303" s="3">
         <v>20054</v>
@@ -17219,7 +16643,7 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B304" s="3">
         <v>20054</v>
@@ -17268,7 +16692,7 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B305" s="3">
         <v>20054</v>
@@ -17317,7 +16741,7 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B306" s="3">
         <v>20054</v>
@@ -17366,7 +16790,7 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B307" s="3">
         <v>20054</v>
@@ -17415,7 +16839,7 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B308" s="3">
         <v>20054</v>
@@ -17464,7 +16888,7 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B309" s="3">
         <v>20054</v>
@@ -17513,7 +16937,7 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B310" s="3">
         <v>20054</v>
@@ -17562,7 +16986,7 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B311" s="3">
         <v>20054</v>
@@ -17611,7 +17035,7 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B312" s="3">
         <v>20054</v>
@@ -17660,7 +17084,7 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B313" s="3">
         <v>20054</v>
@@ -17709,7 +17133,7 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B314" s="3">
         <v>20054</v>
@@ -17758,7 +17182,7 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B315" s="3">
         <v>20054</v>
@@ -17807,7 +17231,7 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B316" s="3">
         <v>20054</v>
@@ -17856,7 +17280,7 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B317" s="3">
         <v>20054</v>
@@ -17905,7 +17329,7 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B318" s="3">
         <v>20054</v>
@@ -17954,7 +17378,7 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B319" s="3">
         <v>20054</v>
@@ -18003,7 +17427,7 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B320" s="3">
         <v>20054</v>
@@ -18052,7 +17476,7 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B321" s="3">
         <v>20054</v>
@@ -18101,7 +17525,7 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B322" s="3">
         <v>20054</v>
@@ -18150,7 +17574,7 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B323" s="3">
         <v>20054</v>
@@ -18199,7 +17623,7 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B324" s="3">
         <v>20054</v>
@@ -18248,7 +17672,7 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B325" s="3">
         <v>20054</v>
@@ -18297,7 +17721,7 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B326" s="3">
         <v>20054</v>
@@ -18346,7 +17770,7 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B327" s="3">
         <v>20054</v>
@@ -18395,7 +17819,7 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="B328" s="3">
         <v>20054</v>
@@ -18444,7 +17868,7 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B329" s="3">
         <v>20054</v>
@@ -18493,7 +17917,7 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B330" s="3">
         <v>20054</v>
@@ -18542,7 +17966,7 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B331" s="3">
         <v>20054</v>
@@ -18591,7 +18015,7 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B332" s="3">
         <v>20054</v>
@@ -18640,7 +18064,7 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B333" s="3">
         <v>20054</v>
@@ -18689,7 +18113,7 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B334" s="3">
         <v>20054</v>
@@ -18738,7 +18162,7 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="B335" s="3">
         <v>20054</v>
@@ -18787,7 +18211,7 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B336" s="3">
         <v>20054</v>
@@ -18836,7 +18260,7 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B337" s="3">
         <v>20054</v>
@@ -18885,7 +18309,7 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B338" s="3">
         <v>20054</v>
@@ -18934,7 +18358,7 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="B339" s="3">
         <v>20054</v>
@@ -18983,7 +18407,7 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B340" s="3">
         <v>20054</v>
@@ -19032,7 +18456,7 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B341" s="3">
         <v>20054</v>
@@ -19081,7 +18505,7 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B342" s="3">
         <v>20054</v>
@@ -19130,7 +18554,7 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B343" s="3">
         <v>20054</v>
@@ -19179,7 +18603,7 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B344" s="3">
         <v>20054</v>
@@ -19228,7 +18652,7 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="B345" s="3">
         <v>20054</v>
@@ -19277,7 +18701,7 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="B346" s="3">
         <v>20054</v>
@@ -19326,7 +18750,7 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="B347" s="3">
         <v>20054</v>
@@ -19375,7 +18799,7 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="B348" s="3">
         <v>20054</v>
@@ -19424,7 +18848,7 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="B349" s="3">
         <v>20054</v>
@@ -19473,7 +18897,7 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="B350" s="3">
         <v>20054</v>
@@ -19522,7 +18946,7 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="B351" s="3">
         <v>20054</v>
@@ -19571,7 +18995,7 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B352" s="3">
         <v>20054</v>
@@ -19620,7 +19044,7 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="B353" s="3">
         <v>20054</v>
@@ -19669,7 +19093,7 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="B354" s="3">
         <v>20054</v>
@@ -19718,7 +19142,7 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B355" s="3">
         <v>20054</v>
@@ -19767,7 +19191,7 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="B356" s="3">
         <v>20054</v>
@@ -19816,7 +19240,7 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B357" s="3">
         <v>20054</v>
@@ -19865,7 +19289,7 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B358" s="3">
         <v>20054</v>
@@ -19914,7 +19338,7 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B359" s="3">
         <v>20054</v>
@@ -19963,7 +19387,7 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B360" s="3">
         <v>20054</v>
@@ -20012,7 +19436,7 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="B361" s="3">
         <v>20054</v>
@@ -20061,7 +19485,7 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="B362" s="3">
         <v>20054</v>
@@ -20110,7 +19534,7 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="B363" s="3">
         <v>20054</v>
@@ -20159,7 +19583,7 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="B364" s="3">
         <v>20054</v>
@@ -20208,7 +19632,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="B365" s="3">
         <v>20054</v>
@@ -20257,7 +19681,7 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="B366" s="3">
         <v>20054</v>
@@ -20306,7 +19730,7 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B367" s="3">
         <v>20054</v>

--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC17761-600D-4C1D-8940-9C2EDCB1BE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617AEAFE-03C7-401D-9B43-2FF8FFDC0736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="382">
   <si>
     <t xml:space="preserve">   date   </t>
   </si>
@@ -62,28 +62,7 @@
     <t>amount</t>
   </si>
   <si>
-    <t>14:08:15</t>
-  </si>
-  <si>
-    <t>14:08:16</t>
-  </si>
-  <si>
-    <t>14:08:17</t>
-  </si>
-  <si>
-    <t>14:08:18</t>
-  </si>
-  <si>
-    <t>14:08:19</t>
-  </si>
-  <si>
-    <t>14:08:20</t>
-  </si>
-  <si>
-    <t>14:08:21</t>
-  </si>
-  <si>
-    <t>14:08:22</t>
+    <t>18:02:57</t>
   </si>
   <si>
     <t>Date</t>
@@ -1536,11 +1515,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:I10"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,274 +1578,18 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <v>50</v>
       </c>
       <c r="I2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>123</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>50</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H8" s="1">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45017</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>123</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+        <f>IF(D2=1, E2*G2, IF(D2=2, F2*G2, ""))</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1879,7 +1602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,20 +1616,20 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1922,7 +1645,7 @@
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1936,39 +1659,43 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D65" si="0">SUM(J2,O2,B2) - C2</f>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
-        <v>50</v>
-      </c>
-      <c r="H2">
+        <v/>
+      </c>
+      <c r="H2" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
+        <v/>
+      </c>
+      <c r="I2" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
-        <v>50</v>
-      </c>
-      <c r="J2" s="3">
+        <v/>
+      </c>
+      <c r="J2" s="3" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A2,Raw_data_01!D:D,1),"")</f>
-        <v>60</v>
+        <v/>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A2,Raw_data_01!D:D,2),"")</f>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N2" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,2)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A2,Raw_data_01!D:D,2),"")</f>
@@ -1976,21 +1703,20 @@
       </c>
       <c r="O2" s="3">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A2,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A2,Raw_data_01!D:D,2),"")</f>
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <f>IF(D2&lt;&gt;0, D2, IFERROR(INDEX(D2:D$2, MATCH(1, D2:D$2&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$2&lt;&gt;0), D2:D$2)))</f>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2029,17 +1755,14 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <f>IF(D3&lt;&gt;0, D3, IFERROR(INDEX(D2:D$3, MATCH(1, D2:D$3&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$3&lt;&gt;0), D2:D$3)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="F4">
         <v>1</v>
       </c>
@@ -2077,16 +1800,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <f>IF(D4&lt;&gt;0, D4, IFERROR(INDEX(D2:D$4, MATCH(1, D2:D$4&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$4&lt;&gt;0), D2:D$4)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2125,16 +1848,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <f>IF(D5&lt;&gt;0, D5, IFERROR(INDEX(D2:D$5, MATCH(1, D2:D$5&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$5&lt;&gt;0), D2:D$5)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2173,16 +1896,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <f>IF(D6&lt;&gt;0, D6, IFERROR(INDEX(D2:D$6, MATCH(1, D2:D$6&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$6&lt;&gt;0), D2:D$6)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2221,16 +1944,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
         <f>IF(D7&lt;&gt;0, D7, IFERROR(INDEX(D2:D$7, MATCH(1, D2:D$7&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$7&lt;&gt;0), D2:D$7)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2269,16 +1992,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <f>IF(D8&lt;&gt;0, D8, IFERROR(INDEX(D2:D$8, MATCH(1, D2:D$8&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$8&lt;&gt;0), D2:D$8)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2317,16 +2040,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <f>IF(D9&lt;&gt;0, D9, IFERROR(INDEX(D2:D$9, MATCH(1, D2:D$9&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$9&lt;&gt;0), D2:D$9)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2365,16 +2088,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3">
         <f>IF(D10&lt;&gt;0, D10, IFERROR(INDEX(D2:D$10, MATCH(1, D2:D$10&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$10&lt;&gt;0), D2:D$10)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2413,16 +2136,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
         <f>IF(D11&lt;&gt;0, D11, IFERROR(INDEX(D2:D$11, MATCH(1, D2:D$11&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$11&lt;&gt;0), D2:D$11)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2461,16 +2184,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3">
         <f>IF(D12&lt;&gt;0, D12, IFERROR(INDEX(D2:D$12, MATCH(1, D2:D$12&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$12&lt;&gt;0), D2:D$12)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2509,16 +2232,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
         <f>IF(D13&lt;&gt;0, D13, IFERROR(INDEX(D2:D$13, MATCH(1, D2:D$13&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$13&lt;&gt;0), D2:D$13)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2557,16 +2280,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
         <f>IF(D14&lt;&gt;0, D14, IFERROR(INDEX(D2:D$14, MATCH(1, D2:D$14&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$14&lt;&gt;0), D2:D$14)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2605,16 +2328,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
         <f>IF(D15&lt;&gt;0, D15, IFERROR(INDEX(D2:D$15, MATCH(1, D2:D$15&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$15&lt;&gt;0), D2:D$15)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2653,16 +2376,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3">
         <f>IF(D16&lt;&gt;0, D16, IFERROR(INDEX(D2:D$16, MATCH(1, D2:D$16&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$16&lt;&gt;0), D2:D$16)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2701,16 +2424,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3">
         <f>IF(D17&lt;&gt;0, D17, IFERROR(INDEX(D2:D$17, MATCH(1, D2:D$17&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$17&lt;&gt;0), D2:D$17)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2749,16 +2472,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <f>IF(D18&lt;&gt;0, D18, IFERROR(INDEX(D2:D$18, MATCH(1, D2:D$18&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$18&lt;&gt;0), D2:D$18)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2797,16 +2520,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3">
         <f>IF(D19&lt;&gt;0, D19, IFERROR(INDEX(D2:D$19, MATCH(1, D2:D$19&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$19&lt;&gt;0), D2:D$19)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2845,16 +2568,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3">
         <f>IF(D20&lt;&gt;0, D20, IFERROR(INDEX(D2:D$20, MATCH(1, D2:D$20&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$20&lt;&gt;0), D2:D$20)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2893,16 +2616,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3">
         <f>IF(D21&lt;&gt;0, D21, IFERROR(INDEX(D2:D$21, MATCH(1, D2:D$21&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$21&lt;&gt;0), D2:D$21)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2941,16 +2664,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3">
         <f>IF(D22&lt;&gt;0, D22, IFERROR(INDEX(D2:D$22, MATCH(1, D2:D$22&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$22&lt;&gt;0), D2:D$22)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2989,16 +2712,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3">
         <f>IF(D23&lt;&gt;0, D23, IFERROR(INDEX(D2:D$23, MATCH(1, D2:D$23&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$23&lt;&gt;0), D2:D$23)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3037,16 +2760,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B25" s="3">
         <f>IF(D24&lt;&gt;0, D24, IFERROR(INDEX(D2:D$24, MATCH(1, D2:D$24&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$24&lt;&gt;0), D2:D$24)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3085,16 +2808,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <f>IF(D25&lt;&gt;0, D25, IFERROR(INDEX(D2:D$25, MATCH(1, D2:D$25&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$25&lt;&gt;0), D2:D$25)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3133,16 +2856,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3">
         <f>IF(D26&lt;&gt;0, D26, IFERROR(INDEX(D2:D$26, MATCH(1, D2:D$26&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$26&lt;&gt;0), D2:D$26)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3181,16 +2904,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3">
         <f>IF(D27&lt;&gt;0, D27, IFERROR(INDEX(D2:D$27, MATCH(1, D2:D$27&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$27&lt;&gt;0), D2:D$27)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3229,16 +2952,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3">
         <f>IF(D28&lt;&gt;0, D28, IFERROR(INDEX(D2:D$28, MATCH(1, D2:D$28&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$28&lt;&gt;0), D2:D$28)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3277,16 +3000,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3">
         <f>IF(D29&lt;&gt;0, D29, IFERROR(INDEX(D2:D$29, MATCH(1, D2:D$29&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$29&lt;&gt;0), D2:D$29)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3325,16 +3048,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3">
         <f>IF(D30&lt;&gt;0, D30, IFERROR(INDEX(D2:D$30, MATCH(1, D2:D$30&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$30&lt;&gt;0), D2:D$30)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3373,16 +3096,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3">
         <f>IF(D31&lt;&gt;0, D31, IFERROR(INDEX(D2:D$31, MATCH(1, D2:D$31&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$31&lt;&gt;0), D2:D$31)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3421,16 +3144,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3">
         <f>IF(D32&lt;&gt;0, D32, IFERROR(INDEX(D2:D$32, MATCH(1, D2:D$32&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$32&lt;&gt;0), D2:D$32)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3469,16 +3192,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3">
         <f>IF(D33&lt;&gt;0, D33, IFERROR(INDEX(D2:D$33, MATCH(1, D2:D$33&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$33&lt;&gt;0), D2:D$33)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3517,16 +3240,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3">
         <f>IF(D34&lt;&gt;0, D34, IFERROR(INDEX(D2:D$34, MATCH(1, D2:D$34&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$34&lt;&gt;0), D2:D$34)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3565,16 +3288,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3">
         <f>IF(D35&lt;&gt;0, D35, IFERROR(INDEX(D2:D$35, MATCH(1, D2:D$35&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$35&lt;&gt;0), D2:D$35)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3613,16 +3336,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3">
         <f>IF(D36&lt;&gt;0, D36, IFERROR(INDEX(D2:D$36, MATCH(1, D2:D$36&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$36&lt;&gt;0), D2:D$36)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3661,16 +3384,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3">
         <f>IF(D37&lt;&gt;0, D37, IFERROR(INDEX(D2:D$37, MATCH(1, D2:D$37&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$37&lt;&gt;0), D2:D$37)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3709,16 +3432,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3">
         <f>IF(D38&lt;&gt;0, D38, IFERROR(INDEX(D2:D$38, MATCH(1, D2:D$38&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$38&lt;&gt;0), D2:D$38)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3757,16 +3480,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3">
         <f>IF(D39&lt;&gt;0, D39, IFERROR(INDEX(D2:D$39, MATCH(1, D2:D$39&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$39&lt;&gt;0), D2:D$39)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3805,16 +3528,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3">
         <f>IF(D40&lt;&gt;0, D40, IFERROR(INDEX(D2:D$40, MATCH(1, D2:D$40&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$40&lt;&gt;0), D2:D$40)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3853,16 +3576,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3">
         <f>IF(D41&lt;&gt;0, D41, IFERROR(INDEX(D2:D$41, MATCH(1, D2:D$41&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$41&lt;&gt;0), D2:D$41)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3901,16 +3624,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3">
         <f>IF(D42&lt;&gt;0, D42, IFERROR(INDEX(D2:D$42, MATCH(1, D2:D$42&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$42&lt;&gt;0), D2:D$42)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3949,16 +3672,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3">
         <f>IF(D43&lt;&gt;0, D43, IFERROR(INDEX(D2:D$43, MATCH(1, D2:D$43&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$43&lt;&gt;0), D2:D$43)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3997,16 +3720,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3">
         <f>IF(D44&lt;&gt;0, D44, IFERROR(INDEX(D2:D$44, MATCH(1, D2:D$44&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$44&lt;&gt;0), D2:D$44)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -4045,16 +3768,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3">
         <f>IF(D45&lt;&gt;0, D45, IFERROR(INDEX(D2:D$45, MATCH(1, D2:D$45&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$45&lt;&gt;0), D2:D$45)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -4093,16 +3816,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3">
         <f>IF(D46&lt;&gt;0, D46, IFERROR(INDEX(D2:D$46, MATCH(1, D2:D$46&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$46&lt;&gt;0), D2:D$46)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4141,16 +3864,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3">
         <f>IF(D47&lt;&gt;0, D47, IFERROR(INDEX(D2:D$47, MATCH(1, D2:D$47&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$47&lt;&gt;0), D2:D$47)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4189,16 +3912,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3">
         <f>IF(D48&lt;&gt;0, D48, IFERROR(INDEX(D2:D$48, MATCH(1, D2:D$48&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$48&lt;&gt;0), D2:D$48)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4237,16 +3960,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B50" s="3">
         <f>IF(D49&lt;&gt;0, D49, IFERROR(INDEX(D2:D$49, MATCH(1, D2:D$49&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$49&lt;&gt;0), D2:D$49)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4285,16 +4008,16 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B51" s="3">
         <f>IF(D50&lt;&gt;0, D50, IFERROR(INDEX(D2:D$50, MATCH(1, D2:D$50&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$50&lt;&gt;0), D2:D$50)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4333,16 +4056,16 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B52" s="3">
         <f>IF(D51&lt;&gt;0, D51, IFERROR(INDEX(D2:D$51, MATCH(1, D2:D$51&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$51&lt;&gt;0), D2:D$51)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4381,16 +4104,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B53" s="3">
         <f>IF(D52&lt;&gt;0, D52, IFERROR(INDEX(D2:D$52, MATCH(1, D2:D$52&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$52&lt;&gt;0), D2:D$52)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4429,16 +4152,16 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B54" s="3">
         <f>IF(D53&lt;&gt;0, D53, IFERROR(INDEX(D2:D$53, MATCH(1, D2:D$53&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$53&lt;&gt;0), D2:D$53)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -4477,16 +4200,16 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3">
         <f>IF(D54&lt;&gt;0, D54, IFERROR(INDEX(D2:D$54, MATCH(1, D2:D$54&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$54&lt;&gt;0), D2:D$54)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4525,16 +4248,16 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3">
         <f>IF(D55&lt;&gt;0, D55, IFERROR(INDEX(D2:D$55, MATCH(1, D2:D$55&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$55&lt;&gt;0), D2:D$55)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -4573,16 +4296,16 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3">
         <f>IF(D56&lt;&gt;0, D56, IFERROR(INDEX(D2:D$56, MATCH(1, D2:D$56&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$56&lt;&gt;0), D2:D$56)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -4621,16 +4344,16 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B58" s="3">
         <f>IF(D57&lt;&gt;0, D57, IFERROR(INDEX(D2:D$57, MATCH(1, D2:D$57&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$57&lt;&gt;0), D2:D$57)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -4669,16 +4392,16 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B59" s="3">
         <f>IF(D58&lt;&gt;0, D58, IFERROR(INDEX(D2:D$58, MATCH(1, D2:D$58&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$58&lt;&gt;0), D2:D$58)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -4717,16 +4440,16 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B60" s="3">
         <f>IF(D59&lt;&gt;0, D59, IFERROR(INDEX(D2:D$59, MATCH(1, D2:D$59&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$59&lt;&gt;0), D2:D$59)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4765,16 +4488,16 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B61" s="3">
         <f>IF(D60&lt;&gt;0, D60, IFERROR(INDEX(D2:D$60, MATCH(1, D2:D$60&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$60&lt;&gt;0), D2:D$60)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -4813,16 +4536,16 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B62" s="3">
         <f>IF(D61&lt;&gt;0, D61, IFERROR(INDEX(D2:D$61, MATCH(1, D2:D$61&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$61&lt;&gt;0), D2:D$61)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4861,16 +4584,16 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B63" s="3">
         <f>IF(D62&lt;&gt;0, D62, IFERROR(INDEX(D2:D$62, MATCH(1, D2:D$62&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$62&lt;&gt;0), D2:D$62)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -4909,16 +4632,16 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B64" s="3">
         <f>IF(D63&lt;&gt;0, D63, IFERROR(INDEX(D2:D$63, MATCH(1, D2:D$63&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$63&lt;&gt;0), D2:D$63)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4957,16 +4680,16 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B65" s="3">
         <f>IF(D64&lt;&gt;0, D64, IFERROR(INDEX(D2:D$64, MATCH(1, D2:D$64&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$64&lt;&gt;0), D2:D$64)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -5005,16 +4728,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B66" s="3">
         <f>IF(D65&lt;&gt;0, D65, IFERROR(INDEX(D2:D$65, MATCH(1, D2:D$65&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$65&lt;&gt;0), D2:D$65)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3">
         <f t="shared" ref="D66:D129" si="1">SUM(J66,O66,B66) - C66</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -5053,16 +4776,16 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B67" s="3">
         <f>IF(D66&lt;&gt;0, D66, IFERROR(INDEX(D2:D$66, MATCH(1, D2:D$66&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$66&lt;&gt;0), D2:D$66)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -5101,16 +4824,16 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B68" s="3">
         <f>IF(D67&lt;&gt;0, D67, IFERROR(INDEX(D2:D$67, MATCH(1, D2:D$67&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$67&lt;&gt;0), D2:D$67)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -5149,16 +4872,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B69" s="3">
         <f>IF(D68&lt;&gt;0, D68, IFERROR(INDEX(D2:D$68, MATCH(1, D2:D$68&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$68&lt;&gt;0), D2:D$68)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -5197,16 +4920,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B70" s="3">
         <f>IF(D69&lt;&gt;0, D69, IFERROR(INDEX(D2:D$69, MATCH(1, D2:D$69&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$69&lt;&gt;0), D2:D$69)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -5245,16 +4968,16 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3">
         <f>IF(D70&lt;&gt;0, D70, IFERROR(INDEX(D2:D$70, MATCH(1, D2:D$70&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$70&lt;&gt;0), D2:D$70)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -5293,16 +5016,16 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B72" s="3">
         <f>IF(D71&lt;&gt;0, D71, IFERROR(INDEX(D2:D$71, MATCH(1, D2:D$71&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$71&lt;&gt;0), D2:D$71)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -5341,16 +5064,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B73" s="3">
         <f>IF(D72&lt;&gt;0, D72, IFERROR(INDEX(D2:D$72, MATCH(1, D2:D$72&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$72&lt;&gt;0), D2:D$72)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -5389,16 +5112,16 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B74" s="3">
         <f>IF(D73&lt;&gt;0, D73, IFERROR(INDEX(D2:D$73, MATCH(1, D2:D$73&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$73&lt;&gt;0), D2:D$73)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -5437,16 +5160,16 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B75" s="3">
         <f>IF(D74&lt;&gt;0, D74, IFERROR(INDEX(D2:D$74, MATCH(1, D2:D$74&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$74&lt;&gt;0), D2:D$74)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -5485,16 +5208,16 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B76" s="3">
         <f>IF(D75&lt;&gt;0, D75, IFERROR(INDEX(D2:D$75, MATCH(1, D2:D$75&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$75&lt;&gt;0), D2:D$75)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -5533,16 +5256,16 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B77" s="3">
         <f>IF(D76&lt;&gt;0, D76, IFERROR(INDEX(D2:D$76, MATCH(1, D2:D$76&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$76&lt;&gt;0), D2:D$76)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -5581,16 +5304,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B78" s="3">
         <f>IF(D77&lt;&gt;0, D77, IFERROR(INDEX(D2:D$77, MATCH(1, D2:D$77&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$77&lt;&gt;0), D2:D$77)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -5629,16 +5352,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B79" s="3">
         <f>IF(D78&lt;&gt;0, D78, IFERROR(INDEX(D2:D$78, MATCH(1, D2:D$78&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$78&lt;&gt;0), D2:D$78)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -5677,16 +5400,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B80" s="3">
         <f>IF(D79&lt;&gt;0, D79, IFERROR(INDEX(D2:D$79, MATCH(1, D2:D$79&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$79&lt;&gt;0), D2:D$79)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -5725,16 +5448,16 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B81" s="3">
         <f>IF(D80&lt;&gt;0, D80, IFERROR(INDEX(D2:D$80, MATCH(1, D2:D$80&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$80&lt;&gt;0), D2:D$80)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -5773,16 +5496,16 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B82" s="3">
         <f>IF(D81&lt;&gt;0, D81, IFERROR(INDEX(D2:D$81, MATCH(1, D2:D$81&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$81&lt;&gt;0), D2:D$81)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -5821,16 +5544,16 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B83" s="3">
         <f>IF(D82&lt;&gt;0, D82, IFERROR(INDEX(D2:D$82, MATCH(1, D2:D$82&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$82&lt;&gt;0), D2:D$82)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -5869,16 +5592,16 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B84" s="3">
         <f>IF(D83&lt;&gt;0, D83, IFERROR(INDEX(D2:D$83, MATCH(1, D2:D$83&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$83&lt;&gt;0), D2:D$83)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -5917,16 +5640,16 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B85" s="3">
         <f>IF(D84&lt;&gt;0, D84, IFERROR(INDEX(D2:D$84, MATCH(1, D2:D$84&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$84&lt;&gt;0), D2:D$84)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -5965,16 +5688,16 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B86" s="3">
         <f>IF(D85&lt;&gt;0, D85, IFERROR(INDEX(D2:D$85, MATCH(1, D2:D$85&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$85&lt;&gt;0), D2:D$85)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -6013,16 +5736,16 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B87" s="3">
         <f>IF(D86&lt;&gt;0, D86, IFERROR(INDEX(D2:D$86, MATCH(1, D2:D$86&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$86&lt;&gt;0), D2:D$86)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -6061,16 +5784,16 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B88" s="3">
         <f>IF(D87&lt;&gt;0, D87, IFERROR(INDEX(D2:D$87, MATCH(1, D2:D$87&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$87&lt;&gt;0), D2:D$87)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -6109,16 +5832,16 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B89" s="3">
         <f>IF(D88&lt;&gt;0, D88, IFERROR(INDEX(D2:D$88, MATCH(1, D2:D$88&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$88&lt;&gt;0), D2:D$88)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -6157,16 +5880,16 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B90" s="3">
         <f>IF(D89&lt;&gt;0, D89, IFERROR(INDEX(D2:D$89, MATCH(1, D2:D$89&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$89&lt;&gt;0), D2:D$89)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -6205,16 +5928,16 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B91" s="3">
         <f>IF(D90&lt;&gt;0, D90, IFERROR(INDEX(D2:D$90, MATCH(1, D2:D$90&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$90&lt;&gt;0), D2:D$90)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -6253,16 +5976,16 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B92" s="3">
         <f>IF(D91&lt;&gt;0, D91, IFERROR(INDEX(D2:D$91, MATCH(1, D2:D$91&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$91&lt;&gt;0), D2:D$91)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -6301,16 +6024,16 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B93" s="3">
         <f>IF(D92&lt;&gt;0, D92, IFERROR(INDEX(D2:D$92, MATCH(1, D2:D$92&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$92&lt;&gt;0), D2:D$92)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -6349,16 +6072,16 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B94" s="3">
         <f>IF(D93&lt;&gt;0, D93, IFERROR(INDEX(D2:D$93, MATCH(1, D2:D$93&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$93&lt;&gt;0), D2:D$93)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -6397,16 +6120,16 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B95" s="3">
         <f>IF(D94&lt;&gt;0, D94, IFERROR(INDEX(D2:D$94, MATCH(1, D2:D$94&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$94&lt;&gt;0), D2:D$94)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -6445,16 +6168,16 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B96" s="3">
         <f>IF(D95&lt;&gt;0, D95, IFERROR(INDEX(D2:D$95, MATCH(1, D2:D$95&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$95&lt;&gt;0), D2:D$95)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -6493,16 +6216,16 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B97" s="3">
         <f>IF(D96&lt;&gt;0, D96, IFERROR(INDEX(D2:D$96, MATCH(1, D2:D$96&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$96&lt;&gt;0), D2:D$96)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -6541,16 +6264,16 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B98" s="3">
         <f>IF(D97&lt;&gt;0, D97, IFERROR(INDEX(D2:D$97, MATCH(1, D2:D$97&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$97&lt;&gt;0), D2:D$97)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -6589,16 +6312,16 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B99" s="3">
         <f>IF(D98&lt;&gt;0, D98, IFERROR(INDEX(D2:D$98, MATCH(1, D2:D$98&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$98&lt;&gt;0), D2:D$98)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -6637,16 +6360,16 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B100" s="3">
         <f>IF(D99&lt;&gt;0, D99, IFERROR(INDEX(D2:D$99, MATCH(1, D2:D$99&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$99&lt;&gt;0), D2:D$99)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -6685,16 +6408,16 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B101" s="3">
         <f>IF(D100&lt;&gt;0, D100, IFERROR(INDEX(D2:D$100, MATCH(1, D2:D$100&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$100&lt;&gt;0), D2:D$100)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -6733,16 +6456,16 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B102" s="3">
         <f>IF(D101&lt;&gt;0, D101, IFERROR(INDEX(D2:D$101, MATCH(1, D2:D$101&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$101&lt;&gt;0), D2:D$101)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -6781,16 +6504,16 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B103" s="3">
         <f>IF(D102&lt;&gt;0, D102, IFERROR(INDEX(D2:D$102, MATCH(1, D2:D$102&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$102&lt;&gt;0), D2:D$102)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -6829,16 +6552,16 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B104" s="3">
         <f>IF(D103&lt;&gt;0, D103, IFERROR(INDEX(D2:D$103, MATCH(1, D2:D$103&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$103&lt;&gt;0), D2:D$103)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -6877,16 +6600,16 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B105" s="3">
         <f>IF(D104&lt;&gt;0, D104, IFERROR(INDEX(D2:D$104, MATCH(1, D2:D$104&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$104&lt;&gt;0), D2:D$104)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -6925,16 +6648,16 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B106" s="3">
         <f>IF(D105&lt;&gt;0, D105, IFERROR(INDEX(D2:D$105, MATCH(1, D2:D$105&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$105&lt;&gt;0), D2:D$105)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -6973,16 +6696,16 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B107" s="3">
         <f>IF(D106&lt;&gt;0, D106, IFERROR(INDEX(D2:D$106, MATCH(1, D2:D$106&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$106&lt;&gt;0), D2:D$106)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -7021,16 +6744,16 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B108" s="3">
         <f>IF(D107&lt;&gt;0, D107, IFERROR(INDEX(D2:D$107, MATCH(1, D2:D$107&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$107&lt;&gt;0), D2:D$107)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -7069,16 +6792,16 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B109" s="3">
         <f>IF(D108&lt;&gt;0, D108, IFERROR(INDEX(D2:D$108, MATCH(1, D2:D$108&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$108&lt;&gt;0), D2:D$108)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -7117,16 +6840,16 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B110" s="3">
         <f>IF(D109&lt;&gt;0, D109, IFERROR(INDEX(D2:D$109, MATCH(1, D2:D$109&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$109&lt;&gt;0), D2:D$109)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -7165,16 +6888,16 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B111" s="3">
         <f>IF(D110&lt;&gt;0, D110, IFERROR(INDEX(D2:D$110, MATCH(1, D2:D$110&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$110&lt;&gt;0), D2:D$110)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -7213,16 +6936,16 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B112" s="3">
         <f>IF(D111&lt;&gt;0, D111, IFERROR(INDEX(D2:D$111, MATCH(1, D2:D$111&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$111&lt;&gt;0), D2:D$111)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -7261,16 +6984,16 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B113" s="3">
         <f>IF(D112&lt;&gt;0, D112, IFERROR(INDEX(D2:D$112, MATCH(1, D2:D$112&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$112&lt;&gt;0), D2:D$112)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -7309,16 +7032,16 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B114" s="3">
         <f>IF(D113&lt;&gt;0, D113, IFERROR(INDEX(D2:D$113, MATCH(1, D2:D$113&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$113&lt;&gt;0), D2:D$113)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -7357,16 +7080,16 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B115" s="3">
         <f>IF(D114&lt;&gt;0, D114, IFERROR(INDEX(D2:D$114, MATCH(1, D2:D$114&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$114&lt;&gt;0), D2:D$114)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -7405,16 +7128,16 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B116" s="3">
         <f>IF(D115&lt;&gt;0, D115, IFERROR(INDEX(D2:D$115, MATCH(1, D2:D$115&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$115&lt;&gt;0), D2:D$115)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -7453,16 +7176,16 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B117" s="3">
         <f>IF(D116&lt;&gt;0, D116, IFERROR(INDEX(D2:D$116, MATCH(1, D2:D$116&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$116&lt;&gt;0), D2:D$116)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -7501,16 +7224,16 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B118" s="3">
         <f>IF(D117&lt;&gt;0, D117, IFERROR(INDEX(D2:D$117, MATCH(1, D2:D$117&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$117&lt;&gt;0), D2:D$117)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -7549,16 +7272,16 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B119" s="3">
         <f>IF(D118&lt;&gt;0, D118, IFERROR(INDEX(D2:D$118, MATCH(1, D2:D$118&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$118&lt;&gt;0), D2:D$118)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -7597,16 +7320,16 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B120" s="3">
         <f>IF(D119&lt;&gt;0, D119, IFERROR(INDEX(D2:D$119, MATCH(1, D2:D$119&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$119&lt;&gt;0), D2:D$119)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -7645,16 +7368,16 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B121" s="3">
         <f>IF(D120&lt;&gt;0, D120, IFERROR(INDEX(D2:D$120, MATCH(1, D2:D$120&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$120&lt;&gt;0), D2:D$120)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -7693,16 +7416,16 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B122" s="3">
         <f>IF(D121&lt;&gt;0, D121, IFERROR(INDEX(D2:D$121, MATCH(1, D2:D$121&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$121&lt;&gt;0), D2:D$121)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -7741,16 +7464,16 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B123" s="3">
         <f>IF(D122&lt;&gt;0, D122, IFERROR(INDEX(D2:D$122, MATCH(1, D2:D$122&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$122&lt;&gt;0), D2:D$122)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -7789,16 +7512,16 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B124" s="3">
         <f>IF(D123&lt;&gt;0, D123, IFERROR(INDEX(D2:D$123, MATCH(1, D2:D$123&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$123&lt;&gt;0), D2:D$123)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -7837,16 +7560,16 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B125" s="3">
         <f>IF(D124&lt;&gt;0, D124, IFERROR(INDEX(D2:D$124, MATCH(1, D2:D$124&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$124&lt;&gt;0), D2:D$124)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -7885,16 +7608,16 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B126" s="3">
         <f>IF(D125&lt;&gt;0, D125, IFERROR(INDEX(D2:D$125, MATCH(1, D2:D$125&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$125&lt;&gt;0), D2:D$125)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -7933,16 +7656,16 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B127" s="3">
         <f>IF(D126&lt;&gt;0, D126, IFERROR(INDEX(D2:D$126, MATCH(1, D2:D$126&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$126&lt;&gt;0), D2:D$126)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -7981,16 +7704,16 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B128" s="3">
         <f>IF(D127&lt;&gt;0, D127, IFERROR(INDEX(D2:D$127, MATCH(1, D2:D$127&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$127&lt;&gt;0), D2:D$127)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -8029,16 +7752,16 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B129" s="3">
         <f>IF(D128&lt;&gt;0, D128, IFERROR(INDEX(D2:D$128, MATCH(1, D2:D$128&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$128&lt;&gt;0), D2:D$128)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -8077,16 +7800,16 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B130" s="3">
         <f>IF(D129&lt;&gt;0, D129, IFERROR(INDEX(D2:D$129, MATCH(1, D2:D$129&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$129&lt;&gt;0), D2:D$129)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3">
         <f t="shared" ref="D130:D193" si="2">SUM(J130,O130,B130) - C130</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -8125,16 +7848,16 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B131" s="3">
         <f>IF(D130&lt;&gt;0, D130, IFERROR(INDEX(D2:D$130, MATCH(1, D2:D$130&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$130&lt;&gt;0), D2:D$130)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -8173,16 +7896,16 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B132" s="3">
         <f>IF(D131&lt;&gt;0, D131, IFERROR(INDEX(D2:D$131, MATCH(1, D2:D$131&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$131&lt;&gt;0), D2:D$131)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -8221,16 +7944,16 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B133" s="3">
         <f>IF(D132&lt;&gt;0, D132, IFERROR(INDEX(D2:D$132, MATCH(1, D2:D$132&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$132&lt;&gt;0), D2:D$132)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -8269,16 +7992,16 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B134" s="3">
         <f>IF(D133&lt;&gt;0, D133, IFERROR(INDEX(D2:D$133, MATCH(1, D2:D$133&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$133&lt;&gt;0), D2:D$133)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -8317,16 +8040,16 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B135" s="3">
         <f>IF(D134&lt;&gt;0, D134, IFERROR(INDEX(D2:D$134, MATCH(1, D2:D$134&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$134&lt;&gt;0), D2:D$134)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -8365,16 +8088,16 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B136" s="3">
         <f>IF(D135&lt;&gt;0, D135, IFERROR(INDEX(D2:D$135, MATCH(1, D2:D$135&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$135&lt;&gt;0), D2:D$135)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -8413,16 +8136,16 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B137" s="3">
         <f>IF(D136&lt;&gt;0, D136, IFERROR(INDEX(D2:D$136, MATCH(1, D2:D$136&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$136&lt;&gt;0), D2:D$136)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -8461,16 +8184,16 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B138" s="3">
         <f>IF(D137&lt;&gt;0, D137, IFERROR(INDEX(D2:D$137, MATCH(1, D2:D$137&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$137&lt;&gt;0), D2:D$137)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -8509,16 +8232,16 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B139" s="3">
         <f>IF(D138&lt;&gt;0, D138, IFERROR(INDEX(D2:D$138, MATCH(1, D2:D$138&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$138&lt;&gt;0), D2:D$138)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -8557,16 +8280,16 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B140" s="3">
         <f>IF(D139&lt;&gt;0, D139, IFERROR(INDEX(D2:D$139, MATCH(1, D2:D$139&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$139&lt;&gt;0), D2:D$139)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -8605,16 +8328,16 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B141" s="3">
         <f>IF(D140&lt;&gt;0, D140, IFERROR(INDEX(D2:D$140, MATCH(1, D2:D$140&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$140&lt;&gt;0), D2:D$140)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -8653,16 +8376,16 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B142" s="3">
         <f>IF(D141&lt;&gt;0, D141, IFERROR(INDEX(D2:D$141, MATCH(1, D2:D$141&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$141&lt;&gt;0), D2:D$141)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -8701,16 +8424,16 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B143" s="3">
         <f>IF(D142&lt;&gt;0, D142, IFERROR(INDEX(D2:D$142, MATCH(1, D2:D$142&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$142&lt;&gt;0), D2:D$142)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -8749,16 +8472,16 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B144" s="3">
         <f>IF(D143&lt;&gt;0, D143, IFERROR(INDEX(D2:D$143, MATCH(1, D2:D$143&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$143&lt;&gt;0), D2:D$143)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -8797,16 +8520,16 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B145" s="3">
         <f>IF(D144&lt;&gt;0, D144, IFERROR(INDEX(D2:D$144, MATCH(1, D2:D$144&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$144&lt;&gt;0), D2:D$144)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -8845,16 +8568,16 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B146" s="3">
         <f>IF(D145&lt;&gt;0, D145, IFERROR(INDEX(D2:D$145, MATCH(1, D2:D$145&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$145&lt;&gt;0), D2:D$145)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -8893,16 +8616,16 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B147" s="3">
         <f>IF(D146&lt;&gt;0, D146, IFERROR(INDEX(D2:D$146, MATCH(1, D2:D$146&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$146&lt;&gt;0), D2:D$146)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -8941,16 +8664,16 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B148" s="3">
         <f>IF(D147&lt;&gt;0, D147, IFERROR(INDEX(D2:D$147, MATCH(1, D2:D$147&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$147&lt;&gt;0), D2:D$147)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -8989,16 +8712,16 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B149" s="3">
         <f>IF(D148&lt;&gt;0, D148, IFERROR(INDEX(D2:D$148, MATCH(1, D2:D$148&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$148&lt;&gt;0), D2:D$148)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -9037,16 +8760,16 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B150" s="3">
         <f>IF(D149&lt;&gt;0, D149, IFERROR(INDEX(D2:D$149, MATCH(1, D2:D$149&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$149&lt;&gt;0), D2:D$149)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -9085,16 +8808,16 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B151" s="3">
         <f>IF(D150&lt;&gt;0, D150, IFERROR(INDEX(D2:D$150, MATCH(1, D2:D$150&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$150&lt;&gt;0), D2:D$150)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -9133,16 +8856,16 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B152" s="3">
         <f>IF(D151&lt;&gt;0, D151, IFERROR(INDEX(D2:D$151, MATCH(1, D2:D$151&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$151&lt;&gt;0), D2:D$151)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -9181,16 +8904,16 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B153" s="3">
         <f>IF(D152&lt;&gt;0, D152, IFERROR(INDEX(D2:D$152, MATCH(1, D2:D$152&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$152&lt;&gt;0), D2:D$152)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -9229,16 +8952,16 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B154" s="3">
         <f>IF(D153&lt;&gt;0, D153, IFERROR(INDEX(D2:D$153, MATCH(1, D2:D$153&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$153&lt;&gt;0), D2:D$153)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -9277,16 +9000,16 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B155" s="3">
         <f>IF(D154&lt;&gt;0, D154, IFERROR(INDEX(D2:D$154, MATCH(1, D2:D$154&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$154&lt;&gt;0), D2:D$154)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -9325,16 +9048,16 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B156" s="3">
         <f>IF(D155&lt;&gt;0, D155, IFERROR(INDEX(D2:D$155, MATCH(1, D2:D$155&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$155&lt;&gt;0), D2:D$155)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -9373,16 +9096,16 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B157" s="3">
         <f>IF(D156&lt;&gt;0, D156, IFERROR(INDEX(D2:D$156, MATCH(1, D2:D$156&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$156&lt;&gt;0), D2:D$156)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -9421,16 +9144,16 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B158" s="3">
         <f>IF(D157&lt;&gt;0, D157, IFERROR(INDEX(D2:D$157, MATCH(1, D2:D$157&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$157&lt;&gt;0), D2:D$157)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -9469,16 +9192,16 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B159" s="3">
         <f>IF(D158&lt;&gt;0, D158, IFERROR(INDEX(D2:D$158, MATCH(1, D2:D$158&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$158&lt;&gt;0), D2:D$158)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -9517,16 +9240,16 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B160" s="3">
         <f>IF(D159&lt;&gt;0, D159, IFERROR(INDEX(D2:D$159, MATCH(1, D2:D$159&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$159&lt;&gt;0), D2:D$159)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -9565,16 +9288,16 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B161" s="3">
         <f>IF(D160&lt;&gt;0, D160, IFERROR(INDEX(D2:D$160, MATCH(1, D2:D$160&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$160&lt;&gt;0), D2:D$160)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -9613,16 +9336,16 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B162" s="3">
         <f>IF(D161&lt;&gt;0, D161, IFERROR(INDEX(D2:D$161, MATCH(1, D2:D$161&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$161&lt;&gt;0), D2:D$161)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -9661,16 +9384,16 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B163" s="3">
         <f>IF(D162&lt;&gt;0, D162, IFERROR(INDEX(D2:D$162, MATCH(1, D2:D$162&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$162&lt;&gt;0), D2:D$162)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -9709,16 +9432,16 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B164" s="3">
         <f>IF(D163&lt;&gt;0, D163, IFERROR(INDEX(D2:D$163, MATCH(1, D2:D$163&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$163&lt;&gt;0), D2:D$163)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -9757,16 +9480,16 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B165" s="3">
         <f>IF(D164&lt;&gt;0, D164, IFERROR(INDEX(D2:D$164, MATCH(1, D2:D$164&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$164&lt;&gt;0), D2:D$164)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -9805,16 +9528,16 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B166" s="3">
         <f>IF(D165&lt;&gt;0, D165, IFERROR(INDEX(D2:D$165, MATCH(1, D2:D$165&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$165&lt;&gt;0), D2:D$165)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -9853,16 +9576,16 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B167" s="3">
         <f>IF(D166&lt;&gt;0, D166, IFERROR(INDEX(D2:D$166, MATCH(1, D2:D$166&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$166&lt;&gt;0), D2:D$166)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -9901,16 +9624,16 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B168" s="3">
         <f>IF(D167&lt;&gt;0, D167, IFERROR(INDEX(D2:D$167, MATCH(1, D2:D$167&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$167&lt;&gt;0), D2:D$167)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -9949,16 +9672,16 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B169" s="3">
         <f>IF(D168&lt;&gt;0, D168, IFERROR(INDEX(D2:D$168, MATCH(1, D2:D$168&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$168&lt;&gt;0), D2:D$168)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -9997,16 +9720,16 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B170" s="3">
         <f>IF(D169&lt;&gt;0, D169, IFERROR(INDEX(D2:D$169, MATCH(1, D2:D$169&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$169&lt;&gt;0), D2:D$169)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -10045,16 +9768,16 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B171" s="3">
         <f>IF(D170&lt;&gt;0, D170, IFERROR(INDEX(D2:D$170, MATCH(1, D2:D$170&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$170&lt;&gt;0), D2:D$170)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -10093,16 +9816,16 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B172" s="3">
         <f>IF(D171&lt;&gt;0, D171, IFERROR(INDEX(D2:D$171, MATCH(1, D2:D$171&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$171&lt;&gt;0), D2:D$171)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -10141,16 +9864,16 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B173" s="3">
         <f>IF(D172&lt;&gt;0, D172, IFERROR(INDEX(D2:D$172, MATCH(1, D2:D$172&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$172&lt;&gt;0), D2:D$172)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -10189,16 +9912,16 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B174" s="3">
         <f>IF(D173&lt;&gt;0, D173, IFERROR(INDEX(D2:D$173, MATCH(1, D2:D$173&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$173&lt;&gt;0), D2:D$173)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -10237,16 +9960,16 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B175" s="3">
         <f>IF(D174&lt;&gt;0, D174, IFERROR(INDEX(D2:D$174, MATCH(1, D2:D$174&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$174&lt;&gt;0), D2:D$174)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -10285,16 +10008,16 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B176" s="3">
         <f>IF(D175&lt;&gt;0, D175, IFERROR(INDEX(D2:D$175, MATCH(1, D2:D$175&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$175&lt;&gt;0), D2:D$175)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -10333,16 +10056,16 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B177" s="3">
         <f>IF(D176&lt;&gt;0, D176, IFERROR(INDEX(D2:D$176, MATCH(1, D2:D$176&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$176&lt;&gt;0), D2:D$176)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -10381,16 +10104,16 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B178" s="3">
         <f>IF(D177&lt;&gt;0, D177, IFERROR(INDEX(D2:D$177, MATCH(1, D2:D$177&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$177&lt;&gt;0), D2:D$177)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -10429,16 +10152,16 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B179" s="3">
         <f>IF(D178&lt;&gt;0, D178, IFERROR(INDEX(D2:D$178, MATCH(1, D2:D$178&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$178&lt;&gt;0), D2:D$178)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -10477,16 +10200,16 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B180" s="3">
         <f>IF(D179&lt;&gt;0, D179, IFERROR(INDEX(D2:D$179, MATCH(1, D2:D$179&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$179&lt;&gt;0), D2:D$179)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -10525,16 +10248,16 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B181" s="3">
         <f>IF(D180&lt;&gt;0, D180, IFERROR(INDEX(D2:D$180, MATCH(1, D2:D$180&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$180&lt;&gt;0), D2:D$180)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -10573,16 +10296,16 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B182" s="3">
         <f>IF(D181&lt;&gt;0, D181, IFERROR(INDEX(D2:D$181, MATCH(1, D2:D$181&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$181&lt;&gt;0), D2:D$181)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -10621,16 +10344,16 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B183" s="3">
         <f>IF(D182&lt;&gt;0, D182, IFERROR(INDEX(D2:D$182, MATCH(1, D2:D$182&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$182&lt;&gt;0), D2:D$182)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -10669,16 +10392,16 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B184" s="3">
         <f>IF(D183&lt;&gt;0, D183, IFERROR(INDEX(D2:D$183, MATCH(1, D2:D$183&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$183&lt;&gt;0), D2:D$183)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -10717,16 +10440,16 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B185" s="3">
         <f>IF(D184&lt;&gt;0, D184, IFERROR(INDEX(D2:D$184, MATCH(1, D2:D$184&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$184&lt;&gt;0), D2:D$184)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -10765,16 +10488,16 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B186" s="3">
         <f>IF(D185&lt;&gt;0, D185, IFERROR(INDEX(D2:D$185, MATCH(1, D2:D$185&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$185&lt;&gt;0), D2:D$185)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -10813,16 +10536,16 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B187" s="3">
         <f>IF(D186&lt;&gt;0, D186, IFERROR(INDEX(D2:D$186, MATCH(1, D2:D$186&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$186&lt;&gt;0), D2:D$186)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -10861,16 +10584,16 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B188" s="3">
         <f>IF(D187&lt;&gt;0, D187, IFERROR(INDEX(D2:D$187, MATCH(1, D2:D$187&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$187&lt;&gt;0), D2:D$187)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -10909,16 +10632,16 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B189" s="3">
         <f>IF(D188&lt;&gt;0, D188, IFERROR(INDEX(D2:D$188, MATCH(1, D2:D$188&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$188&lt;&gt;0), D2:D$188)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -10957,16 +10680,16 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B190" s="3">
         <f>IF(D189&lt;&gt;0, D189, IFERROR(INDEX(D2:D$189, MATCH(1, D2:D$189&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$189&lt;&gt;0), D2:D$189)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -11005,16 +10728,16 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B191" s="3">
         <f>IF(D190&lt;&gt;0, D190, IFERROR(INDEX(D2:D$190, MATCH(1, D2:D$190&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$190&lt;&gt;0), D2:D$190)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -11053,16 +10776,16 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B192" s="3">
         <f>IF(D191&lt;&gt;0, D191, IFERROR(INDEX(D2:D$191, MATCH(1, D2:D$191&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$191&lt;&gt;0), D2:D$191)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -11101,16 +10824,16 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B193" s="3">
         <f>IF(D192&lt;&gt;0, D192, IFERROR(INDEX(D2:D$192, MATCH(1, D2:D$192&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$192&lt;&gt;0), D2:D$192)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -11149,16 +10872,16 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B194" s="3">
         <f>IF(D193&lt;&gt;0, D193, IFERROR(INDEX(D2:D$193, MATCH(1, D2:D$193&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$193&lt;&gt;0), D2:D$193)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3">
         <f t="shared" ref="D194:D257" si="3">SUM(J194,O194,B194) - C194</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -11197,16 +10920,16 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B195" s="3">
         <f>IF(D194&lt;&gt;0, D194, IFERROR(INDEX(D2:D$194, MATCH(1, D2:D$194&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$194&lt;&gt;0), D2:D$194)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C195" s="3"/>
       <c r="D195" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -11245,16 +10968,16 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B196" s="3">
         <f>IF(D195&lt;&gt;0, D195, IFERROR(INDEX(D2:D$195, MATCH(1, D2:D$195&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$195&lt;&gt;0), D2:D$195)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -11293,16 +11016,16 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B197" s="3">
         <f>IF(D196&lt;&gt;0, D196, IFERROR(INDEX(D2:D$196, MATCH(1, D2:D$196&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$196&lt;&gt;0), D2:D$196)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -11341,16 +11064,16 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B198" s="3">
         <f>IF(D197&lt;&gt;0, D197, IFERROR(INDEX(D2:D$197, MATCH(1, D2:D$197&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$197&lt;&gt;0), D2:D$197)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -11389,16 +11112,16 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B199" s="3">
         <f>IF(D198&lt;&gt;0, D198, IFERROR(INDEX(D2:D$198, MATCH(1, D2:D$198&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$198&lt;&gt;0), D2:D$198)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -11437,16 +11160,16 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B200" s="3">
         <f>IF(D199&lt;&gt;0, D199, IFERROR(INDEX(D2:D$199, MATCH(1, D2:D$199&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$199&lt;&gt;0), D2:D$199)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -11485,16 +11208,16 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B201" s="3">
         <f>IF(D200&lt;&gt;0, D200, IFERROR(INDEX(D2:D$200, MATCH(1, D2:D$200&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$200&lt;&gt;0), D2:D$200)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -11533,16 +11256,16 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B202" s="3">
         <f>IF(D201&lt;&gt;0, D201, IFERROR(INDEX(D2:D$201, MATCH(1, D2:D$201&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$201&lt;&gt;0), D2:D$201)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -11581,16 +11304,16 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B203" s="3">
         <f>IF(D202&lt;&gt;0, D202, IFERROR(INDEX(D2:D$202, MATCH(1, D2:D$202&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$202&lt;&gt;0), D2:D$202)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -11629,16 +11352,16 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B204" s="3">
         <f>IF(D203&lt;&gt;0, D203, IFERROR(INDEX(D2:D$203, MATCH(1, D2:D$203&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$203&lt;&gt;0), D2:D$203)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -11677,16 +11400,16 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B205" s="3">
         <f>IF(D204&lt;&gt;0, D204, IFERROR(INDEX(D2:D$204, MATCH(1, D2:D$204&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$204&lt;&gt;0), D2:D$204)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -11725,16 +11448,16 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B206" s="3">
         <f>IF(D205&lt;&gt;0, D205, IFERROR(INDEX(D2:D$205, MATCH(1, D2:D$205&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$205&lt;&gt;0), D2:D$205)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -11773,16 +11496,16 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B207" s="3">
         <f>IF(D206&lt;&gt;0, D206, IFERROR(INDEX(D2:D$206, MATCH(1, D2:D$206&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$206&lt;&gt;0), D2:D$206)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -11821,16 +11544,16 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B208" s="3">
         <f>IF(D207&lt;&gt;0, D207, IFERROR(INDEX(D2:D$207, MATCH(1, D2:D$207&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$207&lt;&gt;0), D2:D$207)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -11869,16 +11592,16 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B209" s="3">
         <f>IF(D208&lt;&gt;0, D208, IFERROR(INDEX(D2:D$208, MATCH(1, D2:D$208&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$208&lt;&gt;0), D2:D$208)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -11917,16 +11640,16 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B210" s="3">
         <f>IF(D209&lt;&gt;0, D209, IFERROR(INDEX(D2:D$209, MATCH(1, D2:D$209&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$209&lt;&gt;0), D2:D$209)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -11965,16 +11688,16 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B211" s="3">
         <f>IF(D210&lt;&gt;0, D210, IFERROR(INDEX(D2:D$210, MATCH(1, D2:D$210&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$210&lt;&gt;0), D2:D$210)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -12013,16 +11736,16 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B212" s="3">
         <f>IF(D211&lt;&gt;0, D211, IFERROR(INDEX(D2:D$211, MATCH(1, D2:D$211&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$211&lt;&gt;0), D2:D$211)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -12061,16 +11784,16 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B213" s="3">
         <f>IF(D212&lt;&gt;0, D212, IFERROR(INDEX(D2:D$212, MATCH(1, D2:D$212&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$212&lt;&gt;0), D2:D$212)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -12109,16 +11832,16 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B214" s="3">
         <f>IF(D213&lt;&gt;0, D213, IFERROR(INDEX(D2:D$213, MATCH(1, D2:D$213&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$213&lt;&gt;0), D2:D$213)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -12157,16 +11880,16 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B215" s="3">
         <f>IF(D214&lt;&gt;0, D214, IFERROR(INDEX(D2:D$214, MATCH(1, D2:D$214&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$214&lt;&gt;0), D2:D$214)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -12205,16 +11928,16 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B216" s="3">
         <f>IF(D215&lt;&gt;0, D215, IFERROR(INDEX(D2:D$215, MATCH(1, D2:D$215&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$215&lt;&gt;0), D2:D$215)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -12253,16 +11976,16 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B217" s="3">
         <f>IF(D216&lt;&gt;0, D216, IFERROR(INDEX(D2:D$216, MATCH(1, D2:D$216&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$216&lt;&gt;0), D2:D$216)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -12301,16 +12024,16 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B218" s="3">
         <f>IF(D217&lt;&gt;0, D217, IFERROR(INDEX(D2:D$217, MATCH(1, D2:D$217&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$217&lt;&gt;0), D2:D$217)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -12349,16 +12072,16 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B219" s="3">
         <f>IF(D218&lt;&gt;0, D218, IFERROR(INDEX(D2:D$218, MATCH(1, D2:D$218&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$218&lt;&gt;0), D2:D$218)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -12397,16 +12120,16 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B220" s="3">
         <f>IF(D219&lt;&gt;0, D219, IFERROR(INDEX(D2:D$219, MATCH(1, D2:D$219&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$219&lt;&gt;0), D2:D$219)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -12445,16 +12168,16 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B221" s="3">
         <f>IF(D220&lt;&gt;0, D220, IFERROR(INDEX(D2:D$220, MATCH(1, D2:D$220&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$220&lt;&gt;0), D2:D$220)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -12493,16 +12216,16 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B222" s="3">
         <f>IF(D221&lt;&gt;0, D221, IFERROR(INDEX(D2:D$221, MATCH(1, D2:D$221&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$221&lt;&gt;0), D2:D$221)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -12541,16 +12264,16 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B223" s="3">
         <f>IF(D222&lt;&gt;0, D222, IFERROR(INDEX(D2:D$222, MATCH(1, D2:D$222&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$222&lt;&gt;0), D2:D$222)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -12589,16 +12312,16 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B224" s="3">
         <f>IF(D223&lt;&gt;0, D223, IFERROR(INDEX(D2:D$223, MATCH(1, D2:D$223&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$223&lt;&gt;0), D2:D$223)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -12637,16 +12360,16 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B225" s="3">
         <f>IF(D224&lt;&gt;0, D224, IFERROR(INDEX(D2:D$224, MATCH(1, D2:D$224&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$224&lt;&gt;0), D2:D$224)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -12685,16 +12408,16 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B226" s="3">
         <f>IF(D225&lt;&gt;0, D225, IFERROR(INDEX(D2:D$225, MATCH(1, D2:D$225&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$225&lt;&gt;0), D2:D$225)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -12733,16 +12456,16 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B227" s="3">
         <f>IF(D226&lt;&gt;0, D226, IFERROR(INDEX(D2:D$226, MATCH(1, D2:D$226&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$226&lt;&gt;0), D2:D$226)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -12781,16 +12504,16 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B228" s="3">
         <f>IF(D227&lt;&gt;0, D227, IFERROR(INDEX(D2:D$227, MATCH(1, D2:D$227&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$227&lt;&gt;0), D2:D$227)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -12829,16 +12552,16 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B229" s="3">
         <f>IF(D228&lt;&gt;0, D228, IFERROR(INDEX(D2:D$228, MATCH(1, D2:D$228&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$228&lt;&gt;0), D2:D$228)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -12877,16 +12600,16 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B230" s="3">
         <f>IF(D229&lt;&gt;0, D229, IFERROR(INDEX(D2:D$229, MATCH(1, D2:D$229&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$229&lt;&gt;0), D2:D$229)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -12925,16 +12648,16 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B231" s="3">
         <f>IF(D230&lt;&gt;0, D230, IFERROR(INDEX(D2:D$230, MATCH(1, D2:D$230&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$230&lt;&gt;0), D2:D$230)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C231" s="3"/>
       <c r="D231" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -12973,16 +12696,16 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B232" s="3">
         <f>IF(D231&lt;&gt;0, D231, IFERROR(INDEX(D2:D$231, MATCH(1, D2:D$231&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$231&lt;&gt;0), D2:D$231)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -13021,16 +12744,16 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B233" s="3">
         <f>IF(D232&lt;&gt;0, D232, IFERROR(INDEX(D2:D$232, MATCH(1, D2:D$232&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$232&lt;&gt;0), D2:D$232)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -13069,16 +12792,16 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B234" s="3">
         <f>IF(D233&lt;&gt;0, D233, IFERROR(INDEX(D2:D$233, MATCH(1, D2:D$233&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$233&lt;&gt;0), D2:D$233)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -13117,16 +12840,16 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B235" s="3">
         <f>IF(D234&lt;&gt;0, D234, IFERROR(INDEX(D2:D$234, MATCH(1, D2:D$234&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$234&lt;&gt;0), D2:D$234)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -13165,16 +12888,16 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B236" s="3">
         <f>IF(D235&lt;&gt;0, D235, IFERROR(INDEX(D2:D$235, MATCH(1, D2:D$235&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$235&lt;&gt;0), D2:D$235)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -13213,16 +12936,16 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B237" s="3">
         <f>IF(D236&lt;&gt;0, D236, IFERROR(INDEX(D2:D$236, MATCH(1, D2:D$236&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$236&lt;&gt;0), D2:D$236)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -13261,16 +12984,16 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B238" s="3">
         <f>IF(D237&lt;&gt;0, D237, IFERROR(INDEX(D2:D$237, MATCH(1, D2:D$237&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$237&lt;&gt;0), D2:D$237)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -13309,16 +13032,16 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B239" s="3">
         <f>IF(D238&lt;&gt;0, D238, IFERROR(INDEX(D2:D$238, MATCH(1, D2:D$238&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$238&lt;&gt;0), D2:D$238)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -13357,16 +13080,16 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B240" s="3">
         <f>IF(D239&lt;&gt;0, D239, IFERROR(INDEX(D2:D$239, MATCH(1, D2:D$239&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$239&lt;&gt;0), D2:D$239)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -13405,16 +13128,16 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B241" s="3">
         <f>IF(D240&lt;&gt;0, D240, IFERROR(INDEX(D2:D$240, MATCH(1, D2:D$240&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$240&lt;&gt;0), D2:D$240)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -13453,16 +13176,16 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B242" s="3">
         <f>IF(D241&lt;&gt;0, D241, IFERROR(INDEX(D2:D$241, MATCH(1, D2:D$241&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$241&lt;&gt;0), D2:D$241)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -13501,16 +13224,16 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B243" s="3">
         <f>IF(D242&lt;&gt;0, D242, IFERROR(INDEX(D2:D$242, MATCH(1, D2:D$242&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$242&lt;&gt;0), D2:D$242)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -13549,16 +13272,16 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B244" s="3">
         <f>IF(D243&lt;&gt;0, D243, IFERROR(INDEX(D2:D$243, MATCH(1, D2:D$243&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$243&lt;&gt;0), D2:D$243)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -13597,16 +13320,16 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B245" s="3">
         <f>IF(D244&lt;&gt;0, D244, IFERROR(INDEX(D2:D$244, MATCH(1, D2:D$244&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$244&lt;&gt;0), D2:D$244)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -13645,16 +13368,16 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B246" s="3">
         <f>IF(D245&lt;&gt;0, D245, IFERROR(INDEX(D2:D$245, MATCH(1, D2:D$245&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$245&lt;&gt;0), D2:D$245)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -13693,16 +13416,16 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B247" s="3">
         <f>IF(D246&lt;&gt;0, D246, IFERROR(INDEX(D2:D$246, MATCH(1, D2:D$246&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$246&lt;&gt;0), D2:D$246)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -13741,16 +13464,16 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B248" s="3">
         <f>IF(D247&lt;&gt;0, D247, IFERROR(INDEX(D2:D$247, MATCH(1, D2:D$247&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$247&lt;&gt;0), D2:D$247)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -13789,16 +13512,16 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B249" s="3">
         <f>IF(D248&lt;&gt;0, D248, IFERROR(INDEX(D2:D$248, MATCH(1, D2:D$248&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$248&lt;&gt;0), D2:D$248)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -13837,16 +13560,16 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B250" s="3">
         <f>IF(D249&lt;&gt;0, D249, IFERROR(INDEX(D2:D$249, MATCH(1, D2:D$249&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$249&lt;&gt;0), D2:D$249)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -13885,16 +13608,16 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B251" s="3">
         <f>IF(D250&lt;&gt;0, D250, IFERROR(INDEX(D2:D$250, MATCH(1, D2:D$250&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$250&lt;&gt;0), D2:D$250)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -13933,16 +13656,16 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B252" s="3">
         <f>IF(D251&lt;&gt;0, D251, IFERROR(INDEX(D2:D$251, MATCH(1, D2:D$251&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$251&lt;&gt;0), D2:D$251)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -13981,16 +13704,16 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B253" s="3">
         <f>IF(D252&lt;&gt;0, D252, IFERROR(INDEX(D2:D$252, MATCH(1, D2:D$252&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$252&lt;&gt;0), D2:D$252)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -14029,16 +13752,16 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B254" s="3">
         <f>IF(D253&lt;&gt;0, D253, IFERROR(INDEX(D2:D$253, MATCH(1, D2:D$253&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$253&lt;&gt;0), D2:D$253)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -14077,16 +13800,16 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B255" s="3">
         <f>IF(D254&lt;&gt;0, D254, IFERROR(INDEX(D2:D$254, MATCH(1, D2:D$254&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$254&lt;&gt;0), D2:D$254)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -14125,16 +13848,16 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B256" s="3">
         <f>IF(D255&lt;&gt;0, D255, IFERROR(INDEX(D2:D$255, MATCH(1, D2:D$255&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$255&lt;&gt;0), D2:D$255)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -14173,16 +13896,16 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B257" s="3">
         <f>IF(D256&lt;&gt;0, D256, IFERROR(INDEX(D2:D$256, MATCH(1, D2:D$256&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$256&lt;&gt;0), D2:D$256)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -14221,16 +13944,16 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B258" s="3">
         <f>IF(D257&lt;&gt;0, D257, IFERROR(INDEX(D2:D$257, MATCH(1, D2:D$257&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$257&lt;&gt;0), D2:D$257)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3">
         <f t="shared" ref="D258:D321" si="4">SUM(J258,O258,B258) - C258</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -14269,16 +13992,16 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B259" s="3">
         <f>IF(D258&lt;&gt;0, D258, IFERROR(INDEX(D2:D$258, MATCH(1, D2:D$258&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$258&lt;&gt;0), D2:D$258)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F259">
         <v>1</v>
@@ -14317,16 +14040,16 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B260" s="3">
         <f>IF(D259&lt;&gt;0, D259, IFERROR(INDEX(D2:D$259, MATCH(1, D2:D$259&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$259&lt;&gt;0), D2:D$259)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -14365,16 +14088,16 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B261" s="3">
         <f>IF(D260&lt;&gt;0, D260, IFERROR(INDEX(D2:D$260, MATCH(1, D2:D$260&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$260&lt;&gt;0), D2:D$260)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C261" s="3"/>
       <c r="D261" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -14413,16 +14136,16 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B262" s="3">
         <f>IF(D261&lt;&gt;0, D261, IFERROR(INDEX(D2:D$261, MATCH(1, D2:D$261&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$261&lt;&gt;0), D2:D$261)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -14461,16 +14184,16 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B263" s="3">
         <f>IF(D262&lt;&gt;0, D262, IFERROR(INDEX(D2:D$262, MATCH(1, D2:D$262&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$262&lt;&gt;0), D2:D$262)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -14509,16 +14232,16 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B264" s="3">
         <f>IF(D263&lt;&gt;0, D263, IFERROR(INDEX(D2:D$263, MATCH(1, D2:D$263&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$263&lt;&gt;0), D2:D$263)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -14557,16 +14280,16 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B265" s="3">
         <f>IF(D264&lt;&gt;0, D264, IFERROR(INDEX(D2:D$264, MATCH(1, D2:D$264&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$264&lt;&gt;0), D2:D$264)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -14605,16 +14328,16 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B266" s="3">
         <f>IF(D265&lt;&gt;0, D265, IFERROR(INDEX(D2:D$265, MATCH(1, D2:D$265&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$265&lt;&gt;0), D2:D$265)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -14653,16 +14376,16 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B267" s="3">
         <f>IF(D266&lt;&gt;0, D266, IFERROR(INDEX(D2:D$266, MATCH(1, D2:D$266&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$266&lt;&gt;0), D2:D$266)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -14701,16 +14424,16 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B268" s="3">
         <f>IF(D267&lt;&gt;0, D267, IFERROR(INDEX(D2:D$267, MATCH(1, D2:D$267&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$267&lt;&gt;0), D2:D$267)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -14749,16 +14472,16 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B269" s="3">
         <f>IF(D268&lt;&gt;0, D268, IFERROR(INDEX(D2:D$268, MATCH(1, D2:D$268&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$268&lt;&gt;0), D2:D$268)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F269">
         <v>1</v>
@@ -14797,16 +14520,16 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B270" s="3">
         <f>IF(D269&lt;&gt;0, D269, IFERROR(INDEX(D2:D$269, MATCH(1, D2:D$269&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$269&lt;&gt;0), D2:D$269)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -14845,16 +14568,16 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B271" s="3">
         <f>IF(D270&lt;&gt;0, D270, IFERROR(INDEX(D2:D$270, MATCH(1, D2:D$270&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$270&lt;&gt;0), D2:D$270)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -14893,16 +14616,16 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B272" s="3">
         <f>IF(D271&lt;&gt;0, D271, IFERROR(INDEX(D2:D$271, MATCH(1, D2:D$271&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$271&lt;&gt;0), D2:D$271)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -14941,16 +14664,16 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B273" s="3">
         <f>IF(D272&lt;&gt;0, D272, IFERROR(INDEX(D2:D$272, MATCH(1, D2:D$272&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$272&lt;&gt;0), D2:D$272)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -14989,16 +14712,16 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B274" s="3">
         <f>IF(D273&lt;&gt;0, D273, IFERROR(INDEX(D2:D$273, MATCH(1, D2:D$273&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$273&lt;&gt;0), D2:D$273)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -15037,16 +14760,16 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B275" s="3">
         <f>IF(D274&lt;&gt;0, D274, IFERROR(INDEX(D2:D$274, MATCH(1, D2:D$274&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$274&lt;&gt;0), D2:D$274)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -15085,16 +14808,16 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B276" s="3">
         <f>IF(D275&lt;&gt;0, D275, IFERROR(INDEX(D2:D$275, MATCH(1, D2:D$275&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$275&lt;&gt;0), D2:D$275)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -15133,16 +14856,16 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B277" s="3">
         <f>IF(D276&lt;&gt;0, D276, IFERROR(INDEX(D2:D$276, MATCH(1, D2:D$276&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$276&lt;&gt;0), D2:D$276)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -15181,16 +14904,16 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B278" s="3">
         <f>IF(D277&lt;&gt;0, D277, IFERROR(INDEX(D2:D$277, MATCH(1, D2:D$277&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$277&lt;&gt;0), D2:D$277)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -15229,16 +14952,16 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B279" s="3">
         <f>IF(D278&lt;&gt;0, D278, IFERROR(INDEX(D2:D$278, MATCH(1, D2:D$278&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$278&lt;&gt;0), D2:D$278)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -15277,16 +15000,16 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B280" s="3">
         <f>IF(D279&lt;&gt;0, D279, IFERROR(INDEX(D2:D$279, MATCH(1, D2:D$279&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$279&lt;&gt;0), D2:D$279)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -15325,16 +15048,16 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B281" s="3">
         <f>IF(D280&lt;&gt;0, D280, IFERROR(INDEX(D2:D$280, MATCH(1, D2:D$280&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$280&lt;&gt;0), D2:D$280)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -15373,16 +15096,16 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B282" s="3">
         <f>IF(D281&lt;&gt;0, D281, IFERROR(INDEX(D2:D$281, MATCH(1, D2:D$281&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$281&lt;&gt;0), D2:D$281)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -15421,16 +15144,16 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B283" s="3">
         <f>IF(D282&lt;&gt;0, D282, IFERROR(INDEX(D2:D$282, MATCH(1, D2:D$282&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$282&lt;&gt;0), D2:D$282)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C283" s="3"/>
       <c r="D283" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -15469,16 +15192,16 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B284" s="3">
         <f>IF(D283&lt;&gt;0, D283, IFERROR(INDEX(D2:D$283, MATCH(1, D2:D$283&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$283&lt;&gt;0), D2:D$283)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C284" s="3"/>
       <c r="D284" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -15517,16 +15240,16 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B285" s="3">
         <f>IF(D284&lt;&gt;0, D284, IFERROR(INDEX(D2:D$284, MATCH(1, D2:D$284&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$284&lt;&gt;0), D2:D$284)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -15565,16 +15288,16 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B286" s="3">
         <f>IF(D285&lt;&gt;0, D285, IFERROR(INDEX(D2:D$285, MATCH(1, D2:D$285&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$285&lt;&gt;0), D2:D$285)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C286" s="3"/>
       <c r="D286" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -15613,16 +15336,16 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B287" s="3">
         <f>IF(D286&lt;&gt;0, D286, IFERROR(INDEX(D2:D$286, MATCH(1, D2:D$286&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$286&lt;&gt;0), D2:D$286)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C287" s="3"/>
       <c r="D287" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -15661,16 +15384,16 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B288" s="3">
         <f>IF(D287&lt;&gt;0, D287, IFERROR(INDEX(D2:D$287, MATCH(1, D2:D$287&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$287&lt;&gt;0), D2:D$287)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C288" s="3"/>
       <c r="D288" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -15709,16 +15432,16 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B289" s="3">
         <f>IF(D288&lt;&gt;0, D288, IFERROR(INDEX(D2:D$288, MATCH(1, D2:D$288&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$288&lt;&gt;0), D2:D$288)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C289" s="3"/>
       <c r="D289" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -15757,16 +15480,16 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B290" s="3">
         <f>IF(D289&lt;&gt;0, D289, IFERROR(INDEX(D2:D$289, MATCH(1, D2:D$289&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$289&lt;&gt;0), D2:D$289)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -15805,16 +15528,16 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B291" s="3">
         <f>IF(D290&lt;&gt;0, D290, IFERROR(INDEX(D2:D$290, MATCH(1, D2:D$290&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$290&lt;&gt;0), D2:D$290)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -15853,16 +15576,16 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B292" s="3">
         <f>IF(D291&lt;&gt;0, D291, IFERROR(INDEX(D2:D$291, MATCH(1, D2:D$291&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$291&lt;&gt;0), D2:D$291)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -15901,16 +15624,16 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B293" s="3">
         <f>IF(D292&lt;&gt;0, D292, IFERROR(INDEX(D2:D$292, MATCH(1, D2:D$292&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$292&lt;&gt;0), D2:D$292)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -15949,16 +15672,16 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B294" s="3">
         <f>IF(D293&lt;&gt;0, D293, IFERROR(INDEX(D2:D$293, MATCH(1, D2:D$293&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$293&lt;&gt;0), D2:D$293)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -15997,16 +15720,16 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B295" s="3">
         <f>IF(D294&lt;&gt;0, D294, IFERROR(INDEX(D2:D$294, MATCH(1, D2:D$294&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$294&lt;&gt;0), D2:D$294)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -16045,16 +15768,16 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B296" s="3">
         <f>IF(D295&lt;&gt;0, D295, IFERROR(INDEX(D2:D$295, MATCH(1, D2:D$295&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$295&lt;&gt;0), D2:D$295)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -16093,16 +15816,16 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B297" s="3">
         <f>IF(D296&lt;&gt;0, D296, IFERROR(INDEX(D2:D$296, MATCH(1, D2:D$296&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$296&lt;&gt;0), D2:D$296)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -16141,16 +15864,16 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B298" s="3">
         <f>IF(D297&lt;&gt;0, D297, IFERROR(INDEX(D2:D$297, MATCH(1, D2:D$297&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$297&lt;&gt;0), D2:D$297)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F298">
         <v>1</v>
@@ -16189,16 +15912,16 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B299" s="3">
         <f>IF(D298&lt;&gt;0, D298, IFERROR(INDEX(D2:D$298, MATCH(1, D2:D$298&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$298&lt;&gt;0), D2:D$298)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -16237,16 +15960,16 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B300" s="3">
         <f>IF(D299&lt;&gt;0, D299, IFERROR(INDEX(D2:D$299, MATCH(1, D2:D$299&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$299&lt;&gt;0), D2:D$299)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -16285,16 +16008,16 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B301" s="3">
         <f>IF(D300&lt;&gt;0, D300, IFERROR(INDEX(D2:D$300, MATCH(1, D2:D$300&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$300&lt;&gt;0), D2:D$300)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -16333,16 +16056,16 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B302" s="3">
         <f>IF(D301&lt;&gt;0, D301, IFERROR(INDEX(D2:D$301, MATCH(1, D2:D$301&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$301&lt;&gt;0), D2:D$301)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -16381,16 +16104,16 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B303" s="3">
         <f>IF(D302&lt;&gt;0, D302, IFERROR(INDEX(D2:D$302, MATCH(1, D2:D$302&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$302&lt;&gt;0), D2:D$302)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F303">
         <v>1</v>
@@ -16429,16 +16152,16 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B304" s="3">
         <f>IF(D303&lt;&gt;0, D303, IFERROR(INDEX(D2:D$303, MATCH(1, D2:D$303&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$303&lt;&gt;0), D2:D$303)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -16477,16 +16200,16 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B305" s="3">
         <f>IF(D304&lt;&gt;0, D304, IFERROR(INDEX(D2:D$304, MATCH(1, D2:D$304&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$304&lt;&gt;0), D2:D$304)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -16525,16 +16248,16 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B306" s="3">
         <f>IF(D305&lt;&gt;0, D305, IFERROR(INDEX(D2:D$305, MATCH(1, D2:D$305&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$305&lt;&gt;0), D2:D$305)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -16573,16 +16296,16 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B307" s="3">
         <f>IF(D306&lt;&gt;0, D306, IFERROR(INDEX(D2:D$306, MATCH(1, D2:D$306&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$306&lt;&gt;0), D2:D$306)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F307">
         <v>1</v>
@@ -16621,16 +16344,16 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B308" s="3">
         <f>IF(D307&lt;&gt;0, D307, IFERROR(INDEX(D2:D$307, MATCH(1, D2:D$307&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$307&lt;&gt;0), D2:D$307)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F308">
         <v>1</v>
@@ -16669,16 +16392,16 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B309" s="3">
         <f>IF(D308&lt;&gt;0, D308, IFERROR(INDEX(D2:D$308, MATCH(1, D2:D$308&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$308&lt;&gt;0), D2:D$308)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F309">
         <v>1</v>
@@ -16717,16 +16440,16 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B310" s="3">
         <f>IF(D309&lt;&gt;0, D309, IFERROR(INDEX(D2:D$309, MATCH(1, D2:D$309&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$309&lt;&gt;0), D2:D$309)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -16765,16 +16488,16 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B311" s="3">
         <f>IF(D310&lt;&gt;0, D310, IFERROR(INDEX(D2:D$310, MATCH(1, D2:D$310&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$310&lt;&gt;0), D2:D$310)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F311">
         <v>1</v>
@@ -16813,16 +16536,16 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B312" s="3">
         <f>IF(D311&lt;&gt;0, D311, IFERROR(INDEX(D2:D$311, MATCH(1, D2:D$311&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$311&lt;&gt;0), D2:D$311)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -16861,16 +16584,16 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B313" s="3">
         <f>IF(D312&lt;&gt;0, D312, IFERROR(INDEX(D2:D$312, MATCH(1, D2:D$312&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$312&lt;&gt;0), D2:D$312)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F313">
         <v>1</v>
@@ -16909,16 +16632,16 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B314" s="3">
         <f>IF(D313&lt;&gt;0, D313, IFERROR(INDEX(D2:D$313, MATCH(1, D2:D$313&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$313&lt;&gt;0), D2:D$313)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -16957,16 +16680,16 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B315" s="3">
         <f>IF(D314&lt;&gt;0, D314, IFERROR(INDEX(D2:D$314, MATCH(1, D2:D$314&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$314&lt;&gt;0), D2:D$314)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -17005,16 +16728,16 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B316" s="3">
         <f>IF(D315&lt;&gt;0, D315, IFERROR(INDEX(D2:D$315, MATCH(1, D2:D$315&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$315&lt;&gt;0), D2:D$315)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -17053,16 +16776,16 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B317" s="3">
         <f>IF(D316&lt;&gt;0, D316, IFERROR(INDEX(D2:D$316, MATCH(1, D2:D$316&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$316&lt;&gt;0), D2:D$316)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -17101,16 +16824,16 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B318" s="3">
         <f>IF(D317&lt;&gt;0, D317, IFERROR(INDEX(D2:D$317, MATCH(1, D2:D$317&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$317&lt;&gt;0), D2:D$317)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -17149,16 +16872,16 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B319" s="3">
         <f>IF(D318&lt;&gt;0, D318, IFERROR(INDEX(D2:D$318, MATCH(1, D2:D$318&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$318&lt;&gt;0), D2:D$318)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F319">
         <v>1</v>
@@ -17197,16 +16920,16 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B320" s="3">
         <f>IF(D319&lt;&gt;0, D319, IFERROR(INDEX(D2:D$319, MATCH(1, D2:D$319&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$319&lt;&gt;0), D2:D$319)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -17245,16 +16968,16 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B321" s="3">
         <f>IF(D320&lt;&gt;0, D320, IFERROR(INDEX(D2:D$320, MATCH(1, D2:D$320&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$320&lt;&gt;0), D2:D$320)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -17293,16 +17016,16 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B322" s="3">
         <f>IF(D321&lt;&gt;0, D321, IFERROR(INDEX(D2:D$321, MATCH(1, D2:D$321&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$321&lt;&gt;0), D2:D$321)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3">
         <f t="shared" ref="D322:D385" si="5">SUM(J322,O322,B322) - C322</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -17341,16 +17064,16 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B323" s="3">
         <f>IF(D322&lt;&gt;0, D322, IFERROR(INDEX(D2:D$322, MATCH(1, D2:D$322&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$322&lt;&gt;0), D2:D$322)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -17389,16 +17112,16 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B324" s="3">
         <f>IF(D323&lt;&gt;0, D323, IFERROR(INDEX(D2:D$323, MATCH(1, D2:D$323&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$323&lt;&gt;0), D2:D$323)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -17437,16 +17160,16 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B325" s="3">
         <f>IF(D324&lt;&gt;0, D324, IFERROR(INDEX(D2:D$324, MATCH(1, D2:D$324&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$324&lt;&gt;0), D2:D$324)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -17485,16 +17208,16 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B326" s="3">
         <f>IF(D325&lt;&gt;0, D325, IFERROR(INDEX(D2:D$325, MATCH(1, D2:D$325&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$325&lt;&gt;0), D2:D$325)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F326">
         <v>1</v>
@@ -17533,16 +17256,16 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B327" s="3">
         <f>IF(D326&lt;&gt;0, D326, IFERROR(INDEX(D2:D$326, MATCH(1, D2:D$326&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$326&lt;&gt;0), D2:D$326)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F327">
         <v>1</v>
@@ -17581,16 +17304,16 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B328" s="3">
         <f>IF(D327&lt;&gt;0, D327, IFERROR(INDEX(D2:D$327, MATCH(1, D2:D$327&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$327&lt;&gt;0), D2:D$327)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -17629,16 +17352,16 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B329" s="3">
         <f>IF(D328&lt;&gt;0, D328, IFERROR(INDEX(D2:D$328, MATCH(1, D2:D$328&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$328&lt;&gt;0), D2:D$328)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -17677,16 +17400,16 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B330" s="3">
         <f>IF(D329&lt;&gt;0, D329, IFERROR(INDEX(D2:D$329, MATCH(1, D2:D$329&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$329&lt;&gt;0), D2:D$329)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -17725,16 +17448,16 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B331" s="3">
         <f>IF(D330&lt;&gt;0, D330, IFERROR(INDEX(D2:D$330, MATCH(1, D2:D$330&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$330&lt;&gt;0), D2:D$330)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -17773,16 +17496,16 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B332" s="3">
         <f>IF(D331&lt;&gt;0, D331, IFERROR(INDEX(D2:D$331, MATCH(1, D2:D$331&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$331&lt;&gt;0), D2:D$331)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -17821,16 +17544,16 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B333" s="3">
         <f>IF(D332&lt;&gt;0, D332, IFERROR(INDEX(D2:D$332, MATCH(1, D2:D$332&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$332&lt;&gt;0), D2:D$332)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C333" s="3"/>
       <c r="D333" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -17869,16 +17592,16 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B334" s="3">
         <f>IF(D333&lt;&gt;0, D333, IFERROR(INDEX(D2:D$333, MATCH(1, D2:D$333&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$333&lt;&gt;0), D2:D$333)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F334">
         <v>1</v>
@@ -17917,16 +17640,16 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B335" s="3">
         <f>IF(D334&lt;&gt;0, D334, IFERROR(INDEX(D2:D$334, MATCH(1, D2:D$334&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$334&lt;&gt;0), D2:D$334)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -17965,16 +17688,16 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B336" s="3">
         <f>IF(D335&lt;&gt;0, D335, IFERROR(INDEX(D2:D$335, MATCH(1, D2:D$335&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$335&lt;&gt;0), D2:D$335)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -18013,16 +17736,16 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B337" s="3">
         <f>IF(D336&lt;&gt;0, D336, IFERROR(INDEX(D2:D$336, MATCH(1, D2:D$336&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$336&lt;&gt;0), D2:D$336)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -18061,16 +17784,16 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B338" s="3">
         <f>IF(D337&lt;&gt;0, D337, IFERROR(INDEX(D2:D$337, MATCH(1, D2:D$337&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$337&lt;&gt;0), D2:D$337)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -18109,16 +17832,16 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B339" s="3">
         <f>IF(D338&lt;&gt;0, D338, IFERROR(INDEX(D2:D$338, MATCH(1, D2:D$338&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$338&lt;&gt;0), D2:D$338)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -18157,16 +17880,16 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B340" s="3">
         <f>IF(D339&lt;&gt;0, D339, IFERROR(INDEX(D2:D$339, MATCH(1, D2:D$339&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$339&lt;&gt;0), D2:D$339)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F340">
         <v>1</v>
@@ -18205,16 +17928,16 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B341" s="3">
         <f>IF(D340&lt;&gt;0, D340, IFERROR(INDEX(D2:D$340, MATCH(1, D2:D$340&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$340&lt;&gt;0), D2:D$340)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -18253,16 +17976,16 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B342" s="3">
         <f>IF(D341&lt;&gt;0, D341, IFERROR(INDEX(D2:D$341, MATCH(1, D2:D$341&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$341&lt;&gt;0), D2:D$341)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -18301,16 +18024,16 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B343" s="3">
         <f>IF(D342&lt;&gt;0, D342, IFERROR(INDEX(D2:D$342, MATCH(1, D2:D$342&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$342&lt;&gt;0), D2:D$342)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -18349,16 +18072,16 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B344" s="3">
         <f>IF(D343&lt;&gt;0, D343, IFERROR(INDEX(D2:D$343, MATCH(1, D2:D$343&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$343&lt;&gt;0), D2:D$343)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F344">
         <v>1</v>
@@ -18397,16 +18120,16 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B345" s="3">
         <f>IF(D344&lt;&gt;0, D344, IFERROR(INDEX(D2:D$344, MATCH(1, D2:D$344&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$344&lt;&gt;0), D2:D$344)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -18445,16 +18168,16 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B346" s="3">
         <f>IF(D345&lt;&gt;0, D345, IFERROR(INDEX(D2:D$345, MATCH(1, D2:D$345&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$345&lt;&gt;0), D2:D$345)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -18493,16 +18216,16 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B347" s="3">
         <f>IF(D346&lt;&gt;0, D346, IFERROR(INDEX(D2:D$346, MATCH(1, D2:D$346&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$346&lt;&gt;0), D2:D$346)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -18541,16 +18264,16 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B348" s="3">
         <f>IF(D347&lt;&gt;0, D347, IFERROR(INDEX(D2:D$347, MATCH(1, D2:D$347&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$347&lt;&gt;0), D2:D$347)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -18589,16 +18312,16 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B349" s="3">
         <f>IF(D348&lt;&gt;0, D348, IFERROR(INDEX(D2:D$348, MATCH(1, D2:D$348&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$348&lt;&gt;0), D2:D$348)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -18637,16 +18360,16 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B350" s="3">
         <f>IF(D349&lt;&gt;0, D349, IFERROR(INDEX(D2:D$349, MATCH(1, D2:D$349&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$349&lt;&gt;0), D2:D$349)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -18685,16 +18408,16 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B351" s="3">
         <f>IF(D350&lt;&gt;0, D350, IFERROR(INDEX(D2:D$350, MATCH(1, D2:D$350&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$350&lt;&gt;0), D2:D$350)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C351" s="3"/>
       <c r="D351" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F351">
         <v>1</v>
@@ -18733,16 +18456,16 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B352" s="3">
         <f>IF(D351&lt;&gt;0, D351, IFERROR(INDEX(D2:D$351, MATCH(1, D2:D$351&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$351&lt;&gt;0), D2:D$351)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F352">
         <v>1</v>
@@ -18781,16 +18504,16 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B353" s="3">
         <f>IF(D352&lt;&gt;0, D352, IFERROR(INDEX(D2:D$352, MATCH(1, D2:D$352&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$352&lt;&gt;0), D2:D$352)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -18829,16 +18552,16 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B354" s="3">
         <f>IF(D353&lt;&gt;0, D353, IFERROR(INDEX(D2:D$353, MATCH(1, D2:D$353&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$353&lt;&gt;0), D2:D$353)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -18877,16 +18600,16 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B355" s="3">
         <f>IF(D354&lt;&gt;0, D354, IFERROR(INDEX(D2:D$354, MATCH(1, D2:D$354&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$354&lt;&gt;0), D2:D$354)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -18925,16 +18648,16 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B356" s="3">
         <f>IF(D355&lt;&gt;0, D355, IFERROR(INDEX(D2:D$355, MATCH(1, D2:D$355&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$355&lt;&gt;0), D2:D$355)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C356" s="3"/>
       <c r="D356" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -18973,16 +18696,16 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B357" s="3">
         <f>IF(D356&lt;&gt;0, D356, IFERROR(INDEX(D2:D$356, MATCH(1, D2:D$356&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$356&lt;&gt;0), D2:D$356)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -19021,16 +18744,16 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B358" s="3">
         <f>IF(D357&lt;&gt;0, D357, IFERROR(INDEX(D2:D$357, MATCH(1, D2:D$357&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$357&lt;&gt;0), D2:D$357)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C358" s="3"/>
       <c r="D358" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F358">
         <v>1</v>
@@ -19069,16 +18792,16 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B359" s="3">
         <f>IF(D358&lt;&gt;0, D358, IFERROR(INDEX(D2:D$358, MATCH(1, D2:D$358&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$358&lt;&gt;0), D2:D$358)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C359" s="3"/>
       <c r="D359" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -19117,16 +18840,16 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B360" s="3">
         <f>IF(D359&lt;&gt;0, D359, IFERROR(INDEX(D2:D$359, MATCH(1, D2:D$359&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$359&lt;&gt;0), D2:D$359)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -19165,16 +18888,16 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B361" s="3">
         <f>IF(D360&lt;&gt;0, D360, IFERROR(INDEX(D2:D$360, MATCH(1, D2:D$360&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$360&lt;&gt;0), D2:D$360)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C361" s="3"/>
       <c r="D361" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -19213,16 +18936,16 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B362" s="3">
         <f>IF(D361&lt;&gt;0, D361, IFERROR(INDEX(D2:D$361, MATCH(1, D2:D$361&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$361&lt;&gt;0), D2:D$361)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C362" s="3"/>
       <c r="D362" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -19261,16 +18984,16 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B363" s="3">
         <f>IF(D362&lt;&gt;0, D362, IFERROR(INDEX(D2:D$362, MATCH(1, D2:D$362&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$362&lt;&gt;0), D2:D$362)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C363" s="3"/>
       <c r="D363" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -19309,16 +19032,16 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B364" s="3">
         <f>IF(D363&lt;&gt;0, D363, IFERROR(INDEX(D2:D$363, MATCH(1, D2:D$363&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$363&lt;&gt;0), D2:D$363)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C364" s="3"/>
       <c r="D364" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F364">
         <v>1</v>
@@ -19357,16 +19080,16 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B365" s="3">
         <f>IF(D364&lt;&gt;0, D364, IFERROR(INDEX(D2:D$364, MATCH(1, D2:D$364&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$364&lt;&gt;0), D2:D$364)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C365" s="3"/>
       <c r="D365" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -19405,16 +19128,16 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B366" s="3">
         <f>IF(D365&lt;&gt;0, D365, IFERROR(INDEX(D2:D$365, MATCH(1, D2:D$365&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$365&lt;&gt;0), D2:D$365)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C366" s="3"/>
       <c r="D366" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -19453,16 +19176,16 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B367" s="3">
         <f>IF(D366&lt;&gt;0, D366, IFERROR(INDEX(D2:D$366, MATCH(1, D2:D$366&lt;&gt;0, 0)), LOOKUP(2, 1/(D2:D$366&lt;&gt;0), D2:D$366)))</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C367" s="3"/>
       <c r="D367" s="3">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F367">
         <v>1</v>

--- a/main.xlsx
+++ b/main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99ksh\OneDrive\Documents\Desktop\Appwelt\pyex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911FA06E-04A1-4249-A3E7-01F992745F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13F015-AFBF-4D50-8494-768F3C19EDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="391">
   <si>
     <t>RAW DATA</t>
   </si>
@@ -47,6 +47,9 @@
     <t>shop_code</t>
   </si>
   <si>
+    <t>product_type</t>
+  </si>
+  <si>
     <t>product_id</t>
   </si>
   <si>
@@ -68,7 +71,19 @@
     <t>31-10-2023</t>
   </si>
   <si>
-    <t>12:01:15</t>
+    <t>12:42:14</t>
+  </si>
+  <si>
+    <t>12:43:26</t>
+  </si>
+  <si>
+    <t>12:51:05</t>
+  </si>
+  <si>
+    <t>12:51:10</t>
+  </si>
+  <si>
+    <t>12:51:12</t>
   </si>
   <si>
     <t>DAILY ACCOUNT SUMMARY</t>
@@ -1226,7 +1241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1236,9 +1251,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,26 +1543,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1562,8 +1575,9 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1591,13 +1605,16 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>45017</v>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>123</v>
@@ -1605,24 +1622,159 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="1">
         <v>50</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f>IF(D3=1, E3*G3, IF(D3=2, F3*G3, ""))</f>
-        <v>25</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1">
+        <f>IF(D4=1, E4*G4, IF(D4=2, F4*G4, ""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1">
+        <f>IF(D5=1, E5*G5, IF(D5=2, F5*G5, ""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <f>IF(D6=1, E6*G6, IF(D6=2, F6*G6, ""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1">
+        <f>IF(D7=1, E7*G7, IF(D7=2, F7*G7, ""))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1634,7 +1786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,20 +1800,20 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="F1" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="L1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -1669,60 +1821,59 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D66" si="0">SUM(J3,O3,B3) - C3</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1739,39 +1890,34 @@
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A3,Raw_data_01!D:D,1),"")</f>
         <v/>
       </c>
-      <c r="J3" s="2" t="str">
-        <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A3,Raw_data_01!D:D,1),"")</f>
-        <v/>
+      <c r="J3" s="2">
+        <v>50</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="2" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A3,Raw_data_01!D:D,2),"")</f>
-        <v>5</v>
-      </c>
-      <c r="N3" s="2">
+        <v/>
+      </c>
+      <c r="N3" s="2" t="str">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,2)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A3,Raw_data_01!D:D,2),"")</f>
+        <v/>
+      </c>
+      <c r="O3" s="2">
         <v>50</v>
-      </c>
-      <c r="O3" s="2">
-        <f>IF(COUNTIFS(Raw_data_01!A:A,$A3,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A3,Raw_data_01!D:D,2),"")</f>
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <f>IF(D3&lt;&gt;0, D3, IFERROR(INDEX(D3:D$3, MATCH(1, D3:D$3&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$3&lt;&gt;0), D3:D$3)))</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="F4">
         <v>1</v>
       </c>
@@ -1809,15 +1955,15 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <f>IF(D4&lt;&gt;0, D4, IFERROR(INDEX(D3:D$4, MATCH(1, D3:D$4&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$4&lt;&gt;0), D3:D$4)))</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1856,14 +2002,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
         <f>IF(D5&lt;&gt;0, D5, IFERROR(INDEX(D3:D$5, MATCH(1, D3:D$5&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$5&lt;&gt;0), D3:D$5)))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <f t="shared" ref="D3:D66" si="0">SUM(J6,O6,B6) - C6</f>
+        <v>30</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -1901,17 +2050,14 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <f>IF(D6&lt;&gt;0, D6, IFERROR(INDEX(D3:D$6, MATCH(1, D3:D$6&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$6&lt;&gt;0), D3:D$6)))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="F7">
         <v>1</v>
       </c>
@@ -1949,16 +2095,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2">
         <f>IF(D7&lt;&gt;0, D7, IFERROR(INDEX(D3:D$7, MATCH(1, D3:D$7&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$7&lt;&gt;0), D3:D$7)))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1997,15 +2143,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
         <f>IF(D8&lt;&gt;0, D8, IFERROR(INDEX(D3:D$8, MATCH(1, D3:D$8&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$8&lt;&gt;0), D3:D$8)))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2044,16 +2191,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <f>IF(D9&lt;&gt;0, D9, IFERROR(INDEX(D3:D$9, MATCH(1, D3:D$9&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$9&lt;&gt;0), D3:D$9)))</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2092,16 +2239,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
         <f>IF(D10&lt;&gt;0, D10, IFERROR(INDEX(D3:D$10, MATCH(1, D3:D$10&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$10&lt;&gt;0), D3:D$10)))</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2140,14 +2287,15 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <f>IF(D11&lt;&gt;0, D11, IFERROR(INDEX(D3:D$11, MATCH(1, D3:D$11&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$11&lt;&gt;0), D3:D$11)))</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F12">
@@ -2187,14 +2335,17 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
         <f>IF(D12&lt;&gt;0, D12, IFERROR(INDEX(D3:D$12, MATCH(1, D3:D$12&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$12&lt;&gt;0), D3:D$12)))</f>
         <v>30</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="F13">
         <v>1</v>
       </c>
@@ -2232,7 +2383,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <f>IF(D13&lt;&gt;0, D13, IFERROR(INDEX(D3:D$13, MATCH(1, D3:D$13&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$13&lt;&gt;0), D3:D$13)))</f>
@@ -2240,6 +2391,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F14">
@@ -2279,7 +2431,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2">
         <f>IF(D14&lt;&gt;0, D14, IFERROR(INDEX(D3:D$14, MATCH(1, D3:D$14&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$14&lt;&gt;0), D3:D$14)))</f>
@@ -2327,7 +2479,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
         <f>IF(D15&lt;&gt;0, D15, IFERROR(INDEX(D3:D$15, MATCH(1, D3:D$15&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$15&lt;&gt;0), D3:D$15)))</f>
@@ -2375,7 +2527,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2">
         <f>IF(D16&lt;&gt;0, D16, IFERROR(INDEX(D3:D$16, MATCH(1, D3:D$16&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$16&lt;&gt;0), D3:D$16)))</f>
@@ -2423,7 +2575,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2">
         <f>IF(D17&lt;&gt;0, D17, IFERROR(INDEX(D3:D$17, MATCH(1, D3:D$17&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$17&lt;&gt;0), D3:D$17)))</f>
@@ -2471,7 +2623,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
         <f>IF(D18&lt;&gt;0, D18, IFERROR(INDEX(D3:D$18, MATCH(1, D3:D$18&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$18&lt;&gt;0), D3:D$18)))</f>
@@ -2519,7 +2671,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2">
         <f>IF(D19&lt;&gt;0, D19, IFERROR(INDEX(D3:D$19, MATCH(1, D3:D$19&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$19&lt;&gt;0), D3:D$19)))</f>
@@ -2567,7 +2719,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2">
         <f>IF(D20&lt;&gt;0, D20, IFERROR(INDEX(D3:D$20, MATCH(1, D3:D$20&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$20&lt;&gt;0), D3:D$20)))</f>
@@ -2615,7 +2767,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
         <f>IF(D21&lt;&gt;0, D21, IFERROR(INDEX(D3:D$21, MATCH(1, D3:D$21&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$21&lt;&gt;0), D3:D$21)))</f>
@@ -2663,7 +2815,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <f>IF(D22&lt;&gt;0, D22, IFERROR(INDEX(D3:D$22, MATCH(1, D3:D$22&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$22&lt;&gt;0), D3:D$22)))</f>
@@ -2711,7 +2863,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2">
         <f>IF(D23&lt;&gt;0, D23, IFERROR(INDEX(D3:D$23, MATCH(1, D3:D$23&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$23&lt;&gt;0), D3:D$23)))</f>
@@ -2759,7 +2911,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <f>IF(D24&lt;&gt;0, D24, IFERROR(INDEX(D3:D$24, MATCH(1, D3:D$24&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$24&lt;&gt;0), D3:D$24)))</f>
@@ -2807,7 +2959,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2">
         <f>IF(D25&lt;&gt;0, D25, IFERROR(INDEX(D3:D$25, MATCH(1, D3:D$25&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$25&lt;&gt;0), D3:D$25)))</f>
@@ -2855,7 +3007,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2">
         <f>IF(D26&lt;&gt;0, D26, IFERROR(INDEX(D3:D$26, MATCH(1, D3:D$26&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$26&lt;&gt;0), D3:D$26)))</f>
@@ -2903,7 +3055,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2">
         <f>IF(D27&lt;&gt;0, D27, IFERROR(INDEX(D3:D$27, MATCH(1, D3:D$27&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$27&lt;&gt;0), D3:D$27)))</f>
@@ -2951,7 +3103,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2">
         <f>IF(D28&lt;&gt;0, D28, IFERROR(INDEX(D3:D$28, MATCH(1, D3:D$28&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$28&lt;&gt;0), D3:D$28)))</f>
@@ -2999,7 +3151,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2">
         <f>IF(D29&lt;&gt;0, D29, IFERROR(INDEX(D3:D$29, MATCH(1, D3:D$29&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$29&lt;&gt;0), D3:D$29)))</f>
@@ -3047,7 +3199,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2">
         <f>IF(D30&lt;&gt;0, D30, IFERROR(INDEX(D3:D$30, MATCH(1, D3:D$30&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$30&lt;&gt;0), D3:D$30)))</f>
@@ -3095,7 +3247,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2">
         <f>IF(D31&lt;&gt;0, D31, IFERROR(INDEX(D3:D$31, MATCH(1, D3:D$31&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$31&lt;&gt;0), D3:D$31)))</f>
@@ -3143,7 +3295,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2">
         <f>IF(D32&lt;&gt;0, D32, IFERROR(INDEX(D3:D$32, MATCH(1, D3:D$32&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$32&lt;&gt;0), D3:D$32)))</f>
@@ -3191,7 +3343,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2">
         <f>IF(D33&lt;&gt;0, D33, IFERROR(INDEX(D3:D$33, MATCH(1, D3:D$33&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$33&lt;&gt;0), D3:D$33)))</f>
@@ -3239,7 +3391,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2">
         <f>IF(D34&lt;&gt;0, D34, IFERROR(INDEX(D3:D$34, MATCH(1, D3:D$34&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$34&lt;&gt;0), D3:D$34)))</f>
@@ -3287,7 +3439,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2">
         <f>IF(D35&lt;&gt;0, D35, IFERROR(INDEX(D3:D$35, MATCH(1, D3:D$35&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$35&lt;&gt;0), D3:D$35)))</f>
@@ -3335,7 +3487,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B37" s="2">
         <f>IF(D36&lt;&gt;0, D36, IFERROR(INDEX(D3:D$36, MATCH(1, D3:D$36&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$36&lt;&gt;0), D3:D$36)))</f>
@@ -3383,7 +3535,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B38" s="2">
         <f>IF(D37&lt;&gt;0, D37, IFERROR(INDEX(D3:D$37, MATCH(1, D3:D$37&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$37&lt;&gt;0), D3:D$37)))</f>
@@ -3431,7 +3583,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B39" s="2">
         <f>IF(D38&lt;&gt;0, D38, IFERROR(INDEX(D3:D$38, MATCH(1, D3:D$38&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$38&lt;&gt;0), D3:D$38)))</f>
@@ -3479,7 +3631,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2">
         <f>IF(D39&lt;&gt;0, D39, IFERROR(INDEX(D3:D$39, MATCH(1, D3:D$39&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$39&lt;&gt;0), D3:D$39)))</f>
@@ -3527,7 +3679,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B41" s="2">
         <f>IF(D40&lt;&gt;0, D40, IFERROR(INDEX(D3:D$40, MATCH(1, D3:D$40&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$40&lt;&gt;0), D3:D$40)))</f>
@@ -3575,7 +3727,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2">
         <f>IF(D41&lt;&gt;0, D41, IFERROR(INDEX(D3:D$41, MATCH(1, D3:D$41&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$41&lt;&gt;0), D3:D$41)))</f>
@@ -3623,7 +3775,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B43" s="2">
         <f>IF(D42&lt;&gt;0, D42, IFERROR(INDEX(D3:D$42, MATCH(1, D3:D$42&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$42&lt;&gt;0), D3:D$42)))</f>
@@ -3671,7 +3823,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2">
         <f>IF(D43&lt;&gt;0, D43, IFERROR(INDEX(D3:D$43, MATCH(1, D3:D$43&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$43&lt;&gt;0), D3:D$43)))</f>
@@ -3719,7 +3871,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2">
         <f>IF(D44&lt;&gt;0, D44, IFERROR(INDEX(D3:D$44, MATCH(1, D3:D$44&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$44&lt;&gt;0), D3:D$44)))</f>
@@ -3767,7 +3919,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2">
         <f>IF(D45&lt;&gt;0, D45, IFERROR(INDEX(D3:D$45, MATCH(1, D3:D$45&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$45&lt;&gt;0), D3:D$45)))</f>
@@ -3815,7 +3967,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2">
         <f>IF(D46&lt;&gt;0, D46, IFERROR(INDEX(D3:D$46, MATCH(1, D3:D$46&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$46&lt;&gt;0), D3:D$46)))</f>
@@ -3863,7 +4015,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2">
         <f>IF(D47&lt;&gt;0, D47, IFERROR(INDEX(D3:D$47, MATCH(1, D3:D$47&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$47&lt;&gt;0), D3:D$47)))</f>
@@ -3911,7 +4063,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2">
         <f>IF(D48&lt;&gt;0, D48, IFERROR(INDEX(D3:D$48, MATCH(1, D3:D$48&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$48&lt;&gt;0), D3:D$48)))</f>
@@ -3959,7 +4111,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2">
         <f>IF(D49&lt;&gt;0, D49, IFERROR(INDEX(D3:D$49, MATCH(1, D3:D$49&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$49&lt;&gt;0), D3:D$49)))</f>
@@ -4007,7 +4159,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2">
         <f>IF(D50&lt;&gt;0, D50, IFERROR(INDEX(D3:D$50, MATCH(1, D3:D$50&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$50&lt;&gt;0), D3:D$50)))</f>
@@ -4055,7 +4207,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2">
         <f>IF(D51&lt;&gt;0, D51, IFERROR(INDEX(D3:D$51, MATCH(1, D3:D$51&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$51&lt;&gt;0), D3:D$51)))</f>
@@ -4103,7 +4255,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2">
         <f>IF(D52&lt;&gt;0, D52, IFERROR(INDEX(D3:D$52, MATCH(1, D3:D$52&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$52&lt;&gt;0), D3:D$52)))</f>
@@ -4151,7 +4303,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2">
         <f>IF(D53&lt;&gt;0, D53, IFERROR(INDEX(D3:D$53, MATCH(1, D3:D$53&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$53&lt;&gt;0), D3:D$53)))</f>
@@ -4199,7 +4351,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2">
         <f>IF(D54&lt;&gt;0, D54, IFERROR(INDEX(D3:D$54, MATCH(1, D3:D$54&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$54&lt;&gt;0), D3:D$54)))</f>
@@ -4247,7 +4399,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2">
         <f>IF(D55&lt;&gt;0, D55, IFERROR(INDEX(D3:D$55, MATCH(1, D3:D$55&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$55&lt;&gt;0), D3:D$55)))</f>
@@ -4295,7 +4447,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2">
         <f>IF(D56&lt;&gt;0, D56, IFERROR(INDEX(D3:D$56, MATCH(1, D3:D$56&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$56&lt;&gt;0), D3:D$56)))</f>
@@ -4343,7 +4495,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2">
         <f>IF(D57&lt;&gt;0, D57, IFERROR(INDEX(D3:D$57, MATCH(1, D3:D$57&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$57&lt;&gt;0), D3:D$57)))</f>
@@ -4391,7 +4543,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2">
         <f>IF(D58&lt;&gt;0, D58, IFERROR(INDEX(D3:D$58, MATCH(1, D3:D$58&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$58&lt;&gt;0), D3:D$58)))</f>
@@ -4439,7 +4591,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2">
         <f>IF(D59&lt;&gt;0, D59, IFERROR(INDEX(D3:D$59, MATCH(1, D3:D$59&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$59&lt;&gt;0), D3:D$59)))</f>
@@ -4487,7 +4639,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2">
         <f>IF(D60&lt;&gt;0, D60, IFERROR(INDEX(D3:D$60, MATCH(1, D3:D$60&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$60&lt;&gt;0), D3:D$60)))</f>
@@ -4535,7 +4687,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2">
         <f>IF(D61&lt;&gt;0, D61, IFERROR(INDEX(D3:D$61, MATCH(1, D3:D$61&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$61&lt;&gt;0), D3:D$61)))</f>
@@ -4583,7 +4735,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2">
         <f>IF(D62&lt;&gt;0, D62, IFERROR(INDEX(D3:D$62, MATCH(1, D3:D$62&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$62&lt;&gt;0), D3:D$62)))</f>
@@ -4631,7 +4783,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2">
         <f>IF(D63&lt;&gt;0, D63, IFERROR(INDEX(D3:D$63, MATCH(1, D3:D$63&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$63&lt;&gt;0), D3:D$63)))</f>
@@ -4679,7 +4831,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2">
         <f>IF(D64&lt;&gt;0, D64, IFERROR(INDEX(D3:D$64, MATCH(1, D3:D$64&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$64&lt;&gt;0), D3:D$64)))</f>
@@ -4727,7 +4879,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2">
         <f>IF(D65&lt;&gt;0, D65, IFERROR(INDEX(D3:D$65, MATCH(1, D3:D$65&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$65&lt;&gt;0), D3:D$65)))</f>
@@ -4775,7 +4927,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2">
         <f>IF(D66&lt;&gt;0, D66, IFERROR(INDEX(D3:D$66, MATCH(1, D3:D$66&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$66&lt;&gt;0), D3:D$66)))</f>
@@ -4823,7 +4975,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2">
         <f>IF(D67&lt;&gt;0, D67, IFERROR(INDEX(D3:D$67, MATCH(1, D3:D$67&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$67&lt;&gt;0), D3:D$67)))</f>
@@ -4871,7 +5023,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2">
         <f>IF(D68&lt;&gt;0, D68, IFERROR(INDEX(D3:D$68, MATCH(1, D3:D$68&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$68&lt;&gt;0), D3:D$68)))</f>
@@ -4919,7 +5071,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2">
         <f>IF(D69&lt;&gt;0, D69, IFERROR(INDEX(D3:D$69, MATCH(1, D3:D$69&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$69&lt;&gt;0), D3:D$69)))</f>
@@ -4967,7 +5119,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2">
         <f>IF(D70&lt;&gt;0, D70, IFERROR(INDEX(D3:D$70, MATCH(1, D3:D$70&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$70&lt;&gt;0), D3:D$70)))</f>
@@ -5015,7 +5167,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2">
         <f>IF(D71&lt;&gt;0, D71, IFERROR(INDEX(D3:D$71, MATCH(1, D3:D$71&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$71&lt;&gt;0), D3:D$71)))</f>
@@ -5063,7 +5215,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2">
         <f>IF(D72&lt;&gt;0, D72, IFERROR(INDEX(D3:D$72, MATCH(1, D3:D$72&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$72&lt;&gt;0), D3:D$72)))</f>
@@ -5111,7 +5263,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2">
         <f>IF(D73&lt;&gt;0, D73, IFERROR(INDEX(D3:D$73, MATCH(1, D3:D$73&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$73&lt;&gt;0), D3:D$73)))</f>
@@ -5159,7 +5311,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2">
         <f>IF(D74&lt;&gt;0, D74, IFERROR(INDEX(D3:D$74, MATCH(1, D3:D$74&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$74&lt;&gt;0), D3:D$74)))</f>
@@ -5207,7 +5359,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2">
         <f>IF(D75&lt;&gt;0, D75, IFERROR(INDEX(D3:D$75, MATCH(1, D3:D$75&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$75&lt;&gt;0), D3:D$75)))</f>
@@ -5255,7 +5407,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2">
         <f>IF(D76&lt;&gt;0, D76, IFERROR(INDEX(D3:D$76, MATCH(1, D3:D$76&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$76&lt;&gt;0), D3:D$76)))</f>
@@ -5303,7 +5455,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2">
         <f>IF(D77&lt;&gt;0, D77, IFERROR(INDEX(D3:D$77, MATCH(1, D3:D$77&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$77&lt;&gt;0), D3:D$77)))</f>
@@ -5351,7 +5503,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2">
         <f>IF(D78&lt;&gt;0, D78, IFERROR(INDEX(D3:D$78, MATCH(1, D3:D$78&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$78&lt;&gt;0), D3:D$78)))</f>
@@ -5399,7 +5551,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2">
         <f>IF(D79&lt;&gt;0, D79, IFERROR(INDEX(D3:D$79, MATCH(1, D3:D$79&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$79&lt;&gt;0), D3:D$79)))</f>
@@ -5447,7 +5599,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2">
         <f>IF(D80&lt;&gt;0, D80, IFERROR(INDEX(D3:D$80, MATCH(1, D3:D$80&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$80&lt;&gt;0), D3:D$80)))</f>
@@ -5495,7 +5647,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2">
         <f>IF(D81&lt;&gt;0, D81, IFERROR(INDEX(D3:D$81, MATCH(1, D3:D$81&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$81&lt;&gt;0), D3:D$81)))</f>
@@ -5543,7 +5695,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2">
         <f>IF(D82&lt;&gt;0, D82, IFERROR(INDEX(D3:D$82, MATCH(1, D3:D$82&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$82&lt;&gt;0), D3:D$82)))</f>
@@ -5591,7 +5743,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2">
         <f>IF(D83&lt;&gt;0, D83, IFERROR(INDEX(D3:D$83, MATCH(1, D3:D$83&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$83&lt;&gt;0), D3:D$83)))</f>
@@ -5639,7 +5791,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2">
         <f>IF(D84&lt;&gt;0, D84, IFERROR(INDEX(D3:D$84, MATCH(1, D3:D$84&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$84&lt;&gt;0), D3:D$84)))</f>
@@ -5687,7 +5839,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2">
         <f>IF(D85&lt;&gt;0, D85, IFERROR(INDEX(D3:D$85, MATCH(1, D3:D$85&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$85&lt;&gt;0), D3:D$85)))</f>
@@ -5735,7 +5887,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2">
         <f>IF(D86&lt;&gt;0, D86, IFERROR(INDEX(D3:D$86, MATCH(1, D3:D$86&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$86&lt;&gt;0), D3:D$86)))</f>
@@ -5783,7 +5935,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2">
         <f>IF(D87&lt;&gt;0, D87, IFERROR(INDEX(D3:D$87, MATCH(1, D3:D$87&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$87&lt;&gt;0), D3:D$87)))</f>
@@ -5831,7 +5983,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2">
         <f>IF(D88&lt;&gt;0, D88, IFERROR(INDEX(D3:D$88, MATCH(1, D3:D$88&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$88&lt;&gt;0), D3:D$88)))</f>
@@ -5879,7 +6031,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2">
         <f>IF(D89&lt;&gt;0, D89, IFERROR(INDEX(D3:D$89, MATCH(1, D3:D$89&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$89&lt;&gt;0), D3:D$89)))</f>
@@ -5927,7 +6079,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2">
         <f>IF(D90&lt;&gt;0, D90, IFERROR(INDEX(D3:D$90, MATCH(1, D3:D$90&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$90&lt;&gt;0), D3:D$90)))</f>
@@ -5975,7 +6127,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2">
         <f>IF(D91&lt;&gt;0, D91, IFERROR(INDEX(D3:D$91, MATCH(1, D3:D$91&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$91&lt;&gt;0), D3:D$91)))</f>
@@ -6023,7 +6175,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2">
         <f>IF(D92&lt;&gt;0, D92, IFERROR(INDEX(D3:D$92, MATCH(1, D3:D$92&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$92&lt;&gt;0), D3:D$92)))</f>
@@ -6071,7 +6223,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2">
         <f>IF(D93&lt;&gt;0, D93, IFERROR(INDEX(D3:D$93, MATCH(1, D3:D$93&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$93&lt;&gt;0), D3:D$93)))</f>
@@ -6119,7 +6271,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2">
         <f>IF(D94&lt;&gt;0, D94, IFERROR(INDEX(D3:D$94, MATCH(1, D3:D$94&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$94&lt;&gt;0), D3:D$94)))</f>
@@ -6167,7 +6319,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2">
         <f>IF(D95&lt;&gt;0, D95, IFERROR(INDEX(D3:D$95, MATCH(1, D3:D$95&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$95&lt;&gt;0), D3:D$95)))</f>
@@ -6215,7 +6367,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2">
         <f>IF(D96&lt;&gt;0, D96, IFERROR(INDEX(D3:D$96, MATCH(1, D3:D$96&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$96&lt;&gt;0), D3:D$96)))</f>
@@ -6263,7 +6415,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2">
         <f>IF(D97&lt;&gt;0, D97, IFERROR(INDEX(D3:D$97, MATCH(1, D3:D$97&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$97&lt;&gt;0), D3:D$97)))</f>
@@ -6311,7 +6463,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2">
         <f>IF(D98&lt;&gt;0, D98, IFERROR(INDEX(D3:D$98, MATCH(1, D3:D$98&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$98&lt;&gt;0), D3:D$98)))</f>
@@ -6359,7 +6511,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2">
         <f>IF(D99&lt;&gt;0, D99, IFERROR(INDEX(D3:D$99, MATCH(1, D3:D$99&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$99&lt;&gt;0), D3:D$99)))</f>
@@ -6407,7 +6559,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2">
         <f>IF(D100&lt;&gt;0, D100, IFERROR(INDEX(D3:D$100, MATCH(1, D3:D$100&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$100&lt;&gt;0), D3:D$100)))</f>
@@ -6455,7 +6607,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2">
         <f>IF(D101&lt;&gt;0, D101, IFERROR(INDEX(D3:D$101, MATCH(1, D3:D$101&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$101&lt;&gt;0), D3:D$101)))</f>
@@ -6503,7 +6655,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2">
         <f>IF(D102&lt;&gt;0, D102, IFERROR(INDEX(D3:D$102, MATCH(1, D3:D$102&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$102&lt;&gt;0), D3:D$102)))</f>
@@ -6551,7 +6703,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2">
         <f>IF(D103&lt;&gt;0, D103, IFERROR(INDEX(D3:D$103, MATCH(1, D3:D$103&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$103&lt;&gt;0), D3:D$103)))</f>
@@ -6599,7 +6751,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B105" s="2">
         <f>IF(D104&lt;&gt;0, D104, IFERROR(INDEX(D3:D$104, MATCH(1, D3:D$104&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$104&lt;&gt;0), D3:D$104)))</f>
@@ -6647,7 +6799,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2">
         <f>IF(D105&lt;&gt;0, D105, IFERROR(INDEX(D3:D$105, MATCH(1, D3:D$105&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$105&lt;&gt;0), D3:D$105)))</f>
@@ -6695,7 +6847,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2">
         <f>IF(D106&lt;&gt;0, D106, IFERROR(INDEX(D3:D$106, MATCH(1, D3:D$106&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$106&lt;&gt;0), D3:D$106)))</f>
@@ -6743,7 +6895,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2">
         <f>IF(D107&lt;&gt;0, D107, IFERROR(INDEX(D3:D$107, MATCH(1, D3:D$107&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$107&lt;&gt;0), D3:D$107)))</f>
@@ -6791,7 +6943,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2">
         <f>IF(D108&lt;&gt;0, D108, IFERROR(INDEX(D3:D$108, MATCH(1, D3:D$108&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$108&lt;&gt;0), D3:D$108)))</f>
@@ -6839,7 +6991,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2">
         <f>IF(D109&lt;&gt;0, D109, IFERROR(INDEX(D3:D$109, MATCH(1, D3:D$109&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$109&lt;&gt;0), D3:D$109)))</f>
@@ -6887,7 +7039,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2">
         <f>IF(D110&lt;&gt;0, D110, IFERROR(INDEX(D3:D$110, MATCH(1, D3:D$110&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$110&lt;&gt;0), D3:D$110)))</f>
@@ -6935,7 +7087,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2">
         <f>IF(D111&lt;&gt;0, D111, IFERROR(INDEX(D3:D$111, MATCH(1, D3:D$111&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$111&lt;&gt;0), D3:D$111)))</f>
@@ -6983,7 +7135,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B113" s="2">
         <f>IF(D112&lt;&gt;0, D112, IFERROR(INDEX(D3:D$112, MATCH(1, D3:D$112&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$112&lt;&gt;0), D3:D$112)))</f>
@@ -7031,7 +7183,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2">
         <f>IF(D113&lt;&gt;0, D113, IFERROR(INDEX(D3:D$113, MATCH(1, D3:D$113&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$113&lt;&gt;0), D3:D$113)))</f>
@@ -7079,7 +7231,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B115" s="2">
         <f>IF(D114&lt;&gt;0, D114, IFERROR(INDEX(D3:D$114, MATCH(1, D3:D$114&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$114&lt;&gt;0), D3:D$114)))</f>
@@ -7127,7 +7279,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2">
         <f>IF(D115&lt;&gt;0, D115, IFERROR(INDEX(D3:D$115, MATCH(1, D3:D$115&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$115&lt;&gt;0), D3:D$115)))</f>
@@ -7175,7 +7327,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2">
         <f>IF(D116&lt;&gt;0, D116, IFERROR(INDEX(D3:D$116, MATCH(1, D3:D$116&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$116&lt;&gt;0), D3:D$116)))</f>
@@ -7223,7 +7375,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B118" s="2">
         <f>IF(D117&lt;&gt;0, D117, IFERROR(INDEX(D3:D$117, MATCH(1, D3:D$117&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$117&lt;&gt;0), D3:D$117)))</f>
@@ -7271,7 +7423,7 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2">
         <f>IF(D118&lt;&gt;0, D118, IFERROR(INDEX(D3:D$118, MATCH(1, D3:D$118&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$118&lt;&gt;0), D3:D$118)))</f>
@@ -7319,7 +7471,7 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B120" s="2">
         <f>IF(D119&lt;&gt;0, D119, IFERROR(INDEX(D3:D$119, MATCH(1, D3:D$119&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$119&lt;&gt;0), D3:D$119)))</f>
@@ -7367,7 +7519,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B121" s="2">
         <f>IF(D120&lt;&gt;0, D120, IFERROR(INDEX(D3:D$120, MATCH(1, D3:D$120&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$120&lt;&gt;0), D3:D$120)))</f>
@@ -7415,7 +7567,7 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B122" s="2">
         <f>IF(D121&lt;&gt;0, D121, IFERROR(INDEX(D3:D$121, MATCH(1, D3:D$121&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$121&lt;&gt;0), D3:D$121)))</f>
@@ -7463,7 +7615,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2">
         <f>IF(D122&lt;&gt;0, D122, IFERROR(INDEX(D3:D$122, MATCH(1, D3:D$122&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$122&lt;&gt;0), D3:D$122)))</f>
@@ -7511,7 +7663,7 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2">
         <f>IF(D123&lt;&gt;0, D123, IFERROR(INDEX(D3:D$123, MATCH(1, D3:D$123&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$123&lt;&gt;0), D3:D$123)))</f>
@@ -7559,7 +7711,7 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2">
         <f>IF(D124&lt;&gt;0, D124, IFERROR(INDEX(D3:D$124, MATCH(1, D3:D$124&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$124&lt;&gt;0), D3:D$124)))</f>
@@ -7607,7 +7759,7 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B126" s="2">
         <f>IF(D125&lt;&gt;0, D125, IFERROR(INDEX(D3:D$125, MATCH(1, D3:D$125&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$125&lt;&gt;0), D3:D$125)))</f>
@@ -7655,7 +7807,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2">
         <f>IF(D126&lt;&gt;0, D126, IFERROR(INDEX(D3:D$126, MATCH(1, D3:D$126&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$126&lt;&gt;0), D3:D$126)))</f>
@@ -7703,7 +7855,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2">
         <f>IF(D127&lt;&gt;0, D127, IFERROR(INDEX(D3:D$127, MATCH(1, D3:D$127&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$127&lt;&gt;0), D3:D$127)))</f>
@@ -7751,7 +7903,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2">
         <f>IF(D128&lt;&gt;0, D128, IFERROR(INDEX(D3:D$128, MATCH(1, D3:D$128&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$128&lt;&gt;0), D3:D$128)))</f>
@@ -7799,7 +7951,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B130" s="2">
         <f>IF(D129&lt;&gt;0, D129, IFERROR(INDEX(D3:D$129, MATCH(1, D3:D$129&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$129&lt;&gt;0), D3:D$129)))</f>
@@ -7847,7 +7999,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2">
         <f>IF(D130&lt;&gt;0, D130, IFERROR(INDEX(D3:D$130, MATCH(1, D3:D$130&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$130&lt;&gt;0), D3:D$130)))</f>
@@ -7895,7 +8047,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B132" s="2">
         <f>IF(D131&lt;&gt;0, D131, IFERROR(INDEX(D3:D$131, MATCH(1, D3:D$131&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$131&lt;&gt;0), D3:D$131)))</f>
@@ -7943,7 +8095,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2">
         <f>IF(D132&lt;&gt;0, D132, IFERROR(INDEX(D3:D$132, MATCH(1, D3:D$132&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$132&lt;&gt;0), D3:D$132)))</f>
@@ -7991,7 +8143,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B134" s="2">
         <f>IF(D133&lt;&gt;0, D133, IFERROR(INDEX(D3:D$133, MATCH(1, D3:D$133&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$133&lt;&gt;0), D3:D$133)))</f>
@@ -8039,7 +8191,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2">
         <f>IF(D134&lt;&gt;0, D134, IFERROR(INDEX(D3:D$134, MATCH(1, D3:D$134&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$134&lt;&gt;0), D3:D$134)))</f>
@@ -8087,7 +8239,7 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B136" s="2">
         <f>IF(D135&lt;&gt;0, D135, IFERROR(INDEX(D3:D$135, MATCH(1, D3:D$135&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$135&lt;&gt;0), D3:D$135)))</f>
@@ -8135,7 +8287,7 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B137" s="2">
         <f>IF(D136&lt;&gt;0, D136, IFERROR(INDEX(D3:D$136, MATCH(1, D3:D$136&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$136&lt;&gt;0), D3:D$136)))</f>
@@ -8183,7 +8335,7 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2">
         <f>IF(D137&lt;&gt;0, D137, IFERROR(INDEX(D3:D$137, MATCH(1, D3:D$137&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$137&lt;&gt;0), D3:D$137)))</f>
@@ -8231,7 +8383,7 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2">
         <f>IF(D138&lt;&gt;0, D138, IFERROR(INDEX(D3:D$138, MATCH(1, D3:D$138&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$138&lt;&gt;0), D3:D$138)))</f>
@@ -8279,7 +8431,7 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2">
         <f>IF(D139&lt;&gt;0, D139, IFERROR(INDEX(D3:D$139, MATCH(1, D3:D$139&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$139&lt;&gt;0), D3:D$139)))</f>
@@ -8327,7 +8479,7 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B141" s="2">
         <f>IF(D140&lt;&gt;0, D140, IFERROR(INDEX(D3:D$140, MATCH(1, D3:D$140&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$140&lt;&gt;0), D3:D$140)))</f>
@@ -8375,7 +8527,7 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B142" s="2">
         <f>IF(D141&lt;&gt;0, D141, IFERROR(INDEX(D3:D$141, MATCH(1, D3:D$141&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$141&lt;&gt;0), D3:D$141)))</f>
@@ -8423,7 +8575,7 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B143" s="2">
         <f>IF(D142&lt;&gt;0, D142, IFERROR(INDEX(D3:D$142, MATCH(1, D3:D$142&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$142&lt;&gt;0), D3:D$142)))</f>
@@ -8471,7 +8623,7 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B144" s="2">
         <f>IF(D143&lt;&gt;0, D143, IFERROR(INDEX(D3:D$143, MATCH(1, D3:D$143&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$143&lt;&gt;0), D3:D$143)))</f>
@@ -8519,7 +8671,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B145" s="2">
         <f>IF(D144&lt;&gt;0, D144, IFERROR(INDEX(D3:D$144, MATCH(1, D3:D$144&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$144&lt;&gt;0), D3:D$144)))</f>
@@ -8567,7 +8719,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B146" s="2">
         <f>IF(D145&lt;&gt;0, D145, IFERROR(INDEX(D3:D$145, MATCH(1, D3:D$145&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$145&lt;&gt;0), D3:D$145)))</f>
@@ -8615,7 +8767,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B147" s="2">
         <f>IF(D146&lt;&gt;0, D146, IFERROR(INDEX(D3:D$146, MATCH(1, D3:D$146&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$146&lt;&gt;0), D3:D$146)))</f>
@@ -8663,7 +8815,7 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B148" s="2">
         <f>IF(D147&lt;&gt;0, D147, IFERROR(INDEX(D3:D$147, MATCH(1, D3:D$147&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$147&lt;&gt;0), D3:D$147)))</f>
@@ -8711,7 +8863,7 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B149" s="2">
         <f>IF(D148&lt;&gt;0, D148, IFERROR(INDEX(D3:D$148, MATCH(1, D3:D$148&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$148&lt;&gt;0), D3:D$148)))</f>
@@ -8759,7 +8911,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B150" s="2">
         <f>IF(D149&lt;&gt;0, D149, IFERROR(INDEX(D3:D$149, MATCH(1, D3:D$149&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$149&lt;&gt;0), D3:D$149)))</f>
@@ -8807,7 +8959,7 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B151" s="2">
         <f>IF(D150&lt;&gt;0, D150, IFERROR(INDEX(D3:D$150, MATCH(1, D3:D$150&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$150&lt;&gt;0), D3:D$150)))</f>
@@ -8855,7 +9007,7 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B152" s="2">
         <f>IF(D151&lt;&gt;0, D151, IFERROR(INDEX(D3:D$151, MATCH(1, D3:D$151&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$151&lt;&gt;0), D3:D$151)))</f>
@@ -8903,7 +9055,7 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B153" s="2">
         <f>IF(D152&lt;&gt;0, D152, IFERROR(INDEX(D3:D$152, MATCH(1, D3:D$152&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$152&lt;&gt;0), D3:D$152)))</f>
@@ -8951,7 +9103,7 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B154" s="2">
         <f>IF(D153&lt;&gt;0, D153, IFERROR(INDEX(D3:D$153, MATCH(1, D3:D$153&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$153&lt;&gt;0), D3:D$153)))</f>
@@ -8999,7 +9151,7 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B155" s="2">
         <f>IF(D154&lt;&gt;0, D154, IFERROR(INDEX(D3:D$154, MATCH(1, D3:D$154&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$154&lt;&gt;0), D3:D$154)))</f>
@@ -9047,7 +9199,7 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B156" s="2">
         <f>IF(D155&lt;&gt;0, D155, IFERROR(INDEX(D3:D$155, MATCH(1, D3:D$155&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$155&lt;&gt;0), D3:D$155)))</f>
@@ -9095,7 +9247,7 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B157" s="2">
         <f>IF(D156&lt;&gt;0, D156, IFERROR(INDEX(D3:D$156, MATCH(1, D3:D$156&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$156&lt;&gt;0), D3:D$156)))</f>
@@ -9143,7 +9295,7 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B158" s="2">
         <f>IF(D157&lt;&gt;0, D157, IFERROR(INDEX(D3:D$157, MATCH(1, D3:D$157&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$157&lt;&gt;0), D3:D$157)))</f>
@@ -9191,7 +9343,7 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B159" s="2">
         <f>IF(D158&lt;&gt;0, D158, IFERROR(INDEX(D3:D$158, MATCH(1, D3:D$158&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$158&lt;&gt;0), D3:D$158)))</f>
@@ -9239,7 +9391,7 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B160" s="2">
         <f>IF(D159&lt;&gt;0, D159, IFERROR(INDEX(D3:D$159, MATCH(1, D3:D$159&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$159&lt;&gt;0), D3:D$159)))</f>
@@ -9287,7 +9439,7 @@
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B161" s="2">
         <f>IF(D160&lt;&gt;0, D160, IFERROR(INDEX(D3:D$160, MATCH(1, D3:D$160&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$160&lt;&gt;0), D3:D$160)))</f>
@@ -9335,7 +9487,7 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B162" s="2">
         <f>IF(D161&lt;&gt;0, D161, IFERROR(INDEX(D3:D$161, MATCH(1, D3:D$161&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$161&lt;&gt;0), D3:D$161)))</f>
@@ -9383,7 +9535,7 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B163" s="2">
         <f>IF(D162&lt;&gt;0, D162, IFERROR(INDEX(D3:D$162, MATCH(1, D3:D$162&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$162&lt;&gt;0), D3:D$162)))</f>
@@ -9431,7 +9583,7 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B164" s="2">
         <f>IF(D163&lt;&gt;0, D163, IFERROR(INDEX(D3:D$163, MATCH(1, D3:D$163&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$163&lt;&gt;0), D3:D$163)))</f>
@@ -9479,7 +9631,7 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B165" s="2">
         <f>IF(D164&lt;&gt;0, D164, IFERROR(INDEX(D3:D$164, MATCH(1, D3:D$164&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$164&lt;&gt;0), D3:D$164)))</f>
@@ -9527,7 +9679,7 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B166" s="2">
         <f>IF(D165&lt;&gt;0, D165, IFERROR(INDEX(D3:D$165, MATCH(1, D3:D$165&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$165&lt;&gt;0), D3:D$165)))</f>
@@ -9575,7 +9727,7 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B167" s="2">
         <f>IF(D166&lt;&gt;0, D166, IFERROR(INDEX(D3:D$166, MATCH(1, D3:D$166&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$166&lt;&gt;0), D3:D$166)))</f>
@@ -9623,7 +9775,7 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B168" s="2">
         <f>IF(D167&lt;&gt;0, D167, IFERROR(INDEX(D3:D$167, MATCH(1, D3:D$167&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$167&lt;&gt;0), D3:D$167)))</f>
@@ -9671,7 +9823,7 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B169" s="2">
         <f>IF(D168&lt;&gt;0, D168, IFERROR(INDEX(D3:D$168, MATCH(1, D3:D$168&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$168&lt;&gt;0), D3:D$168)))</f>
@@ -9719,7 +9871,7 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B170" s="2">
         <f>IF(D169&lt;&gt;0, D169, IFERROR(INDEX(D3:D$169, MATCH(1, D3:D$169&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$169&lt;&gt;0), D3:D$169)))</f>
@@ -9767,7 +9919,7 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B171" s="2">
         <f>IF(D170&lt;&gt;0, D170, IFERROR(INDEX(D3:D$170, MATCH(1, D3:D$170&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$170&lt;&gt;0), D3:D$170)))</f>
@@ -9815,7 +9967,7 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B172" s="2">
         <f>IF(D171&lt;&gt;0, D171, IFERROR(INDEX(D3:D$171, MATCH(1, D3:D$171&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$171&lt;&gt;0), D3:D$171)))</f>
@@ -9863,7 +10015,7 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B173" s="2">
         <f>IF(D172&lt;&gt;0, D172, IFERROR(INDEX(D3:D$172, MATCH(1, D3:D$172&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$172&lt;&gt;0), D3:D$172)))</f>
@@ -9911,7 +10063,7 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B174" s="2">
         <f>IF(D173&lt;&gt;0, D173, IFERROR(INDEX(D3:D$173, MATCH(1, D3:D$173&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$173&lt;&gt;0), D3:D$173)))</f>
@@ -9959,7 +10111,7 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B175" s="2">
         <f>IF(D174&lt;&gt;0, D174, IFERROR(INDEX(D3:D$174, MATCH(1, D3:D$174&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$174&lt;&gt;0), D3:D$174)))</f>
@@ -10007,7 +10159,7 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B176" s="2">
         <f>IF(D175&lt;&gt;0, D175, IFERROR(INDEX(D3:D$175, MATCH(1, D3:D$175&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$175&lt;&gt;0), D3:D$175)))</f>
@@ -10055,7 +10207,7 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B177" s="2">
         <f>IF(D176&lt;&gt;0, D176, IFERROR(INDEX(D3:D$176, MATCH(1, D3:D$176&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$176&lt;&gt;0), D3:D$176)))</f>
@@ -10103,7 +10255,7 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B178" s="2">
         <f>IF(D177&lt;&gt;0, D177, IFERROR(INDEX(D3:D$177, MATCH(1, D3:D$177&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$177&lt;&gt;0), D3:D$177)))</f>
@@ -10151,7 +10303,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B179" s="2">
         <f>IF(D178&lt;&gt;0, D178, IFERROR(INDEX(D3:D$178, MATCH(1, D3:D$178&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$178&lt;&gt;0), D3:D$178)))</f>
@@ -10199,7 +10351,7 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B180" s="2">
         <f>IF(D179&lt;&gt;0, D179, IFERROR(INDEX(D3:D$179, MATCH(1, D3:D$179&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$179&lt;&gt;0), D3:D$179)))</f>
@@ -10247,7 +10399,7 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B181" s="2">
         <f>IF(D180&lt;&gt;0, D180, IFERROR(INDEX(D3:D$180, MATCH(1, D3:D$180&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$180&lt;&gt;0), D3:D$180)))</f>
@@ -10295,7 +10447,7 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B182" s="2">
         <f>IF(D181&lt;&gt;0, D181, IFERROR(INDEX(D3:D$181, MATCH(1, D3:D$181&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$181&lt;&gt;0), D3:D$181)))</f>
@@ -10343,7 +10495,7 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B183" s="2">
         <f>IF(D182&lt;&gt;0, D182, IFERROR(INDEX(D3:D$182, MATCH(1, D3:D$182&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$182&lt;&gt;0), D3:D$182)))</f>
@@ -10391,7 +10543,7 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B184" s="2">
         <f>IF(D183&lt;&gt;0, D183, IFERROR(INDEX(D3:D$183, MATCH(1, D3:D$183&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$183&lt;&gt;0), D3:D$183)))</f>
@@ -10439,7 +10591,7 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B185" s="2">
         <f>IF(D184&lt;&gt;0, D184, IFERROR(INDEX(D3:D$184, MATCH(1, D3:D$184&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$184&lt;&gt;0), D3:D$184)))</f>
@@ -10487,7 +10639,7 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B186" s="2">
         <f>IF(D185&lt;&gt;0, D185, IFERROR(INDEX(D3:D$185, MATCH(1, D3:D$185&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$185&lt;&gt;0), D3:D$185)))</f>
@@ -10535,7 +10687,7 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B187" s="2">
         <f>IF(D186&lt;&gt;0, D186, IFERROR(INDEX(D3:D$186, MATCH(1, D3:D$186&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$186&lt;&gt;0), D3:D$186)))</f>
@@ -10583,7 +10735,7 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B188" s="2">
         <f>IF(D187&lt;&gt;0, D187, IFERROR(INDEX(D3:D$187, MATCH(1, D3:D$187&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$187&lt;&gt;0), D3:D$187)))</f>
@@ -10631,7 +10783,7 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B189" s="2">
         <f>IF(D188&lt;&gt;0, D188, IFERROR(INDEX(D3:D$188, MATCH(1, D3:D$188&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$188&lt;&gt;0), D3:D$188)))</f>
@@ -10679,7 +10831,7 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B190" s="2">
         <f>IF(D189&lt;&gt;0, D189, IFERROR(INDEX(D3:D$189, MATCH(1, D3:D$189&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$189&lt;&gt;0), D3:D$189)))</f>
@@ -10727,7 +10879,7 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B191" s="2">
         <f>IF(D190&lt;&gt;0, D190, IFERROR(INDEX(D3:D$190, MATCH(1, D3:D$190&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$190&lt;&gt;0), D3:D$190)))</f>
@@ -10775,7 +10927,7 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B192" s="2">
         <f>IF(D191&lt;&gt;0, D191, IFERROR(INDEX(D3:D$191, MATCH(1, D3:D$191&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$191&lt;&gt;0), D3:D$191)))</f>
@@ -10823,7 +10975,7 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B193" s="2">
         <f>IF(D192&lt;&gt;0, D192, IFERROR(INDEX(D3:D$192, MATCH(1, D3:D$192&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$192&lt;&gt;0), D3:D$192)))</f>
@@ -10871,7 +11023,7 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B194" s="2">
         <f>IF(D193&lt;&gt;0, D193, IFERROR(INDEX(D3:D$193, MATCH(1, D3:D$193&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$193&lt;&gt;0), D3:D$193)))</f>
@@ -10919,7 +11071,7 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B195" s="2">
         <f>IF(D194&lt;&gt;0, D194, IFERROR(INDEX(D3:D$194, MATCH(1, D3:D$194&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$194&lt;&gt;0), D3:D$194)))</f>
@@ -10967,7 +11119,7 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B196" s="2">
         <f>IF(D195&lt;&gt;0, D195, IFERROR(INDEX(D3:D$195, MATCH(1, D3:D$195&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$195&lt;&gt;0), D3:D$195)))</f>
@@ -11015,7 +11167,7 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B197" s="2">
         <f>IF(D196&lt;&gt;0, D196, IFERROR(INDEX(D3:D$196, MATCH(1, D3:D$196&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$196&lt;&gt;0), D3:D$196)))</f>
@@ -11063,7 +11215,7 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B198" s="2">
         <f>IF(D197&lt;&gt;0, D197, IFERROR(INDEX(D3:D$197, MATCH(1, D3:D$197&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$197&lt;&gt;0), D3:D$197)))</f>
@@ -11111,7 +11263,7 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B199" s="2">
         <f>IF(D198&lt;&gt;0, D198, IFERROR(INDEX(D3:D$198, MATCH(1, D3:D$198&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$198&lt;&gt;0), D3:D$198)))</f>
@@ -11159,7 +11311,7 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B200" s="2">
         <f>IF(D199&lt;&gt;0, D199, IFERROR(INDEX(D3:D$199, MATCH(1, D3:D$199&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$199&lt;&gt;0), D3:D$199)))</f>
@@ -11207,7 +11359,7 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B201" s="2">
         <f>IF(D200&lt;&gt;0, D200, IFERROR(INDEX(D3:D$200, MATCH(1, D3:D$200&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$200&lt;&gt;0), D3:D$200)))</f>
@@ -11255,7 +11407,7 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B202" s="2">
         <f>IF(D201&lt;&gt;0, D201, IFERROR(INDEX(D3:D$201, MATCH(1, D3:D$201&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$201&lt;&gt;0), D3:D$201)))</f>
@@ -11303,7 +11455,7 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B203" s="2">
         <f>IF(D202&lt;&gt;0, D202, IFERROR(INDEX(D3:D$202, MATCH(1, D3:D$202&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$202&lt;&gt;0), D3:D$202)))</f>
@@ -11351,7 +11503,7 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B204" s="2">
         <f>IF(D203&lt;&gt;0, D203, IFERROR(INDEX(D3:D$203, MATCH(1, D3:D$203&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$203&lt;&gt;0), D3:D$203)))</f>
@@ -11399,7 +11551,7 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B205" s="2">
         <f>IF(D204&lt;&gt;0, D204, IFERROR(INDEX(D3:D$204, MATCH(1, D3:D$204&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$204&lt;&gt;0), D3:D$204)))</f>
@@ -11447,7 +11599,7 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B206" s="2">
         <f>IF(D205&lt;&gt;0, D205, IFERROR(INDEX(D3:D$205, MATCH(1, D3:D$205&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$205&lt;&gt;0), D3:D$205)))</f>
@@ -11495,7 +11647,7 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B207" s="2">
         <f>IF(D206&lt;&gt;0, D206, IFERROR(INDEX(D3:D$206, MATCH(1, D3:D$206&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$206&lt;&gt;0), D3:D$206)))</f>
@@ -11543,7 +11695,7 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B208" s="2">
         <f>IF(D207&lt;&gt;0, D207, IFERROR(INDEX(D3:D$207, MATCH(1, D3:D$207&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$207&lt;&gt;0), D3:D$207)))</f>
@@ -11591,7 +11743,7 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B209" s="2">
         <f>IF(D208&lt;&gt;0, D208, IFERROR(INDEX(D3:D$208, MATCH(1, D3:D$208&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$208&lt;&gt;0), D3:D$208)))</f>
@@ -11639,7 +11791,7 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B210" s="2">
         <f>IF(D209&lt;&gt;0, D209, IFERROR(INDEX(D3:D$209, MATCH(1, D3:D$209&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$209&lt;&gt;0), D3:D$209)))</f>
@@ -11687,7 +11839,7 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B211" s="2">
         <f>IF(D210&lt;&gt;0, D210, IFERROR(INDEX(D3:D$210, MATCH(1, D3:D$210&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$210&lt;&gt;0), D3:D$210)))</f>
@@ -11735,7 +11887,7 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B212" s="2">
         <f>IF(D211&lt;&gt;0, D211, IFERROR(INDEX(D3:D$211, MATCH(1, D3:D$211&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$211&lt;&gt;0), D3:D$211)))</f>
@@ -11783,7 +11935,7 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B213" s="2">
         <f>IF(D212&lt;&gt;0, D212, IFERROR(INDEX(D3:D$212, MATCH(1, D3:D$212&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$212&lt;&gt;0), D3:D$212)))</f>
@@ -11831,7 +11983,7 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B214" s="2">
         <f>IF(D213&lt;&gt;0, D213, IFERROR(INDEX(D3:D$213, MATCH(1, D3:D$213&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$213&lt;&gt;0), D3:D$213)))</f>
@@ -11879,7 +12031,7 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B215" s="2">
         <f>IF(D214&lt;&gt;0, D214, IFERROR(INDEX(D3:D$214, MATCH(1, D3:D$214&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$214&lt;&gt;0), D3:D$214)))</f>
@@ -11927,7 +12079,7 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B216" s="2">
         <f>IF(D215&lt;&gt;0, D215, IFERROR(INDEX(D3:D$215, MATCH(1, D3:D$215&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$215&lt;&gt;0), D3:D$215)))</f>
@@ -11936,55 +12088,55 @@
       <c r="C216" s="2"/>
       <c r="D216" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
-      <c r="G216" s="2" t="str">
+      <c r="G216" s="2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A216,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!E:E,Raw_data_01!A:A,$A216,Raw_data_01!D:D,1),"")</f>
-        <v/>
-      </c>
-      <c r="H216" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A216,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A216,Raw_data_01!D:D,1),"")</f>
-        <v/>
-      </c>
-      <c r="I216" s="2" t="str">
+        <v>220</v>
+      </c>
+      <c r="I216" s="2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A216,Raw_data_01!D:D,1)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A216,Raw_data_01!D:D,1),"")</f>
-        <v/>
-      </c>
-      <c r="J216" s="2" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="J216" s="2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A216,Raw_data_01!D:D,1)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A216,Raw_data_01!D:D,1),"")</f>
-        <v/>
+        <v>200</v>
       </c>
       <c r="L216">
         <v>2</v>
       </c>
-      <c r="M216" s="2" t="str">
+      <c r="M216" s="2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A216,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!F:F,Raw_data_01!A:A,$A216,Raw_data_01!D:D,2),"")</f>
-        <v/>
-      </c>
-      <c r="N216" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="N216" s="2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A216,Raw_data_01!D:D,2)&gt;0,AVERAGEIFS(Raw_data_01!H:H,Raw_data_01!A:A,$A216,Raw_data_01!D:D,2),"")</f>
-        <v/>
-      </c>
-      <c r="O216" s="2" t="str">
+        <v>2.5</v>
+      </c>
+      <c r="O216" s="2">
         <f>IF(COUNTIFS(Raw_data_01!A:A,$A216,Raw_data_01!D:D,2)&gt;0,SUMIFS(Raw_data_01!I:I,Raw_data_01!A:A,$A216,Raw_data_01!D:D,2),"")</f>
-        <v/>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B217" s="2">
         <f>IF(D216&lt;&gt;0, D216, IFERROR(INDEX(D3:D$216, MATCH(1, D3:D$216&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$216&lt;&gt;0), D3:D$216)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -12023,16 +12175,16 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B218" s="2">
         <f>IF(D217&lt;&gt;0, D217, IFERROR(INDEX(D3:D$217, MATCH(1, D3:D$217&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$217&lt;&gt;0), D3:D$217)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -12071,16 +12223,16 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B219" s="2">
         <f>IF(D218&lt;&gt;0, D218, IFERROR(INDEX(D3:D$218, MATCH(1, D3:D$218&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$218&lt;&gt;0), D3:D$218)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -12119,16 +12271,16 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B220" s="2">
         <f>IF(D219&lt;&gt;0, D219, IFERROR(INDEX(D3:D$219, MATCH(1, D3:D$219&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$219&lt;&gt;0), D3:D$219)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -12167,16 +12319,16 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B221" s="2">
         <f>IF(D220&lt;&gt;0, D220, IFERROR(INDEX(D3:D$220, MATCH(1, D3:D$220&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$220&lt;&gt;0), D3:D$220)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -12215,16 +12367,16 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B222" s="2">
         <f>IF(D221&lt;&gt;0, D221, IFERROR(INDEX(D3:D$221, MATCH(1, D3:D$221&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$221&lt;&gt;0), D3:D$221)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -12263,16 +12415,16 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B223" s="2">
         <f>IF(D222&lt;&gt;0, D222, IFERROR(INDEX(D3:D$222, MATCH(1, D3:D$222&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$222&lt;&gt;0), D3:D$222)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -12311,16 +12463,16 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B224" s="2">
         <f>IF(D223&lt;&gt;0, D223, IFERROR(INDEX(D3:D$223, MATCH(1, D3:D$223&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$223&lt;&gt;0), D3:D$223)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -12359,16 +12511,16 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B225" s="2">
         <f>IF(D224&lt;&gt;0, D224, IFERROR(INDEX(D3:D$224, MATCH(1, D3:D$224&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$224&lt;&gt;0), D3:D$224)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -12407,16 +12559,16 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B226" s="2">
         <f>IF(D225&lt;&gt;0, D225, IFERROR(INDEX(D3:D$225, MATCH(1, D3:D$225&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$225&lt;&gt;0), D3:D$225)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -12455,16 +12607,16 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B227" s="2">
         <f>IF(D226&lt;&gt;0, D226, IFERROR(INDEX(D3:D$226, MATCH(1, D3:D$226&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$226&lt;&gt;0), D3:D$226)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -12503,16 +12655,16 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B228" s="2">
         <f>IF(D227&lt;&gt;0, D227, IFERROR(INDEX(D3:D$227, MATCH(1, D3:D$227&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$227&lt;&gt;0), D3:D$227)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -12551,16 +12703,16 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B229" s="2">
         <f>IF(D228&lt;&gt;0, D228, IFERROR(INDEX(D3:D$228, MATCH(1, D3:D$228&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$228&lt;&gt;0), D3:D$228)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -12599,16 +12751,16 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B230" s="2">
         <f>IF(D229&lt;&gt;0, D229, IFERROR(INDEX(D3:D$229, MATCH(1, D3:D$229&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$229&lt;&gt;0), D3:D$229)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -12647,16 +12799,16 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B231" s="2">
         <f>IF(D230&lt;&gt;0, D230, IFERROR(INDEX(D3:D$230, MATCH(1, D3:D$230&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$230&lt;&gt;0), D3:D$230)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -12695,16 +12847,16 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B232" s="2">
         <f>IF(D231&lt;&gt;0, D231, IFERROR(INDEX(D3:D$231, MATCH(1, D3:D$231&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$231&lt;&gt;0), D3:D$231)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -12743,16 +12895,16 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B233" s="2">
         <f>IF(D232&lt;&gt;0, D232, IFERROR(INDEX(D3:D$232, MATCH(1, D3:D$232&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$232&lt;&gt;0), D3:D$232)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -12791,16 +12943,16 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B234" s="2">
         <f>IF(D233&lt;&gt;0, D233, IFERROR(INDEX(D3:D$233, MATCH(1, D3:D$233&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$233&lt;&gt;0), D3:D$233)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -12839,16 +12991,16 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B235" s="2">
         <f>IF(D234&lt;&gt;0, D234, IFERROR(INDEX(D3:D$234, MATCH(1, D3:D$234&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$234&lt;&gt;0), D3:D$234)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -12887,16 +13039,16 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B236" s="2">
         <f>IF(D235&lt;&gt;0, D235, IFERROR(INDEX(D3:D$235, MATCH(1, D3:D$235&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$235&lt;&gt;0), D3:D$235)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -12935,16 +13087,16 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B237" s="2">
         <f>IF(D236&lt;&gt;0, D236, IFERROR(INDEX(D3:D$236, MATCH(1, D3:D$236&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$236&lt;&gt;0), D3:D$236)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -12983,16 +13135,16 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B238" s="2">
         <f>IF(D237&lt;&gt;0, D237, IFERROR(INDEX(D3:D$237, MATCH(1, D3:D$237&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$237&lt;&gt;0), D3:D$237)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -13031,16 +13183,16 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B239" s="2">
         <f>IF(D238&lt;&gt;0, D238, IFERROR(INDEX(D3:D$238, MATCH(1, D3:D$238&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$238&lt;&gt;0), D3:D$238)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -13079,16 +13231,16 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B240" s="2">
         <f>IF(D239&lt;&gt;0, D239, IFERROR(INDEX(D3:D$239, MATCH(1, D3:D$239&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$239&lt;&gt;0), D3:D$239)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -13127,16 +13279,16 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B241" s="2">
         <f>IF(D240&lt;&gt;0, D240, IFERROR(INDEX(D3:D$240, MATCH(1, D3:D$240&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$240&lt;&gt;0), D3:D$240)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -13175,16 +13327,16 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B242" s="2">
         <f>IF(D241&lt;&gt;0, D241, IFERROR(INDEX(D3:D$241, MATCH(1, D3:D$241&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$241&lt;&gt;0), D3:D$241)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -13223,16 +13375,16 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B243" s="2">
         <f>IF(D242&lt;&gt;0, D242, IFERROR(INDEX(D3:D$242, MATCH(1, D3:D$242&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$242&lt;&gt;0), D3:D$242)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -13271,16 +13423,16 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B244" s="2">
         <f>IF(D243&lt;&gt;0, D243, IFERROR(INDEX(D3:D$243, MATCH(1, D3:D$243&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$243&lt;&gt;0), D3:D$243)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -13319,16 +13471,16 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B245" s="2">
         <f>IF(D244&lt;&gt;0, D244, IFERROR(INDEX(D3:D$244, MATCH(1, D3:D$244&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$244&lt;&gt;0), D3:D$244)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -13367,16 +13519,16 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B246" s="2">
         <f>IF(D245&lt;&gt;0, D245, IFERROR(INDEX(D3:D$245, MATCH(1, D3:D$245&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$245&lt;&gt;0), D3:D$245)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -13415,16 +13567,16 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B247" s="2">
         <f>IF(D246&lt;&gt;0, D246, IFERROR(INDEX(D3:D$246, MATCH(1, D3:D$246&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$246&lt;&gt;0), D3:D$246)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -13463,16 +13615,16 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B248" s="2">
         <f>IF(D247&lt;&gt;0, D247, IFERROR(INDEX(D3:D$247, MATCH(1, D3:D$247&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$247&lt;&gt;0), D3:D$247)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F248">
         <v>1</v>
@@ -13511,16 +13663,16 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B249" s="2">
         <f>IF(D248&lt;&gt;0, D248, IFERROR(INDEX(D3:D$248, MATCH(1, D3:D$248&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$248&lt;&gt;0), D3:D$248)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -13559,16 +13711,16 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B250" s="2">
         <f>IF(D249&lt;&gt;0, D249, IFERROR(INDEX(D3:D$249, MATCH(1, D3:D$249&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$249&lt;&gt;0), D3:D$249)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -13607,16 +13759,16 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B251" s="2">
         <f>IF(D250&lt;&gt;0, D250, IFERROR(INDEX(D3:D$250, MATCH(1, D3:D$250&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$250&lt;&gt;0), D3:D$250)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -13655,16 +13807,16 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B252" s="2">
         <f>IF(D251&lt;&gt;0, D251, IFERROR(INDEX(D3:D$251, MATCH(1, D3:D$251&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$251&lt;&gt;0), D3:D$251)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -13703,16 +13855,16 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B253" s="2">
         <f>IF(D252&lt;&gt;0, D252, IFERROR(INDEX(D3:D$252, MATCH(1, D3:D$252&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$252&lt;&gt;0), D3:D$252)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -13751,16 +13903,16 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B254" s="2">
         <f>IF(D253&lt;&gt;0, D253, IFERROR(INDEX(D3:D$253, MATCH(1, D3:D$253&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$253&lt;&gt;0), D3:D$253)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -13799,16 +13951,16 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B255" s="2">
         <f>IF(D254&lt;&gt;0, D254, IFERROR(INDEX(D3:D$254, MATCH(1, D3:D$254&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$254&lt;&gt;0), D3:D$254)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -13847,16 +13999,16 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B256" s="2">
         <f>IF(D255&lt;&gt;0, D255, IFERROR(INDEX(D3:D$255, MATCH(1, D3:D$255&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$255&lt;&gt;0), D3:D$255)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -13895,16 +14047,16 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B257" s="2">
         <f>IF(D256&lt;&gt;0, D256, IFERROR(INDEX(D3:D$256, MATCH(1, D3:D$256&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$256&lt;&gt;0), D3:D$256)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -13943,16 +14095,16 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B258" s="2">
         <f>IF(D257&lt;&gt;0, D257, IFERROR(INDEX(D3:D$257, MATCH(1, D3:D$257&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$257&lt;&gt;0), D3:D$257)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -13991,16 +14143,16 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B259" s="2">
         <f>IF(D258&lt;&gt;0, D258, IFERROR(INDEX(D3:D$258, MATCH(1, D3:D$258&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$258&lt;&gt;0), D3:D$258)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2">
         <f t="shared" ref="D259:D322" si="4">SUM(J259,O259,B259) - C259</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F259">
         <v>1</v>
@@ -14039,16 +14191,16 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B260" s="2">
         <f>IF(D259&lt;&gt;0, D259, IFERROR(INDEX(D3:D$259, MATCH(1, D3:D$259&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$259&lt;&gt;0), D3:D$259)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -14087,16 +14239,16 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B261" s="2">
         <f>IF(D260&lt;&gt;0, D260, IFERROR(INDEX(D3:D$260, MATCH(1, D3:D$260&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$260&lt;&gt;0), D3:D$260)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -14135,16 +14287,16 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B262" s="2">
         <f>IF(D261&lt;&gt;0, D261, IFERROR(INDEX(D3:D$261, MATCH(1, D3:D$261&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$261&lt;&gt;0), D3:D$261)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -14183,16 +14335,16 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B263" s="2">
         <f>IF(D262&lt;&gt;0, D262, IFERROR(INDEX(D3:D$262, MATCH(1, D3:D$262&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$262&lt;&gt;0), D3:D$262)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -14231,16 +14383,16 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B264" s="2">
         <f>IF(D263&lt;&gt;0, D263, IFERROR(INDEX(D3:D$263, MATCH(1, D3:D$263&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$263&lt;&gt;0), D3:D$263)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -14279,16 +14431,16 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B265" s="2">
         <f>IF(D264&lt;&gt;0, D264, IFERROR(INDEX(D3:D$264, MATCH(1, D3:D$264&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$264&lt;&gt;0), D3:D$264)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -14327,16 +14479,16 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B266" s="2">
         <f>IF(D265&lt;&gt;0, D265, IFERROR(INDEX(D3:D$265, MATCH(1, D3:D$265&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$265&lt;&gt;0), D3:D$265)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -14375,16 +14527,16 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B267" s="2">
         <f>IF(D266&lt;&gt;0, D266, IFERROR(INDEX(D3:D$266, MATCH(1, D3:D$266&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$266&lt;&gt;0), D3:D$266)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -14423,16 +14575,16 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B268" s="2">
         <f>IF(D267&lt;&gt;0, D267, IFERROR(INDEX(D3:D$267, MATCH(1, D3:D$267&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$267&lt;&gt;0), D3:D$267)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -14471,16 +14623,16 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B269" s="2">
         <f>IF(D268&lt;&gt;0, D268, IFERROR(INDEX(D3:D$268, MATCH(1, D3:D$268&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$268&lt;&gt;0), D3:D$268)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F269">
         <v>1</v>
@@ -14519,16 +14671,16 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B270" s="2">
         <f>IF(D269&lt;&gt;0, D269, IFERROR(INDEX(D3:D$269, MATCH(1, D3:D$269&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$269&lt;&gt;0), D3:D$269)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -14567,16 +14719,16 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B271" s="2">
         <f>IF(D270&lt;&gt;0, D270, IFERROR(INDEX(D3:D$270, MATCH(1, D3:D$270&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$270&lt;&gt;0), D3:D$270)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -14615,16 +14767,16 @@
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B272" s="2">
         <f>IF(D271&lt;&gt;0, D271, IFERROR(INDEX(D3:D$271, MATCH(1, D3:D$271&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$271&lt;&gt;0), D3:D$271)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -14663,16 +14815,16 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B273" s="2">
         <f>IF(D272&lt;&gt;0, D272, IFERROR(INDEX(D3:D$272, MATCH(1, D3:D$272&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$272&lt;&gt;0), D3:D$272)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -14711,16 +14863,16 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B274" s="2">
         <f>IF(D273&lt;&gt;0, D273, IFERROR(INDEX(D3:D$273, MATCH(1, D3:D$273&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$273&lt;&gt;0), D3:D$273)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -14759,16 +14911,16 @@
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B275" s="2">
         <f>IF(D274&lt;&gt;0, D274, IFERROR(INDEX(D3:D$274, MATCH(1, D3:D$274&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$274&lt;&gt;0), D3:D$274)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -14807,16 +14959,16 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B276" s="2">
         <f>IF(D275&lt;&gt;0, D275, IFERROR(INDEX(D3:D$275, MATCH(1, D3:D$275&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$275&lt;&gt;0), D3:D$275)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -14855,16 +15007,16 @@
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B277" s="2">
         <f>IF(D276&lt;&gt;0, D276, IFERROR(INDEX(D3:D$276, MATCH(1, D3:D$276&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$276&lt;&gt;0), D3:D$276)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -14903,16 +15055,16 @@
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B278" s="2">
         <f>IF(D277&lt;&gt;0, D277, IFERROR(INDEX(D3:D$277, MATCH(1, D3:D$277&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$277&lt;&gt;0), D3:D$277)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -14951,16 +15103,16 @@
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B279" s="2">
         <f>IF(D278&lt;&gt;0, D278, IFERROR(INDEX(D3:D$278, MATCH(1, D3:D$278&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$278&lt;&gt;0), D3:D$278)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -14999,16 +15151,16 @@
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B280" s="2">
         <f>IF(D279&lt;&gt;0, D279, IFERROR(INDEX(D3:D$279, MATCH(1, D3:D$279&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$279&lt;&gt;0), D3:D$279)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -15047,16 +15199,16 @@
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B281" s="2">
         <f>IF(D280&lt;&gt;0, D280, IFERROR(INDEX(D3:D$280, MATCH(1, D3:D$280&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$280&lt;&gt;0), D3:D$280)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -15095,16 +15247,16 @@
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B282" s="2">
         <f>IF(D281&lt;&gt;0, D281, IFERROR(INDEX(D3:D$281, MATCH(1, D3:D$281&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$281&lt;&gt;0), D3:D$281)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -15143,16 +15295,16 @@
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B283" s="2">
         <f>IF(D282&lt;&gt;0, D282, IFERROR(INDEX(D3:D$282, MATCH(1, D3:D$282&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$282&lt;&gt;0), D3:D$282)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -15191,16 +15343,16 @@
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B284" s="2">
         <f>IF(D283&lt;&gt;0, D283, IFERROR(INDEX(D3:D$283, MATCH(1, D3:D$283&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$283&lt;&gt;0), D3:D$283)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -15239,16 +15391,16 @@
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B285" s="2">
         <f>IF(D284&lt;&gt;0, D284, IFERROR(INDEX(D3:D$284, MATCH(1, D3:D$284&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$284&lt;&gt;0), D3:D$284)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -15287,16 +15439,16 @@
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B286" s="2">
         <f>IF(D285&lt;&gt;0, D285, IFERROR(INDEX(D3:D$285, MATCH(1, D3:D$285&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$285&lt;&gt;0), D3:D$285)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -15335,16 +15487,16 @@
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B287" s="2">
         <f>IF(D286&lt;&gt;0, D286, IFERROR(INDEX(D3:D$286, MATCH(1, D3:D$286&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$286&lt;&gt;0), D3:D$286)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -15383,16 +15535,16 @@
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B288" s="2">
         <f>IF(D287&lt;&gt;0, D287, IFERROR(INDEX(D3:D$287, MATCH(1, D3:D$287&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$287&lt;&gt;0), D3:D$287)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -15431,16 +15583,16 @@
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B289" s="2">
         <f>IF(D288&lt;&gt;0, D288, IFERROR(INDEX(D3:D$288, MATCH(1, D3:D$288&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$288&lt;&gt;0), D3:D$288)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -15479,16 +15631,16 @@
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B290" s="2">
         <f>IF(D289&lt;&gt;0, D289, IFERROR(INDEX(D3:D$289, MATCH(1, D3:D$289&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$289&lt;&gt;0), D3:D$289)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -15527,16 +15679,16 @@
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B291" s="2">
         <f>IF(D290&lt;&gt;0, D290, IFERROR(INDEX(D3:D$290, MATCH(1, D3:D$290&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$290&lt;&gt;0), D3:D$290)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -15575,16 +15727,16 @@
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B292" s="2">
         <f>IF(D291&lt;&gt;0, D291, IFERROR(INDEX(D3:D$291, MATCH(1, D3:D$291&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$291&lt;&gt;0), D3:D$291)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -15623,16 +15775,16 @@
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B293" s="2">
         <f>IF(D292&lt;&gt;0, D292, IFERROR(INDEX(D3:D$292, MATCH(1, D3:D$292&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$292&lt;&gt;0), D3:D$292)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -15671,16 +15823,16 @@
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B294" s="2">
         <f>IF(D293&lt;&gt;0, D293, IFERROR(INDEX(D3:D$293, MATCH(1, D3:D$293&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$293&lt;&gt;0), D3:D$293)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -15719,16 +15871,16 @@
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B295" s="2">
         <f>IF(D294&lt;&gt;0, D294, IFERROR(INDEX(D3:D$294, MATCH(1, D3:D$294&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$294&lt;&gt;0), D3:D$294)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -15767,16 +15919,16 @@
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B296" s="2">
         <f>IF(D295&lt;&gt;0, D295, IFERROR(INDEX(D3:D$295, MATCH(1, D3:D$295&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$295&lt;&gt;0), D3:D$295)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -15815,16 +15967,16 @@
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B297" s="2">
         <f>IF(D296&lt;&gt;0, D296, IFERROR(INDEX(D3:D$296, MATCH(1, D3:D$296&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$296&lt;&gt;0), D3:D$296)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -15863,16 +16015,16 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B298" s="2">
         <f>IF(D297&lt;&gt;0, D297, IFERROR(INDEX(D3:D$297, MATCH(1, D3:D$297&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$297&lt;&gt;0), D3:D$297)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F298">
         <v>1</v>
@@ -15911,16 +16063,16 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B299" s="2">
         <f>IF(D298&lt;&gt;0, D298, IFERROR(INDEX(D3:D$298, MATCH(1, D3:D$298&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$298&lt;&gt;0), D3:D$298)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -15959,16 +16111,16 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B300" s="2">
         <f>IF(D299&lt;&gt;0, D299, IFERROR(INDEX(D3:D$299, MATCH(1, D3:D$299&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$299&lt;&gt;0), D3:D$299)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -16007,16 +16159,16 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B301" s="2">
         <f>IF(D300&lt;&gt;0, D300, IFERROR(INDEX(D3:D$300, MATCH(1, D3:D$300&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$300&lt;&gt;0), D3:D$300)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -16055,16 +16207,16 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B302" s="2">
         <f>IF(D301&lt;&gt;0, D301, IFERROR(INDEX(D3:D$301, MATCH(1, D3:D$301&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$301&lt;&gt;0), D3:D$301)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -16103,16 +16255,16 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B303" s="2">
         <f>IF(D302&lt;&gt;0, D302, IFERROR(INDEX(D3:D$302, MATCH(1, D3:D$302&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$302&lt;&gt;0), D3:D$302)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F303">
         <v>1</v>
@@ -16151,16 +16303,16 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B304" s="2">
         <f>IF(D303&lt;&gt;0, D303, IFERROR(INDEX(D3:D$303, MATCH(1, D3:D$303&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$303&lt;&gt;0), D3:D$303)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -16199,16 +16351,16 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B305" s="2">
         <f>IF(D304&lt;&gt;0, D304, IFERROR(INDEX(D3:D$304, MATCH(1, D3:D$304&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$304&lt;&gt;0), D3:D$304)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -16247,16 +16399,16 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B306" s="2">
         <f>IF(D305&lt;&gt;0, D305, IFERROR(INDEX(D3:D$305, MATCH(1, D3:D$305&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$305&lt;&gt;0), D3:D$305)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -16295,16 +16447,16 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B307" s="2">
         <f>IF(D306&lt;&gt;0, D306, IFERROR(INDEX(D3:D$306, MATCH(1, D3:D$306&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$306&lt;&gt;0), D3:D$306)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F307">
         <v>1</v>
@@ -16343,16 +16495,16 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B308" s="2">
         <f>IF(D307&lt;&gt;0, D307, IFERROR(INDEX(D3:D$307, MATCH(1, D3:D$307&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$307&lt;&gt;0), D3:D$307)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F308">
         <v>1</v>
@@ -16391,16 +16543,16 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B309" s="2">
         <f>IF(D308&lt;&gt;0, D308, IFERROR(INDEX(D3:D$308, MATCH(1, D3:D$308&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$308&lt;&gt;0), D3:D$308)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F309">
         <v>1</v>
@@ -16439,16 +16591,16 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B310" s="2">
         <f>IF(D309&lt;&gt;0, D309, IFERROR(INDEX(D3:D$309, MATCH(1, D3:D$309&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$309&lt;&gt;0), D3:D$309)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -16487,16 +16639,16 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B311" s="2">
         <f>IF(D310&lt;&gt;0, D310, IFERROR(INDEX(D3:D$310, MATCH(1, D3:D$310&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$310&lt;&gt;0), D3:D$310)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F311">
         <v>1</v>
@@ -16535,16 +16687,16 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B312" s="2">
         <f>IF(D311&lt;&gt;0, D311, IFERROR(INDEX(D3:D$311, MATCH(1, D3:D$311&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$311&lt;&gt;0), D3:D$311)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -16583,16 +16735,16 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B313" s="2">
         <f>IF(D312&lt;&gt;0, D312, IFERROR(INDEX(D3:D$312, MATCH(1, D3:D$312&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$312&lt;&gt;0), D3:D$312)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F313">
         <v>1</v>
@@ -16631,16 +16783,16 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B314" s="2">
         <f>IF(D313&lt;&gt;0, D313, IFERROR(INDEX(D3:D$313, MATCH(1, D3:D$313&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$313&lt;&gt;0), D3:D$313)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -16679,16 +16831,16 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B315" s="2">
         <f>IF(D314&lt;&gt;0, D314, IFERROR(INDEX(D3:D$314, MATCH(1, D3:D$314&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$314&lt;&gt;0), D3:D$314)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -16727,16 +16879,16 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B316" s="2">
         <f>IF(D315&lt;&gt;0, D315, IFERROR(INDEX(D3:D$315, MATCH(1, D3:D$315&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$315&lt;&gt;0), D3:D$315)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -16775,16 +16927,16 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B317" s="2">
         <f>IF(D316&lt;&gt;0, D316, IFERROR(INDEX(D3:D$316, MATCH(1, D3:D$316&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$316&lt;&gt;0), D3:D$316)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -16823,16 +16975,16 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B318" s="2">
         <f>IF(D317&lt;&gt;0, D317, IFERROR(INDEX(D3:D$317, MATCH(1, D3:D$317&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$317&lt;&gt;0), D3:D$317)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -16871,16 +17023,16 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B319" s="2">
         <f>IF(D318&lt;&gt;0, D318, IFERROR(INDEX(D3:D$318, MATCH(1, D3:D$318&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$318&lt;&gt;0), D3:D$318)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F319">
         <v>1</v>
@@ -16919,16 +17071,16 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B320" s="2">
         <f>IF(D319&lt;&gt;0, D319, IFERROR(INDEX(D3:D$319, MATCH(1, D3:D$319&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$319&lt;&gt;0), D3:D$319)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -16967,16 +17119,16 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B321" s="2">
         <f>IF(D320&lt;&gt;0, D320, IFERROR(INDEX(D3:D$320, MATCH(1, D3:D$320&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$320&lt;&gt;0), D3:D$320)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -17015,16 +17167,16 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B322" s="2">
         <f>IF(D321&lt;&gt;0, D321, IFERROR(INDEX(D3:D$321, MATCH(1, D3:D$321&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$321&lt;&gt;0), D3:D$321)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -17063,16 +17215,16 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B323" s="2">
         <f>IF(D322&lt;&gt;0, D322, IFERROR(INDEX(D3:D$322, MATCH(1, D3:D$322&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$322&lt;&gt;0), D3:D$322)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2">
         <f t="shared" ref="D323:D386" si="5">SUM(J323,O323,B323) - C323</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -17111,16 +17263,16 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B324" s="2">
         <f>IF(D323&lt;&gt;0, D323, IFERROR(INDEX(D3:D$323, MATCH(1, D3:D$323&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$323&lt;&gt;0), D3:D$323)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -17159,16 +17311,16 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B325" s="2">
         <f>IF(D324&lt;&gt;0, D324, IFERROR(INDEX(D3:D$324, MATCH(1, D3:D$324&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$324&lt;&gt;0), D3:D$324)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F325">
         <v>1</v>
@@ -17207,16 +17359,16 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B326" s="2">
         <f>IF(D325&lt;&gt;0, D325, IFERROR(INDEX(D3:D$325, MATCH(1, D3:D$325&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$325&lt;&gt;0), D3:D$325)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F326">
         <v>1</v>
@@ -17255,16 +17407,16 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B327" s="2">
         <f>IF(D326&lt;&gt;0, D326, IFERROR(INDEX(D3:D$326, MATCH(1, D3:D$326&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$326&lt;&gt;0), D3:D$326)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F327">
         <v>1</v>
@@ -17303,16 +17455,16 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B328" s="2">
         <f>IF(D327&lt;&gt;0, D327, IFERROR(INDEX(D3:D$327, MATCH(1, D3:D$327&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$327&lt;&gt;0), D3:D$327)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F328">
         <v>1</v>
@@ -17351,16 +17503,16 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B329" s="2">
         <f>IF(D328&lt;&gt;0, D328, IFERROR(INDEX(D3:D$328, MATCH(1, D3:D$328&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$328&lt;&gt;0), D3:D$328)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F329">
         <v>1</v>
@@ -17399,16 +17551,16 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B330" s="2">
         <f>IF(D329&lt;&gt;0, D329, IFERROR(INDEX(D3:D$329, MATCH(1, D3:D$329&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$329&lt;&gt;0), D3:D$329)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F330">
         <v>1</v>
@@ -17447,16 +17599,16 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B331" s="2">
         <f>IF(D330&lt;&gt;0, D330, IFERROR(INDEX(D3:D$330, MATCH(1, D3:D$330&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$330&lt;&gt;0), D3:D$330)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F331">
         <v>1</v>
@@ -17495,16 +17647,16 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B332" s="2">
         <f>IF(D331&lt;&gt;0, D331, IFERROR(INDEX(D3:D$331, MATCH(1, D3:D$331&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$331&lt;&gt;0), D3:D$331)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F332">
         <v>1</v>
@@ -17543,16 +17695,16 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B333" s="2">
         <f>IF(D332&lt;&gt;0, D332, IFERROR(INDEX(D3:D$332, MATCH(1, D3:D$332&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$332&lt;&gt;0), D3:D$332)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -17591,16 +17743,16 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B334" s="2">
         <f>IF(D333&lt;&gt;0, D333, IFERROR(INDEX(D3:D$333, MATCH(1, D3:D$333&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$333&lt;&gt;0), D3:D$333)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F334">
         <v>1</v>
@@ -17639,16 +17791,16 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B335" s="2">
         <f>IF(D334&lt;&gt;0, D334, IFERROR(INDEX(D3:D$334, MATCH(1, D3:D$334&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$334&lt;&gt;0), D3:D$334)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -17687,16 +17839,16 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B336" s="2">
         <f>IF(D335&lt;&gt;0, D335, IFERROR(INDEX(D3:D$335, MATCH(1, D3:D$335&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$335&lt;&gt;0), D3:D$335)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -17735,16 +17887,16 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B337" s="2">
         <f>IF(D336&lt;&gt;0, D336, IFERROR(INDEX(D3:D$336, MATCH(1, D3:D$336&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$336&lt;&gt;0), D3:D$336)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F337">
         <v>1</v>
@@ -17783,16 +17935,16 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B338" s="2">
         <f>IF(D337&lt;&gt;0, D337, IFERROR(INDEX(D3:D$337, MATCH(1, D3:D$337&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$337&lt;&gt;0), D3:D$337)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F338">
         <v>1</v>
@@ -17831,16 +17983,16 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B339" s="2">
         <f>IF(D338&lt;&gt;0, D338, IFERROR(INDEX(D3:D$338, MATCH(1, D3:D$338&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$338&lt;&gt;0), D3:D$338)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F339">
         <v>1</v>
@@ -17879,16 +18031,16 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B340" s="2">
         <f>IF(D339&lt;&gt;0, D339, IFERROR(INDEX(D3:D$339, MATCH(1, D3:D$339&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$339&lt;&gt;0), D3:D$339)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F340">
         <v>1</v>
@@ -17927,16 +18079,16 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B341" s="2">
         <f>IF(D340&lt;&gt;0, D340, IFERROR(INDEX(D3:D$340, MATCH(1, D3:D$340&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$340&lt;&gt;0), D3:D$340)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F341">
         <v>1</v>
@@ -17975,16 +18127,16 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B342" s="2">
         <f>IF(D341&lt;&gt;0, D341, IFERROR(INDEX(D3:D$341, MATCH(1, D3:D$341&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$341&lt;&gt;0), D3:D$341)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -18023,16 +18175,16 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B343" s="2">
         <f>IF(D342&lt;&gt;0, D342, IFERROR(INDEX(D3:D$342, MATCH(1, D3:D$342&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$342&lt;&gt;0), D3:D$342)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F343">
         <v>1</v>
@@ -18071,16 +18223,16 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B344" s="2">
         <f>IF(D343&lt;&gt;0, D343, IFERROR(INDEX(D3:D$343, MATCH(1, D3:D$343&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$343&lt;&gt;0), D3:D$343)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F344">
         <v>1</v>
@@ -18119,16 +18271,16 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B345" s="2">
         <f>IF(D344&lt;&gt;0, D344, IFERROR(INDEX(D3:D$344, MATCH(1, D3:D$344&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$344&lt;&gt;0), D3:D$344)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F345">
         <v>1</v>
@@ -18167,16 +18319,16 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B346" s="2">
         <f>IF(D345&lt;&gt;0, D345, IFERROR(INDEX(D3:D$345, MATCH(1, D3:D$345&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$345&lt;&gt;0), D3:D$345)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -18215,16 +18367,16 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B347" s="2">
         <f>IF(D346&lt;&gt;0, D346, IFERROR(INDEX(D3:D$346, MATCH(1, D3:D$346&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$346&lt;&gt;0), D3:D$346)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -18263,16 +18415,16 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B348" s="2">
         <f>IF(D347&lt;&gt;0, D347, IFERROR(INDEX(D3:D$347, MATCH(1, D3:D$347&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$347&lt;&gt;0), D3:D$347)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -18311,16 +18463,16 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B349" s="2">
         <f>IF(D348&lt;&gt;0, D348, IFERROR(INDEX(D3:D$348, MATCH(1, D3:D$348&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$348&lt;&gt;0), D3:D$348)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -18359,16 +18511,16 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B350" s="2">
         <f>IF(D349&lt;&gt;0, D349, IFERROR(INDEX(D3:D$349, MATCH(1, D3:D$349&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$349&lt;&gt;0), D3:D$349)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -18407,16 +18559,16 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B351" s="2">
         <f>IF(D350&lt;&gt;0, D350, IFERROR(INDEX(D3:D$350, MATCH(1, D3:D$350&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$350&lt;&gt;0), D3:D$350)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F351">
         <v>1</v>
@@ -18455,16 +18607,16 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B352" s="2">
         <f>IF(D351&lt;&gt;0, D351, IFERROR(INDEX(D3:D$351, MATCH(1, D3:D$351&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$351&lt;&gt;0), D3:D$351)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F352">
         <v>1</v>
@@ -18503,16 +18655,16 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B353" s="2">
         <f>IF(D352&lt;&gt;0, D352, IFERROR(INDEX(D3:D$352, MATCH(1, D3:D$352&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$352&lt;&gt;0), D3:D$352)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F353">
         <v>1</v>
@@ -18551,16 +18703,16 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B354" s="2">
         <f>IF(D353&lt;&gt;0, D353, IFERROR(INDEX(D3:D$353, MATCH(1, D3:D$353&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$353&lt;&gt;0), D3:D$353)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F354">
         <v>1</v>
@@ -18599,16 +18751,16 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B355" s="2">
         <f>IF(D354&lt;&gt;0, D354, IFERROR(INDEX(D3:D$354, MATCH(1, D3:D$354&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$354&lt;&gt;0), D3:D$354)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F355">
         <v>1</v>
@@ -18647,16 +18799,16 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B356" s="2">
         <f>IF(D355&lt;&gt;0, D355, IFERROR(INDEX(D3:D$355, MATCH(1, D3:D$355&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$355&lt;&gt;0), D3:D$355)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F356">
         <v>1</v>
@@ -18695,16 +18847,16 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B357" s="2">
         <f>IF(D356&lt;&gt;0, D356, IFERROR(INDEX(D3:D$356, MATCH(1, D3:D$356&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$356&lt;&gt;0), D3:D$356)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F357">
         <v>1</v>
@@ -18743,16 +18895,16 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B358" s="2">
         <f>IF(D357&lt;&gt;0, D357, IFERROR(INDEX(D3:D$357, MATCH(1, D3:D$357&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$357&lt;&gt;0), D3:D$357)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F358">
         <v>1</v>
@@ -18791,16 +18943,16 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B359" s="2">
         <f>IF(D358&lt;&gt;0, D358, IFERROR(INDEX(D3:D$358, MATCH(1, D3:D$358&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$358&lt;&gt;0), D3:D$358)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -18839,16 +18991,16 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B360" s="2">
         <f>IF(D359&lt;&gt;0, D359, IFERROR(INDEX(D3:D$359, MATCH(1, D3:D$359&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$359&lt;&gt;0), D3:D$359)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -18887,16 +19039,16 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B361" s="2">
         <f>IF(D360&lt;&gt;0, D360, IFERROR(INDEX(D3:D$360, MATCH(1, D3:D$360&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$360&lt;&gt;0), D3:D$360)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -18935,16 +19087,16 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B362" s="2">
         <f>IF(D361&lt;&gt;0, D361, IFERROR(INDEX(D3:D$361, MATCH(1, D3:D$361&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$361&lt;&gt;0), D3:D$361)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -18983,16 +19135,16 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B363" s="2">
         <f>IF(D362&lt;&gt;0, D362, IFERROR(INDEX(D3:D$362, MATCH(1, D3:D$362&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$362&lt;&gt;0), D3:D$362)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -19031,16 +19183,16 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B364" s="2">
         <f>IF(D363&lt;&gt;0, D363, IFERROR(INDEX(D3:D$363, MATCH(1, D3:D$363&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$363&lt;&gt;0), D3:D$363)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F364">
         <v>1</v>
@@ -19079,16 +19231,16 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B365" s="2">
         <f>IF(D364&lt;&gt;0, D364, IFERROR(INDEX(D3:D$364, MATCH(1, D3:D$364&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$364&lt;&gt;0), D3:D$364)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -19127,16 +19279,16 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B366" s="2">
         <f>IF(D365&lt;&gt;0, D365, IFERROR(INDEX(D3:D$365, MATCH(1, D3:D$365&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$365&lt;&gt;0), D3:D$365)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -19175,16 +19327,16 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B367" s="2">
         <f>IF(D366&lt;&gt;0, D366, IFERROR(INDEX(D3:D$366, MATCH(1, D3:D$366&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$366&lt;&gt;0), D3:D$366)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F367">
         <v>1</v>
@@ -19223,16 +19375,16 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B368" s="2">
         <f>IF(D367&lt;&gt;0, D367, IFERROR(INDEX(D3:D$367, MATCH(1, D3:D$367&lt;&gt;0, 0)), LOOKUP(2, 1/(D3:D$367&lt;&gt;0), D3:D$367)))</f>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="F368">
         <v>1</v>
